--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90090847015381</t>
+    <t xml:space="preserve">8.90091037750244</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551681518555</t>
+    <t xml:space="preserve">8.95551586151123</t>
   </si>
   <si>
     <t xml:space="preserve">8.81509876251221</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347839355469</t>
+    <t xml:space="preserve">8.64347648620605</t>
   </si>
   <si>
     <t xml:space="preserve">8.58106994628906</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">8.47965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19102096557617</t>
+    <t xml:space="preserve">8.19102191925049</t>
   </si>
   <si>
     <t xml:space="preserve">7.82437562942505</t>
@@ -80,94 +80,94 @@
     <t xml:space="preserve">7.91018676757812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04280281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05840587615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400798797607</t>
+    <t xml:space="preserve">8.04280376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05840396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400608062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521030426025</t>
+    <t xml:space="preserve">7.91798686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521125793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.02719974517822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8009729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8399772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
+    <t xml:space="preserve">7.95699214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6293511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005657196045</t>
   </si>
   <si>
     <t xml:space="preserve">7.87898206710815</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12861251831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285083770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26903057098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37824535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3470401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
+    <t xml:space="preserve">8.12861347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26902961730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37824249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34704113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002624511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30023574829102</t>
+    <t xml:space="preserve">8.3002347946167</t>
   </si>
   <si>
     <t xml:space="preserve">8.35484313964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30803394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442413330078</t>
+    <t xml:space="preserve">8.30803680419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.24562740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19882202148438</t>
+    <t xml:space="preserve">8.19882297515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.25342845916748</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">8.13641452789307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12081146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358898162842</t>
+    <t xml:space="preserve">8.12081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01939868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93359041213989</t>
   </si>
   <si>
     <t xml:space="preserve">7.80877351760864</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">7.94139051437378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86337995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379848480225</t>
+    <t xml:space="preserve">7.86337947845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379753112793</t>
   </si>
   <si>
     <t xml:space="preserve">8.05060386657715</t>
@@ -212,103 +212,103 @@
     <t xml:space="preserve">7.76196813583374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99599695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537225723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586771011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686338424683</t>
+    <t xml:space="preserve">7.9959979057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537082672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586866378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686386108398</t>
   </si>
   <si>
     <t xml:space="preserve">7.79707193374634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7736701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615747451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055536270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594797134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56694412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557321548462</t>
+    <t xml:space="preserve">7.77366876602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615652084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6605544090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594892501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56694316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557464599609</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081027984619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05340480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06160640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1682186126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00009727478027</t>
+    <t xml:space="preserve">8.0534029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06160449981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11901187896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16821765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00009822845459</t>
   </si>
   <si>
     <t xml:space="preserve">7.8811821937561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98779487609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097127914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954336166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19639730453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996662139893</t>
+    <t xml:space="preserve">7.98779726028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197546005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097032546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954431533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1963963508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631704330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996614456177</t>
   </si>
   <si>
     <t xml:space="preserve">7.54494047164917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65975475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904222488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515281677246</t>
+    <t xml:space="preserve">7.65975522994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
   </si>
   <si>
     <t xml:space="preserve">7.76226758956909</t>
@@ -317,22 +317,22 @@
     <t xml:space="preserve">7.65565490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66795682907104</t>
+    <t xml:space="preserve">7.66795587539673</t>
   </si>
   <si>
     <t xml:space="preserve">7.41372394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47113037109375</t>
+    <t xml:space="preserve">7.47113180160522</t>
   </si>
   <si>
     <t xml:space="preserve">7.38092041015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43012666702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38502025604248</t>
+    <t xml:space="preserve">7.43012809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502073287964</t>
   </si>
   <si>
     <t xml:space="preserve">7.48753309249878</t>
@@ -341,109 +341,109 @@
     <t xml:space="preserve">7.46293115615845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50393486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933197021484</t>
+    <t xml:space="preserve">7.50393629074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
   </si>
   <si>
     <t xml:space="preserve">7.46703100204468</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50803661346436</t>
+    <t xml:space="preserve">7.50803518295288</t>
   </si>
   <si>
     <t xml:space="preserve">7.49163389205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60234880447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652795791626</t>
+    <t xml:space="preserve">7.60234785079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652843475342</t>
   </si>
   <si>
     <t xml:space="preserve">7.52853870391846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40962409973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3891224861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4588303565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56134366989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594560623169</t>
+    <t xml:space="preserve">7.4096245765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45882940292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5613431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594655990601</t>
   </si>
   <si>
     <t xml:space="preserve">7.57774448394775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732313156128</t>
+    <t xml:space="preserve">7.52443933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3973217010498</t>
   </si>
   <si>
     <t xml:space="preserve">7.37271928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27840709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21690082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20459890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37682056427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782474517822</t>
+    <t xml:space="preserve">7.27840805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21689939498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20459794998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37681913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422603607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782522201538</t>
   </si>
   <si>
     <t xml:space="preserve">7.43832731246948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33171319961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890871047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041736602783</t>
+    <t xml:space="preserve">7.33171463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041831970215</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761383056641</t>
@@ -455,76 +455,76 @@
     <t xml:space="preserve">7.30711126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33581447601318</t>
+    <t xml:space="preserve">7.33581399917603</t>
   </si>
   <si>
     <t xml:space="preserve">7.31121158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45473098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869779586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279907226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150228500366</t>
+    <t xml:space="preserve">7.45472955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589426040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1840968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229745864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21280002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150276184082</t>
   </si>
   <si>
     <t xml:space="preserve">7.42192554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74176549911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3650426864624</t>
+    <t xml:space="preserve">7.74176502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36504364013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48805904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52086353302002</t>
+    <t xml:space="preserve">8.48805809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52086448669434</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44705295562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65207862854004</t>
+    <t xml:space="preserve">8.44705390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65207958221436</t>
   </si>
   <si>
     <t xml:space="preserve">8.88990879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89810943603516</t>
+    <t xml:space="preserve">8.89811134338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.75869178771973</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58647060394287</t>
+    <t xml:space="preserve">8.73408985137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58646965026855</t>
   </si>
   <si>
     <t xml:space="preserve">8.50446033477783</t>
@@ -554,10 +554,10 @@
     <t xml:space="preserve">8.62747573852539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54546451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107349395752</t>
+    <t xml:space="preserve">8.54546546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61107444763184</t>
   </si>
   <si>
     <t xml:space="preserve">8.57826995849609</t>
@@ -566,10 +566,10 @@
     <t xml:space="preserve">8.67668151855469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63567733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69308376312256</t>
+    <t xml:space="preserve">8.63567638397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69308280944824</t>
   </si>
   <si>
     <t xml:space="preserve">8.66028022766113</t>
@@ -578,43 +578,43 @@
     <t xml:space="preserve">8.66847991943359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79149627685547</t>
+    <t xml:space="preserve">8.79149723052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.96371746063232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0867338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59519577026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66900539398193</t>
+    <t xml:space="preserve">9.08673286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">9.62800025939941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52138614654541</t>
+    <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61159896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66080284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7346134185791</t>
+    <t xml:space="preserve">9.61159801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66080474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461437225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.92323780059814</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">10.1282625198364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.620325088501</t>
+    <t xml:space="preserve">10.6203231811523</t>
   </si>
   <si>
     <t xml:space="preserve">10.8909578323364</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">10.8663549423218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6941337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6613302230835</t>
+    <t xml:space="preserve">10.6941347122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6613283157349</t>
   </si>
   <si>
     <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4809083938599</t>
+    <t xml:space="preserve">10.4809064865112</t>
   </si>
   <si>
     <t xml:space="preserve">10.407096862793</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">10.4973087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793180465698</t>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481019973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">10.513710975647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645042419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055093765259</t>
+    <t xml:space="preserve">10.5875205993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645051956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055112838745</t>
   </si>
   <si>
     <t xml:space="preserve">10.4152994155884</t>
@@ -680,58 +680,58 @@
     <t xml:space="preserve">10.9073610305786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253507614136</t>
+    <t xml:space="preserve">10.8253488540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533908843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858154296875</t>
+    <t xml:space="preserve">11.1533918380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8581533432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549774169922</t>
+    <t xml:space="preserve">11.0549764633179</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4404249191284</t>
+    <t xml:space="preserve">11.4404268264771</t>
   </si>
   <si>
     <t xml:space="preserve">11.3092098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7848691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3835430145264</t>
+    <t xml:space="preserve">11.7848701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3835439682007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229616165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.145715713501</t>
+    <t xml:space="preserve">12.1457147598267</t>
   </si>
   <si>
     <t xml:space="preserve">12.1375131607056</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7443885803223</t>
+    <t xml:space="preserve">12.7443895339966</t>
   </si>
   <si>
     <t xml:space="preserve">13.121636390686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0314254760742</t>
+    <t xml:space="preserve">13.0314245223999</t>
   </si>
   <si>
     <t xml:space="preserve">13.170841217041</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">13.1470003128052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499116897583</t>
+    <t xml:space="preserve">13.349910736084</t>
   </si>
   <si>
     <t xml:space="preserve">13.3160924911499</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">13.3752746582031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4429130554199</t>
+    <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
     <t xml:space="preserve">13.3076372146606</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385459899902</t>
+    <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9717998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3099880218506</t>
+    <t xml:space="preserve">11.9718008041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3099889755249</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423505783081</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.605899810791</t>
+    <t xml:space="preserve">12.2677154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059017181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.4706268310547</t>
@@ -803,85 +803,85 @@
     <t xml:space="preserve">12.5128993988037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5551748275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4452629089355</t>
+    <t xml:space="preserve">12.5551738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4452619552612</t>
   </si>
   <si>
     <t xml:space="preserve">12.343807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210748672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0056200027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2592611312866</t>
+    <t xml:space="preserve">12.1747140884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0056190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394382476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.563627243042</t>
+    <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
     <t xml:space="preserve">12.639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5467195510864</t>
+    <t xml:space="preserve">12.5467185974121</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073583602905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143569946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6819934844971</t>
+    <t xml:space="preserve">12.6143560409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6819944381714</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650838851929</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228094100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327222824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510856628418</t>
+    <t xml:space="preserve">12.6228122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327213287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510866165161</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356327056885</t>
+    <t xml:space="preserve">12.9356317520142</t>
   </si>
   <si>
     <t xml:space="preserve">13.4513683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2822732925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006385803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5190048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583679199219</t>
+    <t xml:space="preserve">13.2822751998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598226547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583669662476</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315464019775</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">13.2738199234009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4936408996582</t>
+    <t xml:space="preserve">13.4936399459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.7810983657837</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">14.2207412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420198440552</t>
+    <t xml:space="preserve">14.4743814468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420188903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.2883787155151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3560171127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729267120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673809051514</t>
+    <t xml:space="preserve">14.3560152053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729257583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673837661743</t>
   </si>
   <si>
     <t xml:space="preserve">14.5758380889893</t>
@@ -923,22 +923,22 @@
     <t xml:space="preserve">14.7364768981934</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111129760742</t>
+    <t xml:space="preserve">14.7111110687256</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872037887573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.353666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.920129776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0638561248779</t>
+    <t xml:space="preserve">15.3536672592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201288223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0638580322266</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443187713623</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4865894317627</t>
+    <t xml:space="preserve">16.1145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4865913391113</t>
   </si>
   <si>
     <t xml:space="preserve">16.1230392456055</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6303215026855</t>
+    <t xml:space="preserve">16.6303195953369</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008674621582</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7125148773193</t>
+    <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
     <t xml:space="preserve">18.7862586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3381614685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608947753906</t>
+    <t xml:space="preserve">18.3381633758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608966827393</t>
   </si>
   <si>
     <t xml:space="preserve">18.8369884490967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0145359039307</t>
+    <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
     <t xml:space="preserve">19.1329021453857</t>
@@ -1001,31 +1001,31 @@
     <t xml:space="preserve">18.8792591094971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8708076477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171646118164</t>
+    <t xml:space="preserve">18.8708057403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
     <t xml:space="preserve">17.9407920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.754789352417</t>
+    <t xml:space="preserve">17.7547912597656</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970638275146</t>
+    <t xml:space="preserve">17.6702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.797061920166</t>
   </si>
   <si>
     <t xml:space="preserve">17.5349674224854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.746337890625</t>
+    <t xml:space="preserve">17.7463340759277</t>
   </si>
   <si>
     <t xml:space="preserve">17.5265140533447</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">17.6533355712891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2475109100342</t>
+    <t xml:space="preserve">17.2475128173828</t>
   </si>
   <si>
     <t xml:space="preserve">17.5772438049316</t>
@@ -1049,40 +1049,40 @@
     <t xml:space="preserve">17.6279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434246063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5856971740723</t>
+    <t xml:space="preserve">17.5434226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5856952667236</t>
   </si>
   <si>
     <t xml:space="preserve">17.8055171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7378787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8393383026123</t>
+    <t xml:space="preserve">17.7378807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372653961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710884094238</t>
+    <t xml:space="preserve">18.9384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372692108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710865020752</t>
   </si>
   <si>
     <t xml:space="preserve">19.4457225799561</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">19.3189029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0229892730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442649841309</t>
+    <t xml:space="preserve">19.0229873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
     <t xml:space="preserve">18.929988861084</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
-    <t xml:space="preserve">19.183629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.22825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5687885284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1206893920898</t>
+    <t xml:space="preserve">19.1836261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2282543182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1206932067871</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361423492432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0023250579834</t>
+    <t xml:space="preserve">16.7402324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002326965332</t>
   </si>
   <si>
     <t xml:space="preserve">16.917781829834</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">16.83323097229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8585948944092</t>
+    <t xml:space="preserve">16.8585987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093246459961</t>
@@ -1142,133 +1142,133 @@
     <t xml:space="preserve">17.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5711402893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8247776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938735961914</t>
+    <t xml:space="preserve">16.9515991210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.571138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9938716888428</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5373191833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7764005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565786361694</t>
+    <t xml:space="preserve">16.5373210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763996124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565767288208</t>
   </si>
   <si>
     <t xml:space="preserve">15.6918516159058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4551248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3898344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720296859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933101654053</t>
+    <t xml:space="preserve">15.4551219940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3898363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720315933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.793309211731</t>
   </si>
   <si>
     <t xml:space="preserve">15.9962205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1484050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.522759437561</t>
+    <t xml:space="preserve">16.1484031677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5227613449097</t>
   </si>
   <si>
     <t xml:space="preserve">15.1676635742188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9647541046143</t>
+    <t xml:space="preserve">14.9647512435913</t>
   </si>
   <si>
     <t xml:space="preserve">14.7618389129639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603851318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6096563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574708938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8802051544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2183933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029384613037</t>
+    <t xml:space="preserve">14.6603841781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.609655380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589284896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8802061080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2183923721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198509216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.302939414978</t>
   </si>
   <si>
     <t xml:space="preserve">15.8102188110352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3874855041504</t>
+    <t xml:space="preserve">15.3874864578247</t>
   </si>
   <si>
     <t xml:space="preserve">15.4382123947144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5396680831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705759048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8294773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903968811035</t>
+    <t xml:space="preserve">15.5396690368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8294792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903978347778</t>
   </si>
   <si>
     <t xml:space="preserve">15.0492973327637</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058517456055</t>
+    <t xml:space="preserve">15.5058488845825</t>
   </si>
   <si>
     <t xml:space="preserve">15.488941192627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.607307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.6073055267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411266326904</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.351318359375</t>
+    <t xml:space="preserve">16.3513164520264</t>
   </si>
   <si>
     <t xml:space="preserve">16.435863494873</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">16.2329521179199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5542278289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3005886077881</t>
+    <t xml:space="preserve">16.5542316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3005905151367</t>
   </si>
   <si>
     <t xml:space="preserve">16.3344078063965</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
+    <t xml:space="preserve">16.2836799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745204925537</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">15.5825576782227</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6173801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437213897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263092041016</t>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">16.1397018432617</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874671936035</t>
+    <t xml:space="preserve">16.1919345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1048812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874652862549</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7740774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044343948364</t>
+    <t xml:space="preserve">15.774076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696109771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044324874878</t>
   </si>
   <si>
     <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8513097763062</t>
+    <t xml:space="preserve">14.8513088226318</t>
   </si>
   <si>
     <t xml:space="preserve">14.8164882659912</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">14.9731855392456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1298789978027</t>
+    <t xml:space="preserve">15.1298799514771</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285440444946</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155982971191</t>
+    <t xml:space="preserve">14.0155973434448</t>
   </si>
   <si>
     <t xml:space="preserve">13.7544374465942</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">14.0678281784058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9633655548096</t>
+    <t xml:space="preserve">13.9633665084839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7468461990356</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245244979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459543228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504188537598</t>
+    <t xml:space="preserve">14.2245254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504179000854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1026496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8414888381958</t>
+    <t xml:space="preserve">13.8414897918701</t>
   </si>
   <si>
     <t xml:space="preserve">13.6673831939697</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">13.7370262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240795135498</t>
+    <t xml:space="preserve">13.8240804672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3539924621582</t>
@@ -1418,37 +1418,37 @@
     <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062213897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3365793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9709558486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6227426528931</t>
+    <t xml:space="preserve">13.4062223434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3365802764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9709548950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6227416992188</t>
   </si>
   <si>
     <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5356893539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4486351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0133695602417</t>
+    <t xml:space="preserve">12.5356903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.448637008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
     <t xml:space="preserve">11.6303329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6651544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187250137329</t>
+    <t xml:space="preserve">11.6651554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.6325626373291</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">13.8066682815552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2669372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8763113021851</t>
+    <t xml:space="preserve">13.2669382095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8763103485107</t>
   </si>
   <si>
     <t xml:space="preserve">13.4932765960693</t>
@@ -1472,46 +1472,46 @@
     <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1276521682739</t>
+    <t xml:space="preserve">13.1276531219482</t>
   </si>
   <si>
     <t xml:space="preserve">13.3714008331299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2745304107666</t>
+    <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0655994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1874752044678</t>
+    <t xml:space="preserve">12.065601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1874761581421</t>
   </si>
   <si>
     <t xml:space="preserve">12.431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3615827560425</t>
+    <t xml:space="preserve">12.3615818023682</t>
   </si>
   <si>
     <t xml:space="preserve">12.1178331375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865842819214</t>
+    <t xml:space="preserve">11.5084581375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736375808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865852355957</t>
   </si>
   <si>
     <t xml:space="preserve">11.1776561737061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3517627716064</t>
+    <t xml:space="preserve">11.3517637252808</t>
   </si>
   <si>
     <t xml:space="preserve">11.403995513916</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">12.849081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9089050292969</t>
+    <t xml:space="preserve">11.9089040756226</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955114364624</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3964033126831</t>
+    <t xml:space="preserve">12.3964023590088</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571182250977</t>
@@ -1559,37 +1559,37 @@
     <t xml:space="preserve">12.7272062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4834566116333</t>
+    <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
     <t xml:space="preserve">12.6053314208984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6575651168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.866491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8142604827881</t>
+    <t xml:space="preserve">12.6575632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8664932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8142595291138</t>
   </si>
   <si>
     <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.092830657959</t>
+    <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147054672241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3888130187988</t>
+    <t xml:space="preserve">13.3888120651245</t>
   </si>
   <si>
     <t xml:space="preserve">13.4584550857544</t>
   </si>
   <si>
-    <t xml:space="preserve">13.475866317749</t>
+    <t xml:space="preserve">13.4758653640747</t>
   </si>
   <si>
     <t xml:space="preserve">13.719614982605</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3191709518433</t>
+    <t xml:space="preserve">13.3191690444946</t>
   </si>
   <si>
     <t xml:space="preserve">13.1450634002686</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5106887817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455102920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9111328125</t>
+    <t xml:space="preserve">13.510687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9111318588257</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548833847046</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">14.3638105392456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0330085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807748794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1722936630249</t>
+    <t xml:space="preserve">14.0330076217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807758331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2593450546265</t>
@@ -1652,19 +1652,19 @@
     <t xml:space="preserve">13.8937225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5629186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.52809715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6847944259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883670806885</t>
+    <t xml:space="preserve">13.5629196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5280981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.68479347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151504516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883661270142</t>
   </si>
   <si>
     <t xml:space="preserve">13.2470941543579</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">12.8489561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7041788101196</t>
+    <t xml:space="preserve">12.7041797637939</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -1691,25 +1691,25 @@
     <t xml:space="preserve">12.8127613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118293762207</t>
+    <t xml:space="preserve">12.5955963134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.011830329895</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9394426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6136932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232095718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">12.9394416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603353500366</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385116577148</t>
+    <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8851499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1204128265381</t>
+    <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.0299282073975</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.3737735748291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4823551177979</t>
+    <t xml:space="preserve">13.4823541641235</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">13.4461612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2832889556885</t>
+    <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
     <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.301383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3918695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6317920684814</t>
+    <t xml:space="preserve">13.3013849258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3918704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6317911148071</t>
   </si>
   <si>
     <t xml:space="preserve">12.5051107406616</t>
@@ -1766,31 +1766,31 @@
     <t xml:space="preserve">12.1793632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7222776412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.215558052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1250715255737</t>
+    <t xml:space="preserve">12.7222766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2155570983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1250705718994</t>
   </si>
   <si>
     <t xml:space="preserve">12.4689159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5413055419922</t>
+    <t xml:space="preserve">12.5413045883179</t>
   </si>
   <si>
     <t xml:space="preserve">12.5774993896484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2517518997192</t>
+    <t xml:space="preserve">12.2517509460449</t>
   </si>
   <si>
     <t xml:space="preserve">12.3060426712036</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4146251678467</t>
+    <t xml:space="preserve">12.414626121521</t>
   </si>
   <si>
     <t xml:space="preserve">12.2879457473755</t>
@@ -1799,40 +1799,40 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336549758911</t>
+    <t xml:space="preserve">12.2336559295654</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1069746017456</t>
+    <t xml:space="preserve">12.1069755554199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7631301879883</t>
+    <t xml:space="preserve">11.763129234314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8536157608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7450313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7993230819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8355178833008</t>
+    <t xml:space="preserve">11.8536148071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7450323104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7993240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8355169296265</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3649921417236</t>
+    <t xml:space="preserve">11.3649930953979</t>
   </si>
   <si>
     <t xml:space="preserve">11.473575592041</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">11.3107023239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2926025390625</t>
+    <t xml:space="preserve">11.2926034927368</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011869430542</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">11.2564096450806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211477279663</t>
+    <t xml:space="preserve">11.0392446517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.021146774292</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
@@ -1862,19 +1862,19 @@
     <t xml:space="preserve">10.9306621551514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8582725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0754384994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021188735962</t>
+    <t xml:space="preserve">10.8582735061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754375457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021179199219</t>
   </si>
   <si>
     <t xml:space="preserve">11.6002550125122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5459632873535</t>
+    <t xml:space="preserve">11.5459642410278</t>
   </si>
   <si>
     <t xml:space="preserve">11.4916725158691</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2202157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383127212524</t>
+    <t xml:space="preserve">11.22021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383136749268</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830890655518</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5278673171997</t>
+    <t xml:space="preserve">11.5278663635254</t>
   </si>
   <si>
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508209228516</t>
+    <t xml:space="preserve">12.4508199691772</t>
   </si>
   <si>
     <t xml:space="preserve">12.3965282440186</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698497772217</t>
+    <t xml:space="preserve">12.2698488235474</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">12.4327220916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9802942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441013336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0345869064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9260034561157</t>
+    <t xml:space="preserve">11.9802951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441003799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0345859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.92600440979</t>
   </si>
   <si>
     <t xml:space="preserve">12.1431694030762</t>
@@ -1952,16 +1952,16 @@
     <t xml:space="preserve">11.962197303772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0526819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297292709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86293029785156</t>
+    <t xml:space="preserve">12.0526828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800981521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86293125152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.39240646362305</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55088996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78615188598633</t>
+    <t xml:space="preserve">8.50564670562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55088901519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78615283966064</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758995056152</t>
@@ -1991,31 +1991,31 @@
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48755073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376419067383</t>
+    <t xml:space="preserve">8.65042591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48754978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376514434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.61423015594482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74091053009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83139610290527</t>
+    <t xml:space="preserve">8.74090957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83139514923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.97617244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03046321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01236724853516</t>
+    <t xml:space="preserve">9.03046417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01236629486084</t>
   </si>
   <si>
     <t xml:space="preserve">9.13904666900635</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">9.32001781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09380340576172</t>
+    <t xml:space="preserve">9.09380435943604</t>
   </si>
   <si>
     <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428897857666</t>
+    <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.54623126983643</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098991394043</t>
+    <t xml:space="preserve">9.50098896026611</t>
   </si>
   <si>
     <t xml:space="preserve">9.59147548675537</t>
@@ -2051,25 +2051,25 @@
     <t xml:space="preserve">10.0439033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9534158706665</t>
+    <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
     <t xml:space="preserve">9.681960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22953224182129</t>
+    <t xml:space="preserve">9.22953128814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84949207305908</t>
+    <t xml:space="preserve">8.8494930267334</t>
   </si>
   <si>
     <t xml:space="preserve">8.93997764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90378475189209</t>
+    <t xml:space="preserve">8.90378570556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.72720336914062</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701177597046</t>
+    <t xml:space="preserve">10.2701168060303</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.3606023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2105,25 +2105,25 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817451477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1796312332153</t>
+    <t xml:space="preserve">9.90817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.179630279541</t>
   </si>
   <si>
     <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773014068604</t>
+    <t xml:space="preserve">10.6773023605347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9487581253052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559446334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4464282989502</t>
+    <t xml:space="preserve">11.3559436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
     <t xml:space="preserve">11.174973487854</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">10.722544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6274013519287</t>
+    <t xml:space="preserve">11.6274003982544</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5322561264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801054000854</t>
+    <t xml:space="preserve">12.4870157241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5322570800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9904432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">11.9233713150024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6450042724609</t>
+    <t xml:space="preserve">11.6450052261353</t>
   </si>
   <si>
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6914005279541</t>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4594278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3202428817749</t>
+    <t xml:space="preserve">11.4594268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3202438354492</t>
   </si>
   <si>
     <t xml:space="preserve">11.5986108779907</t>
@@ -2225,16 +2225,16 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647274017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0111217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4750652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822755813599</t>
+    <t xml:space="preserve">13.9647264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0111207962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822765350342</t>
   </si>
   <si>
     <t xml:space="preserve">14.5678548812866</t>
@@ -2246,28 +2246,28 @@
     <t xml:space="preserve">13.5935697555542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
   </si>
   <si>
     <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9183320999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">13.9183311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503047943115</t>
+    <t xml:space="preserve">14.1503038406372</t>
   </si>
   <si>
     <t xml:space="preserve">14.428671836853</t>
@@ -2282,34 +2282,34 @@
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813220977783</t>
+    <t xml:space="preserve">15.681321144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.3101644515991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854040145874</t>
+    <t xml:space="preserve">14.9854049682617</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781927108765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470027923584</t>
+    <t xml:space="preserve">15.7741107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.4236335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.701997756958</t>
+    <t xml:space="preserve">16.7019996643066</t>
   </si>
   <si>
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834941864014</t>
+    <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
     <t xml:space="preserve">17.8618602752686</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.4649868011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2333,37 +2333,37 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361434936523</t>
+    <t xml:space="preserve">18.8361415863037</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3000869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217208862305</t>
+    <t xml:space="preserve">19.300085067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217189788818</t>
   </si>
   <si>
     <t xml:space="preserve">18.2794094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9289302825928</t>
+    <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">19.7640285491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9702892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
@@ -2387,31 +2387,31 @@
     <t xml:space="preserve">20.5991325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0630760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9496097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6919193267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.320764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4135551452637</t>
+    <t xml:space="preserve">21.0630779266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9496078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6919212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3207664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693309783936</t>
+    <t xml:space="preserve">21.5270214080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693328857422</t>
   </si>
   <si>
     <t xml:space="preserve">22.1765422821045</t>
@@ -2423,31 +2423,31 @@
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.9188537597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2735,9 +2735,6 @@
     <t xml:space="preserve">24.9053230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198398590088</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8372573852539</t>
   </si>
   <si>
@@ -3462,6 +3459,9 @@
   </si>
   <si>
     <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.75</t>
   </si>
 </sst>
 </file>
@@ -46383,7 +46383,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46409,7 +46409,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46435,7 +46435,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46461,7 +46461,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46487,7 +46487,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46513,7 +46513,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46539,7 +46539,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46565,7 +46565,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46591,7 +46591,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46617,7 +46617,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46643,7 +46643,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46669,7 +46669,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46695,7 +46695,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46721,7 +46721,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46747,7 +46747,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46773,7 +46773,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46799,7 +46799,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46825,7 +46825,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46851,7 +46851,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46877,7 +46877,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46903,7 +46903,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46929,7 +46929,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46955,7 +46955,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46981,7 +46981,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47007,7 +47007,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47033,7 +47033,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47059,7 +47059,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47085,7 +47085,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47111,7 +47111,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47137,7 +47137,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47163,7 +47163,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47189,7 +47189,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47215,7 +47215,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47241,7 +47241,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47267,7 +47267,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47293,7 +47293,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47319,7 +47319,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47345,7 +47345,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47371,7 +47371,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47397,7 +47397,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47423,7 +47423,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47449,7 +47449,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47475,7 +47475,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47501,7 +47501,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47527,7 +47527,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47553,7 +47553,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47579,7 +47579,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47605,7 +47605,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47631,7 +47631,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47657,7 +47657,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47683,7 +47683,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47709,7 +47709,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47735,7 +47735,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47761,7 +47761,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47787,7 +47787,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47813,7 +47813,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47839,7 +47839,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47865,7 +47865,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47891,7 +47891,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47917,7 +47917,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47943,7 +47943,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47969,7 +47969,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47995,7 +47995,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48021,7 +48021,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48047,7 +48047,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48073,7 +48073,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48099,7 +48099,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48125,7 +48125,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48151,7 +48151,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48177,7 +48177,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48203,7 +48203,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48229,7 +48229,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48255,7 +48255,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48281,7 +48281,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48307,7 +48307,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48333,7 +48333,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48359,7 +48359,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48385,7 +48385,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48411,7 +48411,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48437,7 +48437,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48463,7 +48463,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48489,7 +48489,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48515,7 +48515,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48541,7 +48541,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48567,7 +48567,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48593,7 +48593,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48619,7 +48619,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48645,7 +48645,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48671,7 +48671,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48697,7 +48697,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48723,7 +48723,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48749,7 +48749,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48775,7 +48775,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48801,7 +48801,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48827,7 +48827,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48853,7 +48853,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48879,7 +48879,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48905,7 +48905,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48931,7 +48931,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48957,7 +48957,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48983,7 +48983,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49009,7 +49009,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49035,7 +49035,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49061,7 +49061,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49087,7 +49087,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49113,7 +49113,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49139,7 +49139,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49165,7 +49165,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49191,7 +49191,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49217,7 +49217,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49243,7 +49243,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49269,7 +49269,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49295,7 +49295,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49321,7 +49321,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49347,7 +49347,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49373,7 +49373,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49399,7 +49399,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49425,7 +49425,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49451,7 +49451,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49477,7 +49477,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49503,7 +49503,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49529,7 +49529,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49555,7 +49555,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49581,7 +49581,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49607,7 +49607,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49633,7 +49633,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49659,7 +49659,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49685,7 +49685,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49711,7 +49711,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49737,7 +49737,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49763,7 +49763,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49789,7 +49789,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49815,7 +49815,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49841,7 +49841,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49867,7 +49867,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49893,7 +49893,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49919,7 +49919,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49945,7 +49945,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49971,7 +49971,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49997,7 +49997,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50023,7 +50023,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50049,7 +50049,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50075,7 +50075,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50101,7 +50101,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50127,7 +50127,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50153,7 +50153,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50179,7 +50179,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50205,7 +50205,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50231,7 +50231,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50257,7 +50257,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50283,7 +50283,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50309,7 +50309,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50335,7 +50335,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50361,7 +50361,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50387,7 +50387,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50413,7 +50413,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50439,7 +50439,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50465,7 +50465,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50491,7 +50491,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50517,7 +50517,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50543,7 +50543,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50569,7 +50569,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50595,7 +50595,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50621,7 +50621,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50647,7 +50647,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50673,7 +50673,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50699,7 +50699,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50725,7 +50725,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50751,7 +50751,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50777,7 +50777,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50803,7 +50803,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50829,7 +50829,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50855,7 +50855,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50881,7 +50881,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50907,7 +50907,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50933,7 +50933,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50959,7 +50959,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50985,7 +50985,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51011,7 +51011,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51037,7 +51037,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51063,7 +51063,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51089,7 +51089,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51115,7 +51115,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51141,7 +51141,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51167,7 +51167,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51193,7 +51193,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51219,7 +51219,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51245,7 +51245,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51271,7 +51271,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51297,7 +51297,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51323,7 +51323,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51349,7 +51349,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51375,7 +51375,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51401,7 +51401,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51427,7 +51427,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51453,7 +51453,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51479,7 +51479,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51505,7 +51505,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51531,7 +51531,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51557,7 +51557,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51583,7 +51583,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51609,7 +51609,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51635,7 +51635,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51661,7 +51661,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51687,7 +51687,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51713,7 +51713,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51739,7 +51739,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51765,7 +51765,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51791,7 +51791,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51817,7 +51817,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51843,7 +51843,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51869,7 +51869,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51895,7 +51895,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51921,7 +51921,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51947,7 +51947,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51973,7 +51973,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51999,7 +51999,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52025,7 +52025,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52051,7 +52051,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52077,7 +52077,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52103,7 +52103,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52129,7 +52129,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52155,7 +52155,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52181,7 +52181,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52207,7 +52207,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52233,7 +52233,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52259,7 +52259,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52285,7 +52285,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52311,7 +52311,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52337,7 +52337,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52363,7 +52363,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52389,7 +52389,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52415,7 +52415,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52441,7 +52441,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52467,7 +52467,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52493,7 +52493,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52519,7 +52519,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52545,7 +52545,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52571,7 +52571,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52597,7 +52597,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52623,7 +52623,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52649,7 +52649,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52675,7 +52675,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52701,7 +52701,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52727,7 +52727,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52753,7 +52753,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52779,7 +52779,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52805,7 +52805,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52831,7 +52831,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52857,7 +52857,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52883,7 +52883,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52909,7 +52909,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52935,7 +52935,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52961,7 +52961,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52987,7 +52987,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53013,7 +53013,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53039,7 +53039,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53065,7 +53065,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53091,7 +53091,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53117,7 +53117,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53143,7 +53143,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53169,7 +53169,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53195,7 +53195,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53221,7 +53221,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53247,7 +53247,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53273,7 +53273,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53299,7 +53299,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53325,7 +53325,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53351,7 +53351,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53377,7 +53377,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53403,7 +53403,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53429,7 +53429,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53455,7 +53455,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53481,7 +53481,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53507,7 +53507,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53533,7 +53533,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53559,7 +53559,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53585,7 +53585,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53611,7 +53611,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53637,7 +53637,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53663,7 +53663,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53689,7 +53689,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53715,7 +53715,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53741,7 +53741,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53767,7 +53767,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53793,7 +53793,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53819,7 +53819,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53845,7 +53845,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53871,7 +53871,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53897,7 +53897,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53923,7 +53923,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53949,7 +53949,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53975,7 +53975,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54001,7 +54001,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54027,7 +54027,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54053,7 +54053,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54079,7 +54079,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54105,7 +54105,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54131,7 +54131,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54157,7 +54157,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54183,7 +54183,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54209,7 +54209,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54235,7 +54235,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54261,7 +54261,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54287,7 +54287,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54313,7 +54313,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54339,7 +54339,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54365,7 +54365,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54391,7 +54391,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54417,7 +54417,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54443,7 +54443,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54469,7 +54469,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54495,7 +54495,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54521,7 +54521,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54547,7 +54547,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54573,7 +54573,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54599,7 +54599,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54625,7 +54625,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54651,7 +54651,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54677,7 +54677,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54703,7 +54703,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54729,7 +54729,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54755,7 +54755,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54781,7 +54781,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54807,7 +54807,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54833,7 +54833,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54859,7 +54859,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54885,7 +54885,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54911,7 +54911,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54937,7 +54937,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54963,7 +54963,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54989,7 +54989,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55015,7 +55015,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55041,7 +55041,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55067,7 +55067,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55093,7 +55093,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55119,7 +55119,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55145,7 +55145,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55171,7 +55171,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55197,7 +55197,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55223,7 +55223,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55249,7 +55249,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55275,7 +55275,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55301,7 +55301,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55327,7 +55327,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55353,7 +55353,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55379,7 +55379,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55405,7 +55405,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55431,7 +55431,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55457,7 +55457,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55483,7 +55483,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55509,7 +55509,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55535,7 +55535,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55561,7 +55561,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55587,7 +55587,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55613,7 +55613,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55639,7 +55639,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55665,7 +55665,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55691,7 +55691,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55717,7 +55717,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55743,7 +55743,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55769,7 +55769,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55795,7 +55795,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55821,7 +55821,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55847,7 +55847,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55873,7 +55873,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55899,7 +55899,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55925,7 +55925,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55951,7 +55951,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55977,7 +55977,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56003,7 +56003,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56029,7 +56029,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56055,7 +56055,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56081,7 +56081,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56107,7 +56107,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56133,7 +56133,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56159,7 +56159,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56185,7 +56185,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56211,7 +56211,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56237,7 +56237,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56263,7 +56263,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56289,7 +56289,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56315,7 +56315,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56341,7 +56341,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56367,7 +56367,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56393,7 +56393,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56419,7 +56419,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56445,7 +56445,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56471,7 +56471,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56497,7 +56497,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56523,7 +56523,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56549,7 +56549,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56575,7 +56575,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56601,7 +56601,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56627,7 +56627,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56653,7 +56653,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56679,7 +56679,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56705,7 +56705,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56731,7 +56731,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56757,7 +56757,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56783,7 +56783,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56809,7 +56809,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56835,7 +56835,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56861,7 +56861,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56887,7 +56887,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56913,7 +56913,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56939,7 +56939,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56965,7 +56965,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56991,7 +56991,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57017,7 +57017,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57043,7 +57043,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57069,7 +57069,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57095,7 +57095,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57121,7 +57121,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57147,7 +57147,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57173,7 +57173,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57199,7 +57199,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57225,7 +57225,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57251,7 +57251,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57277,7 +57277,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57303,7 +57303,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57329,7 +57329,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57355,7 +57355,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57381,7 +57381,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57407,7 +57407,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57433,7 +57433,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57459,7 +57459,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57485,7 +57485,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57511,7 +57511,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57537,7 +57537,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57563,7 +57563,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57589,7 +57589,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57615,7 +57615,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57641,7 +57641,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57667,7 +57667,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57693,7 +57693,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57719,7 +57719,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57745,7 +57745,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57771,7 +57771,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57797,7 +57797,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57823,7 +57823,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57849,7 +57849,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57875,7 +57875,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57901,7 +57901,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57927,7 +57927,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57953,7 +57953,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57979,7 +57979,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58005,7 +58005,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58031,7 +58031,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58057,7 +58057,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58083,7 +58083,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58109,7 +58109,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58135,7 +58135,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58161,7 +58161,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58187,7 +58187,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58213,7 +58213,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58239,7 +58239,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58265,7 +58265,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58291,7 +58291,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58317,7 +58317,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58343,7 +58343,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58369,7 +58369,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58395,7 +58395,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58421,7 +58421,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58447,7 +58447,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58473,7 +58473,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58499,7 +58499,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58525,7 +58525,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58551,7 +58551,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58577,7 +58577,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58603,7 +58603,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58629,7 +58629,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58655,7 +58655,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58681,7 +58681,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58707,7 +58707,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58733,7 +58733,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58759,7 +58759,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58785,7 +58785,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58811,7 +58811,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58837,7 +58837,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58863,7 +58863,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58889,7 +58889,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58915,7 +58915,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58941,7 +58941,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58967,7 +58967,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58993,7 +58993,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59019,7 +59019,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59045,7 +59045,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59071,7 +59071,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59097,7 +59097,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59123,7 +59123,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59149,7 +59149,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59175,7 +59175,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59201,7 +59201,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59227,7 +59227,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59253,7 +59253,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59279,7 +59279,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59305,7 +59305,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59331,7 +59331,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59357,7 +59357,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59383,7 +59383,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59409,7 +59409,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59435,7 +59435,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59461,7 +59461,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59487,7 +59487,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59495,7 +59495,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.649375</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>4320</v>
@@ -59513,9 +59513,35 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6495949074</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>4581</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>18.1000003814697</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>17.7999992370605</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G2144" t="s">
         <v>1149</v>
       </c>
-      <c r="H2143" t="s">
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="1151">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90090942382812</t>
+    <t xml:space="preserve">8.90091037750244</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">8.95551681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81509971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.81509876251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65908145904541</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808578491211</t>
@@ -62,37 +62,37 @@
     <t xml:space="preserve">8.58106899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47965621948242</t>
+    <t xml:space="preserve">8.47965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">8.19102096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82437562942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479272842407</t>
+    <t xml:space="preserve">7.82437610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479225158691</t>
   </si>
   <si>
     <t xml:space="preserve">7.92578840255737</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91018676757812</t>
+    <t xml:space="preserve">7.91018533706665</t>
   </si>
   <si>
     <t xml:space="preserve">8.04280281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05840682983398</t>
+    <t xml:space="preserve">8.05840396881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20662403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798639297485</t>
+    <t xml:space="preserve">8.20662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798686981201</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521030426025</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">7.95699167251587</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80097341537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6293511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997821807861</t>
+    <t xml:space="preserve">7.80097246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8399772644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.68005752563477</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87898206710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
+    <t xml:space="preserve">7.87898302078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861251831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43285179138184</t>
+    <t xml:space="preserve">8.43285083770752</t>
   </si>
   <si>
     <t xml:space="preserve">8.2690315246582</t>
@@ -134,100 +134,100 @@
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34704113006592</t>
+    <t xml:space="preserve">8.34703922271729</t>
   </si>
   <si>
     <t xml:space="preserve">8.23002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08180713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541980743408</t>
+    <t xml:space="preserve">8.08180809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301040649414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30023574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35484313964844</t>
+    <t xml:space="preserve">8.3002347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
     <t xml:space="preserve">8.3080358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683067321777</t>
+    <t xml:space="preserve">8.27683258056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.21442413330078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24562644958496</t>
+    <t xml:space="preserve">8.24562835693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.19882202148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2534294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081241607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03499984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
+    <t xml:space="preserve">8.25342750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641452789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081336975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919013977051</t>
   </si>
   <si>
     <t xml:space="preserve">8.01939964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259426116943</t>
+    <t xml:space="preserve">7.97259473800659</t>
   </si>
   <si>
     <t xml:space="preserve">7.93358993530273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80877447128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94139099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86337947845459</t>
+    <t xml:space="preserve">7.8087739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94138956069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86338090896606</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05060386657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76196718215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599599838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.765869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366971969604</t>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76196670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599742889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78536939620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366876602173</t>
   </si>
   <si>
     <t xml:space="preserve">7.89458417892456</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">7.71906280517578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67615795135498</t>
+    <t xml:space="preserve">7.67615604400635</t>
   </si>
   <si>
     <t xml:space="preserve">7.66055488586426</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">8.05340480804443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06160449981689</t>
+    <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
     <t xml:space="preserve">8.11901187896729</t>
@@ -266,52 +266,52 @@
     <t xml:space="preserve">8.1682186126709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00009727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88118267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954383850098</t>
+    <t xml:space="preserve">8.00009822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88118314743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197689056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954336166382</t>
   </si>
   <si>
     <t xml:space="preserve">7.19639682769775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35631704330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975427627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515329360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226711273193</t>
+    <t xml:space="preserve">7.35631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63515281677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226854324341</t>
   </si>
   <si>
     <t xml:space="preserve">7.65565490722656</t>
@@ -323,52 +323,52 @@
     <t xml:space="preserve">7.41372442245483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47113132476807</t>
+    <t xml:space="preserve">7.47113084793091</t>
   </si>
   <si>
     <t xml:space="preserve">7.38091993331909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43012666702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38501977920532</t>
+    <t xml:space="preserve">7.43012714385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502025604248</t>
   </si>
   <si>
     <t xml:space="preserve">7.48753309249878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46293020248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393438339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4916353225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652938842773</t>
+    <t xml:space="preserve">7.46293115615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523164749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933197021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803709030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163341522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234832763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652843475342</t>
   </si>
   <si>
     <t xml:space="preserve">7.5285382270813</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">7.38912105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4588303565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56134366989136</t>
+    <t xml:space="preserve">7.45882987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5613431930542</t>
   </si>
   <si>
     <t xml:space="preserve">7.58594560623169</t>
@@ -395,100 +395,100 @@
     <t xml:space="preserve">7.5777440071106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52443790435791</t>
+    <t xml:space="preserve">7.52443838119507</t>
   </si>
   <si>
     <t xml:space="preserve">7.39732217788696</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840852737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21689987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20459794998169</t>
+    <t xml:space="preserve">7.372718334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21690034866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20459842681885</t>
   </si>
   <si>
     <t xml:space="preserve">7.37682008743286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43422651290894</t>
+    <t xml:space="preserve">7.43422698974609</t>
   </si>
   <si>
     <t xml:space="preserve">7.41782569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43832731246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811592102051</t>
+    <t xml:space="preserve">7.43832683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171367645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811735153198</t>
   </si>
   <si>
     <t xml:space="preserve">7.34401512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29890966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351303100586</t>
+    <t xml:space="preserve">7.29890918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351350784302</t>
   </si>
   <si>
     <t xml:space="preserve">7.33991527557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36041736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31941223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589426040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229745864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279907226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09850883483887</t>
+    <t xml:space="preserve">7.36041784286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761383056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31941270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711126327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3358154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121206283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473003387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589521408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229698181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279859542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2415018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192602157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176549911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.23382663726807</t>
@@ -497,82 +497,82 @@
     <t xml:space="preserve">8.3650426864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52906322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805904388428</t>
+    <t xml:space="preserve">8.52906227111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805809020996</t>
   </si>
   <si>
     <t xml:space="preserve">8.40604877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52086162567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38144397735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705200195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65207958221436</t>
+    <t xml:space="preserve">8.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38144588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65207862854004</t>
   </si>
   <si>
     <t xml:space="preserve">8.88990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89810943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869178771973</t>
+    <t xml:space="preserve">8.89811038970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869369506836</t>
   </si>
   <si>
     <t xml:space="preserve">8.68488311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7258882522583</t>
+    <t xml:space="preserve">8.72588920593262</t>
   </si>
   <si>
     <t xml:space="preserve">8.75049114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77509498596191</t>
+    <t xml:space="preserve">8.77509307861328</t>
   </si>
   <si>
     <t xml:space="preserve">8.73408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58646965026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50446128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747764587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54546546936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57826900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.676682472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63567733764648</t>
+    <t xml:space="preserve">8.58647060394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50445938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54546451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61107444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57826995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67668056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
     <t xml:space="preserve">8.69308471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66028022766113</t>
+    <t xml:space="preserve">8.66027927398682</t>
   </si>
   <si>
     <t xml:space="preserve">8.66848087310791</t>
@@ -584,22 +584,22 @@
     <t xml:space="preserve">8.96371841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08673191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59519672393799</t>
+    <t xml:space="preserve">9.08673286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
     <t xml:space="preserve">9.66900539398193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62800121307373</t>
+    <t xml:space="preserve">9.62800025939941</t>
   </si>
   <si>
     <t xml:space="preserve">9.52138614654541</t>
@@ -608,31 +608,31 @@
     <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61159896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66080379486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73461246490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323684692383</t>
+    <t xml:space="preserve">9.61159801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66080474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323780059814</t>
   </si>
   <si>
     <t xml:space="preserve">10.0544538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.620325088501</t>
+    <t xml:space="preserve">10.1282625198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6203241348267</t>
   </si>
   <si>
     <t xml:space="preserve">10.8909578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8663549423218</t>
+    <t xml:space="preserve">10.8663539886475</t>
   </si>
   <si>
     <t xml:space="preserve">10.6941328048706</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">10.6613292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5465154647827</t>
+    <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407096862793</t>
+    <t xml:space="preserve">10.4070978164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973087310791</t>
@@ -656,25 +656,25 @@
     <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4481010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793180465698</t>
+    <t xml:space="preserve">10.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">10.5137100219727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.464506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4152984619141</t>
+    <t xml:space="preserve">10.5875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645051956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055112838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4152994155884</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7187356948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1533899307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9729690551758</t>
+    <t xml:space="preserve">10.7187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1533908843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8581523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9729681015015</t>
   </si>
   <si>
     <t xml:space="preserve">11.0549774169922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0057716369629</t>
+    <t xml:space="preserve">11.0057735443115</t>
   </si>
   <si>
     <t xml:space="preserve">11.4404258728027</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">11.3092107772827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7848691940308</t>
+    <t xml:space="preserve">11.7848701477051</t>
   </si>
   <si>
     <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.383544921875</t>
+    <t xml:space="preserve">12.3835439682007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
@@ -725,37 +725,37 @@
     <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7443895339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364492416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9609956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1469993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160934448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4260034561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3752756118774</t>
+    <t xml:space="preserve">12.7443876266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1708421707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9609966278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470003128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160924911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4260025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3752746582031</t>
   </si>
   <si>
     <t xml:space="preserve">13.4429121017456</t>
@@ -767,43 +767,43 @@
     <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9718017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3099880218506</t>
+    <t xml:space="preserve">13.3245487213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9718008041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3099899291992</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3776264190674</t>
+    <t xml:space="preserve">12.3776254653931</t>
   </si>
   <si>
     <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.428352355957</t>
+    <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677145004272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6059007644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4706268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4537162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5129013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5551738739014</t>
+    <t xml:space="preserve">12.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4706258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4537172317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512900352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5551748275757</t>
   </si>
   <si>
     <t xml:space="preserve">12.4452629089355</t>
@@ -812,52 +812,52 @@
     <t xml:space="preserve">12.343807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1747121810913</t>
+    <t xml:space="preserve">12.1747131347656</t>
   </si>
   <si>
     <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0056200027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2592611312866</t>
+    <t xml:space="preserve">12.0056190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394382476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607168197632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.563627243042</t>
+    <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
     <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5467195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6143550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6819934844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327213287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510866165161</t>
+    <t xml:space="preserve">12.5467176437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073574066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6143560409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6819925308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228113174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327222824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
@@ -866,121 +866,121 @@
     <t xml:space="preserve">12.9356327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822732925415</t>
+    <t xml:space="preserve">13.4513673782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822751998901</t>
   </si>
   <si>
     <t xml:space="preserve">13.4006404876709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5190057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583669662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2315454483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2738199234009</t>
+    <t xml:space="preserve">13.519003868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598226547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583660125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2315464019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2738189697266</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.781099319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.220742225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.474383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420179367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3560152053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729257583618</t>
+    <t xml:space="preserve">13.7810983657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2207412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4743824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420188903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883806228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3560161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729248046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.5673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5758380889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7364768981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7111110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.920126914978</t>
+    <t xml:space="preserve">14.5758371353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.736475944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7111129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.787202835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536653518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201307296753</t>
   </si>
   <si>
     <t xml:space="preserve">15.8947639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0638580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443187713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4105014801025</t>
+    <t xml:space="preserve">16.0638561248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
     <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696807861328</t>
+    <t xml:space="preserve">16.4696846008301</t>
   </si>
   <si>
     <t xml:space="preserve">16.4865894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230430603027</t>
+    <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.6303215026855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9008712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4335155487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.619514465332</t>
+    <t xml:space="preserve">16.9008693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4335136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195163726807</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7125148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7862606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381633758545</t>
+    <t xml:space="preserve">17.712516784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
     <t xml:space="preserve">18.7270755767822</t>
@@ -989,46 +989,46 @@
     <t xml:space="preserve">18.7608947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8369903564453</t>
+    <t xml:space="preserve">18.8369884490967</t>
   </si>
   <si>
     <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1329002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
+    <t xml:space="preserve">19.1329021453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708038330078</t>
   </si>
   <si>
     <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9407920837402</t>
+    <t xml:space="preserve">17.9407939910889</t>
   </si>
   <si>
     <t xml:space="preserve">17.7547912597656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9746112823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6702442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5349712371826</t>
+    <t xml:space="preserve">17.9746131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5349674224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463340759277</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5265159606934</t>
+    <t xml:space="preserve">17.5265140533447</t>
   </si>
   <si>
     <t xml:space="preserve">17.441967010498</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">17.5772438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4926986694336</t>
+    <t xml:space="preserve">17.492696762085</t>
   </si>
   <si>
     <t xml:space="preserve">17.6279716491699</t>
@@ -1055,28 +1055,28 @@
     <t xml:space="preserve">17.5856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055191040039</t>
+    <t xml:space="preserve">17.8055210113525</t>
   </si>
   <si>
     <t xml:space="preserve">17.7378807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8393383026123</t>
+    <t xml:space="preserve">17.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9384441375732</t>
+    <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.5979080200195</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8092765808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372692108154</t>
+    <t xml:space="preserve">19.8092746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372673034668</t>
   </si>
   <si>
     <t xml:space="preserve">19.3611755371094</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">19.3189029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0229873657227</t>
+    <t xml:space="preserve">19.0229892730713</t>
   </si>
   <si>
     <t xml:space="preserve">19.3442668914795</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">18.929988861084</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9215316772461</t>
+    <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
     <t xml:space="preserve">19.1836280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">18.22825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5687885284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1206893920898</t>
+    <t xml:space="preserve">18.2282524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5687866210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361423492432</t>
@@ -1121,43 +1121,43 @@
     <t xml:space="preserve">16.7402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.002326965332</t>
+    <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
     <t xml:space="preserve">16.9177799224854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8332328796387</t>
+    <t xml:space="preserve">17.0192337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.83323097229</t>
   </si>
   <si>
     <t xml:space="preserve">16.8585968017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9093246459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3320579528809</t>
+    <t xml:space="preserve">16.9093227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3320560455322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7233238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.571138381958</t>
+    <t xml:space="preserve">16.7233219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5711402893066</t>
   </si>
   <si>
     <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9938716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6556854248047</t>
+    <t xml:space="preserve">16.9938697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6556873321533</t>
   </si>
   <si>
     <t xml:space="preserve">16.5373191833496</t>
@@ -1166,109 +1166,109 @@
     <t xml:space="preserve">15.7763986587524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787494659424</t>
+    <t xml:space="preserve">15.5565767288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787485122681</t>
   </si>
   <si>
     <t xml:space="preserve">14.3898363113403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4720296859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933082580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5227584838867</t>
+    <t xml:space="preserve">15.4720306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933101654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962205886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5227613449097</t>
   </si>
   <si>
     <t xml:space="preserve">15.1676635742188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9647531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618408203125</t>
+    <t xml:space="preserve">14.9647521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618389129639</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.609655380249</t>
+    <t xml:space="preserve">14.6096563339233</t>
   </si>
   <si>
     <t xml:space="preserve">14.4574728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5589275360107</t>
+    <t xml:space="preserve">14.5589284896851</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802051544189</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2183904647827</t>
+    <t xml:space="preserve">15.2183933258057</t>
   </si>
   <si>
     <t xml:space="preserve">15.3198480606079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.302939414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102178573608</t>
+    <t xml:space="preserve">15.3029403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102159500122</t>
   </si>
   <si>
     <t xml:space="preserve">15.3874855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4382123947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396680831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705768585205</t>
+    <t xml:space="preserve">15.4382133483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396690368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705759048462</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903987884521</t>
+    <t xml:space="preserve">15.5903978347778</t>
   </si>
   <si>
     <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058507919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.488941192627</t>
+    <t xml:space="preserve">15.5058498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889402389526</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6411266326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924160003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3513145446777</t>
+    <t xml:space="preserve">15.6411256790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924140930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.351318359375</t>
   </si>
   <si>
     <t xml:space="preserve">16.435863494873</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">16.2329540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5542278289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3005867004395</t>
+    <t xml:space="preserve">16.5542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3005905151367</t>
   </si>
   <si>
     <t xml:space="preserve">16.3344078063965</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">16.2836799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.21604347229</t>
+    <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745223999023</t>
@@ -1301,40 +1301,40 @@
     <t xml:space="preserve">15.5825567245483</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6173782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437204360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263082504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1396999359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3312168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4879131317139</t>
+    <t xml:space="preserve">15.6173810958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1397018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3312187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4879150390625</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048812866211</t>
+    <t xml:space="preserve">16.1048793792725</t>
   </si>
   <si>
     <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740774154663</t>
+    <t xml:space="preserve">16.0178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740755081177</t>
   </si>
   <si>
     <t xml:space="preserve">15.6696128845215</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">15.7044334411621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9209508895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8513078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254163742065</t>
+    <t xml:space="preserve">14.920952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8513097763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164892196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254173278809</t>
   </si>
   <si>
     <t xml:space="preserve">14.9731845855713</t>
@@ -1361,61 +1361,61 @@
     <t xml:space="preserve">15.1298809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9285440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544374465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7468452453613</t>
+    <t xml:space="preserve">13.9285430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155973434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633665084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468461990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.120059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245244979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459543228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1026515960693</t>
+    <t xml:space="preserve">14.2245254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504179000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.102650642395</t>
   </si>
   <si>
     <t xml:space="preserve">13.8414897918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.667384147644</t>
+    <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.7022047042847</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7370252609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8240804672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3539905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.058009147644</t>
+    <t xml:space="preserve">13.7370262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8240795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3539915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1798849105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.4062232971191</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6227436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5531015396118</t>
+    <t xml:space="preserve">12.6227426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0133686065674</t>
+    <t xml:space="preserve">12.4486360549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0133695602417</t>
   </si>
   <si>
     <t xml:space="preserve">11.6303329467773</t>
@@ -1451,37 +1451,37 @@
     <t xml:space="preserve">12.9187250137329</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6325626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7718477249146</t>
+    <t xml:space="preserve">13.6325616836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7718467712402</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066682815552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2669372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8763113021851</t>
+    <t xml:space="preserve">13.2669363021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8763103485107</t>
   </si>
   <si>
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017587661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1276512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714017868042</t>
+    <t xml:space="preserve">13.3017597198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1276521682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714008331299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830116271973</t>
+    <t xml:space="preserve">12.0830125808716</t>
   </si>
   <si>
     <t xml:space="preserve">12.0656003952026</t>
@@ -1499,46 +1499,46 @@
     <t xml:space="preserve">12.1178321838379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776561737061</t>
+    <t xml:space="preserve">11.5084600448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776571273804</t>
   </si>
   <si>
     <t xml:space="preserve">11.3517627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4039936065674</t>
+    <t xml:space="preserve">11.403995513916</t>
   </si>
   <si>
     <t xml:space="preserve">12.1700649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.849081993103</t>
+    <t xml:space="preserve">12.8490810394287</t>
   </si>
   <si>
     <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.595513343811</t>
+    <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
     <t xml:space="preserve">11.5606908798218</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6129245758057</t>
+    <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7097969055176</t>
+    <t xml:space="preserve">12.7097959518433</t>
   </si>
   <si>
     <t xml:space="preserve">12.883903503418</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">12.2571182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3441715240479</t>
+    <t xml:space="preserve">12.3441724777222</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
@@ -1562,28 +1562,28 @@
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053323745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8664922714233</t>
+    <t xml:space="preserve">12.6053304672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6575632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.866491317749</t>
   </si>
   <si>
     <t xml:space="preserve">12.8142604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9535446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0928316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147064208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3888130187988</t>
+    <t xml:space="preserve">12.9535455703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.092830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147054672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3888120651245</t>
   </si>
   <si>
     <t xml:space="preserve">13.4584560394287</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">13.7196159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2321157455444</t>
+    <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
     <t xml:space="preserve">13.3191690444946</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1450643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1972942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0057764053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2843475341797</t>
+    <t xml:space="preserve">13.1450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1972951889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0057773590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
     <t xml:space="preserve">13.510687828064</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">13.5455093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0405988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410448074341</t>
+    <t xml:space="preserve">13.040599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410438537598</t>
   </si>
   <si>
     <t xml:space="preserve">13.4236335754395</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">14.1548824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3638114929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330076217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807758331299</t>
+    <t xml:space="preserve">14.3638105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807748794556</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2593450546265</t>
+    <t xml:space="preserve">14.2593460083008</t>
   </si>
   <si>
     <t xml:space="preserve">13.8937225341797</t>
@@ -1655,40 +1655,40 @@
     <t xml:space="preserve">13.5629196166992</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5280990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6847953796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151514053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.066123008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489561080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7041788101196</t>
+    <t xml:space="preserve">13.5280981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6847944259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661220550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489551544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7041797637939</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946653366089</t>
+    <t xml:space="preserve">12.7946643829346</t>
   </si>
   <si>
     <t xml:space="preserve">12.7765684127808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8127613067627</t>
+    <t xml:space="preserve">12.812762260437</t>
   </si>
   <si>
     <t xml:space="preserve">12.5955963134766</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6860818862915</t>
+    <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
     <t xml:space="preserve">13.3194818496704</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385097503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8851509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1204128265381</t>
+    <t xml:space="preserve">13.1385107040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8851499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.0299272537231</t>
@@ -1739,25 +1739,25 @@
     <t xml:space="preserve">13.4823551177979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4642581939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4461612701416</t>
+    <t xml:space="preserve">13.464259147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4461622238159</t>
   </si>
   <si>
     <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1928014755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.301383972168</t>
+    <t xml:space="preserve">13.1928024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3013849258423</t>
   </si>
   <si>
     <t xml:space="preserve">13.3918704986572</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6317911148071</t>
+    <t xml:space="preserve">12.6317901611328</t>
   </si>
   <si>
     <t xml:space="preserve">12.5051116943359</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">12.1793642044067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7222766876221</t>
+    <t xml:space="preserve">12.7222776412964</t>
   </si>
   <si>
     <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1250715255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4689168930054</t>
+    <t xml:space="preserve">12.125072479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4689159393311</t>
   </si>
   <si>
     <t xml:space="preserve">12.5413045883179</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">12.2517509460449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.414626121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2879467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3241405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2336549758911</t>
+    <t xml:space="preserve">12.3060426712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4146251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2879457473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3241395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2336559295654</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8536157608032</t>
+    <t xml:space="preserve">11.8536148071289</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450313568115</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">11.7993230819702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8355188369751</t>
+    <t xml:space="preserve">11.8355169296265</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364488601685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3649921417236</t>
+    <t xml:space="preserve">11.3649930953979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4735746383667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3107013702393</t>
+    <t xml:space="preserve">11.3107004165649</t>
   </si>
   <si>
     <t xml:space="preserve">11.2926044464111</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">10.9306612014771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8582735061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021188735962</t>
+    <t xml:space="preserve">10.8582744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754384994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021179199219</t>
   </si>
   <si>
     <t xml:space="preserve">11.6002540588379</t>
@@ -1877,31 +1877,31 @@
     <t xml:space="preserve">11.5459642410278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4916715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.419282913208</t>
+    <t xml:space="preserve">11.4916725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
     <t xml:space="preserve">11.2745065689087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4554777145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4373807907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2202157974243</t>
+    <t xml:space="preserve">11.4554786682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4373817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.22021484375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2383136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5278663635254</t>
+    <t xml:space="preserve">11.3830900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5278654098511</t>
   </si>
   <si>
     <t xml:space="preserve">12.16126537323</t>
@@ -1922,79 +1922,79 @@
     <t xml:space="preserve">12.7403736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5594024658203</t>
+    <t xml:space="preserve">12.5594034194946</t>
   </si>
   <si>
     <t xml:space="preserve">12.4327230453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9802942276001</t>
+    <t xml:space="preserve">11.9802951812744</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0345849990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9260034561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1431684494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6679849624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8308591842651</t>
+    <t xml:space="preserve">12.0345859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.92600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1431694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6679859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
     <t xml:space="preserve">11.9621982574463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0526819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297302246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800981521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86293125152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240646362305</t>
+    <t xml:space="preserve">12.0526828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297311782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240550994873</t>
   </si>
   <si>
     <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75900745391846</t>
+    <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
     <t xml:space="preserve">8.50564670562744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55088996887207</t>
+    <t xml:space="preserve">8.55088901519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.78615188598633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86759090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82234573364258</t>
+    <t xml:space="preserve">8.86758995056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82234668731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.487548828125</t>
+    <t xml:space="preserve">8.65042495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48755073547363</t>
   </si>
   <si>
     <t xml:space="preserve">8.71376419067383</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">8.83139514923096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97617340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03046321868896</t>
+    <t xml:space="preserve">8.97617244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03046417236328</t>
   </si>
   <si>
     <t xml:space="preserve">9.01236724853516</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">9.09380340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04856014251709</t>
+    <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
     <t xml:space="preserve">9.18428993225098</t>
@@ -2039,19 +2039,19 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77244567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0439023971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95341777801514</t>
+    <t xml:space="preserve">9.5009880065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147548675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77244472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0439033508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
     <t xml:space="preserve">9.681960105896</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">9.72720336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248735427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4058456420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4963302612305</t>
+    <t xml:space="preserve">10.22487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4058446884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4963312149048</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153591156006</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.134388923645</t>
+    <t xml:space="preserve">10.1343879699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817356109619</t>
+    <t xml:space="preserve">9.90817451477051</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
@@ -2126,40 +2126,40 @@
     <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174973487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9035167694092</t>
+    <t xml:space="preserve">11.1749725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9035158157349</t>
   </si>
   <si>
     <t xml:space="preserve">10.8130292892456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677879333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.627402305603</t>
+    <t xml:space="preserve">10.7677869796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7225456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274013519287</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8988571166992</t>
+    <t xml:space="preserve">11.8988580703735</t>
   </si>
   <si>
     <t xml:space="preserve">12.4870147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5322570800781</t>
+    <t xml:space="preserve">12.5322580337524</t>
   </si>
   <si>
     <t xml:space="preserve">12.9904432296753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4801054000854</t>
+    <t xml:space="preserve">12.4801044464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2168,19 +2168,19 @@
     <t xml:space="preserve">12.1553440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9233722686768</t>
+    <t xml:space="preserve">11.9233713150024</t>
   </si>
   <si>
     <t xml:space="preserve">11.6450042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8769760131836</t>
+    <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
     <t xml:space="preserve">12.062554359436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6914005279541</t>
+    <t xml:space="preserve">11.6913995742798</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4594278335571</t>
+    <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
     <t xml:space="preserve">11.3202428817749</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">12.3873157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6656808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120771408081</t>
+    <t xml:space="preserve">12.6656818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120761871338</t>
   </si>
   <si>
     <t xml:space="preserve">12.8048658370972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3409204483032</t>
+    <t xml:space="preserve">12.3409214019775</t>
   </si>
   <si>
     <t xml:space="preserve">12.619288444519</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">15.2173767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3565607070923</t>
+    <t xml:space="preserve">15.356559753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813220977783</t>
+    <t xml:space="preserve">15.681321144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.3101654052734</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">15.0781927108765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470027923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4236316680908</t>
+    <t xml:space="preserve">15.7741107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">17.5834941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8618583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3979148864746</t>
+    <t xml:space="preserve">17.8618602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.397912979126</t>
   </si>
   <si>
     <t xml:space="preserve">18.4185924530029</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361434936523</t>
+    <t xml:space="preserve">18.8361415863037</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217189788818</t>
+    <t xml:space="preserve">17.3515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217208862305</t>
   </si>
   <si>
     <t xml:space="preserve">18.279411315918</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6505641937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7640323638916</t>
+    <t xml:space="preserve">18.6505661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.764030456543</t>
   </si>
   <si>
     <t xml:space="preserve">20.970287322998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">20.7847099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5991306304932</t>
+    <t xml:space="preserve">20.5991325378418</t>
   </si>
   <si>
     <t xml:space="preserve">21.0630760192871</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4135551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6712417602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270195007324</t>
+    <t xml:space="preserve">20.413553237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6712436676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
     <t xml:space="preserve">21.2486534118652</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">22.2693328857422</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1765403747559</t>
+    <t xml:space="preserve">22.1765422821045</t>
   </si>
   <si>
     <t xml:space="preserve">23.1972198486328</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188556671143</t>
+    <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404857635498</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2733,9 +2733,6 @@
   </si>
   <si>
     <t xml:space="preserve">24.9053230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">23.8372573852539</t>
@@ -46389,7 +46386,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46415,7 +46412,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46441,7 +46438,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46467,7 +46464,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46493,7 +46490,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46519,7 +46516,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46545,7 +46542,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46571,7 +46568,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46597,7 +46594,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46623,7 +46620,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46649,7 +46646,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46675,7 +46672,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46701,7 +46698,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46727,7 +46724,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46753,7 +46750,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46779,7 +46776,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46805,7 +46802,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46831,7 +46828,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46857,7 +46854,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46883,7 +46880,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46909,7 +46906,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46935,7 +46932,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46961,7 +46958,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46987,7 +46984,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47013,7 +47010,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47039,7 +47036,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47065,7 +47062,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47091,7 +47088,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47117,7 +47114,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47143,7 +47140,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47169,7 +47166,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47195,7 +47192,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47221,7 +47218,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47247,7 +47244,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47273,7 +47270,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47299,7 +47296,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47325,7 +47322,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47351,7 +47348,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47377,7 +47374,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47403,7 +47400,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47429,7 +47426,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47455,7 +47452,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47481,7 +47478,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47507,7 +47504,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47533,7 +47530,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47559,7 +47556,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47585,7 +47582,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47611,7 +47608,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47637,7 +47634,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47663,7 +47660,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47689,7 +47686,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47715,7 +47712,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47741,7 +47738,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47767,7 +47764,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47793,7 +47790,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47819,7 +47816,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47845,7 +47842,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47871,7 +47868,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47897,7 +47894,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47923,7 +47920,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47949,7 +47946,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47975,7 +47972,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48001,7 +47998,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48027,7 +48024,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48053,7 +48050,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48079,7 +48076,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48105,7 +48102,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48131,7 +48128,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48157,7 +48154,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48183,7 +48180,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48209,7 +48206,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48235,7 +48232,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48261,7 +48258,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48287,7 +48284,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48313,7 +48310,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48339,7 +48336,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48365,7 +48362,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48391,7 +48388,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48417,7 +48414,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48443,7 +48440,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48469,7 +48466,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48495,7 +48492,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48521,7 +48518,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48547,7 +48544,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48573,7 +48570,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48599,7 +48596,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48625,7 +48622,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48651,7 +48648,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48677,7 +48674,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48703,7 +48700,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48729,7 +48726,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48755,7 +48752,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48781,7 +48778,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48807,7 +48804,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48833,7 +48830,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48859,7 +48856,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48885,7 +48882,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48911,7 +48908,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48937,7 +48934,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48963,7 +48960,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48989,7 +48986,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49015,7 +49012,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49041,7 +49038,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49067,7 +49064,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49093,7 +49090,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49119,7 +49116,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49145,7 +49142,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49171,7 +49168,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49197,7 +49194,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49223,7 +49220,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49249,7 +49246,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49275,7 +49272,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49301,7 +49298,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49327,7 +49324,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49353,7 +49350,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49379,7 +49376,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49405,7 +49402,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49431,7 +49428,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49457,7 +49454,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49483,7 +49480,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49509,7 +49506,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49535,7 +49532,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49561,7 +49558,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49587,7 +49584,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49613,7 +49610,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49639,7 +49636,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49665,7 +49662,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49691,7 +49688,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49717,7 +49714,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49743,7 +49740,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49769,7 +49766,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49795,7 +49792,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49821,7 +49818,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49847,7 +49844,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49873,7 +49870,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49899,7 +49896,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49925,7 +49922,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49951,7 +49948,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49977,7 +49974,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50003,7 +50000,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50029,7 +50026,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50055,7 +50052,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50081,7 +50078,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50107,7 +50104,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50133,7 +50130,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50159,7 +50156,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50185,7 +50182,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50211,7 +50208,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50237,7 +50234,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50263,7 +50260,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50289,7 +50286,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50315,7 +50312,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50341,7 +50338,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50367,7 +50364,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50393,7 +50390,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50419,7 +50416,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50445,7 +50442,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50471,7 +50468,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50497,7 +50494,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50523,7 +50520,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50549,7 +50546,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50575,7 +50572,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50601,7 +50598,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50627,7 +50624,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50653,7 +50650,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50679,7 +50676,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50705,7 +50702,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50731,7 +50728,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50757,7 +50754,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50783,7 +50780,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50809,7 +50806,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50835,7 +50832,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50861,7 +50858,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50887,7 +50884,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50913,7 +50910,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50939,7 +50936,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50965,7 +50962,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50991,7 +50988,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51017,7 +51014,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51043,7 +51040,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51069,7 +51066,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51095,7 +51092,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51121,7 +51118,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51147,7 +51144,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51173,7 +51170,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51199,7 +51196,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51225,7 +51222,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51251,7 +51248,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51277,7 +51274,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51303,7 +51300,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51329,7 +51326,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51355,7 +51352,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51381,7 +51378,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51407,7 +51404,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51433,7 +51430,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51459,7 +51456,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51485,7 +51482,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51511,7 +51508,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51537,7 +51534,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51563,7 +51560,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51589,7 +51586,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51615,7 +51612,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51641,7 +51638,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51667,7 +51664,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51693,7 +51690,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51719,7 +51716,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51745,7 +51742,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51771,7 +51768,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51797,7 +51794,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51823,7 +51820,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51849,7 +51846,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51875,7 +51872,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51901,7 +51898,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51927,7 +51924,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51953,7 +51950,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51979,7 +51976,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52005,7 +52002,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52031,7 +52028,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52057,7 +52054,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52083,7 +52080,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52109,7 +52106,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52135,7 +52132,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52161,7 +52158,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52187,7 +52184,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52213,7 +52210,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52239,7 +52236,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52265,7 +52262,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52291,7 +52288,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52317,7 +52314,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52343,7 +52340,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52369,7 +52366,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52395,7 +52392,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52421,7 +52418,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52447,7 +52444,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52473,7 +52470,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52499,7 +52496,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52525,7 +52522,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52551,7 +52548,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52577,7 +52574,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52603,7 +52600,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52629,7 +52626,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52655,7 +52652,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52681,7 +52678,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52707,7 +52704,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52733,7 +52730,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52759,7 +52756,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52785,7 +52782,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52811,7 +52808,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52837,7 +52834,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52863,7 +52860,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52889,7 +52886,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52915,7 +52912,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52941,7 +52938,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52967,7 +52964,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52993,7 +52990,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53019,7 +53016,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53045,7 +53042,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53071,7 +53068,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53097,7 +53094,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53123,7 +53120,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53149,7 +53146,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53175,7 +53172,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53201,7 +53198,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53227,7 +53224,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53253,7 +53250,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53279,7 +53276,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53305,7 +53302,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53331,7 +53328,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53357,7 +53354,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53383,7 +53380,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53409,7 +53406,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53435,7 +53432,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53461,7 +53458,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53487,7 +53484,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53513,7 +53510,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53539,7 +53536,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53565,7 +53562,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53591,7 +53588,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53617,7 +53614,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53643,7 +53640,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53669,7 +53666,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53695,7 +53692,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53721,7 +53718,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53747,7 +53744,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53773,7 +53770,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53799,7 +53796,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53825,7 +53822,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53851,7 +53848,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53877,7 +53874,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53903,7 +53900,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53929,7 +53926,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53955,7 +53952,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53981,7 +53978,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54007,7 +54004,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54033,7 +54030,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54059,7 +54056,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54085,7 +54082,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54111,7 +54108,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54137,7 +54134,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54163,7 +54160,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54189,7 +54186,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54215,7 +54212,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54241,7 +54238,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54267,7 +54264,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54293,7 +54290,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54319,7 +54316,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54345,7 +54342,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54371,7 +54368,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54397,7 +54394,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54423,7 +54420,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54449,7 +54446,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54475,7 +54472,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54501,7 +54498,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54527,7 +54524,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54553,7 +54550,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54579,7 +54576,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54605,7 +54602,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54631,7 +54628,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54657,7 +54654,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54683,7 +54680,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54709,7 +54706,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54735,7 +54732,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54761,7 +54758,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54787,7 +54784,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54813,7 +54810,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54839,7 +54836,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54865,7 +54862,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54891,7 +54888,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54917,7 +54914,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54943,7 +54940,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54969,7 +54966,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54995,7 +54992,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55021,7 +55018,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55047,7 +55044,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55073,7 +55070,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55099,7 +55096,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55125,7 +55122,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55151,7 +55148,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55177,7 +55174,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55203,7 +55200,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55229,7 +55226,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55255,7 +55252,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55281,7 +55278,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55307,7 +55304,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55333,7 +55330,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55359,7 +55356,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55385,7 +55382,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55411,7 +55408,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55437,7 +55434,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55463,7 +55460,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55489,7 +55486,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55515,7 +55512,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55541,7 +55538,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55567,7 +55564,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55593,7 +55590,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55619,7 +55616,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55645,7 +55642,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55671,7 +55668,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55697,7 +55694,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55723,7 +55720,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55749,7 +55746,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55775,7 +55772,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55801,7 +55798,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55827,7 +55824,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55853,7 +55850,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55879,7 +55876,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55905,7 +55902,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55931,7 +55928,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55957,7 +55954,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55983,7 +55980,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56009,7 +56006,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56035,7 +56032,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56061,7 +56058,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56087,7 +56084,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56113,7 +56110,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56139,7 +56136,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56165,7 +56162,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56191,7 +56188,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56217,7 +56214,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56243,7 +56240,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56269,7 +56266,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56295,7 +56292,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56321,7 +56318,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56347,7 +56344,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56373,7 +56370,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56399,7 +56396,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56425,7 +56422,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56451,7 +56448,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56477,7 +56474,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56503,7 +56500,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56529,7 +56526,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56555,7 +56552,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56581,7 +56578,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56607,7 +56604,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56633,7 +56630,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56659,7 +56656,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56685,7 +56682,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56711,7 +56708,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56737,7 +56734,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56763,7 +56760,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56789,7 +56786,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56815,7 +56812,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56841,7 +56838,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56867,7 +56864,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56893,7 +56890,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56919,7 +56916,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56945,7 +56942,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56971,7 +56968,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56997,7 +56994,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57023,7 +57020,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57049,7 +57046,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57075,7 +57072,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57101,7 +57098,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57127,7 +57124,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57153,7 +57150,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57179,7 +57176,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57205,7 +57202,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57231,7 +57228,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57257,7 +57254,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57283,7 +57280,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57309,7 +57306,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57335,7 +57332,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57361,7 +57358,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57387,7 +57384,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57413,7 +57410,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57439,7 +57436,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57465,7 +57462,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57491,7 +57488,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57517,7 +57514,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57543,7 +57540,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57569,7 +57566,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57595,7 +57592,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57621,7 +57618,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57647,7 +57644,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57673,7 +57670,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57699,7 +57696,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57725,7 +57722,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57751,7 +57748,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57777,7 +57774,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57803,7 +57800,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57829,7 +57826,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57855,7 +57852,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57881,7 +57878,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57907,7 +57904,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57933,7 +57930,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57959,7 +57956,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57985,7 +57982,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58011,7 +58008,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58037,7 +58034,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58063,7 +58060,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58089,7 +58086,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58115,7 +58112,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58141,7 +58138,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58167,7 +58164,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58193,7 +58190,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58219,7 +58216,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58245,7 +58242,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58271,7 +58268,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58297,7 +58294,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58323,7 +58320,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58349,7 +58346,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58375,7 +58372,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58401,7 +58398,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58427,7 +58424,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58453,7 +58450,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58479,7 +58476,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58505,7 +58502,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58531,7 +58528,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58557,7 +58554,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58583,7 +58580,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58609,7 +58606,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58635,7 +58632,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58661,7 +58658,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58687,7 +58684,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58713,7 +58710,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58739,7 +58736,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58765,7 +58762,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58791,7 +58788,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58817,7 +58814,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58843,7 +58840,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58869,7 +58866,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58895,7 +58892,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58921,7 +58918,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58947,7 +58944,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58973,7 +58970,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58999,7 +58996,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59025,7 +59022,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59051,7 +59048,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59077,7 +59074,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59103,7 +59100,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59129,7 +59126,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59155,7 +59152,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59181,7 +59178,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59207,7 +59204,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59233,7 +59230,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59259,7 +59256,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59285,7 +59282,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59311,7 +59308,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59337,7 +59334,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59363,7 +59360,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59389,7 +59386,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59415,7 +59412,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59441,7 +59438,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59467,7 +59464,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59493,7 +59490,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59519,7 +59516,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59545,7 +59542,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59553,7 +59550,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6496412037</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>3660</v>
@@ -59571,9 +59568,35 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494791667</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>18.0499992370605</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>18.0499992370605</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1155">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551681518555</t>
+    <t xml:space="preserve">8.95551586151123</t>
   </si>
   <si>
     <t xml:space="preserve">8.81509971618652</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">8.65907955169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69808387756348</t>
+    <t xml:space="preserve">8.69808483123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.64347743988037</t>
@@ -62,97 +62,97 @@
     <t xml:space="preserve">8.58106994628906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47965717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19102096557617</t>
+    <t xml:space="preserve">8.47965621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19102001190186</t>
   </si>
   <si>
     <t xml:space="preserve">7.82437515258789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96479320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92578840255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018629074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280281066895</t>
+    <t xml:space="preserve">7.96479272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9257869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280185699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.05840396881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07400608062744</t>
+    <t xml:space="preserve">8.07400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798686981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02720069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935066223145</t>
+    <t xml:space="preserve">7.91798639297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02719974517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6293511390686</t>
   </si>
   <si>
     <t xml:space="preserve">7.8399772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68005800247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898397445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
+    <t xml:space="preserve">7.68005895614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898302078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861251831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43285274505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26903057098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37824440002441</t>
+    <t xml:space="preserve">8.43285179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2690315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3782434463501</t>
   </si>
   <si>
     <t xml:space="preserve">8.3470401763916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23002529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180618286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301136016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3002347946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3548412322998</t>
+    <t xml:space="preserve">8.23002624511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30023574829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
     <t xml:space="preserve">8.3080358505249</t>
@@ -161,136 +161,136 @@
     <t xml:space="preserve">8.27683162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2144250869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24562740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882202148438</t>
+    <t xml:space="preserve">8.21442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882392883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.25342845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13641357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081336975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
+    <t xml:space="preserve">8.13641548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919061660767</t>
   </si>
   <si>
     <t xml:space="preserve">8.01939964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358993530273</t>
+    <t xml:space="preserve">7.97259521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358850479126</t>
   </si>
   <si>
     <t xml:space="preserve">7.80877304077148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94139051437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86338090896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379848480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05060386657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76196670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.765869140625</t>
+    <t xml:space="preserve">7.94139003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86337995529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76196765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537034988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586771011353</t>
   </si>
   <si>
     <t xml:space="preserve">7.72686243057251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79707336425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366971969604</t>
+    <t xml:space="preserve">7.79707145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77367067337036</t>
   </si>
   <si>
     <t xml:space="preserve">7.89458417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7190637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615747451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055345535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594749450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56694316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081123352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05340385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06160449981689</t>
+    <t xml:space="preserve">7.71906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615652084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6605544090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56694221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557416915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11081218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05340480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06160640716553</t>
   </si>
   <si>
     <t xml:space="preserve">8.11901187896729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16821956634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00009727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8811821937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779487609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298154830933</t>
+    <t xml:space="preserve">8.16821765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00009822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88118267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298202514648</t>
   </si>
   <si>
     <t xml:space="preserve">7.83197689056396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79097175598145</t>
+    <t xml:space="preserve">7.79097032546997</t>
   </si>
   <si>
     <t xml:space="preserve">7.56954431533813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631799697876</t>
+    <t xml:space="preserve">7.19639730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3563175201416</t>
   </si>
   <si>
     <t xml:space="preserve">7.51213645935059</t>
@@ -299,34 +299,34 @@
     <t xml:space="preserve">7.74996662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54494094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904079437256</t>
+    <t xml:space="preserve">7.54494047164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975427627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5490403175354</t>
   </si>
   <si>
     <t xml:space="preserve">7.63515281677246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76226663589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
+    <t xml:space="preserve">7.76226711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565538406372</t>
   </si>
   <si>
     <t xml:space="preserve">7.66795587539673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41372442245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113227844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38092041015625</t>
+    <t xml:space="preserve">7.41372394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38091993331909</t>
   </si>
   <si>
     <t xml:space="preserve">7.43012619018555</t>
@@ -335,49 +335,49 @@
     <t xml:space="preserve">7.3850212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48753261566162</t>
+    <t xml:space="preserve">7.48753356933594</t>
   </si>
   <si>
     <t xml:space="preserve">7.46293067932129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50393581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53264045715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
+    <t xml:space="preserve">7.50393486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703004837036</t>
   </si>
   <si>
     <t xml:space="preserve">7.50803661346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49163341522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234832763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962409973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912057876587</t>
+    <t xml:space="preserve">7.49163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234785079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5285382270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40962362289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912105560303</t>
   </si>
   <si>
     <t xml:space="preserve">7.4588303565979</t>
@@ -386,139 +386,139 @@
     <t xml:space="preserve">7.51623725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5613431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594608306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732217788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271976470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21690034866333</t>
+    <t xml:space="preserve">7.56134366989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774496078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732313156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.372718334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21689987182617</t>
   </si>
   <si>
     <t xml:space="preserve">7.20459794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37682008743286</t>
+    <t xml:space="preserve">7.3768196105957</t>
   </si>
   <si>
     <t xml:space="preserve">7.43422651290894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41782522201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832635879517</t>
+    <t xml:space="preserve">7.41782426834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832778930664</t>
   </si>
   <si>
     <t xml:space="preserve">7.33171367645264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34811687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29891014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041879653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31941270828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711126327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121253967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45472955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589521408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1840968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869779586792</t>
+    <t xml:space="preserve">7.34811639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991622924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041784286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31941366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581495285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121206283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473003387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869970321655</t>
   </si>
   <si>
     <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21279859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150276184082</t>
+    <t xml:space="preserve">7.21279907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2415018081665</t>
   </si>
   <si>
     <t xml:space="preserve">7.42192649841309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74176549911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09850883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36504364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5290641784668</t>
+    <t xml:space="preserve">7.74176502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3650426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52906227111816</t>
   </si>
   <si>
     <t xml:space="preserve">8.48805809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40604782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52086353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38144493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705295562744</t>
+    <t xml:space="preserve">8.40604877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38144588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705200195312</t>
   </si>
   <si>
     <t xml:space="preserve">8.49625873565674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65207672119141</t>
+    <t xml:space="preserve">8.65207862854004</t>
   </si>
   <si>
     <t xml:space="preserve">8.88990879058838</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">8.75869274139404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68488216400146</t>
+    <t xml:space="preserve">8.6848840713501</t>
   </si>
   <si>
     <t xml:space="preserve">8.7258882522583</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">8.61107349395752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57827091217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67668151855469</t>
+    <t xml:space="preserve">8.57826995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.676682472229</t>
   </si>
   <si>
     <t xml:space="preserve">8.63567638397217</t>
@@ -575,67 +575,67 @@
     <t xml:space="preserve">8.66027927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66847991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79149723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96371936798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08673286437988</t>
+    <t xml:space="preserve">8.66848087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79149436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96371650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0867338180542</t>
   </si>
   <si>
     <t xml:space="preserve">9.23435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35736751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59519481658936</t>
+    <t xml:space="preserve">9.35736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
     <t xml:space="preserve">9.66900539398193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138805389404</t>
+    <t xml:space="preserve">9.62800121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.55419063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61159801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66080474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73461532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323875427246</t>
+    <t xml:space="preserve">9.61159896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66080570220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461246490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323684692383</t>
   </si>
   <si>
     <t xml:space="preserve">10.0544538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6203241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663549423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941328048706</t>
+    <t xml:space="preserve">10.1282644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.620325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941337585449</t>
   </si>
   <si>
     <t xml:space="preserve">10.6613292694092</t>
@@ -644,106 +644,106 @@
     <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4809074401855</t>
+    <t xml:space="preserve">10.4809064865112</t>
   </si>
   <si>
     <t xml:space="preserve">10.4070978164673</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4973077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513710975647</t>
+    <t xml:space="preserve">10.4973087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.562915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481039047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793180465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5137100219727</t>
   </si>
   <si>
     <t xml:space="preserve">10.5875205993652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.464506149292</t>
+    <t xml:space="preserve">10.4645051956177</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152994155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9073610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8253498077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7187356948853</t>
+    <t xml:space="preserve">10.4152984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9073600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8253488540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1533899307251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9729681015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0549774169922</t>
+    <t xml:space="preserve">10.8581523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9729690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0549793243408</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4404258728027</t>
+    <t xml:space="preserve">11.4404249191284</t>
   </si>
   <si>
     <t xml:space="preserve">11.3092107772827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7848691940308</t>
+    <t xml:space="preserve">11.7848682403564</t>
   </si>
   <si>
     <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3835439682007</t>
+    <t xml:space="preserve">12.3835458755493</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457147598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375141143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9609966278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1469993591309</t>
+    <t xml:space="preserve">12.1457138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375131607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7443895339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.121636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1708431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9609956741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470003128052</t>
   </si>
   <si>
     <t xml:space="preserve">13.349910736084</t>
@@ -758,16 +758,16 @@
     <t xml:space="preserve">13.3752746582031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4429130554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.307638168335</t>
+    <t xml:space="preserve">13.4429121017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3076391220093</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245487213135</t>
+    <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
     <t xml:space="preserve">11.9718008041382</t>
@@ -776,16 +776,16 @@
     <t xml:space="preserve">12.3099889755249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423496246338</t>
+    <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3776264190674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3945350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4283542633057</t>
+    <t xml:space="preserve">12.3945341110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677145004272</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">12.6059017181396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4706268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4537172317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512900352478</t>
+    <t xml:space="preserve">12.470627784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4537162780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5128993988037</t>
   </si>
   <si>
     <t xml:space="preserve">12.5551738739014</t>
@@ -809,49 +809,49 @@
     <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.343807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210748672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0056190490723</t>
+    <t xml:space="preserve">12.3438062667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1747140884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0056200027466</t>
   </si>
   <si>
     <t xml:space="preserve">12.0394382476807</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2592601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5636281967163</t>
+    <t xml:space="preserve">12.259259223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607168197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.563627243042</t>
   </si>
   <si>
     <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5467195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6143569946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6819934844971</t>
+    <t xml:space="preserve">12.5467176437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073574066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6143560409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6819925308228</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228113174438</t>
+    <t xml:space="preserve">12.6228103637695</t>
   </si>
   <si>
     <t xml:space="preserve">12.7327213287354</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4513664245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822751998901</t>
+    <t xml:space="preserve">12.9356336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4513683319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822742462158</t>
   </si>
   <si>
     <t xml:space="preserve">13.4006404876709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5190048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598217010498</t>
+    <t xml:space="preserve">13.519003868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598226547241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583660125732</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">13.2315464019775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936408996582</t>
+    <t xml:space="preserve">13.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936399459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
@@ -902,40 +902,40 @@
     <t xml:space="preserve">14.4743824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5420188903809</t>
+    <t xml:space="preserve">14.5420207977295</t>
   </si>
   <si>
     <t xml:space="preserve">14.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3560152053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729276657104</t>
+    <t xml:space="preserve">14.3560171127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729257583618</t>
   </si>
   <si>
     <t xml:space="preserve">14.5673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5758380889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.736475944519</t>
+    <t xml:space="preserve">14.5758371353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7364797592163</t>
   </si>
   <si>
     <t xml:space="preserve">14.7111120223999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3536672592163</t>
+    <t xml:space="preserve">14.7872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536653518677</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201288223267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8947639465332</t>
+    <t xml:space="preserve">15.8947658538818</t>
   </si>
   <si>
     <t xml:space="preserve">16.0638580322266</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4104976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1145877838135</t>
+    <t xml:space="preserve">16.4104995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696826934814</t>
@@ -956,19 +956,19 @@
     <t xml:space="preserve">16.4865913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303195953369</t>
+    <t xml:space="preserve">16.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303234100342</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4335136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195163726807</t>
+    <t xml:space="preserve">17.4335155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195182800293</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929775238037</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7270774841309</t>
+    <t xml:space="preserve">18.7270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">18.7608966827393</t>
@@ -992,97 +992,97 @@
     <t xml:space="preserve">18.8369884490967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.014533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1329021453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792591094971</t>
+    <t xml:space="preserve">19.0145378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1329002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792610168457</t>
   </si>
   <si>
     <t xml:space="preserve">18.8708057403564</t>
   </si>
   <si>
-    <t xml:space="preserve">18.617166519165</t>
+    <t xml:space="preserve">18.6171646118164</t>
   </si>
   <si>
     <t xml:space="preserve">17.9407920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7547874450684</t>
+    <t xml:space="preserve">17.7547931671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702442169189</t>
+    <t xml:space="preserve">17.6702423095703</t>
   </si>
   <si>
     <t xml:space="preserve">17.7970638275146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.534969329834</t>
+    <t xml:space="preserve">17.5349674224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5265159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4419689178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6533336639404</t>
+    <t xml:space="preserve">17.5265140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.441967010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6533317565918</t>
   </si>
   <si>
     <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.577241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4926986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6279697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434246063232</t>
+    <t xml:space="preserve">17.5772457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.492696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434226989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378787994385</t>
+    <t xml:space="preserve">17.8055171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378826141357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8393363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550701141357</t>
+    <t xml:space="preserve">18.3550720214844</t>
   </si>
   <si>
     <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5979061126709</t>
+    <t xml:space="preserve">19.5979080200195</t>
   </si>
   <si>
     <t xml:space="preserve">19.8092746734619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4372692108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710865020752</t>
+    <t xml:space="preserve">19.4372653961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611793518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710903167725</t>
   </si>
   <si>
     <t xml:space="preserve">19.4457206726074</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">19.0229911804199</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3442687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1836280822754</t>
+    <t xml:space="preserve">19.3442668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836318969727</t>
   </si>
   <si>
     <t xml:space="preserve">18.22825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.568790435791</t>
+    <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
     <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0361423492432</t>
+    <t xml:space="preserve">17.0361442565918</t>
   </si>
   <si>
     <t xml:space="preserve">16.7402286529541</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9177780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8332328796387</t>
+    <t xml:space="preserve">16.917781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.83323097229</t>
   </si>
   <si>
     <t xml:space="preserve">16.8585968017578</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">16.9093246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3320579528809</t>
+    <t xml:space="preserve">17.3320560455322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515972137451</t>
@@ -1151,49 +1151,49 @@
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247776031494</t>
+    <t xml:space="preserve">16.8247756958008</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938697814941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6556854248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5373210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7764005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565786361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918525695801</t>
+    <t xml:space="preserve">16.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.537317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763996124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918544769287</t>
   </si>
   <si>
     <t xml:space="preserve">15.4551248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7787494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3898363113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720306396484</t>
+    <t xml:space="preserve">14.7787485122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3898344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720296859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.7933082580566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9962205886841</t>
+    <t xml:space="preserve">15.9962186813354</t>
   </si>
   <si>
     <t xml:space="preserve">16.1484069824219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5227613449097</t>
+    <t xml:space="preserve">15.522759437561</t>
   </si>
   <si>
     <t xml:space="preserve">15.1676654815674</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">14.9647521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7618398666382</t>
+    <t xml:space="preserve">14.7618379592896</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603851318359</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">14.6096572875977</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4574718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8802070617676</t>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8802051544189</t>
   </si>
   <si>
     <t xml:space="preserve">15.2183933258057</t>
@@ -1226,37 +1226,37 @@
     <t xml:space="preserve">15.3198480606079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3029403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.43821144104</t>
+    <t xml:space="preserve">15.3029384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382133483887</t>
   </si>
   <si>
     <t xml:space="preserve">15.5396690368652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3705749511719</t>
+    <t xml:space="preserve">15.3705778121948</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903978347778</t>
+    <t xml:space="preserve">15.5903949737549</t>
   </si>
   <si>
     <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889402389526</t>
+    <t xml:space="preserve">15.5058517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.488941192627</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073064804077</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">16.3513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4358654022217</t>
+    <t xml:space="preserve">16.435863494873</t>
   </si>
   <si>
     <t xml:space="preserve">16.2329521179199</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">16.3005886077881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3344078063965</t>
+    <t xml:space="preserve">16.3344097137451</t>
   </si>
   <si>
     <t xml:space="preserve">16.317497253418</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">16.21604347229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1745223999023</t>
+    <t xml:space="preserve">16.1745185852051</t>
   </si>
   <si>
     <t xml:space="preserve">15.5825567245483</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">15.6173810958862</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6522016525269</t>
+    <t xml:space="preserve">15.6522006988525</t>
   </si>
   <si>
     <t xml:space="preserve">15.8437194824219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8263072967529</t>
+    <t xml:space="preserve">15.8263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">16.1397018432617</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178241729736</t>
+    <t xml:space="preserve">16.0178260803223</t>
   </si>
   <si>
     <t xml:space="preserve">15.7740755081177</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">15.7044334411621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.920952796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8513097763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9285430908203</t>
+    <t xml:space="preserve">14.9209518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8513088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164873123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9731864929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298780441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9285440444946</t>
   </si>
   <si>
     <t xml:space="preserve">14.0155973434448</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">13.7544364929199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0678291320801</t>
+    <t xml:space="preserve">14.0678281784058</t>
   </si>
   <si>
     <t xml:space="preserve">13.9633665084839</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">14.7468461990356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.120059967041</t>
+    <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459552764893</t>
+    <t xml:space="preserve">13.9459543228149</t>
   </si>
   <si>
     <t xml:space="preserve">14.0504179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.102650642395</t>
+    <t xml:space="preserve">14.1026515960693</t>
   </si>
   <si>
     <t xml:space="preserve">13.8414897918701</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7022047042847</t>
+    <t xml:space="preserve">13.702205657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370262145996</t>
@@ -1412,28 +1412,28 @@
     <t xml:space="preserve">13.3539915084839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1798849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0580101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4062232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3365793228149</t>
+    <t xml:space="preserve">13.1798839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.058009147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4062223434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
     <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6227426528931</t>
+    <t xml:space="preserve">12.6227416992188</t>
   </si>
   <si>
     <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5356884002686</t>
+    <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
     <t xml:space="preserve">12.4486360549927</t>
@@ -1445,67 +1445,67 @@
     <t xml:space="preserve">11.6303329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6651563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187250137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6325616836548</t>
+    <t xml:space="preserve">11.6651554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187231063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6325626373291</t>
   </si>
   <si>
     <t xml:space="preserve">13.7718467712402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066682815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2669363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8763103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4932765960693</t>
+    <t xml:space="preserve">13.8066692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2669372558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8763113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493275642395</t>
   </si>
   <si>
     <t xml:space="preserve">13.3017597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1276521682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714008331299</t>
+    <t xml:space="preserve">13.1276531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714017868042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0656003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1874761581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1178321838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5084600448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865833282471</t>
+    <t xml:space="preserve">12.0830116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.065601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1874752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4312238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1178331375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5084590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736375808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865842819214</t>
   </si>
   <si>
     <t xml:space="preserve">11.1776571273804</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5955123901367</t>
+    <t xml:space="preserve">11.5955114364624</t>
   </si>
   <si>
     <t xml:space="preserve">11.5606908798218</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">12.7097959518433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.883903503418</t>
+    <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
     <t xml:space="preserve">12.3964033126831</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6575632095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.866491317749</t>
+    <t xml:space="preserve">12.6053314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.657564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8664922714233</t>
   </si>
   <si>
     <t xml:space="preserve">12.8142604827881</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.092830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3888120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4584560394287</t>
+    <t xml:space="preserve">13.0928297042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147064208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3888130187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4584550857544</t>
   </si>
   <si>
     <t xml:space="preserve">13.475866317749</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3191690444946</t>
+    <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
     <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972951889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0057773590088</t>
+    <t xml:space="preserve">13.1972942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0057764053345</t>
   </si>
   <si>
     <t xml:space="preserve">13.284348487854</t>
@@ -1622,34 +1622,34 @@
     <t xml:space="preserve">13.040599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9111318588257</t>
+    <t xml:space="preserve">13.4410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236345291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3638105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807748794556</t>
+    <t xml:space="preserve">14.3638114929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330095291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807739257812</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2593460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8937225341797</t>
+    <t xml:space="preserve">14.2593450546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8937215805054</t>
   </si>
   <si>
     <t xml:space="preserve">13.5629196166992</t>
@@ -1658,43 +1658,43 @@
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6847944259644</t>
+    <t xml:space="preserve">13.68479347229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151523590088</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9883680343628</t>
+    <t xml:space="preserve">12.9883670806885</t>
   </si>
   <si>
     <t xml:space="preserve">13.2470941543579</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0661220550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489551544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7041797637939</t>
+    <t xml:space="preserve">13.0661211013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489561080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7041788101196</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946643829346</t>
+    <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
     <t xml:space="preserve">12.7765684127808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.812762260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118312835693</t>
+    <t xml:space="preserve">12.8127613067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955972671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0118293762207</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756364822388</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">12.9394426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">12.613694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232076644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360333442688</t>
+    <t xml:space="preserve">12.6136932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232095718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385107040405</t>
+    <t xml:space="preserve">13.1385116577148</t>
   </si>
   <si>
     <t xml:space="preserve">12.8851499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1204137802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0299272537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3737726211548</t>
+    <t xml:space="preserve">13.1204128265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0299282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3737735748291</t>
   </si>
   <si>
     <t xml:space="preserve">13.4823551177979</t>
@@ -1742,49 +1742,49 @@
     <t xml:space="preserve">13.464259147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4461622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2832880020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1928024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3013849258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3918704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6317901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5051116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793642044067</t>
+    <t xml:space="preserve">13.4461612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2832889556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1928014755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.301383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3918695449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6317920684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5051107406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">12.7222776412964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2155570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.125072479248</t>
+    <t xml:space="preserve">12.215558052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1250715255737</t>
   </si>
   <si>
     <t xml:space="preserve">12.4689159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5413045883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5774984359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2517509460449</t>
+    <t xml:space="preserve">12.5413055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5774993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2517518997192</t>
   </si>
   <si>
     <t xml:space="preserve">12.3060426712036</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336559295654</t>
+    <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.763129234314</t>
+    <t xml:space="preserve">11.7631301879883</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8536148071289</t>
+    <t xml:space="preserve">11.8536157608032</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450313568115</t>
@@ -1826,28 +1826,28 @@
     <t xml:space="preserve">11.7993230819702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8355169296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364488601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3649930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107004165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564086914062</t>
+    <t xml:space="preserve">11.8355178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3649921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.473575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564096450806</t>
   </si>
   <si>
     <t xml:space="preserve">11.0392436981201</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306612014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8582744598389</t>
+    <t xml:space="preserve">10.9306621551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8582725524902</t>
   </si>
   <si>
     <t xml:space="preserve">11.0754384994507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2021179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6002540588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459642410278</t>
+    <t xml:space="preserve">11.2021188735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6002550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
     <t xml:space="preserve">11.4916725158691</t>
@@ -1886,22 +1886,22 @@
     <t xml:space="preserve">11.2745065689087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4554786682129</t>
+    <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.22021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5278654098511</t>
+    <t xml:space="preserve">11.2202157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383127212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5278673171997</t>
   </si>
   <si>
     <t xml:space="preserve">12.16126537323</t>
@@ -1910,61 +1910,61 @@
     <t xml:space="preserve">12.4508209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3965291976929</t>
+    <t xml:space="preserve">12.3965282440186</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698488235474</t>
+    <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5594034194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4327230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441003799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0345859527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.92600440979</t>
+    <t xml:space="preserve">12.5594024658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4327220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802942276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441013336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0345869064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">12.1431694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6679859161377</t>
+    <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9621982574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0526828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297311782837</t>
+    <t xml:space="preserve">11.962197303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0526819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297292709351</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8629322052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240550994873</t>
+    <t xml:space="preserve">9.86293029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240646362305</t>
   </si>
   <si>
     <t xml:space="preserve">9.33811473846436</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564670562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55088901519775</t>
+    <t xml:space="preserve">8.50564765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
     <t xml:space="preserve">8.78615188598633</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042495727539</t>
+    <t xml:space="preserve">8.65042400360107</t>
   </si>
   <si>
     <t xml:space="preserve">8.48755073547363</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">8.74091053009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83139514923096</t>
+    <t xml:space="preserve">8.83139610290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.97617244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03046417236328</t>
+    <t xml:space="preserve">9.03046321868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.01236724853516</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428993225098</t>
+    <t xml:space="preserve">9.18428897857666</t>
   </si>
   <si>
     <t xml:space="preserve">9.54623126983643</t>
@@ -2039,19 +2039,19 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5009880065918</t>
+    <t xml:space="preserve">9.50098991394043</t>
   </si>
   <si>
     <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77244472503662</t>
+    <t xml:space="preserve">9.77244567871094</t>
   </si>
   <si>
     <t xml:space="preserve">10.0439033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95341682434082</t>
+    <t xml:space="preserve">9.9534158706665</t>
   </si>
   <si>
     <t xml:space="preserve">9.681960105896</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">8.99426937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8494930267334</t>
+    <t xml:space="preserve">8.84949207305908</t>
   </si>
   <si>
     <t xml:space="preserve">8.93997764587402</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701168060303</t>
+    <t xml:space="preserve">10.2701177597046</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0891447067261</t>
+    <t xml:space="preserve">10.3606033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0891456604004</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2114,22 +2114,22 @@
     <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773023605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9487590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3559436798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4464292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1749725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9035158157349</t>
+    <t xml:space="preserve">10.6773014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9487581253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3559446334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4464282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.174973487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
     <t xml:space="preserve">10.8130292892456</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">10.7677869796753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7225456237793</t>
+    <t xml:space="preserve">10.722544670105</t>
   </si>
   <si>
     <t xml:space="preserve">11.6274013519287</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">11.7178859710693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8988580703735</t>
+    <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.4870147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5322580337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9904432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801044464111</t>
+    <t xml:space="preserve">12.5322561264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9904441833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801054000854</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">12.062554359436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6913995742798</t>
+    <t xml:space="preserve">11.6914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2189,19 +2189,19 @@
     <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4594268798828</t>
+    <t xml:space="preserve">11.4594278335571</t>
   </si>
   <si>
     <t xml:space="preserve">11.3202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
+    <t xml:space="preserve">12.3873167037964</t>
   </si>
   <si>
     <t xml:space="preserve">12.6656818389893</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">12.7120761871338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8048658370972</t>
+    <t xml:space="preserve">12.8048648834229</t>
   </si>
   <si>
     <t xml:space="preserve">12.3409214019775</t>
@@ -2231,19 +2231,19 @@
     <t xml:space="preserve">14.0111217498779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4750661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5678539276123</t>
+    <t xml:space="preserve">14.4750652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822755813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5678548812866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4079933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935707092285</t>
+    <t xml:space="preserve">13.5935697555542</t>
   </si>
   <si>
     <t xml:space="preserve">13.5471773147583</t>
@@ -2258,52 +2258,52 @@
     <t xml:space="preserve">13.9183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5214595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.779149055481</t>
+    <t xml:space="preserve">14.5214586257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7791500091553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4286708831787</t>
+    <t xml:space="preserve">14.1503047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.428671836853</t>
   </si>
   <si>
     <t xml:space="preserve">15.2173767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">15.356559753418</t>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.681321144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3101654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9854049682617</t>
+    <t xml:space="preserve">15.6813220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3101644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9854040145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781927108765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4700260162354</t>
+    <t xml:space="preserve">15.7741088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.470027923584</t>
   </si>
   <si>
     <t xml:space="preserve">16.4236335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7019996643066</t>
+    <t xml:space="preserve">16.701997756958</t>
   </si>
   <si>
     <t xml:space="preserve">17.0267601013184</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.397912979126</t>
+    <t xml:space="preserve">17.3979148864746</t>
   </si>
   <si>
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649868011475</t>
+    <t xml:space="preserve">18.4649887084961</t>
   </si>
   <si>
     <t xml:space="preserve">18.5113830566406</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361415863037</t>
+    <t xml:space="preserve">18.8361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2342,28 +2342,28 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515224456787</t>
+    <t xml:space="preserve">17.3515205383301</t>
   </si>
   <si>
     <t xml:space="preserve">19.0217208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">18.279411315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9289321899414</t>
+    <t xml:space="preserve">18.2794094085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9289302825928</t>
   </si>
   <si>
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.764030456543</t>
+    <t xml:space="preserve">19.7640323638916</t>
   </si>
   <si>
     <t xml:space="preserve">20.970287322998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3414421081543</t>
+    <t xml:space="preserve">21.3414440155029</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6198081970215</t>
+    <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
     <t xml:space="preserve">21.8981761932373</t>
@@ -2399,31 +2399,31 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.413553237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6712436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270214080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693328857422</t>
+    <t xml:space="preserve">20.4135551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6712417602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
     <t xml:space="preserve">22.1765422821045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188537597656</t>
+    <t xml:space="preserve">22.9188556671143</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404857635498</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897724151611</t>
+    <t xml:space="preserve">25.8897705078125</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.941427230835</t>
+    <t xml:space="preserve">24.9414291381836</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104331970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4587783813477</t>
+    <t xml:space="preserve">25.5104351043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.458776473999</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207683563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465938568115</t>
+    <t xml:space="preserve">25.3207664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465957641602</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6569271087646</t>
+    <t xml:space="preserve">24.656925201416</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2344093322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.613748550415</t>
+    <t xml:space="preserve">23.234411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.139575958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6137466430664</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930839538574</t>
+    <t xml:space="preserve">23.9930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447425842285</t>
+    <t xml:space="preserve">23.0447406768799</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809013366699</t>
+    <t xml:space="preserve">22.3809032440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654033660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860679626465</t>
+    <t xml:space="preserve">22.6654052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860660552979</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203754425049</t>
+    <t xml:space="preserve">19.8203735351562</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842147827148</t>
+    <t xml:space="preserve">20.4842166900635</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329509735107</t>
+    <t xml:space="preserve">26.9329490661621</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536117553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691097259521</t>
+    <t xml:space="preserve">26.5536136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691116333008</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8118953704834</t>
+    <t xml:space="preserve">21.811897277832</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015659332275</t>
+    <t xml:space="preserve">22.0015640258789</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428894042969</t>
+    <t xml:space="preserve">21.2428913116455</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.915210723877</t>
+    <t xml:space="preserve">19.9152088165283</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462047576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8246154785156</t>
+    <t xml:space="preserve">19.3462028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.824613571167</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236869812012</t>
+    <t xml:space="preserve">17.3546829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236888885498</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513694763184</t>
+    <t xml:space="preserve">19.2513675689697</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997108459473</t>
+    <t xml:space="preserve">20.1997127532959</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,37 +2702,40 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663318634033</t>
+    <t xml:space="preserve">23.5663299560547</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
+    <t xml:space="preserve">24.4198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6625804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7596778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3422584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1480655670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6335487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5850009918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.002420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9053230285645</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4198398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6625804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7596778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3422584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1480655670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6335487365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5850009918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.002420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9053230285645</t>
   </si>
   <si>
     <t xml:space="preserve">23.8372573852539</t>
@@ -46395,7 +46398,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46421,7 +46424,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46447,7 +46450,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46473,7 +46476,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46499,7 +46502,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46525,7 +46528,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46551,7 +46554,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46577,7 +46580,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46603,7 +46606,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46629,7 +46632,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46655,7 +46658,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46681,7 +46684,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46707,7 +46710,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46733,7 +46736,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46759,7 +46762,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46785,7 +46788,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46811,7 +46814,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46837,7 +46840,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46863,7 +46866,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46889,7 +46892,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46915,7 +46918,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46941,7 +46944,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46967,7 +46970,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46993,7 +46996,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47019,7 +47022,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47045,7 +47048,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47071,7 +47074,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47097,7 +47100,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47123,7 +47126,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47149,7 +47152,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47175,7 +47178,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47201,7 +47204,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47227,7 +47230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47253,7 +47256,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47279,7 +47282,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47305,7 +47308,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47331,7 +47334,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47357,7 +47360,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47383,7 +47386,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47409,7 +47412,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47435,7 +47438,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47461,7 +47464,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47487,7 +47490,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47513,7 +47516,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47539,7 +47542,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47565,7 +47568,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47591,7 +47594,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47617,7 +47620,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47643,7 +47646,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47669,7 +47672,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47695,7 +47698,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47721,7 +47724,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47747,7 +47750,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47773,7 +47776,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47799,7 +47802,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47825,7 +47828,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47851,7 +47854,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47877,7 +47880,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47903,7 +47906,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47929,7 +47932,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47955,7 +47958,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47981,7 +47984,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48007,7 +48010,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48033,7 +48036,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48059,7 +48062,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48085,7 +48088,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48111,7 +48114,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48137,7 +48140,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48163,7 +48166,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48189,7 +48192,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48215,7 +48218,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48241,7 +48244,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48267,7 +48270,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48293,7 +48296,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48319,7 +48322,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48345,7 +48348,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48371,7 +48374,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48397,7 +48400,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48423,7 +48426,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48449,7 +48452,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48475,7 +48478,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48501,7 +48504,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48527,7 +48530,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48553,7 +48556,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48579,7 +48582,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48605,7 +48608,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48631,7 +48634,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48657,7 +48660,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48683,7 +48686,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48709,7 +48712,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48735,7 +48738,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48761,7 +48764,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48787,7 +48790,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48813,7 +48816,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48839,7 +48842,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48865,7 +48868,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48891,7 +48894,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48917,7 +48920,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48943,7 +48946,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48969,7 +48972,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48995,7 +48998,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49021,7 +49024,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49047,7 +49050,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49073,7 +49076,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49099,7 +49102,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49125,7 +49128,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49151,7 +49154,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49177,7 +49180,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49203,7 +49206,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49229,7 +49232,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49255,7 +49258,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49281,7 +49284,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49307,7 +49310,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49333,7 +49336,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49359,7 +49362,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49385,7 +49388,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49411,7 +49414,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49437,7 +49440,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49463,7 +49466,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49489,7 +49492,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49515,7 +49518,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49541,7 +49544,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49567,7 +49570,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49593,7 +49596,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49619,7 +49622,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49645,7 +49648,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49671,7 +49674,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49697,7 +49700,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49723,7 +49726,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49749,7 +49752,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49775,7 +49778,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49801,7 +49804,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49827,7 +49830,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49853,7 +49856,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49879,7 +49882,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49905,7 +49908,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49931,7 +49934,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49957,7 +49960,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49983,7 +49986,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50009,7 +50012,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50035,7 +50038,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50061,7 +50064,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50087,7 +50090,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50113,7 +50116,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50139,7 +50142,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50165,7 +50168,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50191,7 +50194,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50217,7 +50220,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50243,7 +50246,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50269,7 +50272,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50295,7 +50298,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50321,7 +50324,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50347,7 +50350,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50373,7 +50376,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50399,7 +50402,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50425,7 +50428,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50451,7 +50454,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50477,7 +50480,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50503,7 +50506,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50529,7 +50532,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50555,7 +50558,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50581,7 +50584,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50607,7 +50610,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50633,7 +50636,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50659,7 +50662,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50685,7 +50688,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50711,7 +50714,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50737,7 +50740,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50763,7 +50766,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50789,7 +50792,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50815,7 +50818,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50841,7 +50844,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50867,7 +50870,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50893,7 +50896,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50919,7 +50922,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50945,7 +50948,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50971,7 +50974,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50997,7 +51000,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51023,7 +51026,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51049,7 +51052,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51075,7 +51078,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51101,7 +51104,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51127,7 +51130,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51153,7 +51156,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51179,7 +51182,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51205,7 +51208,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51231,7 +51234,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51257,7 +51260,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51283,7 +51286,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51309,7 +51312,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51335,7 +51338,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51361,7 +51364,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51387,7 +51390,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51413,7 +51416,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51439,7 +51442,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51465,7 +51468,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51491,7 +51494,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51517,7 +51520,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51543,7 +51546,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51569,7 +51572,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51595,7 +51598,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51621,7 +51624,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51647,7 +51650,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51673,7 +51676,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51699,7 +51702,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51725,7 +51728,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51751,7 +51754,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51777,7 +51780,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51803,7 +51806,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51829,7 +51832,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51855,7 +51858,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51881,7 +51884,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51907,7 +51910,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51933,7 +51936,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51959,7 +51962,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51985,7 +51988,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52011,7 +52014,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52037,7 +52040,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52063,7 +52066,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52089,7 +52092,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52115,7 +52118,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52141,7 +52144,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52167,7 +52170,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52193,7 +52196,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52219,7 +52222,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52245,7 +52248,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52271,7 +52274,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52297,7 +52300,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52323,7 +52326,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52349,7 +52352,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52375,7 +52378,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52401,7 +52404,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52427,7 +52430,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52453,7 +52456,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52479,7 +52482,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52505,7 +52508,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52531,7 +52534,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52557,7 +52560,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52583,7 +52586,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52609,7 +52612,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52635,7 +52638,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52661,7 +52664,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52687,7 +52690,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52713,7 +52716,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52739,7 +52742,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52765,7 +52768,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52791,7 +52794,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52817,7 +52820,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52843,7 +52846,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52869,7 +52872,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52895,7 +52898,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52921,7 +52924,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52947,7 +52950,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52973,7 +52976,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52999,7 +53002,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53025,7 +53028,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53051,7 +53054,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53077,7 +53080,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53103,7 +53106,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53129,7 +53132,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53155,7 +53158,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53181,7 +53184,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53207,7 +53210,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53233,7 +53236,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53259,7 +53262,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53285,7 +53288,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53311,7 +53314,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53337,7 +53340,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53363,7 +53366,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53389,7 +53392,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53415,7 +53418,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53441,7 +53444,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53467,7 +53470,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53493,7 +53496,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53519,7 +53522,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53545,7 +53548,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53571,7 +53574,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53597,7 +53600,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53623,7 +53626,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53649,7 +53652,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53675,7 +53678,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53701,7 +53704,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53727,7 +53730,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53753,7 +53756,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53779,7 +53782,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53805,7 +53808,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53831,7 +53834,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53857,7 +53860,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53883,7 +53886,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53909,7 +53912,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53935,7 +53938,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53961,7 +53964,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53987,7 +53990,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54013,7 +54016,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54039,7 +54042,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54065,7 +54068,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54091,7 +54094,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54117,7 +54120,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54143,7 +54146,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54169,7 +54172,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54195,7 +54198,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54221,7 +54224,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54247,7 +54250,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54273,7 +54276,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54299,7 +54302,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54325,7 +54328,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54351,7 +54354,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54377,7 +54380,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54403,7 +54406,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54429,7 +54432,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54455,7 +54458,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54481,7 +54484,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54507,7 +54510,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54533,7 +54536,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54559,7 +54562,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54585,7 +54588,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54611,7 +54614,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54637,7 +54640,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54663,7 +54666,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54689,7 +54692,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54715,7 +54718,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54741,7 +54744,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54767,7 +54770,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54793,7 +54796,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54819,7 +54822,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54845,7 +54848,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54871,7 +54874,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54897,7 +54900,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54923,7 +54926,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54949,7 +54952,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54975,7 +54978,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55001,7 +55004,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55027,7 +55030,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55053,7 +55056,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55079,7 +55082,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55105,7 +55108,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55131,7 +55134,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55157,7 +55160,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55183,7 +55186,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55209,7 +55212,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55235,7 +55238,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55261,7 +55264,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55287,7 +55290,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55313,7 +55316,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55339,7 +55342,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55365,7 +55368,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55391,7 +55394,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55417,7 +55420,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55443,7 +55446,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55469,7 +55472,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55495,7 +55498,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55521,7 +55524,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55547,7 +55550,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55573,7 +55576,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55599,7 +55602,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55625,7 +55628,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55651,7 +55654,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55677,7 +55680,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55703,7 +55706,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55729,7 +55732,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55755,7 +55758,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55781,7 +55784,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55807,7 +55810,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55833,7 +55836,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55859,7 +55862,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55885,7 +55888,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55911,7 +55914,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55937,7 +55940,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55963,7 +55966,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55989,7 +55992,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56015,7 +56018,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56041,7 +56044,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56067,7 +56070,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56093,7 +56096,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56119,7 +56122,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56145,7 +56148,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56171,7 +56174,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56197,7 +56200,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56223,7 +56226,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56249,7 +56252,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56275,7 +56278,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56301,7 +56304,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56327,7 +56330,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56353,7 +56356,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56379,7 +56382,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56405,7 +56408,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56431,7 +56434,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56457,7 +56460,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56483,7 +56486,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56509,7 +56512,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56535,7 +56538,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56561,7 +56564,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56587,7 +56590,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56613,7 +56616,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56639,7 +56642,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56665,7 +56668,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56691,7 +56694,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56717,7 +56720,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56743,7 +56746,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56769,7 +56772,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56795,7 +56798,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56821,7 +56824,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56847,7 +56850,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56873,7 +56876,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56899,7 +56902,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56925,7 +56928,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56951,7 +56954,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56977,7 +56980,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57003,7 +57006,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57029,7 +57032,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57055,7 +57058,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57081,7 +57084,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57107,7 +57110,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57133,7 +57136,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57159,7 +57162,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57185,7 +57188,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57211,7 +57214,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57237,7 +57240,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57263,7 +57266,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57289,7 +57292,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57315,7 +57318,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57341,7 +57344,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57367,7 +57370,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57393,7 +57396,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57419,7 +57422,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57445,7 +57448,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57471,7 +57474,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57497,7 +57500,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57523,7 +57526,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57549,7 +57552,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57575,7 +57578,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57601,7 +57604,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57627,7 +57630,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57653,7 +57656,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57679,7 +57682,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57705,7 +57708,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57731,7 +57734,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57757,7 +57760,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57783,7 +57786,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57809,7 +57812,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57835,7 +57838,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57861,7 +57864,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57887,7 +57890,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57913,7 +57916,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57939,7 +57942,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57965,7 +57968,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57991,7 +57994,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58017,7 +58020,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58043,7 +58046,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58069,7 +58072,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58095,7 +58098,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58121,7 +58124,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58147,7 +58150,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58173,7 +58176,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58199,7 +58202,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58225,7 +58228,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58251,7 +58254,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58277,7 +58280,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58303,7 +58306,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58329,7 +58332,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58355,7 +58358,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58381,7 +58384,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58407,7 +58410,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58433,7 +58436,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58459,7 +58462,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58485,7 +58488,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58511,7 +58514,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58537,7 +58540,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58563,7 +58566,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58589,7 +58592,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58615,7 +58618,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58641,7 +58644,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58667,7 +58670,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58693,7 +58696,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58719,7 +58722,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58745,7 +58748,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58771,7 +58774,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58797,7 +58800,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58823,7 +58826,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58849,7 +58852,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58875,7 +58878,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58901,7 +58904,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58927,7 +58930,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58953,7 +58956,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58979,7 +58982,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59005,7 +59008,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59031,7 +59034,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59057,7 +59060,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59083,7 +59086,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59109,7 +59112,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59135,7 +59138,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59161,7 +59164,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59187,7 +59190,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59213,7 +59216,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59239,7 +59242,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59265,7 +59268,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59291,7 +59294,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59317,7 +59320,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59343,7 +59346,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59369,7 +59372,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59395,7 +59398,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59421,7 +59424,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59447,7 +59450,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59473,7 +59476,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59499,7 +59502,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59525,7 +59528,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59551,7 +59554,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59577,7 +59580,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59603,7 +59606,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59629,7 +59632,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59655,7 +59658,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59681,7 +59684,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1157">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81509971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.95551681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81509876251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808483123779</t>
@@ -59,70 +59,70 @@
     <t xml:space="preserve">8.64347743988037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58106994628906</t>
+    <t xml:space="preserve">8.58106899261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.47965621948242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19102001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437515258789</t>
+    <t xml:space="preserve">8.19102096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437467575073</t>
   </si>
   <si>
     <t xml:space="preserve">7.96479272842407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9257869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280185699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05840396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400798797607</t>
+    <t xml:space="preserve">7.92578840255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05840587615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798639297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02719974517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6293511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8399772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005895614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861251831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164852142334</t>
+    <t xml:space="preserve">7.91798734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521030426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02720165252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699262619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8009729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164756774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.43285179138184</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">8.3782434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3470401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002624511719</t>
+    <t xml:space="preserve">8.34704113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2300271987915</t>
   </si>
   <si>
     <t xml:space="preserve">8.08180713653564</t>
@@ -146,40 +146,40 @@
     <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30023574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35484218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3080358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24562835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882392883301</t>
+    <t xml:space="preserve">8.11301136016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3002347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3548412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30803489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24562740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882297515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.25342845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13641548156738</t>
+    <t xml:space="preserve">8.13641452789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.12081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03500270843506</t>
+    <t xml:space="preserve">8.03500080108643</t>
   </si>
   <si>
     <t xml:space="preserve">7.94919061660767</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">8.01939964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259521484375</t>
+    <t xml:space="preserve">7.97259473800659</t>
   </si>
   <si>
     <t xml:space="preserve">7.93358850479126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80877304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94139003753662</t>
+    <t xml:space="preserve">7.80877447128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94139051437378</t>
   </si>
   <si>
     <t xml:space="preserve">7.86337995529175</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00379943847656</t>
+    <t xml:space="preserve">8.00379753112793</t>
   </si>
   <si>
     <t xml:space="preserve">8.05060291290283</t>
@@ -215,40 +215,40 @@
     <t xml:space="preserve">7.99599695205688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78537034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586771011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77367067337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89458417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615652084351</t>
+    <t xml:space="preserve">7.78536939620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586675643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7970724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458322525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906280517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615699768066</t>
   </si>
   <si>
     <t xml:space="preserve">7.6605544090271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60594844818115</t>
+    <t xml:space="preserve">7.60594892501831</t>
   </si>
   <si>
     <t xml:space="preserve">7.56694221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81557416915894</t>
+    <t xml:space="preserve">7.81557369232178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081218719482</t>
@@ -257,124 +257,124 @@
     <t xml:space="preserve">8.05340480804443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06160640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11901187896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16821765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00009822845459</t>
+    <t xml:space="preserve">8.06160449981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11901092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1682186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
     <t xml:space="preserve">7.88118267059326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298202514648</t>
+    <t xml:space="preserve">7.98779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8729829788208</t>
   </si>
   <si>
     <t xml:space="preserve">7.83197689056396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79097032546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954431533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19639730453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3563175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213645935059</t>
+    <t xml:space="preserve">7.79097127914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954336166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631704330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
   </si>
   <si>
     <t xml:space="preserve">7.74996662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54494047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975427627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515281677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795587539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38091993331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012619018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3850212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753356933594</t>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795635223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113227844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38092088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012762069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502073287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48753309249878</t>
   </si>
   <si>
     <t xml:space="preserve">7.46293067932129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50393486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523260116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.479332447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803661346436</t>
+    <t xml:space="preserve">7.50393533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53264045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933149337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703052520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803518295288</t>
   </si>
   <si>
     <t xml:space="preserve">7.49163436889648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60234785079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5285382270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962362289429</t>
+    <t xml:space="preserve">7.60234880447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853870391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40962409973145</t>
   </si>
   <si>
     <t xml:space="preserve">7.38912105560303</t>
@@ -383,46 +383,46 @@
     <t xml:space="preserve">7.4588303565979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51623725891113</t>
+    <t xml:space="preserve">7.51623678207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.56134366989136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58594560623169</t>
+    <t xml:space="preserve">7.58594655990601</t>
   </si>
   <si>
     <t xml:space="preserve">7.57774496078491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52443933486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732313156128</t>
+    <t xml:space="preserve">7.52443885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732122421265</t>
   </si>
   <si>
     <t xml:space="preserve">7.372718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27840662002563</t>
+    <t xml:space="preserve">7.27840805053711</t>
   </si>
   <si>
     <t xml:space="preserve">7.21689987182617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20459794998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3768196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782426834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832778930664</t>
+    <t xml:space="preserve">7.20459890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37681913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422746658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782474517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832731246948</t>
   </si>
   <si>
     <t xml:space="preserve">7.33171367645264</t>
@@ -434,118 +434,118 @@
     <t xml:space="preserve">7.34401512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29890918731689</t>
+    <t xml:space="preserve">7.29891014099121</t>
   </si>
   <si>
     <t xml:space="preserve">7.32351398468018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33991622924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041784286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31941366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581495285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121206283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473003387451</t>
+    <t xml:space="preserve">7.33991479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041736602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31941318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711126327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45472955703735</t>
   </si>
   <si>
     <t xml:space="preserve">7.17589473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18409633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869970321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279907226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2415018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192649841309</t>
+    <t xml:space="preserve">7.18409585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192554473877</t>
   </si>
   <si>
     <t xml:space="preserve">7.74176502227783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09850978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3650426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52906227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604877471924</t>
+    <t xml:space="preserve">8.0985107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36504364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805904388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
     <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38144588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705200195312</t>
+    <t xml:space="preserve">8.38144397735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705295562744</t>
   </si>
   <si>
     <t xml:space="preserve">8.49625873565674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65207862854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88990879058838</t>
+    <t xml:space="preserve">8.65208053588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8899097442627</t>
   </si>
   <si>
     <t xml:space="preserve">8.89811038970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75869274139404</t>
+    <t xml:space="preserve">8.75869178771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.6848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7258882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75049114227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7750940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73408889770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58647155761719</t>
+    <t xml:space="preserve">8.72588729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77509498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73408794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58647060394287</t>
   </si>
   <si>
     <t xml:space="preserve">8.50446033477783</t>
@@ -560,82 +560,82 @@
     <t xml:space="preserve">8.61107349395752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57826995849609</t>
+    <t xml:space="preserve">8.57826900482178</t>
   </si>
   <si>
     <t xml:space="preserve">8.676682472229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63567638397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69308471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66848087310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79149436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96371650695801</t>
+    <t xml:space="preserve">8.63567733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69308567047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66028022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66847991943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79149627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96371746063232</t>
   </si>
   <si>
     <t xml:space="preserve">9.0867338180542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59519577026367</t>
+    <t xml:space="preserve">9.23435211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519481658936</t>
   </si>
   <si>
     <t xml:space="preserve">9.66900539398193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62800121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55419063568115</t>
+    <t xml:space="preserve">9.6279993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66080570220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73461246490479</t>
+    <t xml:space="preserve">9.66080474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461437225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.92323684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0544538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1282644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.620325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909587860107</t>
+    <t xml:space="preserve">10.0544548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1282625198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6203241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909578323364</t>
   </si>
   <si>
     <t xml:space="preserve">10.8663539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6941337585449</t>
+    <t xml:space="preserve">10.6941347122192</t>
   </si>
   <si>
     <t xml:space="preserve">10.6613292694092</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4809064865112</t>
+    <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">10.4070978164673</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">10.4973087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562915802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481039047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5137100219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5875205993652</t>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481019973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5137119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5875186920166</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645051956177</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152984619141</t>
+    <t xml:space="preserve">10.4152965545654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253488540649</t>
+    <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533899307251</t>
+    <t xml:space="preserve">11.1533918380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.8581523895264</t>
@@ -695,61 +695,61 @@
     <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549793243408</t>
+    <t xml:space="preserve">11.0549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4404249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092107772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7848682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3835458755493</t>
+    <t xml:space="preserve">11.4404258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7848701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3835439682007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375131607056</t>
+    <t xml:space="preserve">12.145715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443895339966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.121636390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1708431243896</t>
+    <t xml:space="preserve">13.1216354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1708421707153</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364492416382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9609956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470003128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160924911499</t>
+    <t xml:space="preserve">12.9609966278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470012664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499116897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160934448242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4260034561157</t>
@@ -761,46 +761,46 @@
     <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3076391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1385450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245477676392</t>
+    <t xml:space="preserve">13.3076372146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1385459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245487213135</t>
   </si>
   <si>
     <t xml:space="preserve">11.9718008041382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3099889755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423505783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
+    <t xml:space="preserve">12.3099880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423515319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3776254653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6059017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.470627784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4537162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5128993988037</t>
+    <t xml:space="preserve">12.2677154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059007644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4706258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4537172317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512900352478</t>
   </si>
   <si>
     <t xml:space="preserve">12.5551738739014</t>
@@ -809,22 +809,22 @@
     <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3438062667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1747140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210739135742</t>
+    <t xml:space="preserve">12.343807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1747121810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210748672485</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056200027466</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394382476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259259223938</t>
+    <t xml:space="preserve">12.039439201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607168197632</t>
@@ -836,25 +836,25 @@
     <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5467176437378</t>
+    <t xml:space="preserve">12.5467195510864</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073574066162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143560409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6819925308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327213287354</t>
+    <t xml:space="preserve">12.6143569946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6819934844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228094100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327222824097</t>
   </si>
   <si>
     <t xml:space="preserve">12.8510866165161</t>
@@ -863,25 +863,25 @@
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4513683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822742462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.519003868103</t>
+    <t xml:space="preserve">12.9356327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4513692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822732925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006385803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190048217773</t>
   </si>
   <si>
     <t xml:space="preserve">13.4598226547241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3583660125732</t>
+    <t xml:space="preserve">13.3583679199219</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315464019775</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">13.2738189697266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4936399459839</t>
+    <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">14.2207412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883796691895</t>
+    <t xml:space="preserve">14.4743814468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420198440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883787155151</t>
   </si>
   <si>
     <t xml:space="preserve">14.3560171127319</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3729257583618</t>
+    <t xml:space="preserve">14.3729267120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.5673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5758371353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7364797592163</t>
+    <t xml:space="preserve">14.5758380889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7364768981934</t>
   </si>
   <si>
     <t xml:space="preserve">14.7111120223999</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">14.7872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3536653518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201288223267</t>
+    <t xml:space="preserve">15.353666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.920129776001</t>
   </si>
   <si>
     <t xml:space="preserve">15.8947658538818</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696826934814</t>
+    <t xml:space="preserve">16.1145839691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696807861328</t>
   </si>
   <si>
     <t xml:space="preserve">16.4865913391113</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6303234100342</t>
+    <t xml:space="preserve">16.6303215026855</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4335155487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0929775238037</t>
+    <t xml:space="preserve">17.4335136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0929794311523</t>
   </si>
   <si>
     <t xml:space="preserve">17.712516784668</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7270755767822</t>
+    <t xml:space="preserve">18.7270774841309</t>
   </si>
   <si>
     <t xml:space="preserve">18.7608966827393</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">18.8369884490967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0145378112793</t>
+    <t xml:space="preserve">19.0145320892334</t>
   </si>
   <si>
     <t xml:space="preserve">19.1329002380371</t>
@@ -1010,19 +1010,19 @@
     <t xml:space="preserve">17.9407920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7547931671143</t>
+    <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5349674224854</t>
+    <t xml:space="preserve">17.6702442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.534969329834</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463359832764</t>
@@ -1034,58 +1034,58 @@
     <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6533317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2475109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5772457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.492696762085</t>
+    <t xml:space="preserve">17.6533355712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2475128173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.577241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4926986694336</t>
   </si>
   <si>
     <t xml:space="preserve">17.6279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434226989746</t>
+    <t xml:space="preserve">17.5434265136719</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378826141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8393363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3550720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9384422302246</t>
+    <t xml:space="preserve">17.8055191040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8393402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3550701141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9384441375732</t>
   </si>
   <si>
     <t xml:space="preserve">19.5979080200195</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8092746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372653961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611793518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4457206726074</t>
+    <t xml:space="preserve">19.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">19.3189029693604</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1836318969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.22825050354</t>
+    <t xml:space="preserve">18.929988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2282485961914</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0361442565918</t>
+    <t xml:space="preserve">17.0361423492432</t>
   </si>
   <si>
     <t xml:space="preserve">16.7402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0023250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.917781829834</t>
+    <t xml:space="preserve">17.002326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9177799224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.83323097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585968017578</t>
+    <t xml:space="preserve">16.8332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585948944092</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093246459961</t>
@@ -1145,76 +1145,76 @@
     <t xml:space="preserve">16.9515972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7233219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.571138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.537317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7763996124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565795898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787485122681</t>
+    <t xml:space="preserve">16.7233238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5711402893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8247776031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9938716888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6556854248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5373210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763986587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565767288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918516159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551239013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787494659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.3898344039917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4720296859741</t>
+    <t xml:space="preserve">15.4720315933228</t>
   </si>
   <si>
     <t xml:space="preserve">15.7933082580566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9962186813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484069824219</t>
+    <t xml:space="preserve">15.9962224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484050750732</t>
   </si>
   <si>
     <t xml:space="preserve">15.522759437561</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1676654815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618379592896</t>
+    <t xml:space="preserve">15.1676635742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603851318359</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6096572875977</t>
+    <t xml:space="preserve">14.609655380249</t>
   </si>
   <si>
     <t xml:space="preserve">14.4574728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5589265823364</t>
+    <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802051544189</t>
@@ -1223,67 +1223,67 @@
     <t xml:space="preserve">15.2183933258057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3198480606079</t>
+    <t xml:space="preserve">15.3198499679565</t>
   </si>
   <si>
     <t xml:space="preserve">15.3029384613037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8102207183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382133483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705778121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.829478263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.049298286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058517456055</t>
+    <t xml:space="preserve">15.8102188110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382123947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396680831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8294773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058498382568</t>
   </si>
   <si>
     <t xml:space="preserve">15.488941192627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6073064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411256790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924140930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.435863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329521179199</t>
+    <t xml:space="preserve">15.6073055267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411266326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.351318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4358615875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329540252686</t>
   </si>
   <si>
     <t xml:space="preserve">16.5542278289795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3344097137451</t>
+    <t xml:space="preserve">16.3005905151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
     <t xml:space="preserve">16.317497253418</t>
@@ -1295,31 +1295,31 @@
     <t xml:space="preserve">16.21604347229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1745185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5825567245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173810958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437194824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263092041016</t>
+    <t xml:space="preserve">16.1745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521997451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437213897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">16.1397018432617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3312187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4879150390625</t>
+    <t xml:space="preserve">16.3312168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
@@ -1328,52 +1328,52 @@
     <t xml:space="preserve">16.1048793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0874671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740755081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9209518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8513088226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164873123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731864929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298780441284</t>
+    <t xml:space="preserve">16.0874652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740793228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696119308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044324874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.920952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8513097763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164892196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254163742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9731855392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298809051514</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285440444946</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544364929199</t>
+    <t xml:space="preserve">14.0155982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544374465942</t>
   </si>
   <si>
     <t xml:space="preserve">14.0678281784058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9633665084839</t>
+    <t xml:space="preserve">13.9633655548096</t>
   </si>
   <si>
     <t xml:space="preserve">14.7468461990356</t>
@@ -1385,40 +1385,40 @@
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459543228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504179000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1026515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8414897918701</t>
+    <t xml:space="preserve">13.9459552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1026496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8414888381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.702205657959</t>
+    <t xml:space="preserve">13.7022037506104</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240795135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3539915084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.058009147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4062223434448</t>
+    <t xml:space="preserve">13.8240804672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3539924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1798849105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0580101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4062213897705</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">11.6303329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6651554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187231063843</t>
+    <t xml:space="preserve">11.6651544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.6325626373291</t>
@@ -1457,43 +1457,43 @@
     <t xml:space="preserve">13.7718467712402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066692352295</t>
+    <t xml:space="preserve">13.8066673278809</t>
   </si>
   <si>
     <t xml:space="preserve">13.2669372558594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8763113021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.493275642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3017597198486</t>
+    <t xml:space="preserve">13.8763103485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4932765960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3017578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3714017868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2745294570923</t>
+    <t xml:space="preserve">13.3714008331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2745304107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.065601348877</t>
+    <t xml:space="preserve">12.0655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4312238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3615818023682</t>
+    <t xml:space="preserve">12.431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3615827560425</t>
   </si>
   <si>
     <t xml:space="preserve">12.1178331375122</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">11.5084590911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4736375808716</t>
+    <t xml:space="preserve">11.4736385345459</t>
   </si>
   <si>
     <t xml:space="preserve">11.3865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1776571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517627716064</t>
+    <t xml:space="preserve">11.1776561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517637252808</t>
   </si>
   <si>
     <t xml:space="preserve">11.403995513916</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">12.1700649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8490810394287</t>
+    <t xml:space="preserve">12.849081993103</t>
   </si>
   <si>
     <t xml:space="preserve">11.9089050292969</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">11.8218517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7097959518433</t>
+    <t xml:space="preserve">12.7097969055176</t>
   </si>
   <si>
     <t xml:space="preserve">12.8839025497437</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272071838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4834575653076</t>
+    <t xml:space="preserve">12.7272062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4834566116333</t>
   </si>
   <si>
     <t xml:space="preserve">12.6053314208984</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8664922714233</t>
+    <t xml:space="preserve">12.866491317749</t>
   </si>
   <si>
     <t xml:space="preserve">12.8142604827881</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0928297042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147064208984</t>
+    <t xml:space="preserve">13.0928316116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147054672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3888130187988</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4584550857544</t>
+    <t xml:space="preserve">13.4584560394287</t>
   </si>
   <si>
     <t xml:space="preserve">13.475866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7196159362793</t>
+    <t xml:space="preserve">13.719614982605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2321166992188</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972942352295</t>
+    <t xml:space="preserve">13.1972951889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057764053345</t>
@@ -1619,52 +1619,52 @@
     <t xml:space="preserve">13.5455093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.040599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410448074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9111328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638114929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330095291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807739257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1722927093506</t>
+    <t xml:space="preserve">13.0405988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9111318588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1548833847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807758331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1722936630249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2593450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8937215805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5629196166992</t>
+    <t xml:space="preserve">13.8937225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5629186630249</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.68479347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883670806885</t>
+    <t xml:space="preserve">13.6847944259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883661270142</t>
   </si>
   <si>
     <t xml:space="preserve">13.2470941543579</t>
@@ -3476,7 +3476,13 @@
     <t xml:space="preserve">17.3999996185303</t>
   </si>
   <si>
+    <t xml:space="preserve">17.4500007629395</t>
+  </si>
+  <si>
     <t xml:space="preserve">17.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -59666,27 +59672,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493171296</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>1236</v>
+        <v>952</v>
       </c>
       <c r="C2149" t="n">
         <v>17.5</v>
       </c>
       <c r="D2149" t="n">
-        <v>17.2000007629395</v>
+        <v>17.3500003814697</v>
       </c>
       <c r="E2149" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F2149" t="n">
         <v>17.4500007629395</v>
-      </c>
-      <c r="F2149" t="n">
-        <v>17.2000007629395</v>
       </c>
       <c r="G2149" t="s">
         <v>1154</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>17.2000007629395</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>17.4500007629395</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>17.2000007629395</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6449537037</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>17.1499996185303</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>17.1499996185303</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>17.1000003814697</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90090942382812</t>
+    <t xml:space="preserve">8.90091037750244</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551586151123</t>
+    <t xml:space="preserve">8.95551490783691</t>
   </si>
   <si>
     <t xml:space="preserve">8.81509971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106994628906</t>
+    <t xml:space="preserve">8.64347743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58107089996338</t>
   </si>
   <si>
     <t xml:space="preserve">8.47965621948242</t>
@@ -68,31 +68,31 @@
     <t xml:space="preserve">8.19102096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82437467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479368209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9257869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05840492248535</t>
+    <t xml:space="preserve">7.82437610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479463577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92578792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280185699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05840396881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20662307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798782348633</t>
+    <t xml:space="preserve">8.20662403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798639297485</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521125793457</t>
@@ -101,31 +101,31 @@
     <t xml:space="preserve">8.02720069885254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097341537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285274505615</t>
+    <t xml:space="preserve">7.95699214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8399772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861156463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285179138184</t>
   </si>
   <si>
     <t xml:space="preserve">8.26903057098389</t>
@@ -134,31 +134,31 @@
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34704113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002624511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
+    <t xml:space="preserve">8.3470401763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30023574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35484027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30803489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683258056641</t>
+    <t xml:space="preserve">8.3002347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3548412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30803680419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683067321777</t>
   </si>
   <si>
     <t xml:space="preserve">8.21442413330078</t>
@@ -167,142 +167,142 @@
     <t xml:space="preserve">8.24562835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19882392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25342845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641357421875</t>
+    <t xml:space="preserve">8.19882297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2534294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641452789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.12081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03500080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358945846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8087739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94138956069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86337995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379753112793</t>
+    <t xml:space="preserve">8.03500175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01940059661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877304077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9413890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86338090896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379848480225</t>
   </si>
   <si>
     <t xml:space="preserve">8.05060386657715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76196765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599742889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78536987304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586723327637</t>
+    <t xml:space="preserve">7.76196908950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537034988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586771011353</t>
   </si>
   <si>
     <t xml:space="preserve">7.72686338424683</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79707098007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366971969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89458274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906328201294</t>
+    <t xml:space="preserve">7.7970724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366876602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906280517578</t>
   </si>
   <si>
     <t xml:space="preserve">7.67615604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66055488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594844818115</t>
+    <t xml:space="preserve">7.6605544090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594797134399</t>
   </si>
   <si>
     <t xml:space="preserve">7.56694269180298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81557369232178</t>
+    <t xml:space="preserve">7.81557321548462</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05340480804443</t>
+    <t xml:space="preserve">8.05340385437012</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11901187896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1682186126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00009632110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88118267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779535293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097080230713</t>
+    <t xml:space="preserve">8.1190128326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16821956634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00009727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88118362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197689056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097127914429</t>
   </si>
   <si>
     <t xml:space="preserve">7.56954336166382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631704330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996566772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54493999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975570678711</t>
+    <t xml:space="preserve">7.19639730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3563175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54494047164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975522994995</t>
   </si>
   <si>
     <t xml:space="preserve">7.54904079437256</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">7.63515281677246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76226854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795587539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372537612915</t>
+    <t xml:space="preserve">7.76226806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372442245483</t>
   </si>
   <si>
     <t xml:space="preserve">7.47113180160522</t>
@@ -332,118 +332,118 @@
     <t xml:space="preserve">7.43012762069702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38502073287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753356933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293115615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393438339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523164749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.532639503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933197021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234785079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853870391846</t>
+    <t xml:space="preserve">7.3850212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4875340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293067932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933340072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803661346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6023473739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853918075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.40962362289429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38912105560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623678207397</t>
+    <t xml:space="preserve">7.38912153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45883083343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623773574829</t>
   </si>
   <si>
     <t xml:space="preserve">7.56134271621704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58594560623169</t>
+    <t xml:space="preserve">7.58594655990601</t>
   </si>
   <si>
     <t xml:space="preserve">7.57774543762207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52443838119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732217788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21690034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20459794998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37681865692139</t>
+    <t xml:space="preserve">7.52443790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3973217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37272024154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840757369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21690082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20459842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3768196105957</t>
   </si>
   <si>
     <t xml:space="preserve">7.43422698974609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41782522201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832683563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171510696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811735153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
+    <t xml:space="preserve">7.41782474517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832778930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171415328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811544418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401512145996</t>
   </si>
   <si>
     <t xml:space="preserve">7.29890966415405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32351350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041736602783</t>
+    <t xml:space="preserve">7.32351398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041831970215</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761383056641</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">7.30711078643799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33581399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121253967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473003387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589473724365</t>
+    <t xml:space="preserve">7.33581495285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45472955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589521408081</t>
   </si>
   <si>
     <t xml:space="preserve">7.18409633636475</t>
@@ -476,100 +476,100 @@
     <t xml:space="preserve">7.19229650497437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21279859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176549911499</t>
+    <t xml:space="preserve">7.21279954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2415018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176454544067</t>
   </si>
   <si>
     <t xml:space="preserve">8.09850978851318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23382568359375</t>
+    <t xml:space="preserve">8.23382663726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.36504364013672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5290641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604877471924</t>
+    <t xml:space="preserve">8.52906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
     <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38144588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65207958221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88990783691406</t>
+    <t xml:space="preserve">8.38144683837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65207862854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88990879058838</t>
   </si>
   <si>
     <t xml:space="preserve">8.89810943603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75869178771973</t>
+    <t xml:space="preserve">8.75869083404541</t>
   </si>
   <si>
     <t xml:space="preserve">8.68488311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72588920593262</t>
+    <t xml:space="preserve">8.7258882522583</t>
   </si>
   <si>
     <t xml:space="preserve">8.75049018859863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7750940322876</t>
+    <t xml:space="preserve">8.77509307861328</t>
   </si>
   <si>
     <t xml:space="preserve">8.73408889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58647060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50446033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54546546936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57826900482178</t>
+    <t xml:space="preserve">8.5864725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50445938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54546451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61107349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57827091217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.676682472229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63567638397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69308471679688</t>
+    <t xml:space="preserve">8.63567733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69308376312256</t>
   </si>
   <si>
     <t xml:space="preserve">8.66028022766113</t>
@@ -581,106 +581,106 @@
     <t xml:space="preserve">8.79149627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371841430664</t>
+    <t xml:space="preserve">8.96371746063232</t>
   </si>
   <si>
     <t xml:space="preserve">9.0867338180542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435211181641</t>
+    <t xml:space="preserve">9.23435115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59519672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55419158935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61159992218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66080284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7346134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0544528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1282634735107</t>
+    <t xml:space="preserve">9.59519577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66900539398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62800121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138805389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55419063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61159896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66080474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0544538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1282625198364</t>
   </si>
   <si>
     <t xml:space="preserve">10.620325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8909578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663539886475</t>
+    <t xml:space="preserve">10.8909568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663549423218</t>
   </si>
   <si>
     <t xml:space="preserve">10.6941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6613302230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5465145111084</t>
+    <t xml:space="preserve">10.6613292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5465135574341</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4973087310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5137100219727</t>
+    <t xml:space="preserve">10.4070978164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4973096847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5629177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793170928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513710975647</t>
   </si>
   <si>
     <t xml:space="preserve">10.5875196456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.464506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055112838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4152984619141</t>
+    <t xml:space="preserve">10.4645051956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055093765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153003692627</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253507614136</t>
+    <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187356948853</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0057706832886</t>
+    <t xml:space="preserve">11.0549764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
     <t xml:space="preserve">11.4404258728027</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">11.7848701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3835439682007</t>
+    <t xml:space="preserve">12.5311632156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.383544921875</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457147598267</t>
+    <t xml:space="preserve">12.1457138061523</t>
   </si>
   <si>
     <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314245223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170841217041</t>
+    <t xml:space="preserve">12.7443904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1708421707153</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364501953125</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">12.9609966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470003128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499116897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160924911499</t>
+    <t xml:space="preserve">13.1469993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160934448242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3752746582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4429130554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3076391220093</t>
+    <t xml:space="preserve">13.3752765655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4429111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.307638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385450363159</t>
@@ -773,25 +773,25 @@
     <t xml:space="preserve">11.9718017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3099870681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423505783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
+    <t xml:space="preserve">12.3099889755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423515319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3776254653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677164077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6059007644653</t>
+    <t xml:space="preserve">12.2677135467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059017181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.4706268310547</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4452629089355</t>
+    <t xml:space="preserve">12.4452619552612</t>
   </si>
   <si>
     <t xml:space="preserve">12.343807220459</t>
@@ -821,31 +821,31 @@
     <t xml:space="preserve">12.0056200027466</t>
   </si>
   <si>
-    <t xml:space="preserve">12.039439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2592611312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607168197632</t>
+    <t xml:space="preserve">12.0394372940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607158660889</t>
   </si>
   <si>
     <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6397199630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5467185974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073564529419</t>
+    <t xml:space="preserve">12.639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5467195510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073574066162</t>
   </si>
   <si>
     <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6819944381714</t>
+    <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650838851929</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">12.7327213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8510866165161</t>
+    <t xml:space="preserve">12.8510856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
@@ -866,49 +866,49 @@
     <t xml:space="preserve">12.9356336593628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513692855835</t>
+    <t xml:space="preserve">13.4513683319092</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822742462158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4006385803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5190048217773</t>
+    <t xml:space="preserve">13.4006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.519003868103</t>
   </si>
   <si>
     <t xml:space="preserve">13.4598226547241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3583669662476</t>
+    <t xml:space="preserve">13.3583660125732</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315464019775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936399459839</t>
+    <t xml:space="preserve">13.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2207412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4743843078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420179367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883787155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3560171127319</t>
+    <t xml:space="preserve">14.220742225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.474383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420188903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883796691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3560152053833</t>
   </si>
   <si>
     <t xml:space="preserve">14.3729267120361</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">14.5673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5758371353149</t>
+    <t xml:space="preserve">14.5758380889893</t>
   </si>
   <si>
     <t xml:space="preserve">14.7364768981934</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111129760742</t>
+    <t xml:space="preserve">14.7111120223999</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.353666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201307296753</t>
+    <t xml:space="preserve">15.3536653518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201288223267</t>
   </si>
   <si>
     <t xml:space="preserve">15.8947639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0638580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443168640137</t>
+    <t xml:space="preserve">16.0638561248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4104995727539</t>
@@ -950,43 +950,43 @@
     <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696807861328</t>
+    <t xml:space="preserve">16.4696826934814</t>
   </si>
   <si>
     <t xml:space="preserve">16.4865913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303215026855</t>
+    <t xml:space="preserve">16.1230392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303195953369</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4335117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0929756164551</t>
+    <t xml:space="preserve">17.4335136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.619514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
     <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7862606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381595611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270774841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608985900879</t>
+    <t xml:space="preserve">18.7862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381614685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608947753906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8369884490967</t>
@@ -998,34 +998,34 @@
     <t xml:space="preserve">19.1329002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8792629241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9407939910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7547912597656</t>
+    <t xml:space="preserve">18.8792610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171646118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9407901763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746131896973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.534969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463359832764</t>
+    <t xml:space="preserve">17.6702442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5349674224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463340759277</t>
   </si>
   <si>
     <t xml:space="preserve">17.5265140533447</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">17.5772438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.492696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6279716491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434246063232</t>
+    <t xml:space="preserve">17.4926986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6279697418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434226989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.938440322876</t>
+    <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.5979061126709</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">19.4372673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3611755371094</t>
+    <t xml:space="preserve">19.361177444458</t>
   </si>
   <si>
     <t xml:space="preserve">19.4710884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4457244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3189010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229892730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442649841309</t>
+    <t xml:space="preserve">19.4457206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.318904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
     <t xml:space="preserve">18.9299869537354</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">19.183629989624</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2282524108887</t>
+    <t xml:space="preserve">18.22825050354</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1206874847412</t>
+    <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0023250579834</t>
+    <t xml:space="preserve">16.7402324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002326965332</t>
   </si>
   <si>
     <t xml:space="preserve">16.9177780151367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.83323097229</t>
+    <t xml:space="preserve">17.0192337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8332328796387</t>
   </si>
   <si>
     <t xml:space="preserve">16.8585968017578</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938716888428</t>
+    <t xml:space="preserve">16.824779510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9938697814941</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5373191833496</t>
+    <t xml:space="preserve">16.537317276001</t>
   </si>
   <si>
     <t xml:space="preserve">15.7763996124268</t>
@@ -1172,112 +1172,112 @@
     <t xml:space="preserve">15.6918525695801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4551239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3898363113403</t>
+    <t xml:space="preserve">15.4551200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.389835357666</t>
   </si>
   <si>
     <t xml:space="preserve">15.4720296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7933111190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962196350098</t>
+    <t xml:space="preserve">15.7933082580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962186813354</t>
   </si>
   <si>
     <t xml:space="preserve">16.1484050750732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676645278931</t>
+    <t xml:space="preserve">15.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676635742188</t>
   </si>
   <si>
     <t xml:space="preserve">14.9647541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7618408203125</t>
+    <t xml:space="preserve">14.7618389129639</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.609655380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589265823364</t>
+    <t xml:space="preserve">14.6096563339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574737548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589284896851</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802051544189</t>
   </si>
   <si>
-    <t xml:space="preserve">15.218391418457</t>
+    <t xml:space="preserve">15.2183933258057</t>
   </si>
   <si>
     <t xml:space="preserve">15.3198509216309</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3029384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102207183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.438214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396680831909</t>
+    <t xml:space="preserve">15.3029375076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102188110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382133483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396699905396</t>
   </si>
   <si>
     <t xml:space="preserve">15.3705759048462</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8294773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903987884521</t>
+    <t xml:space="preserve">14.8294763565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903968811035</t>
   </si>
   <si>
     <t xml:space="preserve">15.0492973327637</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058488845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.5058517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.488941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073045730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411256790161</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4358654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5542297363281</t>
+    <t xml:space="preserve">16.351318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4358615875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5542278289795</t>
   </si>
   <si>
     <t xml:space="preserve">16.3005886077881</t>
@@ -1286,37 +1286,37 @@
     <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.317497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1745223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173810958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437185287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1397018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3312168121338</t>
+    <t xml:space="preserve">16.3174991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3312187194824</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879150390625</t>
@@ -1325,19 +1325,19 @@
     <t xml:space="preserve">16.1919326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696109771729</t>
+    <t xml:space="preserve">16.1048793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874671936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696128845215</t>
   </si>
   <si>
     <t xml:space="preserve">15.7044324874878</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">14.8513078689575</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8164892196655</t>
+    <t xml:space="preserve">14.8164882659912</t>
   </si>
   <si>
     <t xml:space="preserve">15.0254163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9731864929199</t>
+    <t xml:space="preserve">14.9731845855713</t>
   </si>
   <si>
     <t xml:space="preserve">15.1298809051514</t>
@@ -1364,40 +1364,40 @@
     <t xml:space="preserve">13.9285440444946</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155973434448</t>
+    <t xml:space="preserve">14.0155963897705</t>
   </si>
   <si>
     <t xml:space="preserve">13.7544364929199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0678291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633665084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.74684715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1200609207153</t>
+    <t xml:space="preserve">14.0678281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468452453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.120059967041</t>
   </si>
   <si>
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459533691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504179000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1026496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8414897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6673822402954</t>
+    <t xml:space="preserve">13.9459543228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.102650642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8414888381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.7022047042847</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539905548096</t>
+    <t xml:space="preserve">13.3539924621582</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798849105835</t>
@@ -1418,22 +1418,22 @@
     <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062232971191</t>
+    <t xml:space="preserve">13.4062223434448</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9709558486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6227416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5356893539429</t>
+    <t xml:space="preserve">12.9709548950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6227426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5530996322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5356884002686</t>
   </si>
   <si>
     <t xml:space="preserve">12.4486360549927</t>
@@ -1442,25 +1442,25 @@
     <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.630334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6651544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187240600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6325616836548</t>
+    <t xml:space="preserve">11.6303329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187250137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6325626373291</t>
   </si>
   <si>
     <t xml:space="preserve">13.7718486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2669382095337</t>
+    <t xml:space="preserve">13.8066682815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2669372558594</t>
   </si>
   <si>
     <t xml:space="preserve">13.8763113021851</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017597198486</t>
+    <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276521682739</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">13.3714017868042</t>
   </si>
   <si>
-    <t xml:space="preserve">12.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0830116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0655994415283</t>
+    <t xml:space="preserve">12.2745294570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0830125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.065601348877</t>
   </si>
   <si>
     <t xml:space="preserve">12.1874761581421</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">12.3615818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1178331375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5084590911865</t>
+    <t xml:space="preserve">12.1178321838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5084600448608</t>
   </si>
   <si>
     <t xml:space="preserve">11.4736385345459</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">11.3865852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1776552200317</t>
+    <t xml:space="preserve">11.1776561737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.3517627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.403995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1700639724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.849081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9089040756226</t>
+    <t xml:space="preserve">11.4039945602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1700649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8490810394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955123901367</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">11.5606908798218</t>
   </si>
   <si>
-    <t xml:space="preserve">11.612922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8218507766724</t>
+    <t xml:space="preserve">11.6129245758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8218517303467</t>
   </si>
   <si>
     <t xml:space="preserve">12.7097969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8839025497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3964042663574</t>
+    <t xml:space="preserve">12.883903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3964023590088</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571182250977</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">12.3441724777222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.674976348877</t>
+    <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
     <t xml:space="preserve">12.7272062301636</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053314208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6575632095337</t>
+    <t xml:space="preserve">12.6053323745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">12.8664922714233</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">12.8142595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9535455703735</t>
+    <t xml:space="preserve">12.9535446166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.0928316116333</t>
@@ -1586,25 +1586,25 @@
     <t xml:space="preserve">13.3888120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4758653640747</t>
+    <t xml:space="preserve">13.4584550857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.475866317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.7196159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2321166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3191690444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1450643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1972942352295</t>
+    <t xml:space="preserve">13.2321157455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3191699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1972951889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057764053345</t>
@@ -1613,37 +1613,37 @@
     <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5106868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236354827881</t>
+    <t xml:space="preserve">13.5106887817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111318588257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638095855713</t>
+    <t xml:space="preserve">14.1548833847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638114929199</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9807758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1722946166992</t>
+    <t xml:space="preserve">13.9807748794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2593450546265</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">13.6847944259644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151523590088</t>
+    <t xml:space="preserve">13.6151514053345</t>
   </si>
   <si>
     <t xml:space="preserve">12.9883670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2470941543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661211013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489561080933</t>
+    <t xml:space="preserve">13.2470932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.066123008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489551544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.7041797637939</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946653366089</t>
+    <t xml:space="preserve">12.7946643829346</t>
   </si>
   <si>
     <t xml:space="preserve">12.7765674591064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8127613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118293762207</t>
+    <t xml:space="preserve">12.812762260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955963134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0118312835693</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756355285645</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">12.9394426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6136932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232086181641</t>
+    <t xml:space="preserve">12.613694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232076644897</t>
   </si>
   <si>
     <t xml:space="preserve">12.3603343963623</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194818496704</t>
+    <t xml:space="preserve">13.3194828033447</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8851518630981</t>
+    <t xml:space="preserve">12.8851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0299282073975</t>
+    <t xml:space="preserve">13.0299272537231</t>
   </si>
   <si>
     <t xml:space="preserve">13.3737726211548</t>
@@ -1739,22 +1739,22 @@
     <t xml:space="preserve">13.4823551177979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.464259147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4461612701416</t>
+    <t xml:space="preserve">13.4642581939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4461622238159</t>
   </si>
   <si>
     <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1928014755249</t>
+    <t xml:space="preserve">13.1928024291992</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918695449829</t>
+    <t xml:space="preserve">13.3918714523315</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">12.5051116943359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7222776412964</t>
+    <t xml:space="preserve">12.1793642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7222766876221</t>
   </si>
   <si>
     <t xml:space="preserve">12.2155570983887</t>
@@ -1775,22 +1775,22 @@
     <t xml:space="preserve">12.1250715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4689168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413055419922</t>
+    <t xml:space="preserve">12.4689159393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413045883179</t>
   </si>
   <si>
     <t xml:space="preserve">12.5774993896484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2517518997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3060445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.414626121521</t>
+    <t xml:space="preserve">12.2517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3060436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4146251678467</t>
   </si>
   <si>
     <t xml:space="preserve">12.2879457473755</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336540222168</t>
+    <t xml:space="preserve">12.2336559295654</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1069746017456</t>
+    <t xml:space="preserve">12.1069755554199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.763129234314</t>
+    <t xml:space="preserve">11.7631282806396</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
@@ -1826,28 +1826,28 @@
     <t xml:space="preserve">11.7993230819702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8355178833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364488601685</t>
+    <t xml:space="preserve">11.8355169296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364479064941</t>
   </si>
   <si>
     <t xml:space="preserve">11.3649930953979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.473575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926034927368</t>
+    <t xml:space="preserve">11.4735746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107004165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926044464111</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011878967285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2564096450806</t>
+    <t xml:space="preserve">11.2564086914062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0392446517944</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">11.0211477279663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0030498504639</t>
+    <t xml:space="preserve">11.0030508041382</t>
   </si>
   <si>
     <t xml:space="preserve">10.9306612014771</t>
@@ -1865,40 +1865,40 @@
     <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0754384994507</t>
+    <t xml:space="preserve">11.075439453125</t>
   </si>
   <si>
     <t xml:space="preserve">11.2021188735962</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6002550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4916715621948</t>
+    <t xml:space="preserve">11.6002540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.274507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4554777145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4373817443848</t>
+    <t xml:space="preserve">11.2745065689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4554786682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4373807907104</t>
   </si>
   <si>
     <t xml:space="preserve">11.22021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2383127212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830900192261</t>
+    <t xml:space="preserve">11.2383136749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">11.5278663635254</t>
@@ -1907,25 +1907,25 @@
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965272903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784313201904</t>
+    <t xml:space="preserve">12.4508199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784322738647</t>
   </si>
   <si>
     <t xml:space="preserve">12.2698488235474</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7403736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5594024658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4327220916748</t>
+    <t xml:space="preserve">12.7403745651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5594034194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4327230453491</t>
   </si>
   <si>
     <t xml:space="preserve">11.9802951812744</t>
@@ -1937,55 +1937,55 @@
     <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.92600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1431694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6679859161377</t>
+    <t xml:space="preserve">11.9260034561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1431684494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9621982574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0526828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297292709351</t>
+    <t xml:space="preserve">11.962197303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0526838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86293029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240646362305</t>
+    <t xml:space="preserve">9.8629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240550994873</t>
   </si>
   <si>
     <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75900650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50564765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55088996887207</t>
+    <t xml:space="preserve">8.75900745391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50564670562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55088901519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.78615283966064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86758899688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82234668731689</t>
+    <t xml:space="preserve">8.86758995056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82234764099121</t>
   </si>
   <si>
     <t xml:space="preserve">8.64137649536133</t>
@@ -1994,31 +1994,31 @@
     <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48755073547363</t>
+    <t xml:space="preserve">8.48754978179932</t>
   </si>
   <si>
     <t xml:space="preserve">8.71376419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61423110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7409086227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83139610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97617244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03046321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01236724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13904762268066</t>
+    <t xml:space="preserve">8.61423015594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74090957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83139514923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97617340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03046417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01236629486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13904666900635</t>
   </si>
   <si>
     <t xml:space="preserve">9.32001686096191</t>
@@ -2033,19 +2033,19 @@
     <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54623222351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41050338745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5009880065918</t>
+    <t xml:space="preserve">9.54623126983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41050434112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50098896026611</t>
   </si>
   <si>
     <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77244663238525</t>
+    <t xml:space="preserve">9.77244472503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.0439033508301</t>
@@ -2054,31 +2054,31 @@
     <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68195915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22953128814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99426937103271</t>
+    <t xml:space="preserve">9.681960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22953224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9942684173584</t>
   </si>
   <si>
     <t xml:space="preserve">8.8494930267334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93997859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90378379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72720241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248735427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4058456420898</t>
+    <t xml:space="preserve">8.93997764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90378475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4058446884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.4963312149048</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701177597046</t>
+    <t xml:space="preserve">10.2701168060303</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">10.3606014251709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817451477051</t>
+    <t xml:space="preserve">9.90817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868148803711</t>
+    <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773023605347</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">11.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4464302062988</t>
+    <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
     <t xml:space="preserve">11.1749725341797</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130311965942</t>
+    <t xml:space="preserve">10.8130302429199</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677869796753</t>
@@ -2141,22 +2141,22 @@
     <t xml:space="preserve">10.722544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6274003982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7178859710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8988580703735</t>
+    <t xml:space="preserve">11.6274013519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7178869247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.4870147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5322580337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9904441833496</t>
+    <t xml:space="preserve">12.5322570800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9904432296753</t>
   </si>
   <si>
     <t xml:space="preserve">12.4801044464111</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.949089050293</t>
+    <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
     <t xml:space="preserve">11.4594268798828</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">12.7120761871338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8048648834229</t>
+    <t xml:space="preserve">12.8048658370972</t>
   </si>
   <si>
     <t xml:space="preserve">12.3409214019775</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647264480591</t>
+    <t xml:space="preserve">13.9647274017334</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
@@ -2255,28 +2255,28 @@
     <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">13.9183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503047943115</t>
+    <t xml:space="preserve">14.1503038406372</t>
   </si>
   <si>
     <t xml:space="preserve">14.4286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2173757553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565578460693</t>
+    <t xml:space="preserve">15.2173767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.356559753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854030609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741098403931</t>
+    <t xml:space="preserve">14.9854049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781927108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741107940674</t>
   </si>
   <si>
     <t xml:space="preserve">16.4700260162354</t>
@@ -2309,19 +2309,19 @@
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8618583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3979148864746</t>
+    <t xml:space="preserve">17.5834941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8618602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.397912979126</t>
   </si>
   <si>
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649887084961</t>
+    <t xml:space="preserve">18.4649868011475</t>
   </si>
   <si>
     <t xml:space="preserve">18.5113830566406</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
+    <t xml:space="preserve">17.3515224456787</t>
   </si>
   <si>
     <t xml:space="preserve">19.0217208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2794094085693</t>
+    <t xml:space="preserve">18.279411315918</t>
   </si>
   <si>
     <t xml:space="preserve">18.9289321899414</t>
@@ -2357,25 +2357,25 @@
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640323638916</t>
+    <t xml:space="preserve">19.764030456543</t>
   </si>
   <si>
     <t xml:space="preserve">20.970287322998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053855895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6198101043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8981781005859</t>
+    <t xml:space="preserve">21.8053874969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6198081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8981761932373</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">20.5991325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0630779266357</t>
+    <t xml:space="preserve">21.0630760192871</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6712417602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693309783936</t>
+    <t xml:space="preserve">19.6712436676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270214080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693328857422</t>
   </si>
   <si>
     <t xml:space="preserve">22.1765422821045</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2735,9 +2735,6 @@
     <t xml:space="preserve">24.9053230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198398590088</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8372573852539</t>
   </si>
   <si>
@@ -3492,6 +3489,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -46413,7 +46413,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46439,7 +46439,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46465,7 +46465,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46491,7 +46491,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46517,7 +46517,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46543,7 +46543,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46569,7 +46569,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46595,7 +46595,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46621,7 +46621,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46647,7 +46647,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46673,7 +46673,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46699,7 +46699,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46725,7 +46725,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46751,7 +46751,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46777,7 +46777,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46803,7 +46803,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46829,7 +46829,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46855,7 +46855,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46881,7 +46881,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46907,7 +46907,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46933,7 +46933,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46959,7 +46959,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46985,7 +46985,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47011,7 +47011,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47037,7 +47037,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47063,7 +47063,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47089,7 +47089,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47115,7 +47115,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47141,7 +47141,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47167,7 +47167,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47193,7 +47193,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47219,7 +47219,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47245,7 +47245,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47271,7 +47271,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47297,7 +47297,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47323,7 +47323,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47349,7 +47349,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47375,7 +47375,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47401,7 +47401,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47427,7 +47427,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47453,7 +47453,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47479,7 +47479,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47505,7 +47505,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47531,7 +47531,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47557,7 +47557,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47583,7 +47583,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47609,7 +47609,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47635,7 +47635,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47661,7 +47661,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47687,7 +47687,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47713,7 +47713,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47739,7 +47739,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47765,7 +47765,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47791,7 +47791,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47817,7 +47817,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47843,7 +47843,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47869,7 +47869,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47895,7 +47895,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47921,7 +47921,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47947,7 +47947,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47973,7 +47973,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47999,7 +47999,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48025,7 +48025,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48051,7 +48051,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48077,7 +48077,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48103,7 +48103,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48129,7 +48129,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48155,7 +48155,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48181,7 +48181,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48207,7 +48207,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48233,7 +48233,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48259,7 +48259,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48285,7 +48285,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48311,7 +48311,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48337,7 +48337,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48363,7 +48363,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48389,7 +48389,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48415,7 +48415,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48441,7 +48441,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48467,7 +48467,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48493,7 +48493,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48519,7 +48519,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48545,7 +48545,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48571,7 +48571,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48597,7 +48597,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48623,7 +48623,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48649,7 +48649,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48675,7 +48675,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48701,7 +48701,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48727,7 +48727,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48753,7 +48753,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48779,7 +48779,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48805,7 +48805,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48831,7 +48831,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48857,7 +48857,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48883,7 +48883,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48909,7 +48909,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48935,7 +48935,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48961,7 +48961,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48987,7 +48987,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49013,7 +49013,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49039,7 +49039,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49065,7 +49065,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49091,7 +49091,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49117,7 +49117,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49143,7 +49143,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49169,7 +49169,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49195,7 +49195,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49221,7 +49221,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49247,7 +49247,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49273,7 +49273,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49299,7 +49299,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49325,7 +49325,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49351,7 +49351,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49377,7 +49377,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49403,7 +49403,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49429,7 +49429,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49455,7 +49455,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49481,7 +49481,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49507,7 +49507,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49533,7 +49533,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49559,7 +49559,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49585,7 +49585,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49611,7 +49611,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49637,7 +49637,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49663,7 +49663,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49689,7 +49689,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49715,7 +49715,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49741,7 +49741,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49767,7 +49767,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49793,7 +49793,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49819,7 +49819,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49845,7 +49845,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49871,7 +49871,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49897,7 +49897,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49923,7 +49923,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49949,7 +49949,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49975,7 +49975,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50001,7 +50001,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50027,7 +50027,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50053,7 +50053,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50079,7 +50079,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50105,7 +50105,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50131,7 +50131,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50157,7 +50157,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50183,7 +50183,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50209,7 +50209,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50235,7 +50235,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50261,7 +50261,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50287,7 +50287,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50313,7 +50313,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50339,7 +50339,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50365,7 +50365,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50391,7 +50391,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50417,7 +50417,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50443,7 +50443,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50469,7 +50469,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50495,7 +50495,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50521,7 +50521,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50547,7 +50547,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50573,7 +50573,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50599,7 +50599,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50625,7 +50625,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50651,7 +50651,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50677,7 +50677,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50703,7 +50703,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50729,7 +50729,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50755,7 +50755,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50781,7 +50781,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50807,7 +50807,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50833,7 +50833,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50859,7 +50859,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50885,7 +50885,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50911,7 +50911,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50937,7 +50937,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50963,7 +50963,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50989,7 +50989,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51015,7 +51015,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51041,7 +51041,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51067,7 +51067,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51093,7 +51093,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51119,7 +51119,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51145,7 +51145,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51171,7 +51171,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51197,7 +51197,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51223,7 +51223,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51249,7 +51249,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51275,7 +51275,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51301,7 +51301,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51327,7 +51327,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51353,7 +51353,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51379,7 +51379,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51405,7 +51405,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51431,7 +51431,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51457,7 +51457,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51483,7 +51483,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51509,7 +51509,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51535,7 +51535,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51561,7 +51561,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51587,7 +51587,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51613,7 +51613,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51639,7 +51639,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51665,7 +51665,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51691,7 +51691,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51717,7 +51717,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51743,7 +51743,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51769,7 +51769,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51795,7 +51795,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51821,7 +51821,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51847,7 +51847,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51873,7 +51873,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51899,7 +51899,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51925,7 +51925,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51951,7 +51951,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51977,7 +51977,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52003,7 +52003,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52029,7 +52029,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52055,7 +52055,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52081,7 +52081,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52107,7 +52107,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52133,7 +52133,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52159,7 +52159,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52185,7 +52185,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52211,7 +52211,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52237,7 +52237,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52263,7 +52263,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52289,7 +52289,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52315,7 +52315,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52341,7 +52341,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52367,7 +52367,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52393,7 +52393,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52419,7 +52419,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52445,7 +52445,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52471,7 +52471,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52497,7 +52497,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52523,7 +52523,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52549,7 +52549,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52575,7 +52575,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52601,7 +52601,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52627,7 +52627,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52653,7 +52653,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52679,7 +52679,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52705,7 +52705,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52731,7 +52731,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52757,7 +52757,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52783,7 +52783,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52809,7 +52809,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52835,7 +52835,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52861,7 +52861,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52887,7 +52887,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52913,7 +52913,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52939,7 +52939,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52965,7 +52965,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52991,7 +52991,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53017,7 +53017,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53043,7 +53043,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53069,7 +53069,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53095,7 +53095,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53121,7 +53121,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53147,7 +53147,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53173,7 +53173,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53199,7 +53199,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53225,7 +53225,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53251,7 +53251,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53277,7 +53277,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53303,7 +53303,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53329,7 +53329,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53355,7 +53355,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53381,7 +53381,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53407,7 +53407,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53433,7 +53433,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53459,7 +53459,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53485,7 +53485,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53511,7 +53511,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53537,7 +53537,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53563,7 +53563,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53589,7 +53589,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53615,7 +53615,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53641,7 +53641,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53667,7 +53667,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53693,7 +53693,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53719,7 +53719,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53745,7 +53745,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53771,7 +53771,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53797,7 +53797,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53823,7 +53823,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53849,7 +53849,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53875,7 +53875,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53901,7 +53901,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53927,7 +53927,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53953,7 +53953,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53979,7 +53979,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54005,7 +54005,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54031,7 +54031,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54057,7 +54057,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54083,7 +54083,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54109,7 +54109,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54135,7 +54135,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54161,7 +54161,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54187,7 +54187,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54213,7 +54213,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54239,7 +54239,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54265,7 +54265,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54291,7 +54291,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54317,7 +54317,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54343,7 +54343,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54369,7 +54369,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54395,7 +54395,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54421,7 +54421,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54447,7 +54447,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54473,7 +54473,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54499,7 +54499,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54525,7 +54525,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54551,7 +54551,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54577,7 +54577,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54603,7 +54603,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54629,7 +54629,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54655,7 +54655,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54681,7 +54681,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54707,7 +54707,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54733,7 +54733,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54759,7 +54759,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54785,7 +54785,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54811,7 +54811,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54837,7 +54837,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54863,7 +54863,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54889,7 +54889,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54915,7 +54915,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54941,7 +54941,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54967,7 +54967,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54993,7 +54993,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55019,7 +55019,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55045,7 +55045,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55071,7 +55071,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55097,7 +55097,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55123,7 +55123,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55149,7 +55149,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55175,7 +55175,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55201,7 +55201,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55227,7 +55227,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55253,7 +55253,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55279,7 +55279,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55305,7 +55305,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55331,7 +55331,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55357,7 +55357,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55383,7 +55383,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55409,7 +55409,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55435,7 +55435,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55461,7 +55461,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55487,7 +55487,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55513,7 +55513,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55539,7 +55539,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55565,7 +55565,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55591,7 +55591,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55617,7 +55617,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55643,7 +55643,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55669,7 +55669,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55695,7 +55695,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55721,7 +55721,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55747,7 +55747,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55773,7 +55773,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55799,7 +55799,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55825,7 +55825,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55851,7 +55851,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55877,7 +55877,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55903,7 +55903,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55929,7 +55929,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55955,7 +55955,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55981,7 +55981,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56007,7 +56007,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56033,7 +56033,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56059,7 +56059,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56085,7 +56085,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56111,7 +56111,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56137,7 +56137,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56163,7 +56163,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56189,7 +56189,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56215,7 +56215,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56241,7 +56241,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56267,7 +56267,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56293,7 +56293,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56319,7 +56319,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56345,7 +56345,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56371,7 +56371,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56397,7 +56397,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56423,7 +56423,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56449,7 +56449,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56475,7 +56475,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56501,7 +56501,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56527,7 +56527,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56553,7 +56553,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56579,7 +56579,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56605,7 +56605,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56631,7 +56631,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56657,7 +56657,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56683,7 +56683,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56709,7 +56709,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56735,7 +56735,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56761,7 +56761,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56787,7 +56787,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56813,7 +56813,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56839,7 +56839,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56865,7 +56865,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56891,7 +56891,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56917,7 +56917,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56943,7 +56943,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56969,7 +56969,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56995,7 +56995,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57021,7 +57021,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57047,7 +57047,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57073,7 +57073,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57099,7 +57099,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57125,7 +57125,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57151,7 +57151,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57177,7 +57177,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57203,7 +57203,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57229,7 +57229,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57255,7 +57255,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57281,7 +57281,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57307,7 +57307,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57333,7 +57333,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57359,7 +57359,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57385,7 +57385,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57411,7 +57411,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57437,7 +57437,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57463,7 +57463,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57489,7 +57489,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57515,7 +57515,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57541,7 +57541,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57567,7 +57567,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57593,7 +57593,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57619,7 +57619,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57645,7 +57645,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57671,7 +57671,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57697,7 +57697,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57723,7 +57723,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57749,7 +57749,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57775,7 +57775,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57801,7 +57801,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57827,7 +57827,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57853,7 +57853,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57879,7 +57879,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57905,7 +57905,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57931,7 +57931,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57957,7 +57957,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57983,7 +57983,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58009,7 +58009,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58035,7 +58035,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58061,7 +58061,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58087,7 +58087,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58113,7 +58113,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58139,7 +58139,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58165,7 +58165,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58191,7 +58191,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58217,7 +58217,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58243,7 +58243,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58269,7 +58269,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58295,7 +58295,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58321,7 +58321,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58347,7 +58347,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58373,7 +58373,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58399,7 +58399,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58425,7 +58425,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58451,7 +58451,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58477,7 +58477,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58503,7 +58503,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58529,7 +58529,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58555,7 +58555,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58581,7 +58581,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58607,7 +58607,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58633,7 +58633,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58659,7 +58659,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58685,7 +58685,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58711,7 +58711,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58737,7 +58737,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58763,7 +58763,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58789,7 +58789,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58815,7 +58815,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58841,7 +58841,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58867,7 +58867,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58893,7 +58893,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58919,7 +58919,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58945,7 +58945,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58971,7 +58971,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58997,7 +58997,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59023,7 +59023,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59049,7 +59049,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59075,7 +59075,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59101,7 +59101,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59127,7 +59127,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59153,7 +59153,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59179,7 +59179,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59205,7 +59205,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59231,7 +59231,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59257,7 +59257,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59283,7 +59283,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59309,7 +59309,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59335,7 +59335,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59361,7 +59361,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59387,7 +59387,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59413,7 +59413,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59439,7 +59439,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59465,7 +59465,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59491,7 +59491,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59517,7 +59517,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59543,7 +59543,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59569,7 +59569,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59595,7 +59595,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59621,7 +59621,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59647,7 +59647,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59673,7 +59673,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59699,7 +59699,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59725,7 +59725,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2150" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59751,7 +59751,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59777,7 +59777,7 @@
         <v>16.75</v>
       </c>
       <c r="G2152" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59803,7 +59803,7 @@
         <v>16.75</v>
       </c>
       <c r="G2153" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59829,7 +59829,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59855,7 +59855,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2155" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59881,7 +59881,7 @@
         <v>16.75</v>
       </c>
       <c r="G2156" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59889,7 +59889,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495601852</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>384</v>
@@ -59907,9 +59907,35 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2157" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.645162037</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>4495</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>16.7999992370605</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>16.2999992370605</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>16.7999992370605</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90091037750244</t>
+    <t xml:space="preserve">8.90090847015381</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81509971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65907859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69808292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64347839355469</t>
+    <t xml:space="preserve">8.95551586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81509876251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65908050537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69808483123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64347743988037</t>
   </si>
   <si>
     <t xml:space="preserve">8.58106899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47965621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19102096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479368209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9257869720459</t>
+    <t xml:space="preserve">8.47965717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19102001190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92578840255737</t>
   </si>
   <si>
     <t xml:space="preserve">7.91018629074097</t>
@@ -86,46 +86,46 @@
     <t xml:space="preserve">8.05840492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07400798797607</t>
+    <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02720165252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62934970855713</t>
+    <t xml:space="preserve">7.91798686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02720069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699262619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935066223145</t>
   </si>
   <si>
     <t xml:space="preserve">7.83997869491577</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68005657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861442565918</t>
+    <t xml:space="preserve">7.68005752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861347198486</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43285083770752</t>
+    <t xml:space="preserve">8.43285179138184</t>
   </si>
   <si>
     <t xml:space="preserve">8.2690315246582</t>
@@ -140,37 +140,37 @@
     <t xml:space="preserve">8.23002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08180713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541980743408</t>
+    <t xml:space="preserve">8.08180809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30023574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35484027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30803489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442413330078</t>
+    <t xml:space="preserve">8.3002347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35484218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3080358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2144250869751</t>
   </si>
   <si>
     <t xml:space="preserve">8.24562740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19882202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2534294128418</t>
+    <t xml:space="preserve">8.19882297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25342845916748</t>
   </si>
   <si>
     <t xml:space="preserve">8.13641452789307</t>
@@ -179,28 +179,28 @@
     <t xml:space="preserve">8.12081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03500080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80877447128296</t>
+    <t xml:space="preserve">8.03500175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01940059661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877351760864</t>
   </si>
   <si>
     <t xml:space="preserve">7.94139051437378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86338090896606</t>
+    <t xml:space="preserve">7.86337995529175</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379848480225</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">8.05060386657715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76196718215942</t>
+    <t xml:space="preserve">7.76196908950806</t>
   </si>
   <si>
     <t xml:space="preserve">7.99599742889404</t>
@@ -218,31 +218,31 @@
     <t xml:space="preserve">7.78537082672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76586866378784</t>
+    <t xml:space="preserve">7.76586723327637</t>
   </si>
   <si>
     <t xml:space="preserve">7.72686338424683</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79707098007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366971969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89458465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615747451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6605544090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594797134399</t>
+    <t xml:space="preserve">7.79707336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366876602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458513259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615699768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594844818115</t>
   </si>
   <si>
     <t xml:space="preserve">7.56694364547729</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">7.81557369232178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11081218719482</t>
+    <t xml:space="preserve">8.11081123352051</t>
   </si>
   <si>
     <t xml:space="preserve">8.05340385437012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06160545349121</t>
+    <t xml:space="preserve">8.06160449981689</t>
   </si>
   <si>
     <t xml:space="preserve">8.1190128326416</t>
@@ -266,19 +266,19 @@
     <t xml:space="preserve">8.16821765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00009632110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88118267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779535293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197641372681</t>
+    <t xml:space="preserve">8.00009727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88118171691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298107147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197546005249</t>
   </si>
   <si>
     <t xml:space="preserve">7.79097175598145</t>
@@ -287,106 +287,106 @@
     <t xml:space="preserve">7.56954383850098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1963963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631704330444</t>
+    <t xml:space="preserve">7.19639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631799697876</t>
   </si>
   <si>
     <t xml:space="preserve">7.51213693618774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54493999481201</t>
+    <t xml:space="preserve">7.74996614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54493951797485</t>
   </si>
   <si>
     <t xml:space="preserve">7.65975522994995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54904174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6351523399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226806640625</t>
+    <t xml:space="preserve">7.54903984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63515329360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226758956909</t>
   </si>
   <si>
     <t xml:space="preserve">7.65565490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66795682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372442245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38092184066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012666702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38502025604248</t>
+    <t xml:space="preserve">7.66795587539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38091993331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012714385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38501977920532</t>
   </si>
   <si>
     <t xml:space="preserve">7.4875340461731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46293210983276</t>
+    <t xml:space="preserve">7.46293163299561</t>
   </si>
   <si>
     <t xml:space="preserve">7.50393533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47523164749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.532639503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933149337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5080361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234832763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573516845703</t>
+    <t xml:space="preserve">7.47523212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933197021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803518295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163341522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6023473739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573469161987</t>
   </si>
   <si>
     <t xml:space="preserve">7.44652843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52853870391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962409973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912200927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882987976074</t>
+    <t xml:space="preserve">7.52853918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4096245765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912105560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45883083343506</t>
   </si>
   <si>
     <t xml:space="preserve">7.51623725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56134366989136</t>
+    <t xml:space="preserve">7.5613431930542</t>
   </si>
   <si>
     <t xml:space="preserve">7.58594608306885</t>
@@ -395,49 +395,49 @@
     <t xml:space="preserve">7.57774448394775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52443838119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21689939498901</t>
+    <t xml:space="preserve">7.52443885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732217788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21689987182617</t>
   </si>
   <si>
     <t xml:space="preserve">7.20459794998169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37682056427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782474517822</t>
+    <t xml:space="preserve">7.3768196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422603607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782522201538</t>
   </si>
   <si>
     <t xml:space="preserve">7.43832731246948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33171367645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811735153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890918731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351350784302</t>
+    <t xml:space="preserve">7.33171272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890966415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351303100586</t>
   </si>
   <si>
     <t xml:space="preserve">7.33991527557373</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">7.32761430740356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31941223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711078643799</t>
+    <t xml:space="preserve">7.31941270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711126327515</t>
   </si>
   <si>
     <t xml:space="preserve">7.33581495285034</t>
@@ -461,43 +461,43 @@
     <t xml:space="preserve">7.31121110916138</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45472955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589521408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869922637939</t>
+    <t xml:space="preserve">7.4547290802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589426040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
   </si>
   <si>
     <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21279907226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192506790161</t>
+    <t xml:space="preserve">7.21280002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192602157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.74176549911499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99599647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09850978851318</t>
+    <t xml:space="preserve">7.99599695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850883483887</t>
   </si>
   <si>
     <t xml:space="preserve">8.23382663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3650426864624</t>
+    <t xml:space="preserve">8.36504364013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">8.40604877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52086448669434</t>
+    <t xml:space="preserve">8.52086353302002</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144493103027</t>
@@ -524,34 +524,34 @@
     <t xml:space="preserve">8.65207862854004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88990783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89811134338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72588920593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75049114227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7750940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73408794403076</t>
+    <t xml:space="preserve">8.88990879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89810943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68488216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7258882522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77509498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73408889770508</t>
   </si>
   <si>
     <t xml:space="preserve">8.58647155761719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50445938110352</t>
+    <t xml:space="preserve">8.50446033477783</t>
   </si>
   <si>
     <t xml:space="preserve">8.62747573852539</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">8.54546546936035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61107444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57826995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67668056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63567638397217</t>
+    <t xml:space="preserve">8.6110725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57827091217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67668151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63567733764648</t>
   </si>
   <si>
     <t xml:space="preserve">8.69308471679688</t>
@@ -578,31 +578,31 @@
     <t xml:space="preserve">8.66028022766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66848087310791</t>
+    <t xml:space="preserve">8.66847991943359</t>
   </si>
   <si>
     <t xml:space="preserve">8.79149532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371650695801</t>
+    <t xml:space="preserve">8.96371841430664</t>
   </si>
   <si>
     <t xml:space="preserve">9.08673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5951976776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66900539398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6279993057251</t>
+    <t xml:space="preserve">9.23435211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62800025939941</t>
   </si>
   <si>
     <t xml:space="preserve">9.52138710021973</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61159896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66080379486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73461437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323780059814</t>
+    <t xml:space="preserve">9.61159801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66080474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7346134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323684692383</t>
   </si>
   <si>
     <t xml:space="preserve">10.0544538497925</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">10.1282625198364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6203241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663549423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941328048706</t>
+    <t xml:space="preserve">10.6203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941337585449</t>
   </si>
   <si>
     <t xml:space="preserve">10.6613302230835</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407096862793</t>
+    <t xml:space="preserve">10.4070978164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973087310791</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">10.5629177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4481029510498</t>
+    <t xml:space="preserve">10.4481019973755</t>
   </si>
   <si>
     <t xml:space="preserve">10.5793190002441</t>
@@ -668,25 +668,25 @@
     <t xml:space="preserve">10.513710975647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875196456909</t>
+    <t xml:space="preserve">10.5875205993652</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645051956177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5055103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4152965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9073610305786</t>
+    <t xml:space="preserve">10.5055112838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4152984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.90735912323</t>
   </si>
   <si>
     <t xml:space="preserve">10.8253488540649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7187356948853</t>
+    <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1533908843994</t>
@@ -695,118 +695,118 @@
     <t xml:space="preserve">10.858154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9729690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0549783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0057716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092098236084</t>
+    <t xml:space="preserve">10.9729671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0549774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0057725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092088699341</t>
   </si>
   <si>
     <t xml:space="preserve">11.7848701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5311632156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3835439682007</t>
+    <t xml:space="preserve">12.5311622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3835430145264</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.145715713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375131607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314245223999</t>
+    <t xml:space="preserve">12.1457147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375141143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7443895339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314254760742</t>
   </si>
   <si>
     <t xml:space="preserve">13.170841217041</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2364501953125</t>
+    <t xml:space="preserve">13.2364492416382</t>
   </si>
   <si>
     <t xml:space="preserve">12.9609956741333</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1469993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160934448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.42600440979</t>
+    <t xml:space="preserve">13.1470003128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499116897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160924911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3752746582031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4429121017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.307638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1385440826416</t>
+    <t xml:space="preserve">13.4429111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3076372146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1385459899902</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9718008041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3099880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423505783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.428352355957</t>
+    <t xml:space="preserve">11.9718017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3099889755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423515319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3776254653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4283542633057</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6059017181396</t>
+    <t xml:space="preserve">12.6059007644653</t>
   </si>
   <si>
     <t xml:space="preserve">12.4706268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4537172317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5128993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5551738739014</t>
+    <t xml:space="preserve">12.4537162780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512900352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5551729202271</t>
   </si>
   <si>
     <t xml:space="preserve">12.4452629089355</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">12.343807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1747140884399</t>
+    <t xml:space="preserve">12.1747131347656</t>
   </si>
   <si>
     <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0056200027466</t>
+    <t xml:space="preserve">12.0056190490723</t>
   </si>
   <si>
     <t xml:space="preserve">12.0394382476807</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">12.2592611312866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607168197632</t>
+    <t xml:space="preserve">12.3607177734375</t>
   </si>
   <si>
     <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6397199630737</t>
+    <t xml:space="preserve">12.639720916748</t>
   </si>
   <si>
     <t xml:space="preserve">12.5467185974121</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6819944381714</t>
+    <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650838851929</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327222824097</t>
+    <t xml:space="preserve">12.6228113174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.732720375061</t>
   </si>
   <si>
     <t xml:space="preserve">12.8510866165161</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">12.9356336593628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822732925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.519003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598226547241</t>
+    <t xml:space="preserve">13.4513673782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822742462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598217010498</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583660125732</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">13.2315464019775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936399459839</t>
+    <t xml:space="preserve">13.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
     <t xml:space="preserve">13.7810983657837</t>
@@ -905,46 +905,46 @@
     <t xml:space="preserve">14.4743824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5420198440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883787155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3560161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673818588257</t>
+    <t xml:space="preserve">14.5420188903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883777618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3560152053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673837661743</t>
   </si>
   <si>
     <t xml:space="preserve">14.5758371353149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7364778518677</t>
+    <t xml:space="preserve">14.736475944519</t>
   </si>
   <si>
     <t xml:space="preserve">14.7111110687256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7872047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.353666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201288223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947639465332</t>
+    <t xml:space="preserve">14.787202835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201307296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947658538818</t>
   </si>
   <si>
     <t xml:space="preserve">16.0638580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4443168640137</t>
+    <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4104995727539</t>
@@ -956,22 +956,22 @@
     <t xml:space="preserve">16.4696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4865913391113</t>
+    <t xml:space="preserve">16.48659324646</t>
   </si>
   <si>
     <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6303234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9008693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4335117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195163726807</t>
+    <t xml:space="preserve">16.6303215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9008712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4335155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.619514465332</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929775238037</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7862586975098</t>
+    <t xml:space="preserve">18.786262512207</t>
   </si>
   <si>
     <t xml:space="preserve">18.3381633758545</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">18.7270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7608966827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8369903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0145359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1329002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792629241943</t>
+    <t xml:space="preserve">18.7608947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8369884490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.014533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1328983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792591094971</t>
   </si>
   <si>
     <t xml:space="preserve">18.8708038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6171684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9407958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7547912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9746131896973</t>
+    <t xml:space="preserve">18.617166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9407939910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6702423095703</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">17.797061920166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5349674224854</t>
+    <t xml:space="preserve">17.5349712371826</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463359832764</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">17.4419689178467</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6533317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2475090026855</t>
+    <t xml:space="preserve">17.6533336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
     <t xml:space="preserve">17.5772438049316</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">17.492696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6279697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.543420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5856971740723</t>
+    <t xml:space="preserve">17.6279735565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5856952667236</t>
   </si>
   <si>
     <t xml:space="preserve">17.8055171966553</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">17.7378807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8393363952637</t>
+    <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9384441375732</t>
+    <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.5979061126709</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">19.8092746734619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4372673034668</t>
+    <t xml:space="preserve">19.4372692108154</t>
   </si>
   <si>
     <t xml:space="preserve">19.361177444458</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4710884094238</t>
+    <t xml:space="preserve">19.4710845947266</t>
   </si>
   <si>
     <t xml:space="preserve">19.4457225799561</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">19.0229873657227</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3442649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.183629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2282524108887</t>
+    <t xml:space="preserve">19.3442668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.22825050354</t>
   </si>
   <si>
     <t xml:space="preserve">17.568790435791</t>
@@ -1118,25 +1118,25 @@
     <t xml:space="preserve">17.1206893920898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0361423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7402305603027</t>
+    <t xml:space="preserve">17.0361442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7402324676514</t>
   </si>
   <si>
     <t xml:space="preserve">17.002326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9177780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8332328796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585968017578</t>
+    <t xml:space="preserve">16.9177799224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.83323097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093227386475</t>
@@ -1148,34 +1148,34 @@
     <t xml:space="preserve">16.9515953063965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7233238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.571138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8247756958008</t>
+    <t xml:space="preserve">16.7233219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5711402893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.824779510498</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938716888428</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6556854248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.537317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7763977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551239013672</t>
+    <t xml:space="preserve">16.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5373191833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7764005661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565786361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551248550415</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787494659424</t>
@@ -1187,64 +1187,64 @@
     <t xml:space="preserve">15.4720315933228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.793309211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484031677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603841781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.609658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589265823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8802042007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102207183838</t>
+    <t xml:space="preserve">15.7933082580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484050750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676645278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647531509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618398666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6096572875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589275360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8802061080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.218391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198509216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.302939414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102178573608</t>
   </si>
   <si>
     <t xml:space="preserve">15.387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">15.438214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396699905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705759048462</t>
+    <t xml:space="preserve">15.4382123947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705739974976</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
@@ -1253,70 +1253,70 @@
     <t xml:space="preserve">15.5903987884521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0492973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058507919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.488941192627</t>
+    <t xml:space="preserve">15.0492992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058488845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889421463013</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.6411266326904</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4358654022217</t>
+    <t xml:space="preserve">16.351318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.435863494873</t>
   </si>
   <si>
     <t xml:space="preserve">16.2329521179199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5542278289795</t>
+    <t xml:space="preserve">16.5542297363281</t>
   </si>
   <si>
     <t xml:space="preserve">16.3005886077881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3344097137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3174953460693</t>
+    <t xml:space="preserve">16.3344058990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2836818695068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.21604347229</t>
+    <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5825576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
+    <t xml:space="preserve">15.582558631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522006988525</t>
   </si>
   <si>
     <t xml:space="preserve">15.8437204360962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1397018432617</t>
+    <t xml:space="preserve">15.8263063430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1396999359131</t>
   </si>
   <si>
     <t xml:space="preserve">16.3312168121338</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">16.1919326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874691009521</t>
+    <t xml:space="preserve">16.1048793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178241729736</t>
@@ -1340,64 +1340,64 @@
     <t xml:space="preserve">15.7740774154663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6696128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044324874878</t>
+    <t xml:space="preserve">15.6696109771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044315338135</t>
   </si>
   <si>
     <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8513088226318</t>
+    <t xml:space="preserve">14.8513097763062</t>
   </si>
   <si>
     <t xml:space="preserve">14.8164882659912</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0254163742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298789978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9285440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544364929199</t>
+    <t xml:space="preserve">15.0254154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9731845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9285430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544374465942</t>
   </si>
   <si>
     <t xml:space="preserve">14.0678281784058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9633665084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.74684715271</t>
+    <t xml:space="preserve">13.9633655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468461990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245244979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459533691406</t>
+    <t xml:space="preserve">14.2245264053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459562301636</t>
   </si>
   <si>
     <t xml:space="preserve">14.0504188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1026496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8414897918701</t>
+    <t xml:space="preserve">14.102650642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8414888381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6673831939697</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">13.7022037506104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7370262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8240795135498</t>
+    <t xml:space="preserve">13.7370252609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8240804672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3539915084839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1798849105835</t>
+    <t xml:space="preserve">13.1798839569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.0580101013184</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">13.4062223434448</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3365793228149</t>
+    <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
     <t xml:space="preserve">12.9709558486938</t>
@@ -1433,34 +1433,34 @@
     <t xml:space="preserve">12.6227426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5531005859375</t>
+    <t xml:space="preserve">12.5530996322632</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486351013184</t>
+    <t xml:space="preserve">12.4486360549927</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133695602417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303339004517</t>
+    <t xml:space="preserve">11.6303329467773</t>
   </si>
   <si>
     <t xml:space="preserve">11.6651554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9187250137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6325626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7718477249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8066692352295</t>
+    <t xml:space="preserve">12.9187240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6325616836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7718467712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8066682815552</t>
   </si>
   <si>
     <t xml:space="preserve">13.2669382095337</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017597198486</t>
+    <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276521682739</t>
@@ -1484,64 +1484,64 @@
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0655994415283</t>
+    <t xml:space="preserve">12.0830125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0656003952026</t>
   </si>
   <si>
     <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3615827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1178331375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5084590911865</t>
+    <t xml:space="preserve">12.4312257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1178321838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5084581375122</t>
   </si>
   <si>
     <t xml:space="preserve">11.4736385345459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3865852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776552200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517627716064</t>
+    <t xml:space="preserve">11.3865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517637252808</t>
   </si>
   <si>
     <t xml:space="preserve">11.403995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1700658798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.849081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9089040756226</t>
+    <t xml:space="preserve">12.1700649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8490810394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5606908798218</t>
+    <t xml:space="preserve">11.5606899261475</t>
   </si>
   <si>
     <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8218517303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7097969055176</t>
+    <t xml:space="preserve">11.8218507766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7097959518433</t>
   </si>
   <si>
     <t xml:space="preserve">12.8839025497437</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">12.2571182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3441724777222</t>
+    <t xml:space="preserve">12.3441715240479</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4834575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053314208984</t>
+    <t xml:space="preserve">12.7272081375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4834566116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053323745728</t>
   </si>
   <si>
     <t xml:space="preserve">12.657564163208</t>
@@ -1574,28 +1574,28 @@
     <t xml:space="preserve">12.8664922714233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8142595291138</t>
+    <t xml:space="preserve">12.8142604827881</t>
   </si>
   <si>
     <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.092830657959</t>
+    <t xml:space="preserve">13.0928325653076</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147054672241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3888120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4584550857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4758653640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.719614982605</t>
+    <t xml:space="preserve">13.3888139724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4584560394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4758644104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196159362793</t>
   </si>
   <si>
     <t xml:space="preserve">13.2321166992188</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1450634002686</t>
+    <t xml:space="preserve">13.1450624465942</t>
   </si>
   <si>
     <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0057764053345</t>
+    <t xml:space="preserve">13.0057773590088</t>
   </si>
   <si>
     <t xml:space="preserve">13.284348487854</t>
@@ -1625,25 +1625,25 @@
     <t xml:space="preserve">13.0405988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4410448074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236354827881</t>
+    <t xml:space="preserve">13.4410438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111318588257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548833847046</t>
+    <t xml:space="preserve">14.1548824310303</t>
   </si>
   <si>
     <t xml:space="preserve">14.3638105392456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0330085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807748794556</t>
+    <t xml:space="preserve">14.0330076217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807758331299</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722936630249</t>
@@ -1655,31 +1655,31 @@
     <t xml:space="preserve">13.8937225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5629186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.52809715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6847944259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151523590088</t>
+    <t xml:space="preserve">13.5629196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5280981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6847953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151514053345</t>
   </si>
   <si>
     <t xml:space="preserve">12.9883670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2470941543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661211013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489561080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7041797637939</t>
+    <t xml:space="preserve">13.2470932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661220550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489570617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7041788101196</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -1688,37 +1688,37 @@
     <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7765674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8127613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118293762207</t>
+    <t xml:space="preserve">12.7765684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.812762260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955963134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0118312835693</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9394426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6136932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232095718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">12.9394416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232076644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194818496704</t>
+    <t xml:space="preserve">13.3194808959961</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
@@ -1739,31 +1739,31 @@
     <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4823551177979</t>
+    <t xml:space="preserve">13.4823560714722</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4461612701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2832889556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1928005218506</t>
+    <t xml:space="preserve">13.4461603164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2832870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918695449829</t>
+    <t xml:space="preserve">13.3918704986572</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5051107406616</t>
+    <t xml:space="preserve">12.5051116943359</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793632507324</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9983921051025</t>
+    <t xml:space="preserve">11.9983911514282</t>
   </si>
   <si>
     <t xml:space="preserve">11.7631301879883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6545467376709</t>
+    <t xml:space="preserve">11.6545476913452</t>
   </si>
   <si>
     <t xml:space="preserve">11.8536148071289</t>
@@ -1826,28 +1826,28 @@
     <t xml:space="preserve">11.7450313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7993230819702</t>
+    <t xml:space="preserve">11.7993240356445</t>
   </si>
   <si>
     <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3649930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.473575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011869430542</t>
+    <t xml:space="preserve">11.6364488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3649921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011859893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564096450806</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">11.0392446517944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0211477279663</t>
+    <t xml:space="preserve">11.021146774292</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">10.9306612014771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8582735061646</t>
+    <t xml:space="preserve">10.8582725524902</t>
   </si>
   <si>
     <t xml:space="preserve">11.0754384994507</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">11.2021188735962</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6002559661865</t>
+    <t xml:space="preserve">11.6002550125122</t>
   </si>
   <si>
     <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4916725158691</t>
+    <t xml:space="preserve">11.4916715621948</t>
   </si>
   <si>
     <t xml:space="preserve">11.4192838668823</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4373817443848</t>
+    <t xml:space="preserve">11.4373807907104</t>
   </si>
   <si>
     <t xml:space="preserve">11.2202157974243</t>
@@ -1901,13 +1901,13 @@
     <t xml:space="preserve">11.2383127212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830900192261</t>
+    <t xml:space="preserve">11.3830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">11.5278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.16126537323</t>
+    <t xml:space="preserve">12.1612663269043</t>
   </si>
   <si>
     <t xml:space="preserve">12.4508199691772</t>
@@ -1916,10 +1916,10 @@
     <t xml:space="preserve">12.3965282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2698488235474</t>
+    <t xml:space="preserve">12.3784322738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327211380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441013336182</t>
+    <t xml:space="preserve">12.4327220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
     <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9260034561157</t>
+    <t xml:space="preserve">11.92600440979</t>
   </si>
   <si>
     <t xml:space="preserve">12.1431694030762</t>
@@ -1949,22 +1949,22 @@
     <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8308601379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9621982574463</t>
+    <t xml:space="preserve">12.8308591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.962197303772</t>
   </si>
   <si>
     <t xml:space="preserve">12.0526819229126</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1297292709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800981521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86293029785156</t>
+    <t xml:space="preserve">11.1297302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86293125152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.39240646362305</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75900650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50564765930176</t>
+    <t xml:space="preserve">8.75900745391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50564670562744</t>
   </si>
   <si>
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615283966064</t>
+    <t xml:space="preserve">8.78615188598633</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758995056152</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48755073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61423110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74090957641602</t>
+    <t xml:space="preserve">8.48754978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376514434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61423015594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7409086227417</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
@@ -2024,37 +2024,37 @@
     <t xml:space="preserve">9.13904666900635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32001686096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04856109619141</t>
+    <t xml:space="preserve">9.32001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09380435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04856014251709</t>
   </si>
   <si>
     <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54623126983643</t>
+    <t xml:space="preserve">9.54623222351074</t>
   </si>
   <si>
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098896026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147548675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77244663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0439033508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9534158706665</t>
+    <t xml:space="preserve">9.50098991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77244567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0439023971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
     <t xml:space="preserve">9.68195915222168</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">9.22953224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99426937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8494930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93997764587402</t>
+    <t xml:space="preserve">8.99427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84949207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93997859954834</t>
   </si>
   <si>
     <t xml:space="preserve">8.90378475189209</t>
@@ -2096,10 +2096,10 @@
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.3606014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817451477051</t>
+    <t xml:space="preserve">9.90817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">10.6773023605347</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9487581253052</t>
+    <t xml:space="preserve">10.9487590789795</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559436798096</t>
@@ -2135,10 +2135,10 @@
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677869796753</t>
+    <t xml:space="preserve">10.8130292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677879333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.722544670105</t>
@@ -2153,22 +2153,22 @@
     <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870147705078</t>
+    <t xml:space="preserve">12.4870138168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5322570800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801044464111</t>
+    <t xml:space="preserve">12.9904432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553440093994</t>
+    <t xml:space="preserve">12.1553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.9233713150024</t>
@@ -2180,34 +2180,34 @@
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6913995742798</t>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.949089050293</t>
+    <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
     <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.3202438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656818389893</t>
+    <t xml:space="preserve">12.3873167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656827926636</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120761871338</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358821868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358812332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">15.2173757553101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3565578460693</t>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854030609131</t>
+    <t xml:space="preserve">14.9854040145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781936645508</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236335754395</t>
+    <t xml:space="preserve">16.4236316680908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8618583679199</t>
+    <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4185924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.4185943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4649868011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361415863037</t>
+    <t xml:space="preserve">18.8361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217208862305</t>
+    <t xml:space="preserve">17.3515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217189788818</t>
   </si>
   <si>
     <t xml:space="preserve">18.2794094085693</t>
@@ -2360,34 +2360,34 @@
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">19.764030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9702892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053855895996</t>
+    <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
     <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8981781005859</t>
+    <t xml:space="preserve">21.8981761932373</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5991325378418</t>
+    <t xml:space="preserve">20.7847080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5991306304932</t>
   </si>
   <si>
     <t xml:space="preserve">21.0630779266357</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270195007324</t>
+    <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
     <t xml:space="preserve">21.2486515045166</t>
@@ -2417,10 +2417,10 @@
     <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1765422821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">22.1765403747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -2429,28 +2429,28 @@
     <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2489,22 +2489,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2738,9 +2738,6 @@
     <t xml:space="preserve">24.9053230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198398590088</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8372573852539</t>
   </si>
   <si>
@@ -3498,6 +3495,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.4500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -46419,7 +46419,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46445,7 +46445,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46471,7 +46471,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46497,7 +46497,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46523,7 +46523,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46549,7 +46549,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46575,7 +46575,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46601,7 +46601,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46627,7 +46627,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46653,7 +46653,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46679,7 +46679,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46705,7 +46705,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46731,7 +46731,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46757,7 +46757,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46783,7 +46783,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46809,7 +46809,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46835,7 +46835,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46861,7 +46861,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46887,7 +46887,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46913,7 +46913,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46939,7 +46939,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46965,7 +46965,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46991,7 +46991,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47017,7 +47017,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47043,7 +47043,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47069,7 +47069,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47095,7 +47095,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47121,7 +47121,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47147,7 +47147,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47173,7 +47173,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47199,7 +47199,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47225,7 +47225,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47251,7 +47251,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47277,7 +47277,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47303,7 +47303,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47329,7 +47329,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47355,7 +47355,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47381,7 +47381,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47407,7 +47407,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47433,7 +47433,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47459,7 +47459,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47485,7 +47485,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47511,7 +47511,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47537,7 +47537,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47563,7 +47563,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47589,7 +47589,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47615,7 +47615,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47641,7 +47641,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47667,7 +47667,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47693,7 +47693,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47719,7 +47719,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47745,7 +47745,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47771,7 +47771,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47797,7 +47797,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47823,7 +47823,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47849,7 +47849,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47875,7 +47875,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47901,7 +47901,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47927,7 +47927,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47953,7 +47953,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47979,7 +47979,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48005,7 +48005,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48031,7 +48031,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48057,7 +48057,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48083,7 +48083,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48109,7 +48109,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48135,7 +48135,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48161,7 +48161,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48187,7 +48187,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48213,7 +48213,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48239,7 +48239,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48265,7 +48265,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48291,7 +48291,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48317,7 +48317,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48343,7 +48343,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48369,7 +48369,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48395,7 +48395,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48421,7 +48421,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48447,7 +48447,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48473,7 +48473,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48499,7 +48499,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48525,7 +48525,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48551,7 +48551,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48577,7 +48577,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48603,7 +48603,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48629,7 +48629,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48655,7 +48655,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48681,7 +48681,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48707,7 +48707,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48733,7 +48733,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48759,7 +48759,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48785,7 +48785,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48811,7 +48811,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48837,7 +48837,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48863,7 +48863,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48889,7 +48889,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48915,7 +48915,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48941,7 +48941,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48967,7 +48967,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48993,7 +48993,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49019,7 +49019,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49045,7 +49045,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49071,7 +49071,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49097,7 +49097,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49123,7 +49123,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49149,7 +49149,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49175,7 +49175,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49201,7 +49201,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49227,7 +49227,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49253,7 +49253,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49279,7 +49279,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49305,7 +49305,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49331,7 +49331,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49357,7 +49357,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49383,7 +49383,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49409,7 +49409,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49435,7 +49435,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49461,7 +49461,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49487,7 +49487,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49513,7 +49513,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49539,7 +49539,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49565,7 +49565,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49591,7 +49591,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49617,7 +49617,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49643,7 +49643,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49669,7 +49669,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49695,7 +49695,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49721,7 +49721,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49747,7 +49747,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49773,7 +49773,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49799,7 +49799,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49825,7 +49825,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49851,7 +49851,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49877,7 +49877,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49903,7 +49903,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49929,7 +49929,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49955,7 +49955,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49981,7 +49981,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50007,7 +50007,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50033,7 +50033,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50059,7 +50059,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50085,7 +50085,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50111,7 +50111,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50137,7 +50137,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50163,7 +50163,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50189,7 +50189,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50215,7 +50215,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50241,7 +50241,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50267,7 +50267,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50293,7 +50293,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50319,7 +50319,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50345,7 +50345,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50371,7 +50371,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50397,7 +50397,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50423,7 +50423,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50449,7 +50449,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50475,7 +50475,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50501,7 +50501,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50527,7 +50527,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50553,7 +50553,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50579,7 +50579,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50605,7 +50605,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50631,7 +50631,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50657,7 +50657,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50683,7 +50683,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50709,7 +50709,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50735,7 +50735,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50761,7 +50761,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50787,7 +50787,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50813,7 +50813,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50839,7 +50839,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50865,7 +50865,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50891,7 +50891,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50917,7 +50917,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50943,7 +50943,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50969,7 +50969,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50995,7 +50995,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51021,7 +51021,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51047,7 +51047,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51073,7 +51073,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51099,7 +51099,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51125,7 +51125,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51151,7 +51151,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51177,7 +51177,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51203,7 +51203,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51229,7 +51229,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51255,7 +51255,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51281,7 +51281,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51307,7 +51307,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51333,7 +51333,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51359,7 +51359,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51385,7 +51385,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51411,7 +51411,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51437,7 +51437,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51463,7 +51463,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51489,7 +51489,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51515,7 +51515,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51541,7 +51541,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51567,7 +51567,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51593,7 +51593,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51619,7 +51619,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51645,7 +51645,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51671,7 +51671,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51697,7 +51697,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51723,7 +51723,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51749,7 +51749,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51775,7 +51775,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51801,7 +51801,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51827,7 +51827,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51853,7 +51853,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51879,7 +51879,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51905,7 +51905,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51931,7 +51931,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51957,7 +51957,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51983,7 +51983,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52009,7 +52009,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52035,7 +52035,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52061,7 +52061,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52087,7 +52087,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52113,7 +52113,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52139,7 +52139,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52165,7 +52165,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52191,7 +52191,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52217,7 +52217,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52243,7 +52243,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52269,7 +52269,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52295,7 +52295,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52321,7 +52321,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52347,7 +52347,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52373,7 +52373,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52399,7 +52399,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52425,7 +52425,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52451,7 +52451,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52477,7 +52477,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52503,7 +52503,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52529,7 +52529,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52555,7 +52555,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52581,7 +52581,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52607,7 +52607,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52633,7 +52633,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52659,7 +52659,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52685,7 +52685,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52711,7 +52711,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52737,7 +52737,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52763,7 +52763,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52789,7 +52789,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52815,7 +52815,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52841,7 +52841,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52867,7 +52867,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52893,7 +52893,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52919,7 +52919,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52945,7 +52945,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52971,7 +52971,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52997,7 +52997,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53023,7 +53023,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53049,7 +53049,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53075,7 +53075,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53101,7 +53101,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53127,7 +53127,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53153,7 +53153,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53179,7 +53179,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53205,7 +53205,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53231,7 +53231,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53257,7 +53257,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53283,7 +53283,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53309,7 +53309,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53335,7 +53335,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53361,7 +53361,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53387,7 +53387,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53413,7 +53413,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53439,7 +53439,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53465,7 +53465,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53491,7 +53491,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53517,7 +53517,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53543,7 +53543,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53569,7 +53569,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53595,7 +53595,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53621,7 +53621,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53647,7 +53647,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53673,7 +53673,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53699,7 +53699,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53725,7 +53725,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53751,7 +53751,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53777,7 +53777,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53803,7 +53803,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53829,7 +53829,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53855,7 +53855,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53881,7 +53881,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53907,7 +53907,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53933,7 +53933,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53959,7 +53959,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53985,7 +53985,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54011,7 +54011,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54037,7 +54037,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54063,7 +54063,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54089,7 +54089,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54115,7 +54115,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54141,7 +54141,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54167,7 +54167,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54193,7 +54193,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54219,7 +54219,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54245,7 +54245,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54271,7 +54271,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54297,7 +54297,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54323,7 +54323,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54349,7 +54349,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54375,7 +54375,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54401,7 +54401,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54427,7 +54427,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54453,7 +54453,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54479,7 +54479,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54505,7 +54505,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54531,7 +54531,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54557,7 +54557,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54583,7 +54583,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54609,7 +54609,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54635,7 +54635,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54661,7 +54661,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54687,7 +54687,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54713,7 +54713,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54739,7 +54739,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54765,7 +54765,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54791,7 +54791,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54817,7 +54817,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54843,7 +54843,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54869,7 +54869,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54895,7 +54895,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54921,7 +54921,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54947,7 +54947,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54973,7 +54973,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54999,7 +54999,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55025,7 +55025,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55051,7 +55051,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55077,7 +55077,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55103,7 +55103,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55129,7 +55129,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55155,7 +55155,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55181,7 +55181,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55207,7 +55207,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55233,7 +55233,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55259,7 +55259,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55285,7 +55285,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55311,7 +55311,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55337,7 +55337,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55363,7 +55363,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55389,7 +55389,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55415,7 +55415,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55441,7 +55441,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55467,7 +55467,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55493,7 +55493,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55519,7 +55519,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55545,7 +55545,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55571,7 +55571,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55597,7 +55597,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55623,7 +55623,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55649,7 +55649,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55675,7 +55675,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55701,7 +55701,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55727,7 +55727,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55753,7 +55753,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55779,7 +55779,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55805,7 +55805,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55831,7 +55831,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55857,7 +55857,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55883,7 +55883,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55909,7 +55909,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55935,7 +55935,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55961,7 +55961,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55987,7 +55987,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56013,7 +56013,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56039,7 +56039,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56065,7 +56065,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56091,7 +56091,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56117,7 +56117,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56143,7 +56143,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56169,7 +56169,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56195,7 +56195,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56221,7 +56221,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56247,7 +56247,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56273,7 +56273,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56299,7 +56299,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56325,7 +56325,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56351,7 +56351,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56377,7 +56377,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56403,7 +56403,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56429,7 +56429,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56455,7 +56455,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56481,7 +56481,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56507,7 +56507,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56533,7 +56533,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56559,7 +56559,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56585,7 +56585,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56611,7 +56611,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56637,7 +56637,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56663,7 +56663,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56689,7 +56689,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56715,7 +56715,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56741,7 +56741,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56767,7 +56767,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56793,7 +56793,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56819,7 +56819,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56845,7 +56845,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56871,7 +56871,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56897,7 +56897,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56923,7 +56923,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56949,7 +56949,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56975,7 +56975,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57001,7 +57001,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57027,7 +57027,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57053,7 +57053,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57079,7 +57079,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57105,7 +57105,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57131,7 +57131,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57157,7 +57157,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57183,7 +57183,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57209,7 +57209,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57235,7 +57235,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57261,7 +57261,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57287,7 +57287,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57313,7 +57313,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57339,7 +57339,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57365,7 +57365,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57391,7 +57391,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57417,7 +57417,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57443,7 +57443,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57469,7 +57469,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57495,7 +57495,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57521,7 +57521,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57547,7 +57547,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57573,7 +57573,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57599,7 +57599,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57625,7 +57625,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57651,7 +57651,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57677,7 +57677,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57703,7 +57703,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57729,7 +57729,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57755,7 +57755,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57781,7 +57781,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57807,7 +57807,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57833,7 +57833,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57859,7 +57859,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57885,7 +57885,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57911,7 +57911,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57937,7 +57937,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57963,7 +57963,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57989,7 +57989,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58015,7 +58015,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58041,7 +58041,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58067,7 +58067,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58093,7 +58093,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58119,7 +58119,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58145,7 +58145,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58171,7 +58171,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58197,7 +58197,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58223,7 +58223,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58249,7 +58249,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58275,7 +58275,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58301,7 +58301,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58327,7 +58327,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58353,7 +58353,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58379,7 +58379,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58405,7 +58405,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58431,7 +58431,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58457,7 +58457,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58483,7 +58483,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58509,7 +58509,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58535,7 +58535,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58561,7 +58561,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58587,7 +58587,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58613,7 +58613,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58639,7 +58639,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58665,7 +58665,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58691,7 +58691,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58717,7 +58717,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58743,7 +58743,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58769,7 +58769,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58795,7 +58795,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58821,7 +58821,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58847,7 +58847,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58873,7 +58873,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58899,7 +58899,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58925,7 +58925,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58951,7 +58951,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58977,7 +58977,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59003,7 +59003,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59029,7 +59029,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59055,7 +59055,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59081,7 +59081,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59107,7 +59107,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59133,7 +59133,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59159,7 +59159,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59185,7 +59185,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59211,7 +59211,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59237,7 +59237,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59263,7 +59263,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59289,7 +59289,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59315,7 +59315,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59341,7 +59341,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59367,7 +59367,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59393,7 +59393,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59419,7 +59419,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59445,7 +59445,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59471,7 +59471,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59497,7 +59497,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59523,7 +59523,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59549,7 +59549,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59575,7 +59575,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59601,7 +59601,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59627,7 +59627,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59653,7 +59653,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59679,7 +59679,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59705,7 +59705,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59731,7 +59731,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2150" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59757,7 +59757,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59783,7 +59783,7 @@
         <v>16.75</v>
       </c>
       <c r="G2152" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59809,7 +59809,7 @@
         <v>16.75</v>
       </c>
       <c r="G2153" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59835,7 +59835,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59861,7 +59861,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2155" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59887,7 +59887,7 @@
         <v>16.75</v>
       </c>
       <c r="G2156" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59913,7 +59913,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2157" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59939,7 +59939,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59947,7 +59947,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494212963</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>2024</v>
@@ -59965,9 +59965,35 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6494328704</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>339</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1164">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90090847015381</t>
+    <t xml:space="preserve">8.90091037750244</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
@@ -50,103 +50,103 @@
     <t xml:space="preserve">8.81509971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347743988037</t>
+    <t xml:space="preserve">8.64347648620605</t>
   </si>
   <si>
     <t xml:space="preserve">8.58106899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47965717315674</t>
+    <t xml:space="preserve">8.47965621948242</t>
   </si>
   <si>
     <t xml:space="preserve">8.19102096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82437610626221</t>
+    <t xml:space="preserve">7.82437562942505</t>
   </si>
   <si>
     <t xml:space="preserve">7.96479272842407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92578840255737</t>
+    <t xml:space="preserve">7.92578744888306</t>
   </si>
   <si>
     <t xml:space="preserve">7.91018581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04280376434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05840587615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400608062744</t>
+    <t xml:space="preserve">8.04280281066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05840396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798639297485</t>
+    <t xml:space="preserve">7.91798734664917</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02720165252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699071884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8399772644043</t>
+    <t xml:space="preserve">8.02720260620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699262619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097341537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6293511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997821807861</t>
   </si>
   <si>
     <t xml:space="preserve">7.68005800247192</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87898206710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
+    <t xml:space="preserve">7.87898302078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861251831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164661407471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43285179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2690315246582</t>
+    <t xml:space="preserve">8.43285083770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26903057098389</t>
   </si>
   <si>
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3470401763916</t>
+    <t xml:space="preserve">8.34704113006592</t>
   </si>
   <si>
     <t xml:space="preserve">8.23002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08180904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541980743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301040649414</t>
+    <t xml:space="preserve">8.08180809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
     <t xml:space="preserve">8.3002347946167</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">8.35484313964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30803394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442413330078</t>
+    <t xml:space="preserve">8.30803489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.24562835693359</t>
@@ -176,19 +176,19 @@
     <t xml:space="preserve">8.13641548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12081241607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01940059661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259330749512</t>
+    <t xml:space="preserve">8.12081336975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01939964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259426116943</t>
   </si>
   <si>
     <t xml:space="preserve">7.93358898162842</t>
@@ -197,25 +197,25 @@
     <t xml:space="preserve">7.80877447128296</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94139194488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86338043212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379848480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05060195922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76196718215942</t>
+    <t xml:space="preserve">7.9413890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86337947845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7619686126709</t>
   </si>
   <si>
     <t xml:space="preserve">7.99599599838257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78537130355835</t>
+    <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.76586866378784</t>
@@ -224,28 +224,28 @@
     <t xml:space="preserve">7.72686290740967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7970724105835</t>
+    <t xml:space="preserve">7.79707193374634</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366876602173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89458417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615699768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56694316864014</t>
+    <t xml:space="preserve">7.89458513259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906185150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615747451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594797134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56694364547729</t>
   </si>
   <si>
     <t xml:space="preserve">7.81557369232178</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">8.11081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0534029006958</t>
+    <t xml:space="preserve">8.05340385437012</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160449981689</t>
@@ -269,61 +269,61 @@
     <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88118267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779439926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8729829788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7909722328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954336166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54493951797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975427627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6351523399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795635223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372346878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113037109375</t>
+    <t xml:space="preserve">7.88118362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097127914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954431533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1963963508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213645935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996566772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63515186309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6556544303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372442245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113084793091</t>
   </si>
   <si>
     <t xml:space="preserve">7.38092088699341</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">7.38502025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48753356933594</t>
+    <t xml:space="preserve">7.4875340461731</t>
   </si>
   <si>
     <t xml:space="preserve">7.46293115615845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50393581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703100204468</t>
+    <t xml:space="preserve">7.50393486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.532639503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703052520752</t>
   </si>
   <si>
     <t xml:space="preserve">7.5080361366272</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">7.49573469161987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44652843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5285382270813</t>
+    <t xml:space="preserve">7.44652795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853918075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.4096245765686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38912057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623678207397</t>
+    <t xml:space="preserve">7.38912105560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4588303565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623582839966</t>
   </si>
   <si>
     <t xml:space="preserve">7.5613431930542</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">7.58594608306885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57774448394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271976470947</t>
+    <t xml:space="preserve">7.57774543762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443838119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271881103516</t>
   </si>
   <si>
     <t xml:space="preserve">7.27840757369995</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">7.20459842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37681913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782474517822</t>
+    <t xml:space="preserve">7.37682056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422603607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782522201538</t>
   </si>
   <si>
     <t xml:space="preserve">7.4383282661438</t>
@@ -428,64 +428,64 @@
     <t xml:space="preserve">7.33171415328979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34811544418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351398468018</t>
+    <t xml:space="preserve">7.34811639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29891109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351350784302</t>
   </si>
   <si>
     <t xml:space="preserve">7.33991527557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36041736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31941270828247</t>
+    <t xml:space="preserve">7.36041879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761430740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31941318511963</t>
   </si>
   <si>
     <t xml:space="preserve">7.30711126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33581447601318</t>
+    <t xml:space="preserve">7.33581495285034</t>
   </si>
   <si>
     <t xml:space="preserve">7.31121206283569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45473003387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869970321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229745864868</t>
+    <t xml:space="preserve">7.4547290802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589426040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
     <t xml:space="preserve">7.21279907226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24150228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176454544067</t>
+    <t xml:space="preserve">7.24150276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192459106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176549911499</t>
   </si>
   <si>
     <t xml:space="preserve">7.99599695205688</t>
@@ -500,25 +500,25 @@
     <t xml:space="preserve">8.3650426864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52906227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805713653564</t>
+    <t xml:space="preserve">8.52906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805904388428</t>
   </si>
   <si>
     <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52086162567139</t>
+    <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144493103027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44705200195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625873565674</t>
+    <t xml:space="preserve">8.44705295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625778198242</t>
   </si>
   <si>
     <t xml:space="preserve">8.65207862854004</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">8.72588729858398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75049018859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77509307861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73408699035645</t>
+    <t xml:space="preserve">8.75049114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7750940322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73408889770508</t>
   </si>
   <si>
     <t xml:space="preserve">8.58647060394287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50445938110352</t>
+    <t xml:space="preserve">8.50446033477783</t>
   </si>
   <si>
     <t xml:space="preserve">8.62747669219971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54546642303467</t>
+    <t xml:space="preserve">8.54546546936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.61107349395752</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">8.57826995849609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.676682472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63567733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69308471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66027927398682</t>
+    <t xml:space="preserve">8.67668056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63567638397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69308376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66028022766113</t>
   </si>
   <si>
     <t xml:space="preserve">8.66848087310791</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">8.79149532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0867338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435211181641</t>
+    <t xml:space="preserve">8.96371746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08673286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59519672393799</t>
+    <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
     <t xml:space="preserve">9.66900539398193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62800216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138519287109</t>
+    <t xml:space="preserve">9.62800121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.55419063568115</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">9.7346134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92323684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0544519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6203231811523</t>
+    <t xml:space="preserve">9.92323780059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0544538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1282625198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.620325088501</t>
   </si>
   <si>
     <t xml:space="preserve">10.8909578323364</t>
@@ -638,31 +638,31 @@
     <t xml:space="preserve">10.8663539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6941328048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6613311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5465154647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4070978164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4973096847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481019973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793180465698</t>
+    <t xml:space="preserve">10.6941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6613292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5465145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.407096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4973087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">10.5137100219727</t>
@@ -677,28 +677,28 @@
     <t xml:space="preserve">10.5055112838745</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152994155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.90735912323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8253488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1533889770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8581533432007</t>
+    <t xml:space="preserve">10.4152984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9073600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8253498077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7187376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1533908843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.858154296875</t>
   </si>
   <si>
     <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549783706665</t>
+    <t xml:space="preserve">11.0549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057716369629</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">11.4404258728027</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3092107772827</t>
+    <t xml:space="preserve">11.3092098236084</t>
   </si>
   <si>
     <t xml:space="preserve">11.7848691940308</t>
@@ -716,19 +716,19 @@
     <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.383544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5229625701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375141143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7443885803223</t>
+    <t xml:space="preserve">12.3835439682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5229616165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375131607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7443904876709</t>
   </si>
   <si>
     <t xml:space="preserve">13.121636390686</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">13.3499116897583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3160924911499</t>
+    <t xml:space="preserve">13.3160934448242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4260034561157</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">13.4429130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3076372146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1385459899902</t>
+    <t xml:space="preserve">13.307638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245477676392</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">12.3099889755249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423515319824</t>
+    <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3776254653931</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4283533096313</t>
+    <t xml:space="preserve">12.428352355957</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677154541016</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">12.4706268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4537162780762</t>
+    <t xml:space="preserve">12.4537172317505</t>
   </si>
   <si>
     <t xml:space="preserve">12.512900352478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5551729202271</t>
+    <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
     <t xml:space="preserve">12.4452619552612</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">12.1747131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9210748672485</t>
+    <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056190490723</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">12.2592611312866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607168197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5636281967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5467195510864</t>
+    <t xml:space="preserve">12.3607158660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.563627243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6397199630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5467185974121</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073564529419</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6819934844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228113174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327213287354</t>
+    <t xml:space="preserve">12.6819925308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228103637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327222824097</t>
   </si>
   <si>
     <t xml:space="preserve">12.8510866165161</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">12.9356327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513683319092</t>
+    <t xml:space="preserve">13.4513664245605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822732925415</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">13.4598217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3583669662476</t>
+    <t xml:space="preserve">13.3583660125732</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315454483032</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2738189697266</t>
+    <t xml:space="preserve">13.2738199234009</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811002731323</t>
+    <t xml:space="preserve">13.781099319458</t>
   </si>
   <si>
     <t xml:space="preserve">14.220742225647</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">14.4743824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5420188903809</t>
+    <t xml:space="preserve">14.5420179367065</t>
   </si>
   <si>
     <t xml:space="preserve">14.2883787155151</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">14.3560161590576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3729257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758380889893</t>
+    <t xml:space="preserve">14.3729267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673818588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758390426636</t>
   </si>
   <si>
     <t xml:space="preserve">14.7364768981934</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111120223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3536682128906</t>
+    <t xml:space="preserve">14.7111110687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.787202835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536653518677</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201288223267</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">15.8947658538818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0638561248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443168640137</t>
+    <t xml:space="preserve">16.0638580322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443206787109</t>
   </si>
   <si>
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145839691162</t>
+    <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4865894317627</t>
+    <t xml:space="preserve">16.4865913391113</t>
   </si>
   <si>
     <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6303215026855</t>
+    <t xml:space="preserve">16.6303195953369</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">18.0929756164551</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7125148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7862606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381614685059</t>
+    <t xml:space="preserve">17.712516784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381652832031</t>
   </si>
   <si>
     <t xml:space="preserve">18.7270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7608966827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8369884490967</t>
+    <t xml:space="preserve">18.7608947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8369903564453</t>
   </si>
   <si>
     <t xml:space="preserve">19.014533996582</t>
@@ -1004,61 +1004,61 @@
     <t xml:space="preserve">18.8792591094971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8708038330078</t>
+    <t xml:space="preserve">18.8708057403564</t>
   </si>
   <si>
     <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9407920837402</t>
+    <t xml:space="preserve">17.9407939910889</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463340759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5265159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.441967010498</t>
+    <t xml:space="preserve">17.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6702442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.797061920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.746337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5265140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4419689178467</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2475090026855</t>
+    <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
     <t xml:space="preserve">17.5772438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4926986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6279735565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434246063232</t>
+    <t xml:space="preserve">17.492696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434265136719</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055171966553</t>
+    <t xml:space="preserve">17.8055152893066</t>
   </si>
   <si>
     <t xml:space="preserve">17.7378807067871</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9384422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979061126709</t>
+    <t xml:space="preserve">18.3550701141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9384441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979080200195</t>
   </si>
   <si>
     <t xml:space="preserve">19.8092746734619</t>
@@ -1091,34 +1091,34 @@
     <t xml:space="preserve">19.4457244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3189010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229892730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1836280822754</t>
+    <t xml:space="preserve">19.3189029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836261749268</t>
   </si>
   <si>
     <t xml:space="preserve">18.22825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5687885284424</t>
+    <t xml:space="preserve">17.5687866210938</t>
   </si>
   <si>
     <t xml:space="preserve">17.1206893920898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0361442565918</t>
+    <t xml:space="preserve">17.0361461639404</t>
   </si>
   <si>
     <t xml:space="preserve">16.7402305603027</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">16.9177780151367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192337036133</t>
+    <t xml:space="preserve">17.0192317962646</t>
   </si>
   <si>
     <t xml:space="preserve">16.8332328796387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8585987091064</t>
+    <t xml:space="preserve">16.8585948944092</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093246459961</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">17.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515972137451</t>
+    <t xml:space="preserve">16.9515991210938</t>
   </si>
   <si>
     <t xml:space="preserve">16.7233238220215</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247776031494</t>
+    <t xml:space="preserve">16.824779510498</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938735961914</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">16.5373191833496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7763967514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551229476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.389835357666</t>
+    <t xml:space="preserve">15.7763986587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565786361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918544769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551219940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3898344039917</t>
   </si>
   <si>
     <t xml:space="preserve">15.4720296859741</t>
@@ -1196,73 +1196,73 @@
     <t xml:space="preserve">16.1484050750732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5227584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647550582886</t>
+    <t xml:space="preserve">15.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676645278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647541046143</t>
   </si>
   <si>
     <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603841781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.609655380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8802051544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2183904647827</t>
+    <t xml:space="preserve">14.6603860855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6096563339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8802070617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2183933258057</t>
   </si>
   <si>
     <t xml:space="preserve">15.3198499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3029413223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102159500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382133483887</t>
+    <t xml:space="preserve">15.3029384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102216720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382152557373</t>
   </si>
   <si>
     <t xml:space="preserve">15.5396680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3705768585205</t>
+    <t xml:space="preserve">15.3705749511719</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903987884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0492973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.488941192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073064804077</t>
+    <t xml:space="preserve">15.5903968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889421463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073083877563</t>
   </si>
   <si>
     <t xml:space="preserve">15.6411247253418</t>
@@ -1271,55 +1271,55 @@
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3513145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.435863494873</t>
+    <t xml:space="preserve">16.3513164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4358654022217</t>
   </si>
   <si>
     <t xml:space="preserve">16.2329521179199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5542278289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3344078063965</t>
+    <t xml:space="preserve">16.5542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3005867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3344058990479</t>
   </si>
   <si>
     <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1745223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173820495605</t>
+    <t xml:space="preserve">16.2836837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825595855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173801422119</t>
   </si>
   <si>
     <t xml:space="preserve">15.6522006988525</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8437185287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263063430786</t>
+    <t xml:space="preserve">15.8437166213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263082504272</t>
   </si>
   <si>
     <t xml:space="preserve">16.1396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3312149047852</t>
+    <t xml:space="preserve">16.3312168121338</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879150390625</t>
@@ -1331,55 +1331,55 @@
     <t xml:space="preserve">16.1048793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0874652862549</t>
+    <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178260803223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7740774154663</t>
+    <t xml:space="preserve">15.7740755081177</t>
   </si>
   <si>
     <t xml:space="preserve">15.6696128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7044315338135</t>
+    <t xml:space="preserve">15.7044334411621</t>
   </si>
   <si>
     <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8513078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298809051514</t>
+    <t xml:space="preserve">14.8513088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164873123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.973183631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298799514771</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285440444946</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155963897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544374465942</t>
+    <t xml:space="preserve">14.0155973434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544364929199</t>
   </si>
   <si>
     <t xml:space="preserve">14.0678291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.746844291687</t>
+    <t xml:space="preserve">13.9633655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468452453613</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">13.9459552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0504188537598</t>
+    <t xml:space="preserve">14.0504179000854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1026515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8414897918701</t>
+    <t xml:space="preserve">13.8414888381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6673831939697</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">13.7022047042847</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7370262145996</t>
+    <t xml:space="preserve">13.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240795135498</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">13.3539905548096</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1798849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0580101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4062223434448</t>
+    <t xml:space="preserve">13.1798858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.058009147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4062232971191</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9709558486938</t>
+    <t xml:space="preserve">12.9709568023682</t>
   </si>
   <si>
     <t xml:space="preserve">12.6227436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5530996322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5356884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.448637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0133695602417</t>
+    <t xml:space="preserve">12.5531005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5356893539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4486351013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
     <t xml:space="preserve">11.6303329467773</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6325626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7718467712402</t>
+    <t xml:space="preserve">13.6325616836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7718477249146</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066692352295</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017597198486</t>
+    <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3714017868042</t>
+    <t xml:space="preserve">13.3713998794556</t>
   </si>
   <si>
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830125808716</t>
+    <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
     <t xml:space="preserve">12.065601348877</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">12.431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3615808486938</t>
+    <t xml:space="preserve">12.3615827560425</t>
   </si>
   <si>
     <t xml:space="preserve">12.1178321838379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084600448608</t>
+    <t xml:space="preserve">11.5084590911865</t>
   </si>
   <si>
     <t xml:space="preserve">11.4736385345459</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">11.1776571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3517627716064</t>
+    <t xml:space="preserve">11.3517637252808</t>
   </si>
   <si>
     <t xml:space="preserve">11.4039945602417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1700639724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8490810394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9089050292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.595513343811</t>
+    <t xml:space="preserve">12.1700649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8490829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9089059829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
     <t xml:space="preserve">11.5606908798218</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8218517303467</t>
+    <t xml:space="preserve">11.8218507766724</t>
   </si>
   <si>
     <t xml:space="preserve">12.7097959518433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.883903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3964042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.257119178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3441724777222</t>
+    <t xml:space="preserve">12.8839025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3964033126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2571182250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3441715240479</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">12.4834566116333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053314208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6575632095337</t>
+    <t xml:space="preserve">12.6053323745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">12.8664922714233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8142614364624</t>
+    <t xml:space="preserve">12.8142595291138</t>
   </si>
   <si>
     <t xml:space="preserve">12.9535455703735</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3888130187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4584550857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4758653640747</t>
+    <t xml:space="preserve">13.2147064208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3888120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4584560394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.475866317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.719614982605</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">13.2321157455444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3191690444946</t>
+    <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
     <t xml:space="preserve">13.1450643539429</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972951889038</t>
+    <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057773590088</t>
@@ -1616,37 +1616,37 @@
     <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5106887817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410438537598</t>
+    <t xml:space="preserve">13.510687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
   </si>
   <si>
     <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9111318588257</t>
+    <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
     <t xml:space="preserve">14.154881477356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3638114929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330076217651</t>
+    <t xml:space="preserve">14.3638105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330085754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9807758331299</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1722946166992</t>
+    <t xml:space="preserve">14.1722936630249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2593460083008</t>
@@ -1655,28 +1655,28 @@
     <t xml:space="preserve">13.8937225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5629205703735</t>
+    <t xml:space="preserve">13.5629196166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6847953796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470922470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.066123008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489561080933</t>
+    <t xml:space="preserve">13.6847944259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661220550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489570617676</t>
   </si>
   <si>
     <t xml:space="preserve">12.7041788101196</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946643829346</t>
+    <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
     <t xml:space="preserve">12.7765684127808</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">12.9756364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9394426345825</t>
+    <t xml:space="preserve">12.9394416809082</t>
   </si>
   <si>
     <t xml:space="preserve">12.613694190979</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">12.5232076644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194818496704</t>
+    <t xml:space="preserve">13.3194808959961</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
@@ -1730,25 +1730,25 @@
     <t xml:space="preserve">12.8851509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1204128265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0299272537231</t>
+    <t xml:space="preserve">13.1204137802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0299282073975</t>
   </si>
   <si>
     <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4823551177979</t>
+    <t xml:space="preserve">13.4823560714722</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4461622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2832880020142</t>
+    <t xml:space="preserve">13.4461603164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2832870483398</t>
   </si>
   <si>
     <t xml:space="preserve">13.1928014755249</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">13.3918704986572</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6317901611328</t>
+    <t xml:space="preserve">12.6317911148071</t>
   </si>
   <si>
     <t xml:space="preserve">12.5051116943359</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">12.4689168930054</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5413045883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5774984359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2517509460449</t>
+    <t xml:space="preserve">12.5413055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5774993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2517518997192</t>
   </si>
   <si>
     <t xml:space="preserve">12.3060436248779</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">12.414626121521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2879467010498</t>
+    <t xml:space="preserve">12.2879457473755</t>
   </si>
   <si>
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336559295654</t>
+    <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
@@ -1811,28 +1811,28 @@
     <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9983921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.763129234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6545467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536157608032</t>
+    <t xml:space="preserve">11.9983911514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7631301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6545476913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536148071289</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7993230819702</t>
+    <t xml:space="preserve">11.7993240356445</t>
   </si>
   <si>
     <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364479064941</t>
+    <t xml:space="preserve">11.6364488601685</t>
   </si>
   <si>
     <t xml:space="preserve">11.3649921417236</t>
@@ -1841,34 +1841,34 @@
     <t xml:space="preserve">11.4735746383667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3107013702393</t>
+    <t xml:space="preserve">11.3107023239136</t>
   </si>
   <si>
     <t xml:space="preserve">11.2926044464111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4011869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564086914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211477279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0030508041382</t>
+    <t xml:space="preserve">11.4011859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564096450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0392446517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.021146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
     <t xml:space="preserve">10.9306612014771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8582735061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.075439453125</t>
+    <t xml:space="preserve">10.8582725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754384994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.2021188735962</t>
@@ -1877,19 +1877,19 @@
     <t xml:space="preserve">11.6002550125122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5459642410278</t>
+    <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
     <t xml:space="preserve">11.4916715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">11.419282913208</t>
+    <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
     <t xml:space="preserve">11.274507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4554786682129</t>
+    <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.4373807907104</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">11.2202157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2383136749268</t>
+    <t xml:space="preserve">11.2383127212524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830890655518</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">12.1612663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508209228516</t>
+    <t xml:space="preserve">12.4508199691772</t>
   </si>
   <si>
     <t xml:space="preserve">12.3965282440186</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">12.3784322738647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698488235474</t>
+    <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802942276001</t>
+    <t xml:space="preserve">12.4327220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802932739258</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
@@ -1943,25 +1943,25 @@
     <t xml:space="preserve">11.92600440979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1431684494019</t>
+    <t xml:space="preserve">12.1431694030762</t>
   </si>
   <si>
     <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8308601379395</t>
+    <t xml:space="preserve">12.8308591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.962197303772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0526828765869</t>
+    <t xml:space="preserve">12.0526819229126</t>
   </si>
   <si>
     <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800981521606</t>
+    <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.86293125152588</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615283966064</t>
+    <t xml:space="preserve">8.78615188598633</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758995056152</t>
@@ -1994,25 +1994,25 @@
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.487548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376419067383</t>
+    <t xml:space="preserve">8.65042495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48754978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376514434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.61423015594482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74090957641602</t>
+    <t xml:space="preserve">8.7409086227417</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97617340087891</t>
+    <t xml:space="preserve">8.97617244720459</t>
   </si>
   <si>
     <t xml:space="preserve">9.03046321868896</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">9.04856014251709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428897857666</t>
+    <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.54623222351074</t>
@@ -2042,31 +2042,31 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098896026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147548675537</t>
+    <t xml:space="preserve">9.50098991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147453308105</t>
   </si>
   <si>
     <t xml:space="preserve">9.77244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0439033508301</t>
+    <t xml:space="preserve">10.0439023971558</t>
   </si>
   <si>
     <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.681960105896</t>
+    <t xml:space="preserve">9.68195915222168</t>
   </si>
   <si>
     <t xml:space="preserve">9.22953224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99426937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8494930267334</t>
+    <t xml:space="preserve">8.99427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84949207305908</t>
   </si>
   <si>
     <t xml:space="preserve">8.93997859954834</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">9.72720336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248735427856</t>
+    <t xml:space="preserve">10.22487449646</t>
   </si>
   <si>
     <t xml:space="preserve">10.4058446884155</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701168060303</t>
+    <t xml:space="preserve">10.2701177597046</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606023788452</t>
+    <t xml:space="preserve">10.3606014251709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.134388923645</t>
+    <t xml:space="preserve">10.1343879699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.99866008758545</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130302429199</t>
+    <t xml:space="preserve">10.8130292892456</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677879333496</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870147705078</t>
+    <t xml:space="preserve">12.4870138168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5322570800781</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">12.9904432296753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4801044464111</t>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553440093994</t>
+    <t xml:space="preserve">12.1553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.9233713150024</t>
@@ -2180,10 +2180,10 @@
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6913995742798</t>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2195,25 +2195,25 @@
     <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.3202438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656818389893</t>
+    <t xml:space="preserve">12.3873167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656827926636</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120761871338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8048658370972</t>
+    <t xml:space="preserve">12.8048648834229</t>
   </si>
   <si>
     <t xml:space="preserve">12.3409214019775</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647274017334</t>
+    <t xml:space="preserve">13.9647264480591</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358821868896</t>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358812332153</t>
   </si>
   <si>
     <t xml:space="preserve">13.9183320999146</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503038406372</t>
+    <t xml:space="preserve">14.1503047943115</t>
   </si>
   <si>
     <t xml:space="preserve">14.4286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2173767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.356559753418</t>
+    <t xml:space="preserve">15.2173757553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741107940674</t>
+    <t xml:space="preserve">14.9854040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741098403931</t>
   </si>
   <si>
     <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236335754395</t>
+    <t xml:space="preserve">16.4236316680908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834941864014</t>
+    <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
     <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.397912979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4185924530029</t>
+    <t xml:space="preserve">17.3979148864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4185943603516</t>
   </si>
   <si>
     <t xml:space="preserve">18.4649868011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361415863037</t>
+    <t xml:space="preserve">18.8361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">17.3515224456787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0217208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.279411315918</t>
+    <t xml:space="preserve">19.0217189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2794094085693</t>
   </si>
   <si>
     <t xml:space="preserve">18.9289321899414</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">19.764030456543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.970287322998</t>
+    <t xml:space="preserve">20.9702892303467</t>
   </si>
   <si>
     <t xml:space="preserve">21.3414421081543</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6198081970215</t>
+    <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
     <t xml:space="preserve">21.8981761932373</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5991325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0630760192871</t>
+    <t xml:space="preserve">20.7847080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5991306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0630779266357</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2405,22 +2405,22 @@
     <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6712436676025</t>
+    <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2486534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1765422821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">21.2486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1765403747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
@@ -3501,6 +3501,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -60028,7 +60031,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6495023148</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>1146</v>
@@ -60049,6 +60052,32 @@
         <v>1160</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6495601852</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>789</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>16.6000003814697</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>16.2999992370605</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>16.2999992370605</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>16.6000003814697</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1165">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">8.95551586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81509876251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65908145904541</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106899261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47965812683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19102096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437419891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479225158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92578840255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018629074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280281066895</t>
+    <t xml:space="preserve">8.64347648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58106994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47965526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19102001190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437562942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479368209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92578744888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280376434326</t>
   </si>
   <si>
     <t xml:space="preserve">8.05840492248535</t>
@@ -89,46 +89,46 @@
     <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20662307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521030426025</t>
+    <t xml:space="preserve">8.20662403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521125793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.02720069885254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95699262619019</t>
+    <t xml:space="preserve">7.95699167251587</t>
   </si>
   <si>
     <t xml:space="preserve">7.80097246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62934970855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8399772644043</t>
+    <t xml:space="preserve">7.62935161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997869491577</t>
   </si>
   <si>
     <t xml:space="preserve">7.68005752563477</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87898302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285274505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26903247833252</t>
+    <t xml:space="preserve">7.87898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2690315246582</t>
   </si>
   <si>
     <t xml:space="preserve">8.3782434463501</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">8.23002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08180713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541885375977</t>
+    <t xml:space="preserve">8.08180809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541790008545</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301136016846</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3080358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442317962646</t>
+    <t xml:space="preserve">8.30803489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2144250869751</t>
   </si>
   <si>
     <t xml:space="preserve">8.24562740325928</t>
@@ -170,76 +170,76 @@
     <t xml:space="preserve">8.19882202148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25343036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641452789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
+    <t xml:space="preserve">8.2534294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919157028198</t>
   </si>
   <si>
     <t xml:space="preserve">8.01940059661865</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80877304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94139051437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86337900161743</t>
+    <t xml:space="preserve">7.97259378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877447128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9413914680481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86337995529175</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05060291290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7619686126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599742889404</t>
+    <t xml:space="preserve">8.05060386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76196670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599695205688</t>
   </si>
   <si>
     <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76586723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7970724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366971969604</t>
+    <t xml:space="preserve">7.76586771011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707288742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366876602173</t>
   </si>
   <si>
     <t xml:space="preserve">7.89458322525024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71906185150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615604400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6605544090271</t>
+    <t xml:space="preserve">7.71906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615747451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055536270142</t>
   </si>
   <si>
     <t xml:space="preserve">7.60594797134399</t>
@@ -248,100 +248,100 @@
     <t xml:space="preserve">7.56694364547729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81557369232178</t>
+    <t xml:space="preserve">7.81557416915894</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081123352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05340480804443</t>
+    <t xml:space="preserve">8.05340385437012</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160449981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16821765899658</t>
+    <t xml:space="preserve">8.11901092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1682186126709</t>
   </si>
   <si>
     <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88118314743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298154830933</t>
+    <t xml:space="preserve">7.88118267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8729829788208</t>
   </si>
   <si>
     <t xml:space="preserve">7.83197689056396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79097080230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954336166382</t>
+    <t xml:space="preserve">7.79097127914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954383850098</t>
   </si>
   <si>
     <t xml:space="preserve">7.19639682769775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3563175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996519088745</t>
+    <t xml:space="preserve">7.35631704330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996662139893</t>
   </si>
   <si>
     <t xml:space="preserve">7.54494047164917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65975522994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904127120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515281677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226663589478</t>
+    <t xml:space="preserve">7.65975618362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226854324341</t>
   </si>
   <si>
     <t xml:space="preserve">7.65565490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66795587539673</t>
+    <t xml:space="preserve">7.6679573059082</t>
   </si>
   <si>
     <t xml:space="preserve">7.41372489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47113132476807</t>
+    <t xml:space="preserve">7.47113084793091</t>
   </si>
   <si>
     <t xml:space="preserve">7.38091993331909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43012762069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3850212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293067932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393533706665</t>
+    <t xml:space="preserve">7.43012809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4875340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293163299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393438339233</t>
   </si>
   <si>
     <t xml:space="preserve">7.47523164749146</t>
@@ -350,61 +350,61 @@
     <t xml:space="preserve">7.53264045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.479332447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703100204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803518295288</t>
+    <t xml:space="preserve">7.47933292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703052520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5080361366272</t>
   </si>
   <si>
     <t xml:space="preserve">7.49163341522217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6023473739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573612213135</t>
+    <t xml:space="preserve">7.60234928131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573421478271</t>
   </si>
   <si>
     <t xml:space="preserve">7.44652843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52853965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962362289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912153244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882987976074</t>
+    <t xml:space="preserve">7.52853775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40962409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45882940292358</t>
   </si>
   <si>
     <t xml:space="preserve">7.51623678207397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5613431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594465255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774543762207</t>
+    <t xml:space="preserve">7.56134271621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774496078491</t>
   </si>
   <si>
     <t xml:space="preserve">7.52443790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39732265472412</t>
+    <t xml:space="preserve">7.39732217788696</t>
   </si>
   <si>
     <t xml:space="preserve">7.37271928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27840805053711</t>
+    <t xml:space="preserve">7.27840757369995</t>
   </si>
   <si>
     <t xml:space="preserve">7.21689987182617</t>
@@ -413,28 +413,28 @@
     <t xml:space="preserve">7.20459842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3768196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422794342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782426834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811687469482</t>
+    <t xml:space="preserve">7.37681913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171415328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811639785767</t>
   </si>
   <si>
     <t xml:space="preserve">7.34401607513428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29891014099121</t>
+    <t xml:space="preserve">7.29890966415405</t>
   </si>
   <si>
     <t xml:space="preserve">7.32351350784302</t>
@@ -443,58 +443,58 @@
     <t xml:space="preserve">7.33991479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36041784286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761383056641</t>
+    <t xml:space="preserve">7.36041831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761430740356</t>
   </si>
   <si>
     <t xml:space="preserve">7.31941223144531</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581304550171</t>
+    <t xml:space="preserve">7.30711126327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581447601318</t>
   </si>
   <si>
     <t xml:space="preserve">7.31121158599854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45473003387451</t>
+    <t xml:space="preserve">7.45472955703735</t>
   </si>
   <si>
     <t xml:space="preserve">7.17589473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1840968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279811859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150276184082</t>
+    <t xml:space="preserve">7.18409585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229698181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150228500366</t>
   </si>
   <si>
     <t xml:space="preserve">7.42192554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74176549911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36504364013672</t>
+    <t xml:space="preserve">7.74176454544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3650426864624</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">8.48805904388428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40604877471924</t>
+    <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
     <t xml:space="preserve">8.5208625793457</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">8.65207862854004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88990783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89810943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68488216400146</t>
+    <t xml:space="preserve">8.88990879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89811038970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68488311767578</t>
   </si>
   <si>
     <t xml:space="preserve">8.7258882522583</t>
@@ -539,28 +539,28 @@
     <t xml:space="preserve">8.75049018859863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77509498596191</t>
+    <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
     <t xml:space="preserve">8.73408889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58647155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50446033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54546546936035</t>
+    <t xml:space="preserve">8.58647060394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50446128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54546451568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.61107444763184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57826995849609</t>
+    <t xml:space="preserve">8.57826805114746</t>
   </si>
   <si>
     <t xml:space="preserve">8.676682472229</t>
@@ -569,28 +569,28 @@
     <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69308471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66847896575928</t>
+    <t xml:space="preserve">8.69308376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66028022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66848087310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.79149627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371936798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08673286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736751556396</t>
+    <t xml:space="preserve">8.96371746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0867338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736656188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.59519577026367</t>
@@ -605,67 +605,67 @@
     <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55419158935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61159896850586</t>
+    <t xml:space="preserve">9.55419063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61159801483154</t>
   </si>
   <si>
     <t xml:space="preserve">9.66080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73461437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323875427246</t>
+    <t xml:space="preserve">9.73461532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323780059814</t>
   </si>
   <si>
     <t xml:space="preserve">10.0544548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1282625198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.620325088501</t>
+    <t xml:space="preserve">10.1282634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6203241348267</t>
   </si>
   <si>
     <t xml:space="preserve">10.8909578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8663539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941328048706</t>
+    <t xml:space="preserve">10.8663549423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941347122192</t>
   </si>
   <si>
     <t xml:space="preserve">10.6613292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5465145111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809064865112</t>
+    <t xml:space="preserve">10.5465154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">10.407096862793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4973087310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.562915802002</t>
+    <t xml:space="preserve">10.4973096847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5629177093506</t>
   </si>
   <si>
     <t xml:space="preserve">10.4481019973755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5793180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5137100219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5875196456909</t>
+    <t xml:space="preserve">10.5793199539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513710975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5875186920166</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645051956177</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152984619141</t>
+    <t xml:space="preserve">10.4152975082397</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253498077393</t>
+    <t xml:space="preserve">10.8253488540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187356948853</t>
@@ -689,28 +689,28 @@
     <t xml:space="preserve">11.1533918380737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.858154296875</t>
+    <t xml:space="preserve">10.8581533432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0057725906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092107772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7848682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5311632156372</t>
+    <t xml:space="preserve">11.0549783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0057716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7848701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
     <t xml:space="preserve">12.3835439682007</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">12.5229616165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375131607056</t>
+    <t xml:space="preserve">12.145715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443885803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314264297485</t>
+    <t xml:space="preserve">13.121636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314245223999</t>
   </si>
   <si>
     <t xml:space="preserve">13.1708421707153</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2364492416382</t>
+    <t xml:space="preserve">13.2364501953125</t>
   </si>
   <si>
     <t xml:space="preserve">12.9609966278076</t>
@@ -746,37 +746,37 @@
     <t xml:space="preserve">13.1470003128052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160934448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4260034561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3752746582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4429130554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3076391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1385450363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245477676392</t>
+    <t xml:space="preserve">13.3499116897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160924911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.42600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3752737045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4429121017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3076400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1385440826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245487213135</t>
   </si>
   <si>
     <t xml:space="preserve">11.9718017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3099870681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423496246338</t>
+    <t xml:space="preserve">12.3099880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3776264190674</t>
@@ -785,16 +785,16 @@
     <t xml:space="preserve">12.3945341110229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4283542633057</t>
+    <t xml:space="preserve">12.428352355957</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6059017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4706258773804</t>
+    <t xml:space="preserve">12.6059007644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4706268310547</t>
   </si>
   <si>
     <t xml:space="preserve">12.4537172317505</t>
@@ -806,55 +806,55 @@
     <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4452638626099</t>
+    <t xml:space="preserve">12.4452619552612</t>
   </si>
   <si>
     <t xml:space="preserve">12.343807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1747150421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210748672485</t>
+    <t xml:space="preserve">12.1747121810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056200027466</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394382476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2592611312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.563627243042</t>
+    <t xml:space="preserve">12.039439201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607168197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
     <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5467195510864</t>
+    <t xml:space="preserve">12.5467185974121</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073574066162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143550872803</t>
+    <t xml:space="preserve">12.6143569946289</t>
   </si>
   <si>
     <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228113174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327222824097</t>
+    <t xml:space="preserve">12.6650838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228103637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327213287354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8510866165161</t>
@@ -863,55 +863,55 @@
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4513673782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822751998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006404876709</t>
+    <t xml:space="preserve">12.9356327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4513692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822732925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006385803223</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4598226547241</t>
+    <t xml:space="preserve">13.4598217010498</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583669662476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2315454483032</t>
+    <t xml:space="preserve">13.2315464019775</t>
   </si>
   <si>
     <t xml:space="preserve">13.2738199234009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4936408996582</t>
+    <t xml:space="preserve">13.4936399459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2207403182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883806228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3560152053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729267120361</t>
+    <t xml:space="preserve">14.2207412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4743843078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420179367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883787155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3560171127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729257583618</t>
   </si>
   <si>
     <t xml:space="preserve">14.5673828125</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">14.5758371353149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.736475944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7111120223999</t>
+    <t xml:space="preserve">14.7364768981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7111139297485</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3536643981934</t>
+    <t xml:space="preserve">15.353666305542</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201288223267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8947649002075</t>
+    <t xml:space="preserve">15.8947658538818</t>
   </si>
   <si>
     <t xml:space="preserve">16.0638580322266</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4865894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1230392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303176879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9008712768555</t>
+    <t xml:space="preserve">16.4696807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4865913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9008693695068</t>
   </si>
   <si>
     <t xml:space="preserve">17.4335136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195163726807</t>
+    <t xml:space="preserve">17.619514465332</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7125186920166</t>
+    <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
     <t xml:space="preserve">18.7862586975098</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7270755767822</t>
+    <t xml:space="preserve">18.7270774841309</t>
   </si>
   <si>
     <t xml:space="preserve">18.7608966827393</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1329002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.617166519165</t>
+    <t xml:space="preserve">19.1329021453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792629241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708076477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171684265137</t>
   </si>
   <si>
     <t xml:space="preserve">17.9407939910889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.754789352417</t>
+    <t xml:space="preserve">17.7547912597656</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746131896973</t>
@@ -1019,37 +1019,37 @@
     <t xml:space="preserve">17.6702423095703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7970657348633</t>
+    <t xml:space="preserve">17.7970638275146</t>
   </si>
   <si>
     <t xml:space="preserve">17.5349712371826</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463340759277</t>
+    <t xml:space="preserve">17.7463359832764</t>
   </si>
   <si>
     <t xml:space="preserve">17.5265140533447</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4419689178467</t>
+    <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2475090026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.577241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.492696762085</t>
+    <t xml:space="preserve">17.2475109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5772438049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4926986694336</t>
   </si>
   <si>
     <t xml:space="preserve">17.6279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434265136719</t>
+    <t xml:space="preserve">17.5434226989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
@@ -1058,61 +1058,61 @@
     <t xml:space="preserve">17.8055171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7378807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8393383026123</t>
+    <t xml:space="preserve">17.7378787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9384422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372692108154</t>
+    <t xml:space="preserve">18.938440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372673034668</t>
   </si>
   <si>
     <t xml:space="preserve">19.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4710865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4457225799561</t>
+    <t xml:space="preserve">19.4710884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">19.3189029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0229911804199</t>
+    <t xml:space="preserve">19.0229892730713</t>
   </si>
   <si>
     <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9299907684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
     <t xml:space="preserve">19.183629989624</t>
   </si>
   <si>
-    <t xml:space="preserve">18.22825050354</t>
+    <t xml:space="preserve">18.2282524108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1206912994385</t>
+    <t xml:space="preserve">17.1206874847412</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361442565918</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">16.7402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.002326965332</t>
+    <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
     <t xml:space="preserve">16.9177799224854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192337036133</t>
+    <t xml:space="preserve">17.0192356109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.83323097229</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">16.8585968017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9093227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3320598602295</t>
+    <t xml:space="preserve">16.9093265533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3320560455322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515953063965</t>
@@ -1151,52 +1151,52 @@
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.824779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938697814941</t>
+    <t xml:space="preserve">16.8247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9938716888428</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5373191833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7763986587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565767288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551229476929</t>
+    <t xml:space="preserve">16.537317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918544769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551219940186</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787485122681</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3898363113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933101654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676654815674</t>
+    <t xml:space="preserve">14.389835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720296859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933111190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484050750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5227575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676635742188</t>
   </si>
   <si>
     <t xml:space="preserve">14.9647541046143</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603851318359</t>
+    <t xml:space="preserve">14.6603832244873</t>
   </si>
   <si>
     <t xml:space="preserve">14.609655380249</t>
@@ -1223,91 +1223,91 @@
     <t xml:space="preserve">15.218391418457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3198490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382133483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8294773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903959274292</t>
+    <t xml:space="preserve">15.3198509216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3029384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.387487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.438214302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396680831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.829478263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903968811035</t>
   </si>
   <si>
     <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889402389526</t>
+    <t xml:space="preserve">15.5058507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889392852783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6411256790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924140930176</t>
+    <t xml:space="preserve">15.6411247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924160003662</t>
   </si>
   <si>
     <t xml:space="preserve">16.3513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4358654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329521179199</t>
+    <t xml:space="preserve">16.435863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329540252686</t>
   </si>
   <si>
     <t xml:space="preserve">16.5542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3005905151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3344058990479</t>
+    <t xml:space="preserve">16.3005886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
     <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836818695068</t>
+    <t xml:space="preserve">16.2836799621582</t>
   </si>
   <si>
     <t xml:space="preserve">16.21604347229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1745204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5825567245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173830032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437194824219</t>
+    <t xml:space="preserve">16.1745223999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.582555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521997451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437185287476</t>
   </si>
   <si>
     <t xml:space="preserve">15.8263092041016</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">16.1397018432617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3312187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4879150390625</t>
+    <t xml:space="preserve">16.3312168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
@@ -1328,49 +1328,49 @@
     <t xml:space="preserve">16.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0874671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178260803223</t>
+    <t xml:space="preserve">16.0874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178241729736</t>
   </si>
   <si>
     <t xml:space="preserve">15.7740774154663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6696128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9209518432617</t>
+    <t xml:space="preserve">15.6696109771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044324874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
     <t xml:space="preserve">14.8513088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8164892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731864929199</t>
+    <t xml:space="preserve">14.8164882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254163742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9731845855713</t>
   </si>
   <si>
     <t xml:space="preserve">15.1298799514771</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9285440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678281784058</t>
+    <t xml:space="preserve">13.9285430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155973434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544374465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678291320801</t>
   </si>
   <si>
     <t xml:space="preserve">13.9633665084839</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459543228149</t>
+    <t xml:space="preserve">13.9459533691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.0504179000854</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">13.8414897918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6673822402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.702205657959</t>
+    <t xml:space="preserve">13.6673831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7022037506104</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370262145996</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539915084839</t>
+    <t xml:space="preserve">13.3539905548096</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798839569092</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062223434448</t>
+    <t xml:space="preserve">13.4062232971191</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">12.6227416992188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5531015396118</t>
+    <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356893539429</t>
@@ -1442,55 +1442,55 @@
     <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303339004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6651554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187231063843</t>
+    <t xml:space="preserve">11.630334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.6325616836548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7718467712402</t>
+    <t xml:space="preserve">13.7718486785889</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2669372558594</t>
+    <t xml:space="preserve">13.2669382095337</t>
   </si>
   <si>
     <t xml:space="preserve">13.8763113021851</t>
   </si>
   <si>
-    <t xml:space="preserve">13.493275642395</t>
+    <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
     <t xml:space="preserve">13.3017597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1276531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714017868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2745294570923</t>
+    <t xml:space="preserve">13.1276512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714008331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.274528503418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.065601348877</t>
+    <t xml:space="preserve">12.0655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">12.1874761581421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4312238693237</t>
+    <t xml:space="preserve">12.431224822998</t>
   </si>
   <si>
     <t xml:space="preserve">12.3615818023682</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">11.4736385345459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3865842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776571273804</t>
+    <t xml:space="preserve">11.3865852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776561737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.3517627716064</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">11.403995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1700639724731</t>
+    <t xml:space="preserve">12.1700649261475</t>
   </si>
   <si>
     <t xml:space="preserve">12.849081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9089050292969</t>
+    <t xml:space="preserve">11.9089040756226</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955123901367</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">11.5606908798218</t>
   </si>
   <si>
-    <t xml:space="preserve">11.612922668457</t>
+    <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7097959518433</t>
+    <t xml:space="preserve">12.7097969055176</t>
   </si>
   <si>
     <t xml:space="preserve">12.8839025497437</t>
@@ -1550,16 +1550,16 @@
     <t xml:space="preserve">12.2571182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3441724777222</t>
+    <t xml:space="preserve">12.3441715240479</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272071838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4834566116333</t>
+    <t xml:space="preserve">12.7272062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
     <t xml:space="preserve">12.6053314208984</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">12.8664922714233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8142604827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9535455703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.092830657959</t>
+    <t xml:space="preserve">12.8142595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9535465240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147064208984</t>
@@ -1592,22 +1592,22 @@
     <t xml:space="preserve">13.4758653640747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7196159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2321157455444</t>
+    <t xml:space="preserve">13.719614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
     <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1450643539429</t>
+    <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
     <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0057764053345</t>
+    <t xml:space="preserve">13.0057773590088</t>
   </si>
   <si>
     <t xml:space="preserve">13.284348487854</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">13.510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5455093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405988693237</t>
+    <t xml:space="preserve">13.5455083847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405979156494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4410438537598</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154881477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638105392456</t>
+    <t xml:space="preserve">14.1548824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638095855713</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">14.2593450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8937215805054</t>
+    <t xml:space="preserve">13.8937225341797</t>
   </si>
   <si>
     <t xml:space="preserve">13.5629196166992</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.68479347229</t>
+    <t xml:space="preserve">13.6847944259644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151523590088</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">12.8489561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7041788101196</t>
+    <t xml:space="preserve">12.7041797637939</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7765684127808</t>
+    <t xml:space="preserve">12.7765674591064</t>
   </si>
   <si>
     <t xml:space="preserve">12.8127613067627</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385116577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8851509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1204128265381</t>
+    <t xml:space="preserve">13.1385107040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8851518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.0299282073975</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3737735748291</t>
+    <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
     <t xml:space="preserve">13.4823551177979</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1928024291992</t>
+    <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">13.3918695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6317920684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5051107406616</t>
+    <t xml:space="preserve">12.6317911148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5051116943359</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793632507324</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">12.7222776412964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.215558052063</t>
+    <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
     <t xml:space="preserve">12.1250715255737</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">12.2517518997192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4146251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2879447937012</t>
+    <t xml:space="preserve">12.3060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.414626121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2879457473755</t>
   </si>
   <si>
     <t xml:space="preserve">12.3241395950317</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1069736480713</t>
+    <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8536157608032</t>
+    <t xml:space="preserve">11.8536148071289</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450313568115</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">11.473575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3107023239136</t>
+    <t xml:space="preserve">11.3107013702393</t>
   </si>
   <si>
     <t xml:space="preserve">11.2926034927368</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">11.2564096450806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0392436981201</t>
+    <t xml:space="preserve">11.0392446517944</t>
   </si>
   <si>
     <t xml:space="preserve">11.0211477279663</t>
@@ -1859,10 +1859,10 @@
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306621551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8582725524902</t>
+    <t xml:space="preserve">10.9306612014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
     <t xml:space="preserve">11.0754384994507</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">11.2021188735962</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6002540588379</t>
+    <t xml:space="preserve">11.6002550125122</t>
   </si>
   <si>
     <t xml:space="preserve">11.5459632873535</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745065689087</t>
+    <t xml:space="preserve">11.274507522583</t>
   </si>
   <si>
     <t xml:space="preserve">11.4554777145386</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2202157974243</t>
+    <t xml:space="preserve">11.22021484375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2383127212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5278673171997</t>
+    <t xml:space="preserve">11.3830900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5278663635254</t>
   </si>
   <si>
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508199691772</t>
+    <t xml:space="preserve">12.4508190155029</t>
   </si>
   <si>
     <t xml:space="preserve">12.3965272903442</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698497772217</t>
+    <t xml:space="preserve">12.2698488235474</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327230453491</t>
+    <t xml:space="preserve">12.4327220916748</t>
   </si>
   <si>
     <t xml:space="preserve">11.9802951812744</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0345869064331</t>
+    <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
     <t xml:space="preserve">11.92600440979</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.962197303772</t>
+    <t xml:space="preserve">11.9621982574463</t>
   </si>
   <si>
     <t xml:space="preserve">12.0526828765869</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">11.1297292709351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080096244812</t>
+    <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
     <t xml:space="preserve">9.86293029785156</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615188598633</t>
+    <t xml:space="preserve">8.78615283966064</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758899688721</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042400360107</t>
+    <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
     <t xml:space="preserve">8.48755073547363</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">8.71376419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61423015594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74090957641602</t>
+    <t xml:space="preserve">8.61423110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7409086227417</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">9.13904762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32001781463623</t>
+    <t xml:space="preserve">9.32001686096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.09380340576172</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428897857666</t>
+    <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.54623222351074</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098896026611</t>
+    <t xml:space="preserve">9.5009880065918</t>
   </si>
   <si>
     <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77244567871094</t>
+    <t xml:space="preserve">9.77244663238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.0439033508301</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.681960105896</t>
+    <t xml:space="preserve">9.68195915222168</t>
   </si>
   <si>
     <t xml:space="preserve">9.22953128814697</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">8.99426937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84949207305908</t>
+    <t xml:space="preserve">8.8494930267334</t>
   </si>
   <si>
     <t xml:space="preserve">8.93997859954834</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606023788452</t>
+    <t xml:space="preserve">10.3606014251709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0891456604004</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">10.5868148803711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773014068604</t>
+    <t xml:space="preserve">10.6773023605347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9487590789795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559446334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4464292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174973487854</t>
+    <t xml:space="preserve">11.3559436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4464302062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1749725341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130302429199</t>
+    <t xml:space="preserve">10.8130311965942</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677869796753</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">11.8988580703735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870138168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5322570800781</t>
+    <t xml:space="preserve">12.4870147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5322580337524</t>
   </si>
   <si>
     <t xml:space="preserve">12.9904441833496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4801054000854</t>
+    <t xml:space="preserve">12.4801044464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2180,28 +2180,28 @@
     <t xml:space="preserve">12.062554359436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6914005279541</t>
+    <t xml:space="preserve">11.6913995742798</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9490880966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4594278335571</t>
+    <t xml:space="preserve">10.949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
     <t xml:space="preserve">11.3202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5986108779907</t>
+    <t xml:space="preserve">11.5986099243164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873167037964</t>
+    <t xml:space="preserve">12.3873157501221</t>
   </si>
   <si>
     <t xml:space="preserve">12.6656818389893</t>
@@ -2225,25 +2225,25 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647274017334</t>
+    <t xml:space="preserve">13.9647264480591</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4750652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822755813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5678548812866</t>
+    <t xml:space="preserve">14.4750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5678539276123</t>
   </si>
   <si>
     <t xml:space="preserve">13.4079933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935697555542</t>
+    <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
     <t xml:space="preserve">13.5471773147583</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9183320999146</t>
+    <t xml:space="preserve">13.9183330535889</t>
   </si>
   <si>
     <t xml:space="preserve">14.5214586257935</t>
@@ -2270,49 +2270,49 @@
     <t xml:space="preserve">14.1503047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">14.428671836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2173767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565587997437</t>
+    <t xml:space="preserve">14.4286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2173757553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3565578460693</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9854040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470027923584</t>
+    <t xml:space="preserve">15.681321144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3101654052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9854030609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.4236335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.701997756958</t>
+    <t xml:space="preserve">16.7019996643066</t>
   </si>
   <si>
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8618602752686</t>
+    <t xml:space="preserve">17.5834922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8618583679199</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361434936523</t>
+    <t xml:space="preserve">18.8361415863037</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">18.2794094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9289302825928</t>
+    <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
     <t xml:space="preserve">18.6505661010742</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053874969482</t>
+    <t xml:space="preserve">21.8053855895996</t>
   </si>
   <si>
     <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8981761932373</t>
+    <t xml:space="preserve">21.8981781005859</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">20.5991325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0630760192871</t>
+    <t xml:space="preserve">21.0630779266357</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4135551452637</t>
+    <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
     <t xml:space="preserve">19.6712417602539</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">22.1765422821045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1972217559814</t>
+    <t xml:space="preserve">23.1972198486328</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188556671143</t>
+    <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404857635498</t>
@@ -3504,6 +3504,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3999996185303</t>
   </si>
 </sst>
 </file>
@@ -60083,7 +60086,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6493287037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>1512</v>
@@ -60104,6 +60107,32 @@
         <v>1163</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493402778</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>3277</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>16.6000003814697</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>16.2000007629395</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -44,76 +44,76 @@
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81509971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65908145904541</t>
+    <t xml:space="preserve">8.95551681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81509876251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65907955169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47965526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19102001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437562942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479368209839</t>
+    <t xml:space="preserve">8.64347743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58106899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47965812683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19102191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437467575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479272842407</t>
   </si>
   <si>
     <t xml:space="preserve">7.92578744888306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91018724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280376434326</t>
+    <t xml:space="preserve">7.91018676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280281066895</t>
   </si>
   <si>
     <t xml:space="preserve">8.05840492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07400703430176</t>
+    <t xml:space="preserve">8.07400608062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02720069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997869491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
+    <t xml:space="preserve">7.91798639297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521030426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02720260620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699262619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8009729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935018539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005847930908</t>
   </si>
   <si>
     <t xml:space="preserve">7.87898206710815</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">8.12861442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40164852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285179138184</t>
+    <t xml:space="preserve">8.40164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285083770752</t>
   </si>
   <si>
     <t xml:space="preserve">8.2690315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3782434463501</t>
+    <t xml:space="preserve">8.37824535369873</t>
   </si>
   <si>
     <t xml:space="preserve">8.3470401763916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23002624511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301136016846</t>
+    <t xml:space="preserve">8.2300271987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180618286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">8.3002347946167</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30803489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2144250869751</t>
+    <t xml:space="preserve">8.3080358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.24562740325928</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">8.19882202148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2534294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641548156738</t>
+    <t xml:space="preserve">8.25342750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641452789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.12081241607666</t>
@@ -182,61 +182,61 @@
     <t xml:space="preserve">8.03500080108643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94919157028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01940059661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80877447128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9413914680481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86337995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379753112793</t>
+    <t xml:space="preserve">7.94919204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01939964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877351760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94139003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86338043212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379657745361</t>
   </si>
   <si>
     <t xml:space="preserve">8.05060386657715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76196670532227</t>
+    <t xml:space="preserve">7.76196813583374</t>
   </si>
   <si>
     <t xml:space="preserve">7.99599695205688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78537034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586771011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366876602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89458322525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615747451782</t>
+    <t xml:space="preserve">7.78536939620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707098007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7736701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906328201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615604400635</t>
   </si>
   <si>
     <t xml:space="preserve">7.66055536270142</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">7.60594797134399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56694364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557416915894</t>
+    <t xml:space="preserve">7.56694316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557369232178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081123352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05340385437012</t>
+    <t xml:space="preserve">8.05340480804443</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160449981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11901092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1682186126709</t>
+    <t xml:space="preserve">8.1190128326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16821956634521</t>
   </si>
   <si>
     <t xml:space="preserve">8.00009727478027</t>
@@ -278,175 +278,175 @@
     <t xml:space="preserve">7.8729829788208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83197689056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097127914429</t>
+    <t xml:space="preserve">7.83197736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097080230713</t>
   </si>
   <si>
     <t xml:space="preserve">7.56954383850098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19639682769775</t>
+    <t xml:space="preserve">7.1963963508606</t>
   </si>
   <si>
     <t xml:space="preserve">7.35631704330444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51213598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975618362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904079437256</t>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975522994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5490403175354</t>
   </si>
   <si>
     <t xml:space="preserve">7.6351523399353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76226854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6679573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113084793091</t>
+    <t xml:space="preserve">7.76226758956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795587539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113180160522</t>
   </si>
   <si>
     <t xml:space="preserve">7.38091993331909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43012809753418</t>
+    <t xml:space="preserve">7.43012762069702</t>
   </si>
   <si>
     <t xml:space="preserve">7.38502025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4875340461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293163299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393438339233</t>
+    <t xml:space="preserve">7.48753309249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293115615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393486022949</t>
   </si>
   <si>
     <t xml:space="preserve">7.47523164749146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53264045715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5080361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163341522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962409973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882940292358</t>
+    <t xml:space="preserve">7.532639503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933197021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803518295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4916353225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234785079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853870391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4096245765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912105560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4588303565979</t>
   </si>
   <si>
     <t xml:space="preserve">7.51623678207397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56134271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594560623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774496078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443790435791</t>
+    <t xml:space="preserve">7.56134414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5777440071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443885803223</t>
   </si>
   <si>
     <t xml:space="preserve">7.39732217788696</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37271928787231</t>
+    <t xml:space="preserve">7.37271881103516</t>
   </si>
   <si>
     <t xml:space="preserve">7.27840757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21689987182617</t>
+    <t xml:space="preserve">7.21689939498901</t>
   </si>
   <si>
     <t xml:space="preserve">7.20459842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37681913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782569885254</t>
+    <t xml:space="preserve">7.3768196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422603607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782522201538</t>
   </si>
   <si>
     <t xml:space="preserve">7.43832731246948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33171415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401607513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761430740356</t>
+    <t xml:space="preserve">7.33171367645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401655197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29891014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041736602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761478424072</t>
   </si>
   <si>
     <t xml:space="preserve">7.31941223144531</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">7.30711126327515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33581447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121158599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45472955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229698181152</t>
+    <t xml:space="preserve">7.33581399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4547290802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589521408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229650497437</t>
   </si>
   <si>
     <t xml:space="preserve">7.21279907226562</t>
@@ -482,31 +482,31 @@
     <t xml:space="preserve">7.24150228500366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42192554473877</t>
+    <t xml:space="preserve">7.42192602157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.74176454544067</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09850978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3650426864624</t>
+    <t xml:space="preserve">8.09850883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36504364013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48805904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5208625793457</t>
+    <t xml:space="preserve">8.48805999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52086162567139</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144588470459</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">8.44705295562744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49625968933105</t>
+    <t xml:space="preserve">8.49625873565674</t>
   </si>
   <si>
     <t xml:space="preserve">8.65207862854004</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">8.88990879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89811038970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869178771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7258882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75049018859863</t>
+    <t xml:space="preserve">8.89810848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68488216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72588920593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75049114227295</t>
   </si>
   <si>
     <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73408889770508</t>
+    <t xml:space="preserve">8.73408699035645</t>
   </si>
   <si>
     <t xml:space="preserve">8.58647060394287</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">8.62747764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54546451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57826805114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.676682472229</t>
+    <t xml:space="preserve">8.54546642303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6110725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57826995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67668151855469</t>
   </si>
   <si>
     <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69308376312256</t>
+    <t xml:space="preserve">8.69308471679688</t>
   </si>
   <si>
     <t xml:space="preserve">8.66028022766113</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">8.66848087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79149627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96371746063232</t>
+    <t xml:space="preserve">8.79149723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96371841430664</t>
   </si>
   <si>
     <t xml:space="preserve">9.0867338180542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736656188965</t>
+    <t xml:space="preserve">9.23435211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736560821533</t>
   </si>
   <si>
     <t xml:space="preserve">9.59519577026367</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55419063568115</t>
+    <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159801483154</t>
@@ -614,31 +614,31 @@
     <t xml:space="preserve">9.66080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73461532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0544548034668</t>
+    <t xml:space="preserve">9.7346134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0544528961182</t>
   </si>
   <si>
     <t xml:space="preserve">10.1282634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6203241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909578323364</t>
+    <t xml:space="preserve">10.620325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909568786621</t>
   </si>
   <si>
     <t xml:space="preserve">10.8663549423218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6941347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6613292694092</t>
+    <t xml:space="preserve">10.6941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6613302230835</t>
   </si>
   <si>
     <t xml:space="preserve">10.5465154647827</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">10.407096862793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4973096847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629177093506</t>
+    <t xml:space="preserve">10.4973106384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.4481019973755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5793199539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513710975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5875186920166</t>
+    <t xml:space="preserve">10.5793180465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5137100219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5875196456909</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645051956177</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152975082397</t>
+    <t xml:space="preserve">10.4152984619141</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">10.7187356948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533918380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8581533432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9729690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0549783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0057716369629</t>
+    <t xml:space="preserve">11.1533908843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9729671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0549774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
     <t xml:space="preserve">11.4404258728027</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3092098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7848701477051</t>
+    <t xml:space="preserve">11.3092088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7848691940308</t>
   </si>
   <si>
     <t xml:space="preserve">12.5311622619629</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">12.5229616165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.145715713501</t>
+    <t xml:space="preserve">12.1457147598267</t>
   </si>
   <si>
     <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7443885803223</t>
+    <t xml:space="preserve">12.7443895339966</t>
   </si>
   <si>
     <t xml:space="preserve">13.121636390686</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">13.0314245223999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1708421707153</t>
+    <t xml:space="preserve">13.170841217041</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364501953125</t>
@@ -743,49 +743,49 @@
     <t xml:space="preserve">12.9609966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470003128052</t>
+    <t xml:space="preserve">13.1470012664795</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499116897583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3160924911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.42600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3752737045288</t>
+    <t xml:space="preserve">13.3160934448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4260025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3752756118774</t>
   </si>
   <si>
     <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3076400756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1385440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245487213135</t>
+    <t xml:space="preserve">13.307638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1385459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
     <t xml:space="preserve">11.9718017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3099880218506</t>
+    <t xml:space="preserve">12.3099889755249</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.428352355957</t>
+    <t xml:space="preserve">12.3776245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677154541016</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">12.4537172317505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512900352478</t>
+    <t xml:space="preserve">12.5129013061523</t>
   </si>
   <si>
     <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4452619552612</t>
+    <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
     <t xml:space="preserve">12.343807220459</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0056200027466</t>
+    <t xml:space="preserve">12.0056190490723</t>
   </si>
   <si>
     <t xml:space="preserve">12.039439201355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2592601776123</t>
+    <t xml:space="preserve">12.2592611312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607168197632</t>
@@ -842,94 +842,94 @@
     <t xml:space="preserve">12.7073574066162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143569946289</t>
+    <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
     <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650838851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228103637695</t>
+    <t xml:space="preserve">12.6650848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228113174438</t>
   </si>
   <si>
     <t xml:space="preserve">12.7327213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8510866165161</t>
+    <t xml:space="preserve">12.8510875701904</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4513692855835</t>
+    <t xml:space="preserve">12.9356336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4513673782349</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822732925415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4006385803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5190048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583669662476</t>
+    <t xml:space="preserve">13.4006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598226547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583660125732</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315464019775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936399459839</t>
+    <t xml:space="preserve">13.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936418533325</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2207412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4743843078613</t>
+    <t xml:space="preserve">14.220742225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4743824005127</t>
   </si>
   <si>
     <t xml:space="preserve">14.5420179367065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2883787155151</t>
+    <t xml:space="preserve">14.2883777618408</t>
   </si>
   <si>
     <t xml:space="preserve">14.3560171127319</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3729257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673828125</t>
+    <t xml:space="preserve">14.3729267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673818588257</t>
   </si>
   <si>
     <t xml:space="preserve">14.5758371353149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7364768981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7111139297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.353666305542</t>
+    <t xml:space="preserve">14.736475944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7111129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.787202835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536682128906</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201288223267</t>
@@ -941,49 +941,49 @@
     <t xml:space="preserve">16.0638580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4443168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4104995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1145858764648</t>
+    <t xml:space="preserve">16.4443206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4104976654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1145839691162</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4865913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1230411529541</t>
+    <t xml:space="preserve">16.48659324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1230392456055</t>
   </si>
   <si>
     <t xml:space="preserve">16.6303215026855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9008693695068</t>
+    <t xml:space="preserve">16.9008712768555</t>
   </si>
   <si>
     <t xml:space="preserve">17.4335136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.619514465332</t>
+    <t xml:space="preserve">17.6195182800293</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.712516784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7862586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381614685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270774841309</t>
+    <t xml:space="preserve">17.7125148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7862606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381633758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">18.7608966827393</t>
@@ -995,31 +995,31 @@
     <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1329021453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792629241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708076477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171684265137</t>
+    <t xml:space="preserve">19.1328983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708057403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
     <t xml:space="preserve">17.9407939910889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7547912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9746131896973</t>
+    <t xml:space="preserve">17.7547874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6702423095703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7970638275146</t>
+    <t xml:space="preserve">17.797061920166</t>
   </si>
   <si>
     <t xml:space="preserve">17.5349712371826</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">17.7463359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5265140533447</t>
+    <t xml:space="preserve">17.5265159606934</t>
   </si>
   <si>
     <t xml:space="preserve">17.441967010498</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5772438049316</t>
+    <t xml:space="preserve">17.5772457122803</t>
   </si>
   <si>
     <t xml:space="preserve">17.4926986694336</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">17.6279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434226989746</t>
+    <t xml:space="preserve">17.5434246063232</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">17.8055171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7378787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8393363952637</t>
+    <t xml:space="preserve">17.7378826141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.938440322876</t>
+    <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.5979061126709</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">19.8092727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4372673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611755371094</t>
+    <t xml:space="preserve">19.4372692108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.361177444458</t>
   </si>
   <si>
     <t xml:space="preserve">19.4710884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4457244873047</t>
+    <t xml:space="preserve">19.4457225799561</t>
   </si>
   <si>
     <t xml:space="preserve">19.3189029693604</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9299869537354</t>
+    <t xml:space="preserve">18.9299850463867</t>
   </si>
   <si>
     <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
-    <t xml:space="preserve">19.183629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2282524108887</t>
+    <t xml:space="preserve">19.1836261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.22825050354</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
@@ -1118,31 +1118,31 @@
     <t xml:space="preserve">17.0361442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7402286529541</t>
+    <t xml:space="preserve">16.7402324676514</t>
   </si>
   <si>
     <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9177799224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.83323097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9093265533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3320560455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9515953063965</t>
+    <t xml:space="preserve">16.9177761077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585987091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9093246459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9515972137451</t>
   </si>
   <si>
     <t xml:space="preserve">16.7233219146729</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247756958008</t>
+    <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938716888428</t>
@@ -1160,31 +1160,31 @@
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.537317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7763977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565776824951</t>
+    <t xml:space="preserve">16.5373210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7764005661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565786361694</t>
   </si>
   <si>
     <t xml:space="preserve">15.6918544769287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4551219940186</t>
+    <t xml:space="preserve">15.4551229476929</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787485122681</t>
   </si>
   <si>
-    <t xml:space="preserve">14.389835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720296859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933111190796</t>
+    <t xml:space="preserve">14.3898344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720315933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933082580566</t>
   </si>
   <si>
     <t xml:space="preserve">15.9962196350098</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">16.1484050750732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5227575302124</t>
+    <t xml:space="preserve">15.5227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">15.1676635742188</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.609655380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589265823364</t>
+    <t xml:space="preserve">14.6603851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6096563339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802051544189</t>
@@ -1223,46 +1223,46 @@
     <t xml:space="preserve">15.218391418457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3198509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102207183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.387487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.438214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396680831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705759048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.829478263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.049298286438</t>
+    <t xml:space="preserve">15.3198490142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3029413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102197647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382123947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705739974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8294773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492992401123</t>
   </si>
   <si>
     <t xml:space="preserve">15.5058507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4889392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.4889421463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411266326904</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924160003662</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">16.3513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.435863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5542297363281</t>
+    <t xml:space="preserve">16.4358654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5542278289795</t>
   </si>
   <si>
     <t xml:space="preserve">16.3005886077881</t>
@@ -1289,76 +1289,76 @@
     <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
+    <t xml:space="preserve">16.2836818695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
+    <t xml:space="preserve">15.582558631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">15.8437185287476</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1397018432617</t>
+    <t xml:space="preserve">15.8263082504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1396999359131</t>
   </si>
   <si>
     <t xml:space="preserve">16.3312168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879131317139</t>
+    <t xml:space="preserve">16.4879150390625</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874710083008</t>
+    <t xml:space="preserve">16.1048793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7740774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696109771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044324874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.920952796936</t>
+    <t xml:space="preserve">15.7740755081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044334411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9209518432617</t>
   </si>
   <si>
     <t xml:space="preserve">14.8513088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8164882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254163742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298799514771</t>
+    <t xml:space="preserve">14.8164873123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.973183631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298809051514</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285430908203</t>
@@ -1367,28 +1367,28 @@
     <t xml:space="preserve">14.0155973434448</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7544374465942</t>
+    <t xml:space="preserve">13.7544364929199</t>
   </si>
   <si>
     <t xml:space="preserve">14.0678291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9633665084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7468461990356</t>
+    <t xml:space="preserve">13.9633646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468452453613</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459533691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504179000854</t>
+    <t xml:space="preserve">14.2245264053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504188537598</t>
   </si>
   <si>
     <t xml:space="preserve">14.102650642395</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7370262145996</t>
+    <t xml:space="preserve">13.7022047042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0580101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4062232971191</t>
+    <t xml:space="preserve">13.3539915084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1798849105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.058009147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4062242507935</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6227416992188</t>
+    <t xml:space="preserve">12.6227436065674</t>
   </si>
   <si>
     <t xml:space="preserve">12.5531005859375</t>
@@ -1436,16 +1436,16 @@
     <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486360549927</t>
+    <t xml:space="preserve">12.4486351013184</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.630334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6651544570923</t>
+    <t xml:space="preserve">11.6303329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651554107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.9187240600586</t>
@@ -1469,61 +1469,61 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017597198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1276512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714008331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.274528503418</t>
+    <t xml:space="preserve">13.3017587661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1276521682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3713998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0655994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1874761581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1178331375122</t>
+    <t xml:space="preserve">12.065601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1874752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4312257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3615827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1178321838379</t>
   </si>
   <si>
     <t xml:space="preserve">11.5084590911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4736385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517627716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.403995513916</t>
+    <t xml:space="preserve">11.4736394882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517637252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4039945602417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1700649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.849081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9089040756226</t>
+    <t xml:space="preserve">12.8490829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955123901367</t>
@@ -1538,31 +1538,31 @@
     <t xml:space="preserve">11.8218507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7097969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8839025497437</t>
+    <t xml:space="preserve">12.7097959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.883903503418</t>
   </si>
   <si>
     <t xml:space="preserve">12.3964042663574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2571182250977</t>
+    <t xml:space="preserve">12.257119178772</t>
   </si>
   <si>
     <t xml:space="preserve">12.3441715240479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6749753952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7272062301636</t>
+    <t xml:space="preserve">12.6749744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7272071838379</t>
   </si>
   <si>
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053314208984</t>
+    <t xml:space="preserve">12.6053323745728</t>
   </si>
   <si>
     <t xml:space="preserve">12.657564163208</t>
@@ -1574,28 +1574,28 @@
     <t xml:space="preserve">12.8142595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9535465240479</t>
+    <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
     <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147064208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3888120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4584560394287</t>
+    <t xml:space="preserve">13.2147073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3888130187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4584550857544</t>
   </si>
   <si>
     <t xml:space="preserve">13.4758653640747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.719614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2321166992188</t>
+    <t xml:space="preserve">13.7196159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2321157455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.3191699981689</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0057773590088</t>
+    <t xml:space="preserve">13.0057764053345</t>
   </si>
   <si>
     <t xml:space="preserve">13.284348487854</t>
@@ -1616,25 +1616,25 @@
     <t xml:space="preserve">13.510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5455083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236345291138</t>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638095855713</t>
+    <t xml:space="preserve">14.154881477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638105392456</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">13.9807748794556</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1722936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2593450546265</t>
+    <t xml:space="preserve">14.1722946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2593460083008</t>
   </si>
   <si>
     <t xml:space="preserve">13.8937225341797</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">13.6847944259644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470941543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661211013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489561080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7041797637939</t>
+    <t xml:space="preserve">13.6151514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661220550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489570617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7041788101196</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -1685,37 +1685,37 @@
     <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7765674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8127613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9394426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6136932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">12.7765684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.812762260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955963134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0118312835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9756364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9394416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232076644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194818496704</t>
+    <t xml:space="preserve">13.3194808959961</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8851518630981</t>
+    <t xml:space="preserve">12.8851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.1204137802124</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4823551177979</t>
+    <t xml:space="preserve">13.4823560714722</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4461612701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2832880020142</t>
+    <t xml:space="preserve">13.4461603164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2832870483398</t>
   </si>
   <si>
     <t xml:space="preserve">13.1928014755249</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918695449829</t>
+    <t xml:space="preserve">13.3918704986572</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">12.1793632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7222776412964</t>
+    <t xml:space="preserve">12.7222766876221</t>
   </si>
   <si>
     <t xml:space="preserve">12.2155570983887</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">12.2517518997192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3060445785522</t>
+    <t xml:space="preserve">12.3060436248779</t>
   </si>
   <si>
     <t xml:space="preserve">12.414626121521</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336540222168</t>
+    <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9983921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.763129234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6545467376709</t>
+    <t xml:space="preserve">11.9983911514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7631301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6545476913452</t>
   </si>
   <si>
     <t xml:space="preserve">11.8536148071289</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">11.7450313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7993230819702</t>
+    <t xml:space="preserve">11.7993240356445</t>
   </si>
   <si>
     <t xml:space="preserve">11.8355178833008</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">11.6364488601685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3649930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.473575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926034927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011878967285</t>
+    <t xml:space="preserve">11.3649921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011859893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564096450806</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">11.0392446517944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0211477279663</t>
+    <t xml:space="preserve">11.021146774292</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">10.9306612014771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8582735061646</t>
+    <t xml:space="preserve">10.8582725524902</t>
   </si>
   <si>
     <t xml:space="preserve">11.0754384994507</t>
@@ -1889,34 +1889,34 @@
     <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4373817443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.22021484375</t>
+    <t xml:space="preserve">11.4373807907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2202157974243</t>
   </si>
   <si>
     <t xml:space="preserve">11.2383127212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830900192261</t>
+    <t xml:space="preserve">11.3830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">11.5278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.16126537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4508190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965272903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2698488235474</t>
+    <t xml:space="preserve">12.1612663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4508199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784322738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
     <t xml:space="preserve">12.7403736114502</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">12.4327220916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9802951812744</t>
+    <t xml:space="preserve">11.9802932739258</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
@@ -1943,25 +1943,25 @@
     <t xml:space="preserve">12.1431694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6679859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8308601379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9621982574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0526828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297292709351</t>
+    <t xml:space="preserve">12.6679849624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8308591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.962197303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0526819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86293029785156</t>
+    <t xml:space="preserve">9.86293125152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.39240646362305</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75900650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50564765930176</t>
+    <t xml:space="preserve">8.75900745391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50564670562744</t>
   </si>
   <si>
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86758899688721</t>
+    <t xml:space="preserve">8.78615188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86758995056152</t>
   </si>
   <si>
     <t xml:space="preserve">8.82234668731689</t>
@@ -1994,13 +1994,13 @@
     <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48755073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61423110961914</t>
+    <t xml:space="preserve">8.48754978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376514434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61423015594482</t>
   </si>
   <si>
     <t xml:space="preserve">8.7409086227417</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">9.01236724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13904762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32001686096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04856109619141</t>
+    <t xml:space="preserve">9.13904666900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09380435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04856014251709</t>
   </si>
   <si>
     <t xml:space="preserve">9.18428993225098</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5009880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147548675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77244663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0439033508301</t>
+    <t xml:space="preserve">9.50098991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77244567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0439023971558</t>
   </si>
   <si>
     <t xml:space="preserve">9.95341682434082</t>
@@ -2057,28 +2057,28 @@
     <t xml:space="preserve">9.68195915222168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22953128814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99426937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8494930267334</t>
+    <t xml:space="preserve">9.22953224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84949207305908</t>
   </si>
   <si>
     <t xml:space="preserve">8.93997859954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90378379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72720241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248735427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4058456420898</t>
+    <t xml:space="preserve">8.90378475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4058446884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.4963312149048</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">10.3606014251709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817451477051</t>
+    <t xml:space="preserve">9.90817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868148803711</t>
+    <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773023605347</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">11.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4464302062988</t>
+    <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
     <t xml:space="preserve">11.1749725341797</t>
@@ -2132,40 +2132,40 @@
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677869796753</t>
+    <t xml:space="preserve">10.8130292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677879333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.722544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6274003982544</t>
+    <t xml:space="preserve">11.6274013519287</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8988580703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4870147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5322580337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801044464111</t>
+    <t xml:space="preserve">11.8988571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4870138168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5322570800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9904432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553440093994</t>
+    <t xml:space="preserve">12.1553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.9233713150024</t>
@@ -2177,34 +2177,34 @@
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6913995742798</t>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.949089050293</t>
+    <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
     <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.3202438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656818389893</t>
+    <t xml:space="preserve">12.3873167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656827926636</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120761871338</t>
@@ -2246,22 +2246,22 @@
     <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358821868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358812332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">15.2173757553101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3565578460693</t>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854030609131</t>
+    <t xml:space="preserve">14.9854040145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781936645508</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236335754395</t>
+    <t xml:space="preserve">16.4236316680908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2312,19 +2312,19 @@
     <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8618583679199</t>
+    <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4185924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.4185943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4649868011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361415863037</t>
+    <t xml:space="preserve">18.8361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217208862305</t>
+    <t xml:space="preserve">17.3515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217189788818</t>
   </si>
   <si>
     <t xml:space="preserve">18.2794094085693</t>
@@ -2357,34 +2357,34 @@
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">19.764030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9702892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053855895996</t>
+    <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
     <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8981781005859</t>
+    <t xml:space="preserve">21.8981761932373</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5991325378418</t>
+    <t xml:space="preserve">20.7847080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5991306304932</t>
   </si>
   <si>
     <t xml:space="preserve">21.0630779266357</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270195007324</t>
+    <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
     <t xml:space="preserve">21.2486515045166</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1765422821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">22.1765403747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -2426,28 +2426,28 @@
     <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2735,9 +2735,6 @@
     <t xml:space="preserve">24.9053230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198398590088</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8372573852539</t>
   </si>
   <si>
@@ -3507,6 +3504,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5</t>
   </si>
 </sst>
 </file>
@@ -46428,7 +46428,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46454,7 +46454,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46480,7 +46480,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46506,7 +46506,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46532,7 +46532,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46558,7 +46558,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46584,7 +46584,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46610,7 +46610,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46636,7 +46636,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46662,7 +46662,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46688,7 +46688,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46714,7 +46714,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46740,7 +46740,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46766,7 +46766,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46792,7 +46792,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46818,7 +46818,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46844,7 +46844,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46870,7 +46870,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46896,7 +46896,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46922,7 +46922,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46948,7 +46948,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46974,7 +46974,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47000,7 +47000,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47026,7 +47026,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47052,7 +47052,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47078,7 +47078,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47104,7 +47104,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47130,7 +47130,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47156,7 +47156,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47182,7 +47182,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47208,7 +47208,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47234,7 +47234,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47260,7 +47260,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47286,7 +47286,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47312,7 +47312,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47338,7 +47338,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47364,7 +47364,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47390,7 +47390,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47416,7 +47416,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47442,7 +47442,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47468,7 +47468,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47494,7 +47494,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47520,7 +47520,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47546,7 +47546,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47572,7 +47572,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47598,7 +47598,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47624,7 +47624,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47650,7 +47650,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47676,7 +47676,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47702,7 +47702,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47728,7 +47728,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47754,7 +47754,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47780,7 +47780,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47806,7 +47806,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47832,7 +47832,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47858,7 +47858,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47884,7 +47884,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47910,7 +47910,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47936,7 +47936,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47962,7 +47962,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47988,7 +47988,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48014,7 +48014,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48040,7 +48040,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48066,7 +48066,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48092,7 +48092,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48118,7 +48118,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48144,7 +48144,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48170,7 +48170,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48196,7 +48196,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48222,7 +48222,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48248,7 +48248,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48274,7 +48274,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48300,7 +48300,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48326,7 +48326,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48352,7 +48352,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48378,7 +48378,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48404,7 +48404,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48430,7 +48430,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48456,7 +48456,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48482,7 +48482,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48508,7 +48508,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48534,7 +48534,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48560,7 +48560,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48586,7 +48586,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48612,7 +48612,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48638,7 +48638,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48664,7 +48664,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48690,7 +48690,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48716,7 +48716,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48742,7 +48742,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48768,7 +48768,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48794,7 +48794,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48820,7 +48820,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48846,7 +48846,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48872,7 +48872,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48898,7 +48898,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48924,7 +48924,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48950,7 +48950,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48976,7 +48976,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49002,7 +49002,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49028,7 +49028,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49054,7 +49054,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49080,7 +49080,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49106,7 +49106,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49132,7 +49132,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49158,7 +49158,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49184,7 +49184,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49210,7 +49210,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49236,7 +49236,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49262,7 +49262,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49288,7 +49288,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49314,7 +49314,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49340,7 +49340,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49366,7 +49366,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49392,7 +49392,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49418,7 +49418,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49444,7 +49444,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49470,7 +49470,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49496,7 +49496,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49522,7 +49522,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49548,7 +49548,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49574,7 +49574,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49600,7 +49600,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49626,7 +49626,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49652,7 +49652,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49678,7 +49678,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49704,7 +49704,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49730,7 +49730,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49756,7 +49756,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49782,7 +49782,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49808,7 +49808,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49834,7 +49834,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49860,7 +49860,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49886,7 +49886,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49912,7 +49912,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49938,7 +49938,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49964,7 +49964,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49990,7 +49990,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50016,7 +50016,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50042,7 +50042,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50068,7 +50068,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50094,7 +50094,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50120,7 +50120,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50146,7 +50146,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50172,7 +50172,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50198,7 +50198,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50224,7 +50224,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50250,7 +50250,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50276,7 +50276,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50302,7 +50302,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50328,7 +50328,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50354,7 +50354,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50380,7 +50380,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50406,7 +50406,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50432,7 +50432,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50458,7 +50458,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50484,7 +50484,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50510,7 +50510,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50536,7 +50536,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50562,7 +50562,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50588,7 +50588,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50614,7 +50614,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50640,7 +50640,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50666,7 +50666,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50692,7 +50692,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50718,7 +50718,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50744,7 +50744,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50770,7 +50770,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50796,7 +50796,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50822,7 +50822,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50848,7 +50848,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50874,7 +50874,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50900,7 +50900,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50926,7 +50926,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50952,7 +50952,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50978,7 +50978,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51004,7 +51004,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51030,7 +51030,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51056,7 +51056,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51082,7 +51082,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51108,7 +51108,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51134,7 +51134,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51160,7 +51160,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51186,7 +51186,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51212,7 +51212,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51238,7 +51238,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51264,7 +51264,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51290,7 +51290,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51316,7 +51316,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51342,7 +51342,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51368,7 +51368,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51394,7 +51394,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51420,7 +51420,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51446,7 +51446,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51472,7 +51472,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51498,7 +51498,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51524,7 +51524,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51550,7 +51550,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51576,7 +51576,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51602,7 +51602,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51628,7 +51628,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51654,7 +51654,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51680,7 +51680,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51706,7 +51706,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51732,7 +51732,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51758,7 +51758,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51784,7 +51784,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51810,7 +51810,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51836,7 +51836,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51862,7 +51862,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51888,7 +51888,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51914,7 +51914,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51940,7 +51940,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51966,7 +51966,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51992,7 +51992,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52018,7 +52018,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52044,7 +52044,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52070,7 +52070,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52096,7 +52096,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52122,7 +52122,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52148,7 +52148,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52174,7 +52174,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52200,7 +52200,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52226,7 +52226,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52252,7 +52252,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52278,7 +52278,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52304,7 +52304,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52330,7 +52330,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52356,7 +52356,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52382,7 +52382,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52408,7 +52408,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52434,7 +52434,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52460,7 +52460,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52486,7 +52486,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52512,7 +52512,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52538,7 +52538,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52564,7 +52564,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52590,7 +52590,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52616,7 +52616,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52642,7 +52642,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52668,7 +52668,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52694,7 +52694,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52720,7 +52720,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52746,7 +52746,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52772,7 +52772,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52798,7 +52798,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52824,7 +52824,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52850,7 +52850,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52876,7 +52876,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52902,7 +52902,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52928,7 +52928,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52954,7 +52954,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52980,7 +52980,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53006,7 +53006,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53032,7 +53032,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53058,7 +53058,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53084,7 +53084,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53110,7 +53110,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53136,7 +53136,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53162,7 +53162,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53188,7 +53188,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53214,7 +53214,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53240,7 +53240,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53266,7 +53266,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53292,7 +53292,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53318,7 +53318,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53344,7 +53344,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53370,7 +53370,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53396,7 +53396,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53422,7 +53422,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53448,7 +53448,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53474,7 +53474,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53500,7 +53500,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53526,7 +53526,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53552,7 +53552,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53578,7 +53578,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53604,7 +53604,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53630,7 +53630,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53656,7 +53656,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53682,7 +53682,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53708,7 +53708,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53734,7 +53734,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53760,7 +53760,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53786,7 +53786,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53812,7 +53812,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53838,7 +53838,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53864,7 +53864,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53890,7 +53890,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53916,7 +53916,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53942,7 +53942,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53968,7 +53968,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53994,7 +53994,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54020,7 +54020,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54046,7 +54046,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54072,7 +54072,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54098,7 +54098,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54124,7 +54124,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54150,7 +54150,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54176,7 +54176,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54202,7 +54202,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54228,7 +54228,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54254,7 +54254,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54280,7 +54280,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54306,7 +54306,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54332,7 +54332,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54358,7 +54358,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54384,7 +54384,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54410,7 +54410,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54436,7 +54436,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54462,7 +54462,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54488,7 +54488,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54514,7 +54514,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54540,7 +54540,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54566,7 +54566,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54592,7 +54592,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54618,7 +54618,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54644,7 +54644,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54670,7 +54670,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54696,7 +54696,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54722,7 +54722,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54748,7 +54748,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54774,7 +54774,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54800,7 +54800,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54826,7 +54826,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54852,7 +54852,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54878,7 +54878,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54904,7 +54904,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54930,7 +54930,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54956,7 +54956,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54982,7 +54982,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55008,7 +55008,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55034,7 +55034,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55060,7 +55060,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55086,7 +55086,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55112,7 +55112,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55138,7 +55138,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55164,7 +55164,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55190,7 +55190,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55216,7 +55216,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55242,7 +55242,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55268,7 +55268,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55294,7 +55294,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55320,7 +55320,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55346,7 +55346,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55372,7 +55372,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55398,7 +55398,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55424,7 +55424,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55450,7 +55450,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55476,7 +55476,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55502,7 +55502,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55528,7 +55528,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55554,7 +55554,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55580,7 +55580,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55606,7 +55606,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55632,7 +55632,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55658,7 +55658,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55684,7 +55684,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55710,7 +55710,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55736,7 +55736,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55762,7 +55762,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55788,7 +55788,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55814,7 +55814,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55840,7 +55840,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55866,7 +55866,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55892,7 +55892,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55918,7 +55918,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55944,7 +55944,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55970,7 +55970,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55996,7 +55996,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56022,7 +56022,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56048,7 +56048,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56074,7 +56074,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56100,7 +56100,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56126,7 +56126,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56152,7 +56152,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56178,7 +56178,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56204,7 +56204,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56230,7 +56230,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56256,7 +56256,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56282,7 +56282,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56308,7 +56308,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56334,7 +56334,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56360,7 +56360,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56386,7 +56386,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56412,7 +56412,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56438,7 +56438,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56464,7 +56464,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56490,7 +56490,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56516,7 +56516,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56542,7 +56542,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56568,7 +56568,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56594,7 +56594,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56620,7 +56620,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56646,7 +56646,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56672,7 +56672,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56698,7 +56698,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56724,7 +56724,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56750,7 +56750,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56776,7 +56776,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56802,7 +56802,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56828,7 +56828,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56854,7 +56854,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56880,7 +56880,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56906,7 +56906,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56932,7 +56932,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56958,7 +56958,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56984,7 +56984,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57010,7 +57010,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57036,7 +57036,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57062,7 +57062,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57088,7 +57088,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57114,7 +57114,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57140,7 +57140,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57166,7 +57166,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57192,7 +57192,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57218,7 +57218,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57244,7 +57244,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57270,7 +57270,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57296,7 +57296,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57322,7 +57322,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57348,7 +57348,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57374,7 +57374,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57400,7 +57400,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57426,7 +57426,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57452,7 +57452,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57478,7 +57478,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57504,7 +57504,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57530,7 +57530,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57556,7 +57556,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57582,7 +57582,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57608,7 +57608,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57634,7 +57634,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57660,7 +57660,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57686,7 +57686,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57712,7 +57712,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57738,7 +57738,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57764,7 +57764,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57790,7 +57790,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57816,7 +57816,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57842,7 +57842,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57868,7 +57868,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57894,7 +57894,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57920,7 +57920,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57946,7 +57946,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57972,7 +57972,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57998,7 +57998,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58024,7 +58024,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58050,7 +58050,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58076,7 +58076,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58102,7 +58102,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58128,7 +58128,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58154,7 +58154,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58180,7 +58180,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58206,7 +58206,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58232,7 +58232,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58258,7 +58258,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58284,7 +58284,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58310,7 +58310,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58336,7 +58336,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58362,7 +58362,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58388,7 +58388,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58414,7 +58414,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58440,7 +58440,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58466,7 +58466,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58492,7 +58492,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58518,7 +58518,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58544,7 +58544,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58570,7 +58570,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58596,7 +58596,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58622,7 +58622,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58648,7 +58648,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58674,7 +58674,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58700,7 +58700,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58726,7 +58726,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58752,7 +58752,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58778,7 +58778,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58804,7 +58804,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58830,7 +58830,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58856,7 +58856,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58882,7 +58882,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58908,7 +58908,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58934,7 +58934,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58960,7 +58960,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58986,7 +58986,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59012,7 +59012,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59038,7 +59038,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59064,7 +59064,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59090,7 +59090,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59116,7 +59116,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59142,7 +59142,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59168,7 +59168,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59194,7 +59194,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59220,7 +59220,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59246,7 +59246,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59272,7 +59272,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59298,7 +59298,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59324,7 +59324,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59350,7 +59350,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59376,7 +59376,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59402,7 +59402,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59428,7 +59428,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59454,7 +59454,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59480,7 +59480,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59506,7 +59506,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59532,7 +59532,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59558,7 +59558,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59584,7 +59584,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59610,7 +59610,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59636,7 +59636,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59662,7 +59662,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59688,7 +59688,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59714,7 +59714,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59740,7 +59740,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2150" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59766,7 +59766,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59792,7 +59792,7 @@
         <v>16.75</v>
       </c>
       <c r="G2152" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59818,7 +59818,7 @@
         <v>16.75</v>
       </c>
       <c r="G2153" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59844,7 +59844,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59870,7 +59870,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2155" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59896,7 +59896,7 @@
         <v>16.75</v>
       </c>
       <c r="G2156" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59922,7 +59922,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2157" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59948,7 +59948,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59974,7 +59974,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60000,7 +60000,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60026,7 +60026,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60052,7 +60052,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60078,7 +60078,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2163" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60104,7 +60104,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60112,7 +60112,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6493402778</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>3277</v>
@@ -60130,9 +60130,35 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2165" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.649375</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>384</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>16.2999992370605</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2166" t="s">
         <v>1164</v>
       </c>
-      <c r="H2165" t="s">
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1172">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">8.95551586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81509971618652</t>
+    <t xml:space="preserve">8.81509876251221</t>
   </si>
   <si>
     <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69808387756348</t>
+    <t xml:space="preserve">8.69808292388916</t>
   </si>
   <si>
     <t xml:space="preserve">8.64347648620605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58106994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47965621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19102191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437562942505</t>
+    <t xml:space="preserve">8.58106899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47965812683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19102001190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437419891357</t>
   </si>
   <si>
     <t xml:space="preserve">7.96479320526123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92578792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018676757812</t>
+    <t xml:space="preserve">7.92578744888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018629074097</t>
   </si>
   <si>
     <t xml:space="preserve">8.04280281066895</t>
@@ -89,67 +89,67 @@
     <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20662307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02720165252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699310302734</t>
+    <t xml:space="preserve">8.20662212371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521030426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02720069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699071884155</t>
   </si>
   <si>
     <t xml:space="preserve">7.80097150802612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6293511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005895614624</t>
+    <t xml:space="preserve">7.62935018539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8399772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005800247192</t>
   </si>
   <si>
     <t xml:space="preserve">7.87898206710815</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12861347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285083770752</t>
+    <t xml:space="preserve">8.12861251831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285179138184</t>
   </si>
   <si>
     <t xml:space="preserve">8.26903057098389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37824440002441</t>
+    <t xml:space="preserve">8.3782434463501</t>
   </si>
   <si>
     <t xml:space="preserve">8.34704113006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2300271987915</t>
+    <t xml:space="preserve">8.23002624511719</t>
   </si>
   <si>
     <t xml:space="preserve">8.08180618286133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17541790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301136016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30023574829102</t>
+    <t xml:space="preserve">8.17541885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30023384094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.3548412322998</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">8.3080358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683067321777</t>
+    <t xml:space="preserve">8.27683258056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.21442413330078</t>
@@ -167,55 +167,55 @@
     <t xml:space="preserve">8.24562740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19882202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2534294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919157028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80877256393433</t>
+    <t xml:space="preserve">8.19882297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25342845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641452789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0193977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259283065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9335880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8087739944458</t>
   </si>
   <si>
     <t xml:space="preserve">7.94139051437378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86338233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379657745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05060386657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76196718215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537130355835</t>
+    <t xml:space="preserve">7.86337900161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7619686126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.76586818695068</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">7.72686338424683</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79707193374634</t>
+    <t xml:space="preserve">7.7970724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366971969604</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">7.89458513259888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71906185150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615795135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055488586426</t>
+    <t xml:space="preserve">7.71906280517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615699768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055393218994</t>
   </si>
   <si>
     <t xml:space="preserve">7.60594797134399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56694316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0534029006958</t>
+    <t xml:space="preserve">7.56694269180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11081123352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05340480804443</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11901187896729</t>
+    <t xml:space="preserve">8.11901092529297</t>
   </si>
   <si>
     <t xml:space="preserve">8.1682186126709</t>
@@ -272,112 +272,112 @@
     <t xml:space="preserve">7.8811821937561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98779630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097127914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954383850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1963963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631704330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996709823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975570678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515186309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372394561768</t>
+    <t xml:space="preserve">7.98779582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197784423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954336166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3563175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5121374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54494142532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6556544303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6679573059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372442245483</t>
   </si>
   <si>
     <t xml:space="preserve">7.47113132476807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38092041015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012666702271</t>
+    <t xml:space="preserve">7.38092136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012619018555</t>
   </si>
   <si>
     <t xml:space="preserve">7.38502073287964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48753356933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293067932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393438339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263902664185</t>
+    <t xml:space="preserve">7.4875340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293020248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523164749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263998031616</t>
   </si>
   <si>
     <t xml:space="preserve">7.479332447052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46703100204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803518295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163484573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652843475342</t>
+    <t xml:space="preserve">7.46703147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5080361366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4916353225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234832763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652891159058</t>
   </si>
   <si>
     <t xml:space="preserve">7.5285382270813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40962362289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912200927734</t>
+    <t xml:space="preserve">7.40962409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912105560303</t>
   </si>
   <si>
     <t xml:space="preserve">7.45883083343506</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">7.51623773574829</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56134223937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594560623169</t>
+    <t xml:space="preserve">7.56134271621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">7.57774543762207</t>
@@ -398,76 +398,76 @@
     <t xml:space="preserve">7.52443838119507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840709686279</t>
+    <t xml:space="preserve">7.39732265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840757369995</t>
   </si>
   <si>
     <t xml:space="preserve">7.21689987182617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20459890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37681913375854</t>
+    <t xml:space="preserve">7.20459842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3768196105957</t>
   </si>
   <si>
     <t xml:space="preserve">7.43422651290894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41782522201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832778930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171415328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401655197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3235125541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041831970215</t>
+    <t xml:space="preserve">7.41782474517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171319961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29891014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041879653931</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31941318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711126327515</t>
+    <t xml:space="preserve">7.31941366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711030960083</t>
   </si>
   <si>
     <t xml:space="preserve">7.33581447601318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31121206283569</t>
+    <t xml:space="preserve">7.31121110916138</t>
   </si>
   <si>
     <t xml:space="preserve">7.45472955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17589473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409633636475</t>
+    <t xml:space="preserve">7.17589569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409538269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.20869827270508</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21279954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150323867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0985107421875</t>
+    <t xml:space="preserve">7.21279907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192506790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176549911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.23382663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36504364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52906322479248</t>
+    <t xml:space="preserve">8.3650426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52906227111816</t>
   </si>
   <si>
     <t xml:space="preserve">8.48805904388428</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">8.40604877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52086353302002</t>
+    <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144493103027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44705200195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625968933105</t>
+    <t xml:space="preserve">8.44705295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625873565674</t>
   </si>
   <si>
     <t xml:space="preserve">8.65207862854004</t>
@@ -527,52 +527,52 @@
     <t xml:space="preserve">8.89811038970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75869178771973</t>
+    <t xml:space="preserve">8.75869274139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.68488311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72588920593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75049114227295</t>
+    <t xml:space="preserve">8.72588729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75049209594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73408889770508</t>
+    <t xml:space="preserve">8.73408794403076</t>
   </si>
   <si>
     <t xml:space="preserve">8.58647155761719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50445938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54546642303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107349395752</t>
+    <t xml:space="preserve">8.50446033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54546546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61107444763184</t>
   </si>
   <si>
     <t xml:space="preserve">8.57827091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.676682472229</t>
+    <t xml:space="preserve">8.67668151855469</t>
   </si>
   <si>
     <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69308376312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66028022766113</t>
+    <t xml:space="preserve">8.69308471679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66027927398682</t>
   </si>
   <si>
     <t xml:space="preserve">8.66848087310791</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">8.96371746063232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08673286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435115814209</t>
+    <t xml:space="preserve">9.08673191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736751556396</t>
@@ -596,34 +596,34 @@
     <t xml:space="preserve">9.59519672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66900539398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6279993057251</t>
+    <t xml:space="preserve">9.66900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62800025939941</t>
   </si>
   <si>
     <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55418968200684</t>
+    <t xml:space="preserve">9.55419063568115</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66080379486084</t>
+    <t xml:space="preserve">9.66080474853516</t>
   </si>
   <si>
     <t xml:space="preserve">9.73461437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92323684692383</t>
+    <t xml:space="preserve">9.92323780059814</t>
   </si>
   <si>
     <t xml:space="preserve">10.0544538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1282625198364</t>
+    <t xml:space="preserve">10.1282634735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.6203241348267</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">10.6941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6613292694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5465154647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809055328369</t>
+    <t xml:space="preserve">10.6613302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5465145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">10.407096862793</t>
@@ -653,61 +653,61 @@
     <t xml:space="preserve">10.4973087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481019973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793199539185</t>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793170928955</t>
   </si>
   <si>
     <t xml:space="preserve">10.513710975647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875205993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645042419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055093765259</t>
+    <t xml:space="preserve">10.5875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645051956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055112838745</t>
   </si>
   <si>
     <t xml:space="preserve">10.4152984619141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9073610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8253498077393</t>
+    <t xml:space="preserve">10.9073600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8253507614136</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533908843994</t>
+    <t xml:space="preserve">11.1533918380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.858154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9729681015015</t>
+    <t xml:space="preserve">10.9729690551758</t>
   </si>
   <si>
     <t xml:space="preserve">11.0549783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0057735443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404268264771</t>
+    <t xml:space="preserve">11.0057725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404258728027</t>
   </si>
   <si>
     <t xml:space="preserve">11.3092098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7848682403564</t>
+    <t xml:space="preserve">11.7848701477051</t>
   </si>
   <si>
     <t xml:space="preserve">12.5311622619629</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">12.5229616165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375141143799</t>
+    <t xml:space="preserve">12.145715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375131607056</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443895339966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.121636390686</t>
+    <t xml:space="preserve">13.1216354370117</t>
   </si>
   <si>
     <t xml:space="preserve">13.0314254760742</t>
@@ -737,28 +737,28 @@
     <t xml:space="preserve">13.170841217041</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2364501953125</t>
+    <t xml:space="preserve">13.2364492416382</t>
   </si>
   <si>
     <t xml:space="preserve">12.9609966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470003128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499116897583</t>
+    <t xml:space="preserve">13.1470012664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.349910736084</t>
   </si>
   <si>
     <t xml:space="preserve">13.3160924911499</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4260025024414</t>
+    <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3752746582031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4429140090942</t>
+    <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
     <t xml:space="preserve">13.307638168335</t>
@@ -767,61 +767,61 @@
     <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9718008041382</t>
+    <t xml:space="preserve">13.3245487213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717998504639</t>
   </si>
   <si>
     <t xml:space="preserve">12.3099880218506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423505783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
+    <t xml:space="preserve">12.2423496246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3776273727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677145004272</t>
+    <t xml:space="preserve">12.2677154541016</t>
   </si>
   <si>
     <t xml:space="preserve">12.6059017181396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.470627784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4537172317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5128993988037</t>
+    <t xml:space="preserve">12.4706268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4537162780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512900352478</t>
   </si>
   <si>
     <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4452619552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.343807220459</t>
+    <t xml:space="preserve">12.4452638626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3438062667847</t>
   </si>
   <si>
     <t xml:space="preserve">12.1747140884399</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9210739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0056190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039439201355</t>
+    <t xml:space="preserve">11.9210748672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0056200027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394382476807</t>
   </si>
   <si>
     <t xml:space="preserve">12.2592601776123</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">12.563627243042</t>
   </si>
   <si>
-    <t xml:space="preserve">12.639720916748</t>
+    <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5467185974121</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">12.7073574066162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143569946289</t>
+    <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
     <t xml:space="preserve">12.6819925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650838851929</t>
+    <t xml:space="preserve">12.6650829315186</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228113174438</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">12.7327222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933591842651</t>
+    <t xml:space="preserve">12.8510856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933610916138</t>
   </si>
   <si>
     <t xml:space="preserve">12.9356336593628</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">13.4513683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2822742462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5190057754517</t>
+    <t xml:space="preserve">13.2822732925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.519003868103</t>
   </si>
   <si>
     <t xml:space="preserve">13.4598226547241</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">13.3583660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2315464019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2738199234009</t>
+    <t xml:space="preserve">13.2315454483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2738208770752</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7810983657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2207403182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.474383354187</t>
+    <t xml:space="preserve">13.781099319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2207412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4743824005127</t>
   </si>
   <si>
     <t xml:space="preserve">14.5420198440552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2883796691895</t>
+    <t xml:space="preserve">14.2883787155151</t>
   </si>
   <si>
     <t xml:space="preserve">14.3560161590576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3729267120361</t>
+    <t xml:space="preserve">14.3729257583618</t>
   </si>
   <si>
     <t xml:space="preserve">14.5673809051514</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">14.7364778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111120223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872037887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3536653518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201307296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947629928589</t>
+    <t xml:space="preserve">14.7111129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.787205696106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201288223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947649002075</t>
   </si>
   <si>
     <t xml:space="preserve">16.0638580322266</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4104976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1145839691162</t>
+    <t xml:space="preserve">16.4104995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696826934814</t>
@@ -956,19 +956,19 @@
     <t xml:space="preserve">16.4865894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9008674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4335117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195182800293</t>
+    <t xml:space="preserve">16.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9008712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4335136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195163726807</t>
   </si>
   <si>
     <t xml:space="preserve">18.0929756164551</t>
@@ -980,46 +980,46 @@
     <t xml:space="preserve">18.7862586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3381614685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608966827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8369884490967</t>
+    <t xml:space="preserve">18.3381633758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270736694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8369903564453</t>
   </si>
   <si>
     <t xml:space="preserve">19.0145359039307</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1329021453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.617166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9407920837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7547912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9746112823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6702442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.797061920166</t>
+    <t xml:space="preserve">19.1329002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792629241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171646118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9407958984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9746131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970638275146</t>
   </si>
   <si>
     <t xml:space="preserve">17.5349674224854</t>
@@ -1031,76 +1031,76 @@
     <t xml:space="preserve">17.5265159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4419651031494</t>
+    <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2475109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5772438049316</t>
+    <t xml:space="preserve">17.2475090026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.577241897583</t>
   </si>
   <si>
     <t xml:space="preserve">17.492696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6279735565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5856971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8055171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378826141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8393363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3550720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4457225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
+    <t xml:space="preserve">17.6279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434246063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5856990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8055191040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8393383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3550701141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372653961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.361177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710865020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4457206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3189010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229892730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
     <t xml:space="preserve">19.1836280822754</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1206893920898</t>
+    <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361423492432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7402305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0023231506348</t>
+    <t xml:space="preserve">16.7402286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
     <t xml:space="preserve">16.9177799224854</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">17.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233238220215</t>
+    <t xml:space="preserve">16.9515953063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233219146729</t>
   </si>
   <si>
     <t xml:space="preserve">16.5711402893066</t>
@@ -1154,70 +1154,70 @@
     <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9938735961914</t>
+    <t xml:space="preserve">16.9938697814941</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.537317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7763996124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565786361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787504196167</t>
+    <t xml:space="preserve">16.5373210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763986587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565805435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918544769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787494659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.3898344039917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4720287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933111190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962205886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5227584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676626205444</t>
+    <t xml:space="preserve">15.4720306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933101654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962186813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.522759437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676645278931</t>
   </si>
   <si>
     <t xml:space="preserve">14.9647531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7618389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603841781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6096563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574708938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8802061080933</t>
+    <t xml:space="preserve">14.7618398666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.609658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8802042007446</t>
   </si>
   <si>
     <t xml:space="preserve">15.2183923721313</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">15.3198480606079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.302939414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102207183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382133483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396661758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705759048462</t>
+    <t xml:space="preserve">15.3029384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102216720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874864578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396690368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705749511719</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058507919312</t>
+    <t xml:space="preserve">15.5058517456055</t>
   </si>
   <si>
     <t xml:space="preserve">15.4889402389526</t>
@@ -1262,25 +1262,25 @@
     <t xml:space="preserve">15.6073055267334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6411228179932</t>
+    <t xml:space="preserve">15.6411237716675</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.435863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329521179199</t>
+    <t xml:space="preserve">16.3513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4358654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329502105713</t>
   </si>
   <si>
     <t xml:space="preserve">16.5542278289795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3005905151367</t>
+    <t xml:space="preserve">16.3005886077881</t>
   </si>
   <si>
     <t xml:space="preserve">16.3344078063965</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">16.2836799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2160415649414</t>
+    <t xml:space="preserve">16.21604347229</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745204925537</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">15.582558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6173782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522006988525</t>
   </si>
   <si>
     <t xml:space="preserve">15.8437194824219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8263092041016</t>
+    <t xml:space="preserve">15.8263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">16.1397018432617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3312168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4879150390625</t>
+    <t xml:space="preserve">16.3312187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.774076461792</t>
+    <t xml:space="preserve">16.0178260803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740755081177</t>
   </si>
   <si>
     <t xml:space="preserve">15.6696128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7044363021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.920952796936</t>
+    <t xml:space="preserve">15.7044334411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9209518432617</t>
   </si>
   <si>
     <t xml:space="preserve">14.8513088226318</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">15.0254173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9731845855713</t>
+    <t xml:space="preserve">14.9731855392456</t>
   </si>
   <si>
     <t xml:space="preserve">15.1298789978027</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9285440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544374465942</t>
+    <t xml:space="preserve">13.9285430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544364929199</t>
   </si>
   <si>
     <t xml:space="preserve">14.0678281784058</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">13.9633665084839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7468452453613</t>
+    <t xml:space="preserve">14.7468461990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">14.0504179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1026496887207</t>
+    <t xml:space="preserve">14.102650642395</t>
   </si>
   <si>
     <t xml:space="preserve">13.8414897918701</t>
@@ -1400,67 +1400,67 @@
     <t xml:space="preserve">13.667384147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7370262145996</t>
+    <t xml:space="preserve">13.7022047042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1798849105835</t>
+    <t xml:space="preserve">13.3539905548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1798839569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.058009147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062232971191</t>
+    <t xml:space="preserve">13.4062223434448</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9709548950195</t>
+    <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
     <t xml:space="preserve">12.6227426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5530996322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5356903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4486351013184</t>
+    <t xml:space="preserve">12.5531005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5356893539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4486360549927</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133695602417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303339004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6651544570923</t>
+    <t xml:space="preserve">11.630331993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651554107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6325616836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7718477249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8066682815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2669372558594</t>
+    <t xml:space="preserve">13.6325626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7718467712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8066692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2669382095337</t>
   </si>
   <si>
     <t xml:space="preserve">13.8763113021851</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017587661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1276531219482</t>
+    <t xml:space="preserve">13.3017597198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1276521682739</t>
   </si>
   <si>
     <t xml:space="preserve">13.3714017868042</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">12.065601348877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1874761581421</t>
+    <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
     <t xml:space="preserve">12.431224822998</t>
@@ -1499,19 +1499,19 @@
     <t xml:space="preserve">12.1178331375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736385345459</t>
+    <t xml:space="preserve">11.5084600448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736375808716</t>
   </si>
   <si>
     <t xml:space="preserve">11.3865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1776561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517637252808</t>
+    <t xml:space="preserve">11.1776571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517627716064</t>
   </si>
   <si>
     <t xml:space="preserve">11.403995513916</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">12.8490800857544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9089040756226</t>
+    <t xml:space="preserve">11.9089050292969</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955114364624</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">11.8218517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7097969055176</t>
+    <t xml:space="preserve">12.7097959518433</t>
   </si>
   <si>
     <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3964023590088</t>
+    <t xml:space="preserve">12.3964042663574</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571182250977</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272062301636</t>
+    <t xml:space="preserve">12.7272071838379</t>
   </si>
   <si>
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053323745728</t>
+    <t xml:space="preserve">12.6053314208984</t>
   </si>
   <si>
     <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8664922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8142595291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9535465240479</t>
+    <t xml:space="preserve">12.866491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8142604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9535455703735</t>
   </si>
   <si>
     <t xml:space="preserve">13.092830657959</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">13.2147054672241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3888120651245</t>
+    <t xml:space="preserve">13.3888130187988</t>
   </si>
   <si>
     <t xml:space="preserve">13.4584550857544</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">13.475866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.719614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2321157455444</t>
+    <t xml:space="preserve">13.7196159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
     <t xml:space="preserve">13.3191699981689</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972951889038</t>
+    <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057773590088</t>
@@ -1616,43 +1616,43 @@
     <t xml:space="preserve">13.510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5455102920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405979156494</t>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405988693237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4410448074341</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4236345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9111328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330076217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9807739257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1722927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2593460083008</t>
+    <t xml:space="preserve">13.4236335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9111318588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1548833847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638114929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330095291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9807748794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1722936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2593450546265</t>
   </si>
   <si>
     <t xml:space="preserve">13.8937225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5629186630249</t>
+    <t xml:space="preserve">13.5629196166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280981063843</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">13.68479347229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151514053345</t>
+    <t xml:space="preserve">13.6151523590088</t>
   </si>
   <si>
     <t xml:space="preserve">12.9883670806885</t>
@@ -1685,31 +1685,31 @@
     <t xml:space="preserve">12.7946653366089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7765684127808</t>
+    <t xml:space="preserve">12.7765674591064</t>
   </si>
   <si>
     <t xml:space="preserve">12.8127613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5955963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.011830329895</t>
+    <t xml:space="preserve">12.5955972671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0118293762207</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9394416809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.613694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3603353500366</t>
+    <t xml:space="preserve">12.9394426345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6136932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232095718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8851499557495</t>
+    <t xml:space="preserve">12.8851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.1204137802124</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">13.0299282073975</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3737735748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4823541641235</t>
+    <t xml:space="preserve">13.3737726211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4823551177979</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">13.4461612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2832880020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1928014755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3013849258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3918704986572</t>
+    <t xml:space="preserve">13.2832889556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1928005218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.301383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3918695449829</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1250705718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4689159393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413045883179</t>
+    <t xml:space="preserve">12.1250715255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4689168930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413055419922</t>
   </si>
   <si>
     <t xml:space="preserve">12.5774993896484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3060426712036</t>
+    <t xml:space="preserve">12.2517518997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3060436248779</t>
   </si>
   <si>
     <t xml:space="preserve">12.414626121521</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336559295654</t>
+    <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1069755554199</t>
+    <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.763129234314</t>
+    <t xml:space="preserve">11.7631301879883</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">11.8536148071289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7450323104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7993240356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8355169296265</t>
+    <t xml:space="preserve">11.7450313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7993230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364479064941</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">11.473575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3107023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926034927368</t>
+    <t xml:space="preserve">11.3107013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926025390625</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011869430542</t>
@@ -1853,28 +1853,28 @@
     <t xml:space="preserve">11.0392446517944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.021146774292</t>
+    <t xml:space="preserve">11.0211477279663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306621551514</t>
+    <t xml:space="preserve">10.9306612014771</t>
   </si>
   <si>
     <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0754375457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6002550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459642410278</t>
+    <t xml:space="preserve">11.0754384994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021188735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6002559661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
     <t xml:space="preserve">11.4916725158691</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745065689087</t>
+    <t xml:space="preserve">11.274507522583</t>
   </si>
   <si>
     <t xml:space="preserve">11.4554777145386</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.22021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830890655518</t>
+    <t xml:space="preserve">11.2202157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383127212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830900192261</t>
   </si>
   <si>
     <t xml:space="preserve">11.5278663635254</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441003799438</t>
+    <t xml:space="preserve">12.4327211380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802942276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441013336182</t>
   </si>
   <si>
     <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.92600440979</t>
+    <t xml:space="preserve">11.9260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">12.1431694030762</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.962197303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0526828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1297302246094</t>
+    <t xml:space="preserve">11.9621982574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0526819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1297292709351</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800981521606</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86293125152588</t>
+    <t xml:space="preserve">9.86293029785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.39240646362305</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564670562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55088901519775</t>
+    <t xml:space="preserve">8.50564765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
     <t xml:space="preserve">8.78615283966064</t>
@@ -1991,40 +1991,40 @@
     <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65042591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48754978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376514434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61423015594482</t>
+    <t xml:space="preserve">8.65042495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48755073547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61423110961914</t>
   </si>
   <si>
     <t xml:space="preserve">8.74090957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83139514923096</t>
+    <t xml:space="preserve">8.83139610290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.97617244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03046417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01236629486084</t>
+    <t xml:space="preserve">9.03046321868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01236724853516</t>
   </si>
   <si>
     <t xml:space="preserve">9.13904666900635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09380435943604</t>
+    <t xml:space="preserve">9.32001686096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09380340576172</t>
   </si>
   <si>
     <t xml:space="preserve">9.04856109619141</t>
@@ -2045,19 +2045,19 @@
     <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77244567871094</t>
+    <t xml:space="preserve">9.77244663238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.0439033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95341682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.681960105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22953128814697</t>
+    <t xml:space="preserve">9.9534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68195915222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22953224182129</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">8.93997764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90378570556641</t>
+    <t xml:space="preserve">8.90378475189209</t>
   </si>
   <si>
     <t xml:space="preserve">9.72720336914062</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701168060303</t>
+    <t xml:space="preserve">10.2701177597046</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">10.3606023788452</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0891447067261</t>
+    <t xml:space="preserve">10.0891456604004</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.179630279541</t>
+    <t xml:space="preserve">9.90817451477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
     <t xml:space="preserve">10.5868158340454</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174973487854</t>
+    <t xml:space="preserve">11.1749725341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8130292892456</t>
+    <t xml:space="preserve">10.8130302429199</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677869796753</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">10.722544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6274003982544</t>
+    <t xml:space="preserve">11.6274013519287</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870157241821</t>
+    <t xml:space="preserve">12.4870147705078</t>
   </si>
   <si>
     <t xml:space="preserve">12.5322570800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9904432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801034927368</t>
+    <t xml:space="preserve">12.9904441833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801044464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2171,37 +2171,37 @@
     <t xml:space="preserve">11.9233713150024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6450052261353</t>
+    <t xml:space="preserve">11.6450042724609</t>
   </si>
   <si>
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625553131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6913986206055</t>
+    <t xml:space="preserve">12.062554359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913995742798</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9490880966187</t>
+    <t xml:space="preserve">10.949089050293</t>
   </si>
   <si>
     <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3202438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986108779907</t>
+    <t xml:space="preserve">11.3202428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986099243164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873167037964</t>
+    <t xml:space="preserve">12.3873157501221</t>
   </si>
   <si>
     <t xml:space="preserve">12.6656818389893</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">13.9647264480591</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0111207962036</t>
+    <t xml:space="preserve">14.0111217498779</t>
   </si>
   <si>
     <t xml:space="preserve">14.4750661849976</t>
@@ -2237,46 +2237,46 @@
     <t xml:space="preserve">14.3822765350342</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5678548812866</t>
+    <t xml:space="preserve">14.5678539276123</t>
   </si>
   <si>
     <t xml:space="preserve">13.4079933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.547176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894878387451</t>
+    <t xml:space="preserve">13.5935707092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5471773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894868850708</t>
   </si>
   <si>
     <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9183311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.779149055481</t>
+    <t xml:space="preserve">13.9183330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214586257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7791500091553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.428671836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2173767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565587997437</t>
+    <t xml:space="preserve">14.1503047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2173757553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3565578460693</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">15.681321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9854049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741107940674</t>
+    <t xml:space="preserve">15.3101654052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9854030609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741098403931</t>
   </si>
   <si>
     <t xml:space="preserve">16.4700260162354</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8618602752686</t>
+    <t xml:space="preserve">17.8618583679199</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649868011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.511381149292</t>
+    <t xml:space="preserve">18.4649887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5113830566406</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">19.1145095825195</t>
   </si>
   <si>
-    <t xml:space="preserve">19.300085067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3515224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217189788818</t>
+    <t xml:space="preserve">19.3000869750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3515205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217208862305</t>
   </si>
   <si>
     <t xml:space="preserve">18.2794094085693</t>
@@ -2357,25 +2357,25 @@
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640285491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9702892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414421081543</t>
+    <t xml:space="preserve">19.7640323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414440155029</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053874969482</t>
+    <t xml:space="preserve">21.8053855895996</t>
   </si>
   <si>
     <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8981761932373</t>
+    <t xml:space="preserve">21.8981781005859</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">21.0630779266357</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9496078491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6919212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3207664489746</t>
+    <t xml:space="preserve">19.9496097564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
     <t xml:space="preserve">20.413553237915</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270214080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693328857422</t>
+    <t xml:space="preserve">21.5270195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
     <t xml:space="preserve">22.1765422821045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1972217559814</t>
+    <t xml:space="preserve">23.1972198486328</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -2426,28 +2426,28 @@
     <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404876708984</t>
+    <t xml:space="preserve">22.6404857635498</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897724151611</t>
+    <t xml:space="preserve">25.8897705078125</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.941427230835</t>
+    <t xml:space="preserve">24.9414291381836</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104331970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4587783813477</t>
+    <t xml:space="preserve">25.5104351043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.458776473999</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207683563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465938568115</t>
+    <t xml:space="preserve">25.3207664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465957641602</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6569271087646</t>
+    <t xml:space="preserve">24.656925201416</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2344093322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.613748550415</t>
+    <t xml:space="preserve">23.234411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.139575958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6137466430664</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930839538574</t>
+    <t xml:space="preserve">23.9930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447425842285</t>
+    <t xml:space="preserve">23.0447406768799</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809013366699</t>
+    <t xml:space="preserve">22.3809032440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654033660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860679626465</t>
+    <t xml:space="preserve">22.6654052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860660552979</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203754425049</t>
+    <t xml:space="preserve">19.8203735351562</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842147827148</t>
+    <t xml:space="preserve">20.4842166900635</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329509735107</t>
+    <t xml:space="preserve">26.9329490661621</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536117553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691097259521</t>
+    <t xml:space="preserve">26.5536136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691116333008</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8118953704834</t>
+    <t xml:space="preserve">21.811897277832</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015659332275</t>
+    <t xml:space="preserve">22.0015640258789</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428894042969</t>
+    <t xml:space="preserve">21.2428913116455</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.915210723877</t>
+    <t xml:space="preserve">19.9152088165283</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462047576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8246154785156</t>
+    <t xml:space="preserve">19.3462028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.824613571167</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236869812012</t>
+    <t xml:space="preserve">17.3546829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236888885498</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513694763184</t>
+    <t xml:space="preserve">19.2513675689697</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997108459473</t>
+    <t xml:space="preserve">20.1997127532959</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,39 +2702,42 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663318634033</t>
+    <t xml:space="preserve">23.5663299560547</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
+    <t xml:space="preserve">24.4198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6625804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7596778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3422584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1480655670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6335487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5850009918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.002420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9053230285645</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6625804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7596778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3422584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1480655670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6335487365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5850009918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.002420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9053230285645</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8372573852539</t>
   </si>
   <si>
@@ -3522,6 +3525,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.25</t>
   </si>
 </sst>
 </file>
@@ -46443,7 +46449,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46469,7 +46475,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46495,7 +46501,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46521,7 +46527,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46547,7 +46553,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46573,7 +46579,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46599,7 +46605,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46625,7 +46631,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46651,7 +46657,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46677,7 +46683,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46703,7 +46709,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46729,7 +46735,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46755,7 +46761,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46781,7 +46787,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46807,7 +46813,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46833,7 +46839,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46859,7 +46865,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46885,7 +46891,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46911,7 +46917,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46937,7 +46943,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46963,7 +46969,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46989,7 +46995,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47015,7 +47021,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47041,7 +47047,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47067,7 +47073,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47093,7 +47099,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47119,7 +47125,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47145,7 +47151,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47171,7 +47177,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47197,7 +47203,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47223,7 +47229,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47249,7 +47255,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47275,7 +47281,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47301,7 +47307,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47327,7 +47333,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47353,7 +47359,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47379,7 +47385,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47405,7 +47411,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47431,7 +47437,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47457,7 +47463,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47483,7 +47489,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47509,7 +47515,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47535,7 +47541,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47561,7 +47567,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47587,7 +47593,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47613,7 +47619,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47639,7 +47645,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47665,7 +47671,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47691,7 +47697,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47717,7 +47723,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47743,7 +47749,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47769,7 +47775,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47795,7 +47801,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47821,7 +47827,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47847,7 +47853,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47873,7 +47879,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47899,7 +47905,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47925,7 +47931,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47951,7 +47957,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47977,7 +47983,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48003,7 +48009,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48029,7 +48035,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48055,7 +48061,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48081,7 +48087,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48107,7 +48113,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48133,7 +48139,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48159,7 +48165,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48185,7 +48191,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48211,7 +48217,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48237,7 +48243,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48263,7 +48269,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48289,7 +48295,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48315,7 +48321,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48341,7 +48347,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48367,7 +48373,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48393,7 +48399,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48419,7 +48425,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48445,7 +48451,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48471,7 +48477,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48497,7 +48503,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48523,7 +48529,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48549,7 +48555,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48575,7 +48581,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48601,7 +48607,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48627,7 +48633,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48653,7 +48659,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48679,7 +48685,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48705,7 +48711,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48731,7 +48737,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48757,7 +48763,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48783,7 +48789,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48809,7 +48815,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48835,7 +48841,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48861,7 +48867,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48887,7 +48893,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48913,7 +48919,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48939,7 +48945,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48965,7 +48971,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48991,7 +48997,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49017,7 +49023,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49043,7 +49049,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49069,7 +49075,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49095,7 +49101,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49121,7 +49127,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49147,7 +49153,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49173,7 +49179,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49199,7 +49205,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49225,7 +49231,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49251,7 +49257,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49277,7 +49283,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49303,7 +49309,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49329,7 +49335,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49355,7 +49361,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49381,7 +49387,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49407,7 +49413,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49433,7 +49439,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49459,7 +49465,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49485,7 +49491,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49511,7 +49517,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49537,7 +49543,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49563,7 +49569,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49589,7 +49595,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49615,7 +49621,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49641,7 +49647,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49667,7 +49673,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49693,7 +49699,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49719,7 +49725,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49745,7 +49751,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49771,7 +49777,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49797,7 +49803,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49823,7 +49829,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49849,7 +49855,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49875,7 +49881,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49901,7 +49907,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49927,7 +49933,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49953,7 +49959,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49979,7 +49985,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50005,7 +50011,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50031,7 +50037,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50057,7 +50063,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50083,7 +50089,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50109,7 +50115,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50135,7 +50141,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50161,7 +50167,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50187,7 +50193,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50213,7 +50219,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50239,7 +50245,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50265,7 +50271,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50291,7 +50297,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50317,7 +50323,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50343,7 +50349,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50369,7 +50375,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50395,7 +50401,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50421,7 +50427,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50447,7 +50453,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50473,7 +50479,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50499,7 +50505,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50525,7 +50531,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50551,7 +50557,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50577,7 +50583,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50603,7 +50609,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50629,7 +50635,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50655,7 +50661,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50681,7 +50687,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50707,7 +50713,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50733,7 +50739,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50759,7 +50765,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50785,7 +50791,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50811,7 +50817,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50837,7 +50843,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50863,7 +50869,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50889,7 +50895,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50915,7 +50921,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50941,7 +50947,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50967,7 +50973,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50993,7 +50999,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51019,7 +51025,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51045,7 +51051,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51071,7 +51077,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51097,7 +51103,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51123,7 +51129,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51149,7 +51155,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51175,7 +51181,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51201,7 +51207,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51227,7 +51233,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51253,7 +51259,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51279,7 +51285,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51305,7 +51311,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51331,7 +51337,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51357,7 +51363,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51383,7 +51389,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51409,7 +51415,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51435,7 +51441,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51461,7 +51467,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51487,7 +51493,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51513,7 +51519,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51539,7 +51545,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51565,7 +51571,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51591,7 +51597,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51617,7 +51623,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51643,7 +51649,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51669,7 +51675,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51695,7 +51701,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51721,7 +51727,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51747,7 +51753,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51773,7 +51779,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51799,7 +51805,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51825,7 +51831,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51851,7 +51857,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51877,7 +51883,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51903,7 +51909,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51929,7 +51935,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51955,7 +51961,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51981,7 +51987,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52007,7 +52013,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52033,7 +52039,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52059,7 +52065,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52085,7 +52091,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52111,7 +52117,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52137,7 +52143,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52163,7 +52169,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52189,7 +52195,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52215,7 +52221,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52241,7 +52247,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52267,7 +52273,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52293,7 +52299,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52319,7 +52325,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52345,7 +52351,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52371,7 +52377,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52397,7 +52403,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52423,7 +52429,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52449,7 +52455,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52475,7 +52481,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52501,7 +52507,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52527,7 +52533,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52553,7 +52559,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52579,7 +52585,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52605,7 +52611,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52631,7 +52637,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52657,7 +52663,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52683,7 +52689,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52709,7 +52715,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52735,7 +52741,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52761,7 +52767,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52787,7 +52793,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52813,7 +52819,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52839,7 +52845,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52865,7 +52871,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52891,7 +52897,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52917,7 +52923,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52943,7 +52949,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52969,7 +52975,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52995,7 +53001,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53021,7 +53027,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53047,7 +53053,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53073,7 +53079,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53099,7 +53105,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53125,7 +53131,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53151,7 +53157,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53177,7 +53183,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53203,7 +53209,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53229,7 +53235,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53255,7 +53261,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53281,7 +53287,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53307,7 +53313,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53333,7 +53339,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53359,7 +53365,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53385,7 +53391,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53411,7 +53417,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53437,7 +53443,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53463,7 +53469,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53489,7 +53495,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53515,7 +53521,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53541,7 +53547,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53567,7 +53573,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53593,7 +53599,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53619,7 +53625,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53645,7 +53651,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53671,7 +53677,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53697,7 +53703,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53723,7 +53729,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53749,7 +53755,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53775,7 +53781,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53801,7 +53807,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53827,7 +53833,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53853,7 +53859,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53879,7 +53885,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53905,7 +53911,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53931,7 +53937,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53957,7 +53963,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53983,7 +53989,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54009,7 +54015,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54035,7 +54041,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54061,7 +54067,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54087,7 +54093,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54113,7 +54119,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54139,7 +54145,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54165,7 +54171,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54191,7 +54197,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54217,7 +54223,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54243,7 +54249,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54269,7 +54275,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54295,7 +54301,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54321,7 +54327,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54347,7 +54353,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54373,7 +54379,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54399,7 +54405,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54425,7 +54431,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54451,7 +54457,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54477,7 +54483,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54503,7 +54509,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54529,7 +54535,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54555,7 +54561,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54581,7 +54587,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54607,7 +54613,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54633,7 +54639,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54659,7 +54665,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54685,7 +54691,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54711,7 +54717,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54737,7 +54743,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54763,7 +54769,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54789,7 +54795,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54815,7 +54821,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54841,7 +54847,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54867,7 +54873,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54893,7 +54899,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54919,7 +54925,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54945,7 +54951,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54971,7 +54977,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54997,7 +55003,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55023,7 +55029,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55049,7 +55055,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55075,7 +55081,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55101,7 +55107,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55127,7 +55133,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55153,7 +55159,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55179,7 +55185,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55205,7 +55211,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55231,7 +55237,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55257,7 +55263,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55283,7 +55289,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55309,7 +55315,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55335,7 +55341,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55361,7 +55367,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55387,7 +55393,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55413,7 +55419,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55439,7 +55445,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55465,7 +55471,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55491,7 +55497,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55517,7 +55523,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55543,7 +55549,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55569,7 +55575,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55595,7 +55601,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55621,7 +55627,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55647,7 +55653,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55673,7 +55679,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55699,7 +55705,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55725,7 +55731,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55751,7 +55757,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55777,7 +55783,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55803,7 +55809,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55829,7 +55835,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55855,7 +55861,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55881,7 +55887,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55907,7 +55913,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55933,7 +55939,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55959,7 +55965,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55985,7 +55991,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56011,7 +56017,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56037,7 +56043,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56063,7 +56069,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56089,7 +56095,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56115,7 +56121,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56141,7 +56147,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56167,7 +56173,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56193,7 +56199,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56219,7 +56225,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56245,7 +56251,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56271,7 +56277,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56297,7 +56303,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56323,7 +56329,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56349,7 +56355,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56375,7 +56381,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56401,7 +56407,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56427,7 +56433,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56453,7 +56459,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56479,7 +56485,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56505,7 +56511,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56531,7 +56537,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56557,7 +56563,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56583,7 +56589,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56609,7 +56615,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56635,7 +56641,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56661,7 +56667,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56687,7 +56693,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56713,7 +56719,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56739,7 +56745,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56765,7 +56771,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56791,7 +56797,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56817,7 +56823,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56843,7 +56849,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56869,7 +56875,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56895,7 +56901,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56921,7 +56927,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56947,7 +56953,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56973,7 +56979,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56999,7 +57005,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57025,7 +57031,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57051,7 +57057,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57077,7 +57083,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57103,7 +57109,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57129,7 +57135,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57155,7 +57161,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57181,7 +57187,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57207,7 +57213,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57233,7 +57239,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57259,7 +57265,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57285,7 +57291,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57311,7 +57317,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57337,7 +57343,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57363,7 +57369,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57389,7 +57395,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57415,7 +57421,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57441,7 +57447,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57467,7 +57473,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57493,7 +57499,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57519,7 +57525,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57545,7 +57551,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57571,7 +57577,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57597,7 +57603,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57623,7 +57629,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57649,7 +57655,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57675,7 +57681,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57701,7 +57707,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57727,7 +57733,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57753,7 +57759,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57779,7 +57785,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57805,7 +57811,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57831,7 +57837,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57857,7 +57863,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57883,7 +57889,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57909,7 +57915,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57935,7 +57941,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57961,7 +57967,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57987,7 +57993,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58013,7 +58019,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58039,7 +58045,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58065,7 +58071,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58091,7 +58097,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58117,7 +58123,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58143,7 +58149,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58169,7 +58175,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58195,7 +58201,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58221,7 +58227,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58247,7 +58253,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58273,7 +58279,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58299,7 +58305,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58325,7 +58331,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58351,7 +58357,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58377,7 +58383,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58403,7 +58409,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58429,7 +58435,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58455,7 +58461,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58481,7 +58487,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58507,7 +58513,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58533,7 +58539,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58559,7 +58565,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58585,7 +58591,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58611,7 +58617,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58637,7 +58643,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58663,7 +58669,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58689,7 +58695,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58715,7 +58721,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58741,7 +58747,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58767,7 +58773,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58793,7 +58799,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58819,7 +58825,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58845,7 +58851,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58871,7 +58877,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58897,7 +58903,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58923,7 +58929,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58949,7 +58955,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58975,7 +58981,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59001,7 +59007,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59027,7 +59033,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59053,7 +59059,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59079,7 +59085,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59105,7 +59111,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59131,7 +59137,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59157,7 +59163,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59183,7 +59189,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59209,7 +59215,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59235,7 +59241,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59261,7 +59267,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59287,7 +59293,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59313,7 +59319,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59339,7 +59345,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59365,7 +59371,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59391,7 +59397,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59417,7 +59423,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59443,7 +59449,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59469,7 +59475,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59495,7 +59501,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59521,7 +59527,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59547,7 +59553,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59573,7 +59579,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59599,7 +59605,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59625,7 +59631,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59651,7 +59657,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59677,7 +59683,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59703,7 +59709,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59729,7 +59735,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59755,7 +59761,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2150" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59781,7 +59787,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59807,7 +59813,7 @@
         <v>16.75</v>
       </c>
       <c r="G2152" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59833,7 +59839,7 @@
         <v>16.75</v>
       </c>
       <c r="G2153" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59859,7 +59865,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59885,7 +59891,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2155" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59911,7 +59917,7 @@
         <v>16.75</v>
       </c>
       <c r="G2156" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59937,7 +59943,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2157" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59963,7 +59969,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59989,7 +59995,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60015,7 +60021,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60041,7 +60047,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60067,7 +60073,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60093,7 +60099,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2163" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60119,7 +60125,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60145,7 +60151,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2165" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60171,7 +60177,7 @@
         <v>16.5</v>
       </c>
       <c r="G2166" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60197,7 +60203,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2167" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60223,7 +60229,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60249,7 +60255,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2169" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60275,7 +60281,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G2170" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60301,7 +60307,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60327,7 +60333,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60353,7 +60359,7 @@
         <v>16.25</v>
       </c>
       <c r="G2173" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60379,7 +60385,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -60405,7 +60411,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2175" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -60431,7 +60437,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2176" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -60439,13 +60445,13 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6493055556</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>6669</v>
       </c>
       <c r="C2177" t="n">
-        <v>16.6000003814697</v>
+        <v>16.6499996185303</v>
       </c>
       <c r="D2177" t="n">
         <v>16.1499996185303</v>
@@ -60457,9 +60463,35 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6496064815</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>8790</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>17.3999996185303</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>16.6000003814697</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>16.8999996185303</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1174">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90091037750244</t>
+    <t xml:space="preserve">8.90090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551776885986</t>
+    <t xml:space="preserve">8.95551681518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.81509971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106899261475</t>
+    <t xml:space="preserve">8.64347839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58106994628906</t>
   </si>
   <si>
     <t xml:space="preserve">8.47965621948242</t>
@@ -71,46 +71,46 @@
     <t xml:space="preserve">7.82437562942505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96479368209839</t>
+    <t xml:space="preserve">7.96479320526123</t>
   </si>
   <si>
     <t xml:space="preserve">7.92578840255737</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91018676757812</t>
+    <t xml:space="preserve">7.91018629074097</t>
   </si>
   <si>
     <t xml:space="preserve">8.04280281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05840492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400703430176</t>
+    <t xml:space="preserve">8.05840587615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400608062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.20662403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798639297485</t>
+    <t xml:space="preserve">7.91798686981201</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02720165252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80097341537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6293511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997821807861</t>
+    <t xml:space="preserve">8.02720069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95699262619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8009729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8399772644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.68005752563477</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">7.87898206710815</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12861442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164661407471</t>
+    <t xml:space="preserve">8.12861251831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164756774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.43285083770752</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">8.2690315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37824535369873</t>
+    <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
     <t xml:space="preserve">8.3470401763916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23002624511719</t>
+    <t xml:space="preserve">8.2300271987915</t>
   </si>
   <si>
     <t xml:space="preserve">8.08180713653564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17541885375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301040649414</t>
+    <t xml:space="preserve">8.17541790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
     <t xml:space="preserve">8.30023574829102</t>
@@ -155,40 +155,40 @@
     <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30803394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27683162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24562740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882202148438</t>
+    <t xml:space="preserve">8.3080358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27683258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24562931060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882297515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.25342845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13641548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081336975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03500175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259521484375</t>
+    <t xml:space="preserve">8.13641452789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081146240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03500270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01939964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259473800659</t>
   </si>
   <si>
     <t xml:space="preserve">7.93358993530273</t>
@@ -197,226 +197,226 @@
     <t xml:space="preserve">7.80877351760864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94139099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86338043212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00379848480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05060291290283</t>
+    <t xml:space="preserve">7.9413914680481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86337995529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00379943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05060386657715</t>
   </si>
   <si>
     <t xml:space="preserve">7.76196718215942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99599599838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366876602173</t>
+    <t xml:space="preserve">7.99599647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537082672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.765869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366971969604</t>
   </si>
   <si>
     <t xml:space="preserve">7.89458417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71906185150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055631637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594940185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56694364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557369232178</t>
+    <t xml:space="preserve">7.71906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594844818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56694221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557273864746</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05340480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06160449981689</t>
+    <t xml:space="preserve">8.0534029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
     <t xml:space="preserve">8.11901187896729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16821956634521</t>
+    <t xml:space="preserve">8.16821765899658</t>
   </si>
   <si>
     <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88118267059326</t>
+    <t xml:space="preserve">7.8811821937561</t>
   </si>
   <si>
     <t xml:space="preserve">7.98779535293579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87298202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097175598145</t>
+    <t xml:space="preserve">7.8729829788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7909722328186</t>
   </si>
   <si>
     <t xml:space="preserve">7.56954383850098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19639730453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3563175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213693618774</t>
+    <t xml:space="preserve">7.19639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213598251343</t>
   </si>
   <si>
     <t xml:space="preserve">7.74996709823608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54494142532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515186309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226758956909</t>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975522994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226806640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.6556544303894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66795635223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372489929199</t>
+    <t xml:space="preserve">7.66795492172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372442245483</t>
   </si>
   <si>
     <t xml:space="preserve">7.47113084793091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38091993331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38502025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753309249878</t>
+    <t xml:space="preserve">7.38091945648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012666702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502168655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4875340461731</t>
   </si>
   <si>
     <t xml:space="preserve">7.46293067932129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50393533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263998031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50803518295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234785079956</t>
+    <t xml:space="preserve">7.50393581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523164749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163341522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234832763672</t>
   </si>
   <si>
     <t xml:space="preserve">7.49573564529419</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44652938842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853918075562</t>
+    <t xml:space="preserve">7.44652843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853870391846</t>
   </si>
   <si>
     <t xml:space="preserve">7.40962409973145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38912105560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45882987976074</t>
+    <t xml:space="preserve">7.38912153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4588303565979</t>
   </si>
   <si>
     <t xml:space="preserve">7.51623678207397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56134271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774448394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271976470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21690034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20459842681885</t>
+    <t xml:space="preserve">7.5613431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774496078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443742752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732313156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21689987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20459747314453</t>
   </si>
   <si>
     <t xml:space="preserve">7.37682008743286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43422651290894</t>
+    <t xml:space="preserve">7.43422698974609</t>
   </si>
   <si>
     <t xml:space="preserve">7.41782569885254</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">7.43832778930664</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33171463012695</t>
+    <t xml:space="preserve">7.33171319961548</t>
   </si>
   <si>
     <t xml:space="preserve">7.34811544418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34401512145996</t>
+    <t xml:space="preserve">7.34401559829712</t>
   </si>
   <si>
     <t xml:space="preserve">7.29891014099121</t>
@@ -440,70 +440,70 @@
     <t xml:space="preserve">7.32351350784302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33991575241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32761430740356</t>
+    <t xml:space="preserve">7.33991432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041784286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32761383056641</t>
   </si>
   <si>
     <t xml:space="preserve">7.31941270828247</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30711126327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45472955703735</t>
+    <t xml:space="preserve">7.30711078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4547290802002</t>
   </si>
   <si>
     <t xml:space="preserve">7.17589473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18409585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176454544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9959979057312</t>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176549911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599695205688</t>
   </si>
   <si>
     <t xml:space="preserve">8.09850978851318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3650426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52906227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805904388428</t>
+    <t xml:space="preserve">8.23382663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36504364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805809020996</t>
   </si>
   <si>
     <t xml:space="preserve">8.40604782104492</t>
@@ -515,40 +515,40 @@
     <t xml:space="preserve">8.38144588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44705295562744</t>
+    <t xml:space="preserve">8.44705390930176</t>
   </si>
   <si>
     <t xml:space="preserve">8.49625873565674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65207862854004</t>
+    <t xml:space="preserve">8.65207958221436</t>
   </si>
   <si>
     <t xml:space="preserve">8.88990879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89810943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68488311767578</t>
+    <t xml:space="preserve">8.89810848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6848840713501</t>
   </si>
   <si>
     <t xml:space="preserve">8.72588920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75049114227295</t>
+    <t xml:space="preserve">8.75049018859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58647155761719</t>
+    <t xml:space="preserve">8.73408889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58647060394287</t>
   </si>
   <si>
     <t xml:space="preserve">8.50446128845215</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">8.62747669219971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54546642303467</t>
+    <t xml:space="preserve">8.54546451568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.6110725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57826900482178</t>
+    <t xml:space="preserve">8.57826995849609</t>
   </si>
   <si>
     <t xml:space="preserve">8.67668151855469</t>
@@ -578,28 +578,28 @@
     <t xml:space="preserve">8.66028022766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66847991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79149627685547</t>
+    <t xml:space="preserve">8.66848182678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79149723052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.96371746063232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08673286437988</t>
+    <t xml:space="preserve">9.0867338180542</t>
   </si>
   <si>
     <t xml:space="preserve">9.23435211181641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35736751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59519672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66900634765625</t>
+    <t xml:space="preserve">9.35736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59519577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66900539398193</t>
   </si>
   <si>
     <t xml:space="preserve">9.62800121307373</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55419063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61159801483154</t>
+    <t xml:space="preserve">9.55419158935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61159896850586</t>
   </si>
   <si>
     <t xml:space="preserve">9.66080474853516</t>
@@ -629,40 +629,40 @@
     <t xml:space="preserve">10.1282625198364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6203231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663539886475</t>
+    <t xml:space="preserve">10.6203241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663549423218</t>
   </si>
   <si>
     <t xml:space="preserve">10.6941337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6613302230835</t>
+    <t xml:space="preserve">10.6613283157349</t>
   </si>
   <si>
     <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4809064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4070978164673</t>
+    <t xml:space="preserve">10.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.407096862793</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973096847534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4481029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793190002441</t>
+    <t xml:space="preserve">10.5629177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4481019973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793180465698</t>
   </si>
   <si>
     <t xml:space="preserve">10.5137100219727</t>
@@ -671,25 +671,25 @@
     <t xml:space="preserve">10.5875196456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4645042419434</t>
+    <t xml:space="preserve">10.464506149292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152984619141</t>
+    <t xml:space="preserve">10.4152975082397</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073600769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253488540649</t>
+    <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533908843994</t>
+    <t xml:space="preserve">11.1533918380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.8581533432007</t>
@@ -698,34 +698,34 @@
     <t xml:space="preserve">10.9729681015015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0057716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404258728027</t>
+    <t xml:space="preserve">11.0549774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0057725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404268264771</t>
   </si>
   <si>
     <t xml:space="preserve">11.3092098236084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7848701477051</t>
+    <t xml:space="preserve">11.7848682403564</t>
   </si>
   <si>
     <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3835430145264</t>
+    <t xml:space="preserve">12.3835439682007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229616165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375131607056</t>
+    <t xml:space="preserve">12.1457147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443895339966</t>
@@ -737,34 +737,34 @@
     <t xml:space="preserve">13.0314254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.170841217041</t>
+    <t xml:space="preserve">13.1708421707153</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9609956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470003128052</t>
+    <t xml:space="preserve">12.9609975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470012664795</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499116897583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3160934448242</t>
+    <t xml:space="preserve">13.3160943984985</t>
   </si>
   <si>
     <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3752756118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4429111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3076372146606</t>
+    <t xml:space="preserve">13.3752746582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4429121017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.307638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385459899902</t>
@@ -776,40 +776,40 @@
     <t xml:space="preserve">11.9718017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3099889755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423515319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3776254653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945350646973</t>
+    <t xml:space="preserve">12.3099880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423505783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3776264190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945360183716</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677154541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6059007644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4706268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4537162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512900352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5551729202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4452629089355</t>
+    <t xml:space="preserve">12.2677145004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.470627784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4537181854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5129013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5551738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4452619552612</t>
   </si>
   <si>
     <t xml:space="preserve">12.343807220459</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">12.039439201355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2592620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607168197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.563627243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.639720916748</t>
+    <t xml:space="preserve">12.2592611312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607158660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5636281967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5467185974121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7073574066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6143569946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6819925308228</t>
+    <t xml:space="preserve">12.7073583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6143560409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650838851929</t>
@@ -857,16 +857,16 @@
     <t xml:space="preserve">12.6228113174438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.732720375061</t>
+    <t xml:space="preserve">12.7327213287354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8510866165161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8933610916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9356346130371</t>
+    <t xml:space="preserve">12.8933601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9356327056885</t>
   </si>
   <si>
     <t xml:space="preserve">13.4513673782349</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">13.2822742462158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4006395339966</t>
+    <t xml:space="preserve">13.4006404876709</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4598217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583650588989</t>
+    <t xml:space="preserve">13.4598226547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583669662476</t>
   </si>
   <si>
     <t xml:space="preserve">13.2315464019775</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7810983657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2207431793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420188903809</t>
+    <t xml:space="preserve">13.781099319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2207412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.474383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420198440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.2883787155151</t>
@@ -917,79 +917,79 @@
     <t xml:space="preserve">14.3729267120361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5673837661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758390426636</t>
+    <t xml:space="preserve">14.5673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758361816406</t>
   </si>
   <si>
     <t xml:space="preserve">14.7364778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.787202835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201307296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947658538818</t>
+    <t xml:space="preserve">14.7111129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7872037887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3536653518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201288223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947649002075</t>
   </si>
   <si>
     <t xml:space="preserve">16.0638580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4443206787109</t>
+    <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.48659324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9008712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4335155487061</t>
+    <t xml:space="preserve">16.1145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4865894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1230373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9008693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4335136413574</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195163726807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0929756164551</t>
+    <t xml:space="preserve">18.0929775238037</t>
   </si>
   <si>
     <t xml:space="preserve">17.7125186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.786262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381633758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270736694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608947753906</t>
+    <t xml:space="preserve">18.7862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381614685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608966827393</t>
   </si>
   <si>
     <t xml:space="preserve">18.8369884490967</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1328983306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.617166519165</t>
+    <t xml:space="preserve">19.1329002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708076477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171646118164</t>
   </si>
   <si>
     <t xml:space="preserve">17.9407920837402</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">17.6702423095703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5265159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4419689178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6533317565918</t>
+    <t xml:space="preserve">17.7970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463340759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5265140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4419651031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6533336639404</t>
   </si>
   <si>
     <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5772438049316</t>
+    <t xml:space="preserve">17.577241897583</t>
   </si>
   <si>
     <t xml:space="preserve">17.492696762085</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">17.6279735565186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5856952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8055171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378807067871</t>
+    <t xml:space="preserve">17.5434246063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5856971740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8055191040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378787994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.8393383026123</t>
@@ -1073,49 +1073,49 @@
     <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5979061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372673034668</t>
+    <t xml:space="preserve">19.5979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372692108154</t>
   </si>
   <si>
     <t xml:space="preserve">19.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4710865020752</t>
+    <t xml:space="preserve">19.4710884094238</t>
   </si>
   <si>
     <t xml:space="preserve">19.4457225799561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3189029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229892730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215316772461</t>
+    <t xml:space="preserve">19.318904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.929988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
     <t xml:space="preserve">19.1836280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">18.22825050354</t>
+    <t xml:space="preserve">18.2282524108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1206893920898</t>
+    <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361442565918</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">17.002326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9177780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.83323097229</t>
+    <t xml:space="preserve">16.917781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8332328796387</t>
   </si>
   <si>
     <t xml:space="preserve">16.8585968017578</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">16.9093246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3320579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9515953063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233238220215</t>
+    <t xml:space="preserve">17.3320560455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9515972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233219146729</t>
   </si>
   <si>
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938716888428</t>
+    <t xml:space="preserve">16.8247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9938697814941</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556835174561</t>
@@ -1166,46 +1166,46 @@
     <t xml:space="preserve">16.5373191833496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7763986587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565805435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551248550415</t>
+    <t xml:space="preserve">15.7763977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918516159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551219940186</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3898344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720315933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933082580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676645278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618389129639</t>
+    <t xml:space="preserve">14.3898363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720296859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933073043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484031677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.522759437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676635742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618370056152</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603851318359</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802061080933</t>
+    <t xml:space="preserve">14.8802051544189</t>
   </si>
   <si>
     <t xml:space="preserve">15.218391418457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3198490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029375076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102197647095</t>
+    <t xml:space="preserve">15.3198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.302939414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102169036865</t>
   </si>
   <si>
     <t xml:space="preserve">15.3874855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4382123947144</t>
+    <t xml:space="preserve">15.43821144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.5396671295166</t>
@@ -1250,43 +1250,43 @@
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0492992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058488845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889421463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411266326904</t>
+    <t xml:space="preserve">15.5903987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.049298286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889402389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073055267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411247253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.351318359375</t>
+    <t xml:space="preserve">16.3513164520264</t>
   </si>
   <si>
     <t xml:space="preserve">16.435863494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2329521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5542278289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3005867004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3344058990479</t>
+    <t xml:space="preserve">16.2329540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3005905151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
     <t xml:space="preserve">16.317497253418</t>
@@ -1298,55 +1298,55 @@
     <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1745223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582558631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437185287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263082504272</t>
+    <t xml:space="preserve">16.1745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437213897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">16.1396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3312149047852</t>
+    <t xml:space="preserve">16.3312187194824</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1048793792725</t>
+    <t xml:space="preserve">16.1919345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1048774719238</t>
   </si>
   <si>
     <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740755081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696109771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9209508895874</t>
+    <t xml:space="preserve">16.0178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.774076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
     <t xml:space="preserve">14.8513088226318</t>
@@ -1355,28 +1355,28 @@
     <t xml:space="preserve">14.8164873123169</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0254154205322</t>
+    <t xml:space="preserve">15.0254173278809</t>
   </si>
   <si>
     <t xml:space="preserve">14.9731845855713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1298809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9285430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633655548096</t>
+    <t xml:space="preserve">15.1298780441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9285440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155973434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544374465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633665084839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7468461990356</t>
@@ -1385,31 +1385,31 @@
     <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245264053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459552764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504188537598</t>
+    <t xml:space="preserve">14.2245254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459543228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504179000854</t>
   </si>
   <si>
     <t xml:space="preserve">14.102650642395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8414888381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6673831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7370252609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8240804672241</t>
+    <t xml:space="preserve">13.8414897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.667384147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7022047042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
     <t xml:space="preserve">13.3539915084839</t>
@@ -1427,34 +1427,34 @@
     <t xml:space="preserve">13.3365802764893</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9709558486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6227436065674</t>
+    <t xml:space="preserve">12.9709548950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6227426528931</t>
   </si>
   <si>
     <t xml:space="preserve">12.5530996322632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5356893539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4486351013184</t>
+    <t xml:space="preserve">12.5356884002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4486360549927</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6651554107666</t>
+    <t xml:space="preserve">11.6303339004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651544570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6325616836548</t>
+    <t xml:space="preserve">13.6325626373291</t>
   </si>
   <si>
     <t xml:space="preserve">13.7718477249146</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">13.8066682815552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2669382095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8763122558594</t>
+    <t xml:space="preserve">13.2669372558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8763113021851</t>
   </si>
   <si>
     <t xml:space="preserve">13.4932765960693</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">13.1276521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3714008331299</t>
+    <t xml:space="preserve">13.3714017868042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2745294570923</t>
@@ -1493,37 +1493,37 @@
     <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4312257766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3615827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1178321838379</t>
+    <t xml:space="preserve">12.431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3615808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1178331375122</t>
   </si>
   <si>
     <t xml:space="preserve">11.5084590911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4736394882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517637252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.403995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1700649261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.849081993103</t>
+    <t xml:space="preserve">11.4736375808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4039964675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1700639724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8490810394287</t>
   </si>
   <si>
     <t xml:space="preserve">11.9089050292969</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5606908798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6129236221313</t>
+    <t xml:space="preserve">11.5606918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6129245758057</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218507766724</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3964042663574</t>
+    <t xml:space="preserve">12.3964033126831</t>
   </si>
   <si>
     <t xml:space="preserve">12.257119178772</t>
@@ -1559,52 +1559,52 @@
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272071838379</t>
+    <t xml:space="preserve">12.7272062301636</t>
   </si>
   <si>
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053323745728</t>
+    <t xml:space="preserve">12.6053314208984</t>
   </si>
   <si>
     <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8664922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8142604827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9535465240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0928325653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147064208984</t>
+    <t xml:space="preserve">12.866491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8142595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9535455703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.092830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147045135498</t>
   </si>
   <si>
     <t xml:space="preserve">13.3888130187988</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4758644104004</t>
+    <t xml:space="preserve">13.4584550857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.475866317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.7196159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2321166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3191709518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1450624465942</t>
+    <t xml:space="preserve">13.2321157455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3191699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
     <t xml:space="preserve">13.1972942352295</t>
@@ -1616,31 +1616,31 @@
     <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5106868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236335754395</t>
+    <t xml:space="preserve">13.5106887817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455102920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236345291138</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638095855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330076217651</t>
+    <t xml:space="preserve">14.1548833847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330085754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9807748794556</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">14.1722936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2593450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8937225341797</t>
+    <t xml:space="preserve">14.2593460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.893723487854</t>
   </si>
   <si>
     <t xml:space="preserve">13.5629196166992</t>
@@ -1661,25 +1661,25 @@
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6847953796387</t>
+    <t xml:space="preserve">13.6847944259644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151514053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9883680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661220550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8489570617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7041788101196</t>
+    <t xml:space="preserve">12.9883670806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661211013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8489551544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7041797637939</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -1697,28 +1697,28 @@
     <t xml:space="preserve">12.5955963134766</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0118312835693</t>
+    <t xml:space="preserve">13.011830329895</t>
   </si>
   <si>
     <t xml:space="preserve">12.9756364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9394416809082</t>
+    <t xml:space="preserve">12.9394426345825</t>
   </si>
   <si>
     <t xml:space="preserve">12.613694190979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5232076644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360333442688</t>
+    <t xml:space="preserve">12.5232086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194808959961</t>
+    <t xml:space="preserve">13.3194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
@@ -1727,43 +1727,43 @@
     <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8851509094238</t>
+    <t xml:space="preserve">12.8851499557495</t>
   </si>
   <si>
     <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0299282073975</t>
+    <t xml:space="preserve">13.0299272537231</t>
   </si>
   <si>
     <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4823560714722</t>
+    <t xml:space="preserve">13.4823551177979</t>
   </si>
   <si>
     <t xml:space="preserve">13.464259147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4461603164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2832870483398</t>
+    <t xml:space="preserve">13.4461612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
     <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.301383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3918704986572</t>
+    <t xml:space="preserve">13.3013849258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3918695449829</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5051116943359</t>
+    <t xml:space="preserve">12.5051107406616</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793632507324</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">12.1250715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4689168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413055419922</t>
+    <t xml:space="preserve">12.4689159393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413045883179</t>
   </si>
   <si>
     <t xml:space="preserve">12.5774993896484</t>
@@ -1790,34 +1790,34 @@
     <t xml:space="preserve">12.2517518997192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3060436248779</t>
+    <t xml:space="preserve">12.3060426712036</t>
   </si>
   <si>
     <t xml:space="preserve">12.414626121521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2879457473755</t>
+    <t xml:space="preserve">12.2879447937012</t>
   </si>
   <si>
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336549758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3422374725342</t>
+    <t xml:space="preserve">12.2336559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3422365188599</t>
   </si>
   <si>
     <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9983911514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7631301879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6545476913452</t>
+    <t xml:space="preserve">11.9983921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.763129234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
     <t xml:space="preserve">11.8536148071289</t>
@@ -1826,34 +1826,34 @@
     <t xml:space="preserve">11.7450313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7993240356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8355178833008</t>
+    <t xml:space="preserve">11.7993230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8355169296265</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364488601685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3649921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564096450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0392446517944</t>
+    <t xml:space="preserve">11.3649940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.473575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926034927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0392436981201</t>
   </si>
   <si>
     <t xml:space="preserve">11.021146774292</t>
@@ -1862,40 +1862,40 @@
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306612014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8582725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0754384994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021188735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6002550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4916715621948</t>
+    <t xml:space="preserve">10.9306621551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8582735061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754375457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6002540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.274507522583</t>
+    <t xml:space="preserve">11.2745065689087</t>
   </si>
   <si>
     <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4373807907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2202157974243</t>
+    <t xml:space="preserve">11.4373817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.22021484375</t>
   </si>
   <si>
     <t xml:space="preserve">11.2383127212524</t>
@@ -1907,31 +1907,31 @@
     <t xml:space="preserve">11.5278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1612663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4508199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965282440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784322738647</t>
+    <t xml:space="preserve">12.16126537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4508209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965291976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
     <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7403736114502</t>
+    <t xml:space="preserve">12.7403745651245</t>
   </si>
   <si>
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802932739258</t>
+    <t xml:space="preserve">12.4327230453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802951812744</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.92600440979</t>
+    <t xml:space="preserve">11.9260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">12.1431694030762</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">11.962197303772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0526819229126</t>
+    <t xml:space="preserve">12.0526828765869</t>
   </si>
   <si>
     <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800971984863</t>
+    <t xml:space="preserve">10.0800981521606</t>
   </si>
   <si>
     <t xml:space="preserve">9.86293125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39240646362305</t>
+    <t xml:space="preserve">9.39240550994873</t>
   </si>
   <si>
     <t xml:space="preserve">9.33811473846436</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">8.50564670562744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55088996887207</t>
+    <t xml:space="preserve">8.55088901519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.78615188598633</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48754978179932</t>
+    <t xml:space="preserve">8.48755073547363</t>
   </si>
   <si>
     <t xml:space="preserve">8.71376514434814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61423015594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7409086227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83139610290527</t>
+    <t xml:space="preserve">8.61423110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74091053009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83139514923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.97617244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03046321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01236724853516</t>
+    <t xml:space="preserve">9.03046417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01236629486084</t>
   </si>
   <si>
     <t xml:space="preserve">9.13904666900635</t>
@@ -2027,49 +2027,49 @@
     <t xml:space="preserve">9.32001781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09380435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04856014251709</t>
+    <t xml:space="preserve">9.09380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
     <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54623222351074</t>
+    <t xml:space="preserve">9.54623126983643</t>
   </si>
   <si>
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50098991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77244567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0439023971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95341682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68195915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22953224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99427032470703</t>
+    <t xml:space="preserve">9.50098896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147548675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77244472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0439033508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.681960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22953128814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99426937103271</t>
   </si>
   <si>
     <t xml:space="preserve">8.84949207305908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93997859954834</t>
+    <t xml:space="preserve">8.93997764587402</t>
   </si>
   <si>
     <t xml:space="preserve">8.90378475189209</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">10.4058446884155</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4963312149048</t>
+    <t xml:space="preserve">10.4963302612305</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153591156006</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606014251709</t>
+    <t xml:space="preserve">10.3606023788452</t>
   </si>
   <si>
     <t xml:space="preserve">10.0891447067261</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90817356109619</t>
+    <t xml:space="preserve">9.90817451477051</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868158340454</t>
+    <t xml:space="preserve">10.5868167877197</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773023605347</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">10.8130292892456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677879333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722544670105</t>
+    <t xml:space="preserve">10.7677869796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">11.6274013519287</t>
@@ -2153,22 +2153,22 @@
     <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870138168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5322570800781</t>
+    <t xml:space="preserve">12.4870147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5322580337524</t>
   </si>
   <si>
     <t xml:space="preserve">12.9904432296753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4801034927368</t>
+    <t xml:space="preserve">12.4801044464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553430557251</t>
+    <t xml:space="preserve">12.1553440093994</t>
   </si>
   <si>
     <t xml:space="preserve">11.9233713150024</t>
@@ -2180,10 +2180,10 @@
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625553131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6913986206055</t>
+    <t xml:space="preserve">12.062554359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913995742798</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2195,25 +2195,25 @@
     <t xml:space="preserve">11.4594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3202438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986108779907</t>
+    <t xml:space="preserve">11.3202428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986099243164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873167037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656827926636</t>
+    <t xml:space="preserve">12.3873157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656818389893</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120761871338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8048648834229</t>
+    <t xml:space="preserve">12.8048658370972</t>
   </si>
   <si>
     <t xml:space="preserve">12.3409214019775</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647264480591</t>
+    <t xml:space="preserve">13.9647274017334</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.547176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358812332153</t>
+    <t xml:space="preserve">13.5471773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894868850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
     <t xml:space="preserve">13.9183320999146</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503047943115</t>
+    <t xml:space="preserve">14.1503038406372</t>
   </si>
   <si>
     <t xml:space="preserve">14.4286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2173757553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565587997437</t>
+    <t xml:space="preserve">15.2173767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.356559753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741098403931</t>
+    <t xml:space="preserve">14.9854049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781927108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741107940674</t>
   </si>
   <si>
     <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236316680908</t>
+    <t xml:space="preserve">16.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834922790527</t>
+    <t xml:space="preserve">17.5834941864014</t>
   </si>
   <si>
     <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3979148864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4185943603516</t>
+    <t xml:space="preserve">17.397912979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
     <t xml:space="preserve">18.4649868011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.511381149292</t>
+    <t xml:space="preserve">18.5113830566406</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361434936523</t>
+    <t xml:space="preserve">18.8361415863037</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">17.3515224456787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0217189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2794094085693</t>
+    <t xml:space="preserve">19.0217208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.279411315918</t>
   </si>
   <si>
     <t xml:space="preserve">18.9289321899414</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">19.764030456543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9702892303467</t>
+    <t xml:space="preserve">20.970287322998</t>
   </si>
   <si>
     <t xml:space="preserve">21.3414421081543</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6198101043701</t>
+    <t xml:space="preserve">21.6198081970215</t>
   </si>
   <si>
     <t xml:space="preserve">21.8981761932373</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847080230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5991306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0630779266357</t>
+    <t xml:space="preserve">20.7847099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5991325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0630760192871</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2405,22 +2405,22 @@
     <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6712417602539</t>
+    <t xml:space="preserve">19.6712436676025</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2486515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1765403747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1972217559814</t>
+    <t xml:space="preserve">21.2486534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693328857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1765422821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1972198486328</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">22.9188537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404876708984</t>
+    <t xml:space="preserve">22.6404857635498</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
@@ -3531,6 +3531,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.1499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8500003814697</t>
   </si>
 </sst>
 </file>
@@ -60500,7 +60503,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6494444444</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>13222</v>
@@ -60521,6 +60524,32 @@
         <v>1172</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6493055556</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>3307</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>18.2000007629395</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>17.8500003814697</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>18.2000007629395</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>17.8500003814697</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1173">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90091037750244</t>
+    <t xml:space="preserve">8.90090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
@@ -50,34 +50,34 @@
     <t xml:space="preserve">8.81509876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65907955169678</t>
+    <t xml:space="preserve">8.65908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64347648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47965717315674</t>
+    <t xml:space="preserve">8.64347743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58106899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47965621948242</t>
   </si>
   <si>
     <t xml:space="preserve">8.19102191925049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82437467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92578887939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018581390381</t>
+    <t xml:space="preserve">7.82437515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479368209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92578792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018629074097</t>
   </si>
   <si>
     <t xml:space="preserve">8.04280281066895</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">8.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20662403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798639297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521030426025</t>
+    <t xml:space="preserve">8.20662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521221160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.02720069885254</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">7.95699167251587</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8009729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
+    <t xml:space="preserve">7.80097246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935018539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6800594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898254394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861442565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164756774902</t>
@@ -134,22 +134,22 @@
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34703922271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
+    <t xml:space="preserve">8.34704113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002624511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180618286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30023384094238</t>
+    <t xml:space="preserve">8.30023670196533</t>
   </si>
   <si>
     <t xml:space="preserve">8.3548412322998</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">8.30803489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683258056641</t>
+    <t xml:space="preserve">8.27683162689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.21442413330078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24562835693359</t>
+    <t xml:space="preserve">8.24562740325928</t>
   </si>
   <si>
     <t xml:space="preserve">8.19882202148438</t>
@@ -173,25 +173,25 @@
     <t xml:space="preserve">8.2534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13641357421875</t>
+    <t xml:space="preserve">8.13641548156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.12081146240234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03500270843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94919013977051</t>
+    <t xml:space="preserve">8.03500080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94919204711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.01939964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358898162842</t>
+    <t xml:space="preserve">7.97259330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358945846558</t>
   </si>
   <si>
     <t xml:space="preserve">7.80877256393433</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">7.94139051437378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86337995529175</t>
+    <t xml:space="preserve">7.86338186264038</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379848480225</t>
@@ -209,31 +209,31 @@
     <t xml:space="preserve">8.05060291290283</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76196718215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537034988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76586818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7190637588501</t>
+    <t xml:space="preserve">7.76196670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76586866378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906280517578</t>
   </si>
   <si>
     <t xml:space="preserve">7.67615747451782</t>
@@ -245,43 +245,43 @@
     <t xml:space="preserve">7.60594844818115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56694269180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081123352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05340385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06160545349121</t>
+    <t xml:space="preserve">7.56694364547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557321548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11081218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0534029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06160640716553</t>
   </si>
   <si>
     <t xml:space="preserve">8.11901187896729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16821956634521</t>
+    <t xml:space="preserve">8.16821765899658</t>
   </si>
   <si>
     <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8811821937561</t>
+    <t xml:space="preserve">7.88118267059326</t>
   </si>
   <si>
     <t xml:space="preserve">7.98779535293579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097127914429</t>
+    <t xml:space="preserve">7.87298059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79096984863281</t>
   </si>
   <si>
     <t xml:space="preserve">7.56954431533813</t>
@@ -290,190 +290,190 @@
     <t xml:space="preserve">7.19639682769775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54904127120972</t>
+    <t xml:space="preserve">7.35631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996709823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54494142532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975618362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904222488403</t>
   </si>
   <si>
     <t xml:space="preserve">7.63515281677246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76226806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
+    <t xml:space="preserve">7.76226758956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565347671509</t>
   </si>
   <si>
     <t xml:space="preserve">7.66795587539673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41372442245483</t>
+    <t xml:space="preserve">7.41372394561768</t>
   </si>
   <si>
     <t xml:space="preserve">7.47113132476807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38092088699341</t>
+    <t xml:space="preserve">7.38092041015625</t>
   </si>
   <si>
     <t xml:space="preserve">7.43012714385986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38502168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293067932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53264093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5080361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6023473739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573421478271</t>
+    <t xml:space="preserve">7.38502073287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4875340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293020248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163484573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234928131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573564529419</t>
   </si>
   <si>
     <t xml:space="preserve">7.44652843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52853918075562</t>
+    <t xml:space="preserve">7.5285382270813</t>
   </si>
   <si>
     <t xml:space="preserve">7.40962409973145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38912105560303</t>
+    <t xml:space="preserve">7.38912200927734</t>
   </si>
   <si>
     <t xml:space="preserve">7.4588303565979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51623678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56134176254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594703674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840709686279</t>
+    <t xml:space="preserve">7.51623725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56134271621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774448394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271976470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840757369995</t>
   </si>
   <si>
     <t xml:space="preserve">7.21690034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20459842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37681913375854</t>
+    <t xml:space="preserve">7.20459890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3768196105957</t>
   </si>
   <si>
     <t xml:space="preserve">7.43422698974609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41782522201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171319961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29890966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041831970215</t>
+    <t xml:space="preserve">7.41782474517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171415328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041736602783</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761335372925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31941223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711126327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3358154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121206283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45472955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589521408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1840968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229745864868</t>
+    <t xml:space="preserve">7.31941318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121158599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473003387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869779586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
     <t xml:space="preserve">7.21279907226562</t>
@@ -482,31 +482,31 @@
     <t xml:space="preserve">7.24150323867798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42192649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09850883483887</t>
+    <t xml:space="preserve">7.42192602157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176454544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.23382759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36504459381104</t>
+    <t xml:space="preserve">8.36504364013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48805809020996</t>
+    <t xml:space="preserve">8.48805904388428</t>
   </si>
   <si>
     <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52086353302002</t>
+    <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144493103027</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">8.44705390930176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49625873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65207862854004</t>
+    <t xml:space="preserve">8.49626064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65207958221436</t>
   </si>
   <si>
     <t xml:space="preserve">8.88990783691406</t>
@@ -527,49 +527,49 @@
     <t xml:space="preserve">8.89811038970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75869274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6848840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7258882522583</t>
+    <t xml:space="preserve">8.75869178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68488311767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72588920593262</t>
   </si>
   <si>
     <t xml:space="preserve">8.75049114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77509498596191</t>
+    <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
     <t xml:space="preserve">8.73408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58647155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50446033477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747669219971</t>
+    <t xml:space="preserve">8.58647060394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50445938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747573852539</t>
   </si>
   <si>
     <t xml:space="preserve">8.54546546936035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6110725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57827091217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67668151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63567733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69308376312256</t>
+    <t xml:space="preserve">8.61107349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57826995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.676682472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63567543029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69308471679688</t>
   </si>
   <si>
     <t xml:space="preserve">8.66027927398682</t>
@@ -578,34 +578,34 @@
     <t xml:space="preserve">8.66848087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79149627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96371841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0867338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23435115814209</t>
+    <t xml:space="preserve">8.79149532318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96371650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08673286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23435211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59519481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66900539398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55418968200684</t>
+    <t xml:space="preserve">9.59519672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6279993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159896850586</t>
@@ -614,13 +614,13 @@
     <t xml:space="preserve">9.66080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7346134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92323780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0544519424438</t>
+    <t xml:space="preserve">9.73461437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0544548034668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1282634735107</t>
@@ -629,22 +629,22 @@
     <t xml:space="preserve">10.620325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8909587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663549423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6613292694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5465135574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809074401855</t>
+    <t xml:space="preserve">10.8909578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941328048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6613302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5465154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809064865112</t>
   </si>
   <si>
     <t xml:space="preserve">10.4070978164673</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">10.4973087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629177093506</t>
+    <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.4481029510498</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">10.513710975647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875205993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645051956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055093765259</t>
+    <t xml:space="preserve">10.5875196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
     <t xml:space="preserve">10.4152984619141</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">10.9073600769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8253488540649</t>
+    <t xml:space="preserve">10.8253507614136</t>
   </si>
   <si>
     <t xml:space="preserve">10.7187356948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1533899307251</t>
+    <t xml:space="preserve">11.1533908843994</t>
   </si>
   <si>
     <t xml:space="preserve">10.858154296875</t>
@@ -698,19 +698,19 @@
     <t xml:space="preserve">11.0549783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0057716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7848701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5311622619629</t>
+    <t xml:space="preserve">11.0057735443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092107772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7848682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5311632156372</t>
   </si>
   <si>
     <t xml:space="preserve">12.383544921875</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">12.5229625701904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457147598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375141143799</t>
+    <t xml:space="preserve">12.145715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375122070312</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443885803223</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">13.1470003128052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499116897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160924911499</t>
+    <t xml:space="preserve">13.3499126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160915374756</t>
   </si>
   <si>
     <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3752746582031</t>
+    <t xml:space="preserve">13.3752737045288</t>
   </si>
   <si>
     <t xml:space="preserve">13.4429130554199</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9718017578125</t>
+    <t xml:space="preserve">11.9718008041382</t>
   </si>
   <si>
     <t xml:space="preserve">12.3099880218506</t>
@@ -785,16 +785,16 @@
     <t xml:space="preserve">12.3945341110229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4283542633057</t>
+    <t xml:space="preserve">12.428352355957</t>
   </si>
   <si>
     <t xml:space="preserve">12.2677145004272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6059017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4706258773804</t>
+    <t xml:space="preserve">12.605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4706268310547</t>
   </si>
   <si>
     <t xml:space="preserve">12.4537172317505</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3438081741333</t>
+    <t xml:space="preserve">12.343807220459</t>
   </si>
   <si>
     <t xml:space="preserve">12.1747131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9210748672485</t>
+    <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056200027466</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394382476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2592611312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607168197632</t>
+    <t xml:space="preserve">12.039439201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2592601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607158660889</t>
   </si>
   <si>
     <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6397190093994</t>
+    <t xml:space="preserve">12.6397199630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5467185974121</t>
@@ -842,43 +842,43 @@
     <t xml:space="preserve">12.7073564529419</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6143550872803</t>
+    <t xml:space="preserve">12.6143569946289</t>
   </si>
   <si>
     <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650838851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.732720375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510866165161</t>
+    <t xml:space="preserve">12.6650829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228113174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327222824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4513673782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822751998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006385803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.519003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598217010498</t>
+    <t xml:space="preserve">12.9356346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4513683319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822742462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598226547241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583669662476</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">14.2207412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4743824005127</t>
+    <t xml:space="preserve">14.474383354187</t>
   </si>
   <si>
     <t xml:space="preserve">14.5420198440552</t>
@@ -908,61 +908,61 @@
     <t xml:space="preserve">14.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3560161590576</t>
+    <t xml:space="preserve">14.3560171127319</t>
   </si>
   <si>
     <t xml:space="preserve">14.3729267120361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758390426636</t>
+    <t xml:space="preserve">14.5673818588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758371353149</t>
   </si>
   <si>
     <t xml:space="preserve">14.736475944519</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111120223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872037887573</t>
+    <t xml:space="preserve">14.7111139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.787202835083</t>
   </si>
   <si>
     <t xml:space="preserve">15.353666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">15.920129776001</t>
+    <t xml:space="preserve">15.9201288223267</t>
   </si>
   <si>
     <t xml:space="preserve">15.8947639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0638580322266</t>
+    <t xml:space="preserve">16.0638561248779</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4104995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1145858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696788787842</t>
+    <t xml:space="preserve">16.4104976654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1145839691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696826934814</t>
   </si>
   <si>
     <t xml:space="preserve">16.4865894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230392456055</t>
+    <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.6303215026855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9008693695068</t>
+    <t xml:space="preserve">16.9008674621582</t>
   </si>
   <si>
     <t xml:space="preserve">17.4335136413574</t>
@@ -971,43 +971,43 @@
     <t xml:space="preserve">17.6195182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0929775238037</t>
+    <t xml:space="preserve">18.0929756164551</t>
   </si>
   <si>
     <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7862606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381614685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7270774841309</t>
+    <t xml:space="preserve">18.7862567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381633758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7270736694336</t>
   </si>
   <si>
     <t xml:space="preserve">18.7608966827393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.836986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.014533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1329021453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708038330078</t>
+    <t xml:space="preserve">18.8369884490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0145359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1329002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8792629241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708057403564</t>
   </si>
   <si>
     <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9407920837402</t>
+    <t xml:space="preserve">17.9407939910889</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">17.6702442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.534969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5265159606934</t>
+    <t xml:space="preserve">17.797061920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5349655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463340759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5265140533447</t>
   </si>
   <si>
     <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6533336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2475128173828</t>
+    <t xml:space="preserve">17.6533317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2475090026855</t>
   </si>
   <si>
     <t xml:space="preserve">17.5772457122803</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">17.492696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6279697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434246063232</t>
+    <t xml:space="preserve">17.6279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.543420791626</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
@@ -1064,166 +1064,166 @@
     <t xml:space="preserve">17.8393363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550701141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9384422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372692108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.361177444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4457244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229892730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3442668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1836261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.22825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.568790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1206932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0361442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7402324676514</t>
+    <t xml:space="preserve">18.3550720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9384441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372653961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4457225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3189029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3442649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.183629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2282524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5687885284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1206874847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0361423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7402286529541</t>
   </si>
   <si>
     <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.917781829834</t>
+    <t xml:space="preserve">16.9177780151367</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8332328796387</t>
+    <t xml:space="preserve">16.83323097229</t>
   </si>
   <si>
     <t xml:space="preserve">16.8585968017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9093246459961</t>
+    <t xml:space="preserve">16.9093227386475</t>
   </si>
   <si>
     <t xml:space="preserve">17.3320560455322</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.571138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8247776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9938716888428</t>
+    <t xml:space="preserve">16.9515953063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5711402893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.99387550354</t>
   </si>
   <si>
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5373191833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7764005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565786361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551229476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.389835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933082580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9962205886841</t>
+    <t xml:space="preserve">16.537317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763996124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551248550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3898344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720296859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.793309211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962196350098</t>
   </si>
   <si>
     <t xml:space="preserve">16.1484050750732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618398666382</t>
+    <t xml:space="preserve">15.5227575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676626205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618389129639</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6096563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5589275360107</t>
+    <t xml:space="preserve">14.6096572875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5589284896851</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802070617676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2183933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198480606079</t>
+    <t xml:space="preserve">15.2183923721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198490142822</t>
   </si>
   <si>
     <t xml:space="preserve">15.302939414978</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">15.8102207183838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3874855041504</t>
+    <t xml:space="preserve">15.3874864578247</t>
   </si>
   <si>
     <t xml:space="preserve">15.4382133483887</t>
@@ -1247,22 +1247,22 @@
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.049298286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073055267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.5903959274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.488941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.607307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411237716675</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
@@ -1286,34 +1286,34 @@
     <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3174953460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
+    <t xml:space="preserve">16.317497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437175750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1396999359131</t>
+    <t xml:space="preserve">15.5825576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437204360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1397018432617</t>
   </si>
   <si>
     <t xml:space="preserve">16.3312168121338</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">16.191930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048793792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874671936035</t>
+    <t xml:space="preserve">16.1048774719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874710083008</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178260803223</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">15.7740755081177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6696119308472</t>
+    <t xml:space="preserve">15.6696109771729</t>
   </si>
   <si>
     <t xml:space="preserve">15.7044343948364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9209518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8513097763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164892196655</t>
+    <t xml:space="preserve">14.920952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8513088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164882659912</t>
   </si>
   <si>
     <t xml:space="preserve">15.0254173278809</t>
@@ -1358,22 +1358,22 @@
     <t xml:space="preserve">14.9731845855713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1298809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9285430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544374465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633655548096</t>
+    <t xml:space="preserve">15.1298780441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9285440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633665084839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7468461990356</t>
@@ -1382,22 +1382,22 @@
     <t xml:space="preserve">14.1200609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2245254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9459552764893</t>
+    <t xml:space="preserve">14.2245244979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9459543228149</t>
   </si>
   <si>
     <t xml:space="preserve">14.0504188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1026515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8414888381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.667384147644</t>
+    <t xml:space="preserve">14.1026496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8414897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.7022037506104</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539915084839</t>
+    <t xml:space="preserve">13.3539905548096</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0580101013184</t>
+    <t xml:space="preserve">13.058009147644</t>
   </si>
   <si>
     <t xml:space="preserve">13.4062232971191</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">12.6227426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5530996322632</t>
+    <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486351013184</t>
+    <t xml:space="preserve">12.4486360549927</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133695602417</t>
@@ -1445,22 +1445,22 @@
     <t xml:space="preserve">11.6303339004517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6651554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187250137329</t>
+    <t xml:space="preserve">11.6651544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.6325616836548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7718477249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8066682815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2669372558594</t>
+    <t xml:space="preserve">13.7718467712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8066692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2669382095337</t>
   </si>
   <si>
     <t xml:space="preserve">13.8763113021851</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017587661743</t>
+    <t xml:space="preserve">13.3017597198486</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276521682739</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0656003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1874761581421</t>
+    <t xml:space="preserve">12.0830116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
     <t xml:space="preserve">12.431224822998</t>
@@ -1499,40 +1499,40 @@
     <t xml:space="preserve">12.1178331375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084600448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517627716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.403995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1700639724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.849081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9089050292969</t>
+    <t xml:space="preserve">11.5084590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517637252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4039945602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1700649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8490810394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9089040756226</t>
   </si>
   <si>
     <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5606918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6129236221313</t>
+    <t xml:space="preserve">11.5606908798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6129245758057</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218517303467</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3964033126831</t>
+    <t xml:space="preserve">12.3964023590088</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571182250977</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053304672241</t>
+    <t xml:space="preserve">12.6053323745728</t>
   </si>
   <si>
     <t xml:space="preserve">12.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.866491317749</t>
+    <t xml:space="preserve">12.8664922714233</t>
   </si>
   <si>
     <t xml:space="preserve">12.8142604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9535455703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0928316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147054672241</t>
+    <t xml:space="preserve">12.9535465240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.092830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147064208984</t>
   </si>
   <si>
     <t xml:space="preserve">13.3888120651245</t>
@@ -1589,43 +1589,43 @@
     <t xml:space="preserve">13.4584560394287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.475866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.719614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2321157455444</t>
+    <t xml:space="preserve">13.4758653640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
     <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1450634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1972961425781</t>
+    <t xml:space="preserve">13.1450643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1972951889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2843475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.510687828064</t>
+    <t xml:space="preserve">13.284348487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5106868743896</t>
   </si>
   <si>
     <t xml:space="preserve">13.5455093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0405988693237</t>
+    <t xml:space="preserve">13.0405979156494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4410438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4236326217651</t>
+    <t xml:space="preserve">13.4236345291138</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111328125</t>
@@ -1634,25 +1634,25 @@
     <t xml:space="preserve">14.1548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3638105392456</t>
+    <t xml:space="preserve">14.3638095855713</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9807748794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1722946166992</t>
+    <t xml:space="preserve">13.9807739257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1722936630249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2593460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">13.893723487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5629186630249</t>
+    <t xml:space="preserve">13.8937225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5629196166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280981063843</t>
@@ -1661,16 +1661,16 @@
     <t xml:space="preserve">13.6847944259644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9883680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661220550537</t>
+    <t xml:space="preserve">13.6151514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9883661270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661211013794</t>
   </si>
   <si>
     <t xml:space="preserve">12.8489561080933</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7765693664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.812762260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955972671509</t>
+    <t xml:space="preserve">12.7946653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7765684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8127613067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955963134766</t>
   </si>
   <si>
     <t xml:space="preserve">13.011830329895</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.613694190979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5232076644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360333442688</t>
+    <t xml:space="preserve">12.5232086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385116577148</t>
+    <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8851499557495</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0299272537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3737726211548</t>
+    <t xml:space="preserve">13.0299282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3737735748291</t>
   </si>
   <si>
     <t xml:space="preserve">13.4823551177979</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">13.4461612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2832889556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1928024291992</t>
+    <t xml:space="preserve">13.2832880020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.5051107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7222776412964</t>
+    <t xml:space="preserve">12.1793622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7222766876221</t>
   </si>
   <si>
     <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.125072479248</t>
+    <t xml:space="preserve">12.1250705718994</t>
   </si>
   <si>
     <t xml:space="preserve">12.4689159393311</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">12.5413055419922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5774984359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3060426712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4146251678467</t>
+    <t xml:space="preserve">12.5774993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2517518997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3060436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.414626121521</t>
   </si>
   <si>
     <t xml:space="preserve">12.2879457473755</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3422384262085</t>
+    <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1069746017456</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7631301879883</t>
+    <t xml:space="preserve">11.763129234314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
@@ -1832,31 +1832,31 @@
     <t xml:space="preserve">11.6364479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3649921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564086914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0392427444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211486816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0030498504639</t>
+    <t xml:space="preserve">11.3649930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.473575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564096450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0392446517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0211477279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0030488967896</t>
   </si>
   <si>
     <t xml:space="preserve">10.9306612014771</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6002550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459632873535</t>
+    <t xml:space="preserve">11.0754384994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021188735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6002559661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459642410278</t>
   </si>
   <si>
     <t xml:space="preserve">11.4916725158691</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">11.419282913208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4554786682129</t>
+    <t xml:space="preserve">11.274507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2202157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383136749268</t>
+    <t xml:space="preserve">11.22021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383127212524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830900192261</t>
@@ -1907,43 +1907,43 @@
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965291976929</t>
+    <t xml:space="preserve">12.4508199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965282440186</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698497772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7403726577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5594034194946</t>
+    <t xml:space="preserve">12.2698488235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7403736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
     <t xml:space="preserve">12.4327220916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9802951812744</t>
+    <t xml:space="preserve">11.9802942276001</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0345869064331</t>
+    <t xml:space="preserve">12.0345859527588</t>
   </si>
   <si>
     <t xml:space="preserve">11.9260034561157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1431684494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6679859161377</t>
+    <t xml:space="preserve">12.1431694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
     <t xml:space="preserve">12.8308601379395</t>
@@ -1952,34 +1952,34 @@
     <t xml:space="preserve">11.9621982574463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0526828765869</t>
+    <t xml:space="preserve">12.0526819229126</t>
   </si>
   <si>
     <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8629322052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33811569213867</t>
+    <t xml:space="preserve">10.0800981521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86293125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564670562744</t>
+    <t xml:space="preserve">8.50564765930176</t>
   </si>
   <si>
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615188598633</t>
+    <t xml:space="preserve">8.78615283966064</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758995056152</t>
@@ -1988,25 +1988,25 @@
     <t xml:space="preserve">8.82234668731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64137554168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48754978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71376419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61423015594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74091053009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83139610290527</t>
+    <t xml:space="preserve">8.64137649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65042495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48755073547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71376514434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61423110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74090957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83139514923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.97617244720459</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">9.03046321868896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01236724853516</t>
+    <t xml:space="preserve">9.01236629486084</t>
   </si>
   <si>
     <t xml:space="preserve">9.13904762268066</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428897857666</t>
+    <t xml:space="preserve">9.18428993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.54623126983643</t>
@@ -2042,22 +2042,22 @@
     <t xml:space="preserve">9.50098896026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59147453308105</t>
+    <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
     <t xml:space="preserve">9.77244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0439023971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95341682434082</t>
+    <t xml:space="preserve">10.0439033508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9534158706665</t>
   </si>
   <si>
     <t xml:space="preserve">9.681960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22953224182129</t>
+    <t xml:space="preserve">9.22953128814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">8.93997764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90378475189209</t>
+    <t xml:space="preserve">8.90378570556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.72720336914062</t>
@@ -2084,28 +2084,28 @@
     <t xml:space="preserve">10.4963312149048</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3153581619263</t>
+    <t xml:space="preserve">10.3153591156006</t>
   </si>
   <si>
     <t xml:space="preserve">10.2701168060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4510889053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3606033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.4510879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3606023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99866104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90817451477051</t>
+    <t xml:space="preserve">9.99866008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1796312332153</t>
@@ -2114,10 +2114,10 @@
     <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9487590789795</t>
+    <t xml:space="preserve">10.6773023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9487581253052</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559436798096</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.174973487854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9035158157349</t>
+    <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
     <t xml:space="preserve">10.8130302429199</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">10.7677869796753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7225456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274013519287</t>
+    <t xml:space="preserve">10.722544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274003982544</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8988580703735</t>
+    <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.4870147705078</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">12.9904432296753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4801054000854</t>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9233722686768</t>
+    <t xml:space="preserve">12.1553430557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9233713150024</t>
   </si>
   <si>
     <t xml:space="preserve">11.6450042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8769760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6914005279541</t>
+    <t xml:space="preserve">11.8769769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2189,31 +2189,31 @@
     <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4594278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.4594268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3202438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120771408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8048658370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3409204483032</t>
+    <t xml:space="preserve">12.3873167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120761871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8048648834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3409214019775</t>
   </si>
   <si>
     <t xml:space="preserve">12.619288444519</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647274017334</t>
+    <t xml:space="preserve">13.9647264480591</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">13.5935707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358821868896</t>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358812332153</t>
   </si>
   <si>
     <t xml:space="preserve">13.9183320999146</t>
@@ -2267,37 +2267,37 @@
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503038406372</t>
+    <t xml:space="preserve">14.1503047943115</t>
   </si>
   <si>
     <t xml:space="preserve">14.4286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2173767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565607070923</t>
+    <t xml:space="preserve">15.2173757553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813220977783</t>
+    <t xml:space="preserve">15.681321144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470027923584</t>
+    <t xml:space="preserve">14.9854040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4700260162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.4236316680908</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8618583679199</t>
+    <t xml:space="preserve">17.5834922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4185924530029</t>
+    <t xml:space="preserve">18.4185943603516</t>
   </si>
   <si>
     <t xml:space="preserve">18.4649868011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2342,28 +2342,28 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
+    <t xml:space="preserve">17.3515224456787</t>
   </si>
   <si>
     <t xml:space="preserve">19.0217189788818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.279411315918</t>
+    <t xml:space="preserve">18.2794094085693</t>
   </si>
   <si>
     <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6505641937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">18.6505661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.764030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9702892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6198081970215</t>
+    <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
     <t xml:space="preserve">21.8981761932373</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847099304199</t>
+    <t xml:space="preserve">20.7847080230713</t>
   </si>
   <si>
     <t xml:space="preserve">20.5991306304932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0630760192871</t>
+    <t xml:space="preserve">21.0630779266357</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2399,55 +2399,55 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4135551452637</t>
+    <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693328857422</t>
+    <t xml:space="preserve">21.5270214080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
     <t xml:space="preserve">22.1765403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.9188537597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2733,9 +2733,6 @@
   </si>
   <si>
     <t xml:space="preserve">24.9053230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">23.8372573852539</t>
@@ -46455,7 +46452,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46481,7 +46478,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1639" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46507,7 +46504,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1640" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46533,7 +46530,7 @@
         <v>24.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46559,7 +46556,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46585,7 +46582,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46611,7 +46608,7 @@
         <v>24</v>
       </c>
       <c r="G1644" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46637,7 +46634,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1645" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46663,7 +46660,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46689,7 +46686,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46715,7 +46712,7 @@
         <v>24.5</v>
       </c>
       <c r="G1648" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46741,7 +46738,7 @@
         <v>24.25</v>
       </c>
       <c r="G1649" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46767,7 +46764,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46793,7 +46790,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1651" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46819,7 +46816,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46845,7 +46842,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46871,7 +46868,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46897,7 +46894,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1655" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46923,7 +46920,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46949,7 +46946,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46975,7 +46972,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47001,7 +46998,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47027,7 +47024,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1660" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47053,7 +47050,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47079,7 +47076,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47105,7 +47102,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47131,7 +47128,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1664" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47157,7 +47154,7 @@
         <v>23.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47183,7 +47180,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1666" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47209,7 +47206,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47235,7 +47232,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47261,7 +47258,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1669" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47287,7 +47284,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47313,7 +47310,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47339,7 +47336,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1672" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47365,7 +47362,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47391,7 +47388,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47417,7 +47414,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1675" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47443,7 +47440,7 @@
         <v>24.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47469,7 +47466,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47495,7 +47492,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47521,7 +47518,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1679" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47547,7 +47544,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47573,7 +47570,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47599,7 +47596,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1682" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47625,7 +47622,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47651,7 +47648,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47677,7 +47674,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1685" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47703,7 +47700,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1686" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47729,7 +47726,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47755,7 +47752,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1688" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47781,7 +47778,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47807,7 +47804,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47833,7 +47830,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47859,7 +47856,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1692" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47885,7 +47882,7 @@
         <v>20.25</v>
       </c>
       <c r="G1693" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47911,7 +47908,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47937,7 +47934,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47963,7 +47960,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47989,7 +47986,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1697" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48015,7 +48012,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48041,7 +48038,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48067,7 +48064,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48093,7 +48090,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48119,7 +48116,7 @@
         <v>19.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48145,7 +48142,7 @@
         <v>19</v>
       </c>
       <c r="G1703" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48171,7 +48168,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1704" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48197,7 +48194,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1705" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48223,7 +48220,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1706" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48249,7 +48246,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G1707" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48275,7 +48272,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1708" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48301,7 +48298,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1709" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48327,7 +48324,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48353,7 +48350,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48379,7 +48376,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48405,7 +48402,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G1713" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48431,7 +48428,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1714" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48457,7 +48454,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48483,7 +48480,7 @@
         <v>17</v>
       </c>
       <c r="G1716" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48509,7 +48506,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1717" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48535,7 +48532,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48561,7 +48558,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1719" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48587,7 +48584,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48613,7 +48610,7 @@
         <v>18</v>
       </c>
       <c r="G1721" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48639,7 +48636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1722" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48665,7 +48662,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48691,7 +48688,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1724" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48717,7 +48714,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48743,7 +48740,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48769,7 +48766,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G1727" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48795,7 +48792,7 @@
         <v>18</v>
       </c>
       <c r="G1728" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48821,7 +48818,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G1729" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48847,7 +48844,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1730" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48873,7 +48870,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1731" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48899,7 +48896,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48925,7 +48922,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48951,7 +48948,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1734" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48977,7 +48974,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49003,7 +49000,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49029,7 +49026,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49055,7 +49052,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1738" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49081,7 +49078,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49107,7 +49104,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49133,7 +49130,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49159,7 +49156,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1742" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49185,7 +49182,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1743" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49211,7 +49208,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49237,7 +49234,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1745" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49263,7 +49260,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1746" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49289,7 +49286,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1747" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49315,7 +49312,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1748" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49341,7 +49338,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49367,7 +49364,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1750" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49393,7 +49390,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1751" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49419,7 +49416,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1752" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49445,7 +49442,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49471,7 +49468,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1754" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49497,7 +49494,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1755" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49523,7 +49520,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1756" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49549,7 +49546,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1757" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49575,7 +49572,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49601,7 +49598,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1759" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49627,7 +49624,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1760" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49653,7 +49650,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49679,7 +49676,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1762" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49705,7 +49702,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49731,7 +49728,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49757,7 +49754,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1765" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49783,7 +49780,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1766" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49809,7 +49806,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1767" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49835,7 +49832,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1768" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49861,7 +49858,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49887,7 +49884,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1770" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49913,7 +49910,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49939,7 +49936,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49965,7 +49962,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1773" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49991,7 +49988,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1774" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50017,7 +50014,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1775" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50043,7 +50040,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1776" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50069,7 +50066,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1777" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50095,7 +50092,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1778" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50121,7 +50118,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1779" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50147,7 +50144,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1780" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50173,7 +50170,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1781" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50199,7 +50196,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50225,7 +50222,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50251,7 +50248,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1784" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50277,7 +50274,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1785" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50303,7 +50300,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1786" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50329,7 +50326,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1787" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50355,7 +50352,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1788" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50381,7 +50378,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50407,7 +50404,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1790" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50433,7 +50430,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50459,7 +50456,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1792" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50485,7 +50482,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1793" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50511,7 +50508,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1794" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50537,7 +50534,7 @@
         <v>17.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50563,7 +50560,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1796" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50589,7 +50586,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50615,7 +50612,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50641,7 +50638,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50667,7 +50664,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50693,7 +50690,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50719,7 +50716,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50745,7 +50742,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1803" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50771,7 +50768,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50797,7 +50794,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1805" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50823,7 +50820,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1806" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50849,7 +50846,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50875,7 +50872,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50901,7 +50898,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1809" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50927,7 +50924,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1810" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50953,7 +50950,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1811" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50979,7 +50976,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1812" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51005,7 +51002,7 @@
         <v>17</v>
       </c>
       <c r="G1813" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51031,7 +51028,7 @@
         <v>17</v>
       </c>
       <c r="G1814" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51057,7 +51054,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1815" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51083,7 +51080,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1816" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51109,7 +51106,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51135,7 +51132,7 @@
         <v>17</v>
       </c>
       <c r="G1818" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51161,7 +51158,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1819" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51187,7 +51184,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1820" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51213,7 +51210,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51239,7 +51236,7 @@
         <v>17</v>
       </c>
       <c r="G1822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51265,7 +51262,7 @@
         <v>17</v>
       </c>
       <c r="G1823" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51291,7 +51288,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1824" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51317,7 +51314,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51343,7 +51340,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51369,7 +51366,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1827" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51395,7 +51392,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1828" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51421,7 +51418,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51447,7 +51444,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1830" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51473,7 +51470,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51499,7 +51496,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1832" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51525,7 +51522,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1833" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51551,7 +51548,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1834" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51577,7 +51574,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51603,7 +51600,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1836" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51629,7 +51626,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1837" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51655,7 +51652,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1838" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51681,7 +51678,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1839" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51707,7 +51704,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51733,7 +51730,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1841" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51759,7 +51756,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1842" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51785,7 +51782,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51811,7 +51808,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51837,7 +51834,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51863,7 +51860,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51889,7 +51886,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1847" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51915,7 +51912,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1848" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51941,7 +51938,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1849" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51967,7 +51964,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1850" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51993,7 +51990,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1851" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52019,7 +52016,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52045,7 +52042,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1853" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52071,7 +52068,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52097,7 +52094,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1855" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52123,7 +52120,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1856" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52149,7 +52146,7 @@
         <v>17</v>
       </c>
       <c r="G1857" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52175,7 +52172,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1858" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52201,7 +52198,7 @@
         <v>17</v>
       </c>
       <c r="G1859" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52227,7 +52224,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1860" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52253,7 +52250,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52279,7 +52276,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1862" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52305,7 +52302,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1863" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52331,7 +52328,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1864" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52357,7 +52354,7 @@
         <v>16.5</v>
       </c>
       <c r="G1865" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52383,7 +52380,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1866" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52409,7 +52406,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1867" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52435,7 +52432,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52461,7 +52458,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52487,7 +52484,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52513,7 +52510,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52539,7 +52536,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52565,7 +52562,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1873" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52591,7 +52588,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1874" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52617,7 +52614,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1875" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52643,7 +52640,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52669,7 +52666,7 @@
         <v>16</v>
       </c>
       <c r="G1877" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52695,7 +52692,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1878" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52721,7 +52718,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1879" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52747,7 +52744,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52773,7 +52770,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52799,7 +52796,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1882" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52825,7 +52822,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1883" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52851,7 +52848,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1884" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52877,7 +52874,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52903,7 +52900,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1886" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52929,7 +52926,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1887" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52955,7 +52952,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1888" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52981,7 +52978,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1889" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53007,7 +53004,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53033,7 +53030,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53059,7 +53056,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1892" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53085,7 +53082,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1893" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53111,7 +53108,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1894" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53137,7 +53134,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1895" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53163,7 +53160,7 @@
         <v>14.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53189,7 +53186,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53215,7 +53212,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53241,7 +53238,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53267,7 +53264,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1900" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53293,7 +53290,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53319,7 +53316,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1902" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53345,7 +53342,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53371,7 +53368,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53397,7 +53394,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53423,7 +53420,7 @@
         <v>14</v>
       </c>
       <c r="G1906" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53449,7 +53446,7 @@
         <v>14</v>
       </c>
       <c r="G1907" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53475,7 +53472,7 @@
         <v>14</v>
       </c>
       <c r="G1908" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53501,7 +53498,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1909" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53527,7 +53524,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1910" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53553,7 +53550,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1911" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53579,7 +53576,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1912" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53605,7 +53602,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53631,7 +53628,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53657,7 +53654,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1915" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53683,7 +53680,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1916" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53709,7 +53706,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1917" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53735,7 +53732,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1918" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53761,7 +53758,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1919" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53787,7 +53784,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1920" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53813,7 +53810,7 @@
         <v>16.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53839,7 +53836,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1922" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53865,7 +53862,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53891,7 +53888,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1924" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53917,7 +53914,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53943,7 +53940,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1926" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53969,7 +53966,7 @@
         <v>17</v>
       </c>
       <c r="G1927" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53995,7 +53992,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1928" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54021,7 +54018,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1929" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54047,7 +54044,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1930" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54073,7 +54070,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1931" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54099,7 +54096,7 @@
         <v>17.5</v>
       </c>
       <c r="G1932" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54125,7 +54122,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54151,7 +54148,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1934" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54177,7 +54174,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1935" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54203,7 +54200,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1936" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54229,7 +54226,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1937" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54255,7 +54252,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1938" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54281,7 +54278,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54307,7 +54304,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1940" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54333,7 +54330,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54359,7 +54356,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1942" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54385,7 +54382,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54411,7 +54408,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54437,7 +54434,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1945" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54463,7 +54460,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54489,7 +54486,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54515,7 +54512,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54541,7 +54538,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1949" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54567,7 +54564,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1950" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54593,7 +54590,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1951" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54619,7 +54616,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54645,7 +54642,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54671,7 +54668,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1954" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54697,7 +54694,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54723,7 +54720,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54749,7 +54746,7 @@
         <v>17</v>
       </c>
       <c r="G1957" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54775,7 +54772,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1958" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54801,7 +54798,7 @@
         <v>16.5</v>
       </c>
       <c r="G1959" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54827,7 +54824,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54853,7 +54850,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54879,7 +54876,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54905,7 +54902,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1963" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54931,7 +54928,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54957,7 +54954,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1965" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54983,7 +54980,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1966" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55009,7 +55006,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55035,7 +55032,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1968" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55061,7 +55058,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55087,7 +55084,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55113,7 +55110,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55139,7 +55136,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55165,7 +55162,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55191,7 +55188,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55217,7 +55214,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55243,7 +55240,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1976" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55269,7 +55266,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1977" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55295,7 +55292,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55321,7 +55318,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55347,7 +55344,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1980" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55373,7 +55370,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1981" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55399,7 +55396,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1982" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55425,7 +55422,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1983" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55451,7 +55448,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1984" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55477,7 +55474,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1985" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55503,7 +55500,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1986" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55529,7 +55526,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1987" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55555,7 +55552,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55581,7 +55578,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1989" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55607,7 +55604,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55633,7 +55630,7 @@
         <v>14</v>
       </c>
       <c r="G1991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55659,7 +55656,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1992" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55685,7 +55682,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55711,7 +55708,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1994" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55737,7 +55734,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1995" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55763,7 +55760,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1996" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55789,7 +55786,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55815,7 +55812,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1998" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55841,7 +55838,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55867,7 +55864,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2000" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55893,7 +55890,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2001" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55919,7 +55916,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55945,7 +55942,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G2003" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55971,7 +55968,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55997,7 +55994,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56023,7 +56020,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56049,7 +56046,7 @@
         <v>14.5</v>
       </c>
       <c r="G2007" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56075,7 +56072,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56101,7 +56098,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56127,7 +56124,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G2010" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56153,7 +56150,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G2011" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56179,7 +56176,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2012" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56205,7 +56202,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2013" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56231,7 +56228,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G2014" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56257,7 +56254,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56283,7 +56280,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2016" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56309,7 +56306,7 @@
         <v>14.5</v>
       </c>
       <c r="G2017" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56335,7 +56332,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56361,7 +56358,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2019" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56387,7 +56384,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2020" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56413,7 +56410,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56439,7 +56436,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2022" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56465,7 +56462,7 @@
         <v>14.5</v>
       </c>
       <c r="G2023" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56491,7 +56488,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56517,7 +56514,7 @@
         <v>14.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56543,7 +56540,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2026" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56569,7 +56566,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G2027" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56595,7 +56592,7 @@
         <v>15</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56621,7 +56618,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56647,7 +56644,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G2030" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56673,7 +56670,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56699,7 +56696,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2032" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56725,7 +56722,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2033" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56751,7 +56748,7 @@
         <v>17</v>
       </c>
       <c r="G2034" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56777,7 +56774,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56803,7 +56800,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2036" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56829,7 +56826,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2037" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56855,7 +56852,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56881,7 +56878,7 @@
         <v>17.5</v>
       </c>
       <c r="G2039" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56907,7 +56904,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2040" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56933,7 +56930,7 @@
         <v>17.5</v>
       </c>
       <c r="G2041" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56959,7 +56956,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56985,7 +56982,7 @@
         <v>17.5</v>
       </c>
       <c r="G2043" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57011,7 +57008,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57037,7 +57034,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G2045" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57063,7 +57060,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57089,7 +57086,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57115,7 +57112,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57141,7 +57138,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57167,7 +57164,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G2050" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57193,7 +57190,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57219,7 +57216,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2052" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57245,7 +57242,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2053" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57271,7 +57268,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2054" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57297,7 +57294,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57323,7 +57320,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G2056" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57349,7 +57346,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2057" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57375,7 +57372,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57401,7 +57398,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57427,7 +57424,7 @@
         <v>17.5</v>
       </c>
       <c r="G2060" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57453,7 +57450,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2061" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57479,7 +57476,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2062" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57505,7 +57502,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57531,7 +57528,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2064" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57557,7 +57554,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57583,7 +57580,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G2066" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57609,7 +57606,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57635,7 +57632,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2068" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57661,7 +57658,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2069" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57687,7 +57684,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57713,7 +57710,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57739,7 +57736,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2072" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57765,7 +57762,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2073" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57791,7 +57788,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57817,7 +57814,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2075" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57843,7 +57840,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G2076" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57869,7 +57866,7 @@
         <v>17</v>
       </c>
       <c r="G2077" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57895,7 +57892,7 @@
         <v>17</v>
       </c>
       <c r="G2078" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57921,7 +57918,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57947,7 +57944,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G2080" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57973,7 +57970,7 @@
         <v>17</v>
       </c>
       <c r="G2081" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57999,7 +57996,7 @@
         <v>17</v>
       </c>
       <c r="G2082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58025,7 +58022,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G2083" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58051,7 +58048,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2084" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58077,7 +58074,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2085" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58103,7 +58100,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2086" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58129,7 +58126,7 @@
         <v>16.5</v>
       </c>
       <c r="G2087" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58155,7 +58152,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58181,7 +58178,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58207,7 +58204,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G2090" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58233,7 +58230,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G2091" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58259,7 +58256,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58285,7 +58282,7 @@
         <v>17</v>
       </c>
       <c r="G2093" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58311,7 +58308,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G2094" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58337,7 +58334,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2095" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58363,7 +58360,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2096" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58389,7 +58386,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58415,7 +58412,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2098" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58441,7 +58438,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2099" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58467,7 +58464,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58493,7 +58490,7 @@
         <v>18</v>
       </c>
       <c r="G2101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58519,7 +58516,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58545,7 +58542,7 @@
         <v>17.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58571,7 +58568,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58597,7 +58594,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58623,7 +58620,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58649,7 +58646,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58675,7 +58672,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58701,7 +58698,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2109" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58727,7 +58724,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2110" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58753,7 +58750,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58779,7 +58776,7 @@
         <v>17</v>
       </c>
       <c r="G2112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58805,7 +58802,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58831,7 +58828,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2114" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58857,7 +58854,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58883,7 +58880,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58909,7 +58906,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2117" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58935,7 +58932,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58961,7 +58958,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58987,7 +58984,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59013,7 +59010,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59039,7 +59036,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59065,7 +59062,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G2123" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59091,7 +59088,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2124" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59117,7 +59114,7 @@
         <v>17</v>
       </c>
       <c r="G2125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59143,7 +59140,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59169,7 +59166,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59195,7 +59192,7 @@
         <v>18</v>
       </c>
       <c r="G2128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59221,7 +59218,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59247,7 +59244,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59273,7 +59270,7 @@
         <v>19</v>
       </c>
       <c r="G2131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59299,7 +59296,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59325,7 +59322,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59351,7 +59348,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59377,7 +59374,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G2135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59403,7 +59400,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59429,7 +59426,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59455,7 +59452,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59481,7 +59478,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59507,7 +59504,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59533,7 +59530,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59559,7 +59556,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59585,7 +59582,7 @@
         <v>18</v>
       </c>
       <c r="G2143" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59611,7 +59608,7 @@
         <v>17.75</v>
       </c>
       <c r="G2144" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59637,7 +59634,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59663,7 +59660,7 @@
         <v>18</v>
       </c>
       <c r="G2146" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59689,7 +59686,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59715,7 +59712,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2148" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59741,7 +59738,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G2149" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59767,7 +59764,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2150" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59793,7 +59790,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59819,7 +59816,7 @@
         <v>16.75</v>
       </c>
       <c r="G2152" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59845,7 +59842,7 @@
         <v>16.75</v>
       </c>
       <c r="G2153" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59871,7 +59868,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59897,7 +59894,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2155" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59923,7 +59920,7 @@
         <v>16.75</v>
       </c>
       <c r="G2156" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59949,7 +59946,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2157" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59975,7 +59972,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60001,7 +59998,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60027,7 +60024,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60053,7 +60050,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2161" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60079,7 +60076,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60105,7 +60102,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2163" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60131,7 +60128,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60157,7 +60154,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2165" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60183,7 +60180,7 @@
         <v>16.5</v>
       </c>
       <c r="G2166" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60209,7 +60206,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2167" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60235,7 +60232,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60261,7 +60258,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2169" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60287,7 +60284,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G2170" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60313,7 +60310,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60339,7 +60336,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60365,7 +60362,7 @@
         <v>16.25</v>
       </c>
       <c r="G2173" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60391,7 +60388,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -60417,7 +60414,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2175" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -60443,7 +60440,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G2176" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -60469,7 +60466,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -60495,7 +60492,7 @@
         <v>17.25</v>
       </c>
       <c r="G2178" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -60521,7 +60518,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G2179" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -60547,7 +60544,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G2180" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -60555,7 +60552,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6493981481</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>5775</v>
@@ -60573,9 +60570,35 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6494444444</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>8240</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>18.9500007629395</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>17.5499992370605</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -44,25 +44,25 @@
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81509780883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65908050537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69808483123779</t>
+    <t xml:space="preserve">8.95551681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81509876251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65907955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69808387756348</t>
   </si>
   <si>
     <t xml:space="preserve">8.64347743988037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58106994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47965812683105</t>
+    <t xml:space="preserve">8.58106899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">8.19102096557617</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">7.82437562942505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96479177474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92578792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280376434326</t>
+    <t xml:space="preserve">7.96479225158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9257869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280185699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.05840492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07400703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20662212371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798734664917</t>
+    <t xml:space="preserve">8.07400608062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20662403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798639297485</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521030426025</t>
@@ -101,55 +101,55 @@
     <t xml:space="preserve">8.02720069885254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95699071884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8009729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6293511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83997869491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898349761963</t>
+    <t xml:space="preserve">7.95699167251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005847930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898302078247</t>
   </si>
   <si>
     <t xml:space="preserve">8.12861347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40164852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285083770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26903057098389</t>
+    <t xml:space="preserve">8.40164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2690315246582</t>
   </si>
   <si>
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3470401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002624511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541885375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30023574829102</t>
+    <t xml:space="preserve">8.34703922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3002347946167</t>
   </si>
   <si>
     <t xml:space="preserve">8.3548412322998</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">8.30803489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683162689209</t>
+    <t xml:space="preserve">8.27683258056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.21442317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24562740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2534294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641452789307</t>
+    <t xml:space="preserve">8.24562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25342845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641548156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.12081241607666</t>
@@ -182,40 +182,40 @@
     <t xml:space="preserve">8.03500175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94919204711914</t>
+    <t xml:space="preserve">7.94919109344482</t>
   </si>
   <si>
     <t xml:space="preserve">8.01939964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97259521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93358945846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8087739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94139051437378</t>
+    <t xml:space="preserve">7.97259473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93358898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877256393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94138956069946</t>
   </si>
   <si>
     <t xml:space="preserve">7.86337995529175</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00379753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05060386657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7619686126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599742889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78537082672119</t>
+    <t xml:space="preserve">8.00379848480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76196718215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.76586818695068</t>
@@ -224,43 +224,43 @@
     <t xml:space="preserve">7.72686243057251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7970724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89458465576172</t>
+    <t xml:space="preserve">7.79707384109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366924285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458560943604</t>
   </si>
   <si>
     <t xml:space="preserve">7.71906232833862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67615604400635</t>
+    <t xml:space="preserve">7.67615842819214</t>
   </si>
   <si>
     <t xml:space="preserve">7.6605544090271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60594797134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56694316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557416915894</t>
+    <t xml:space="preserve">7.60594892501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56694364547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557512283325</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081123352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0534029006958</t>
+    <t xml:space="preserve">8.05340480804443</t>
   </si>
   <si>
     <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1190128326416</t>
+    <t xml:space="preserve">8.11901187896729</t>
   </si>
   <si>
     <t xml:space="preserve">8.1682186126709</t>
@@ -269,82 +269,82 @@
     <t xml:space="preserve">8.00009822845459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88118171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98779439926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097080230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954336166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19639730453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3563175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996614456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494142532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975618362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515329360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372489929199</t>
+    <t xml:space="preserve">7.8811821937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98779535293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197593688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097127914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954431533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631704330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996662139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54494047164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54904174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63515281677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65565490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372442245483</t>
   </si>
   <si>
     <t xml:space="preserve">7.47113084793091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38092041015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012762069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3850212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48753356933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46293115615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393629074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523212432861</t>
+    <t xml:space="preserve">7.38092088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012714385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4875340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46293020248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4752311706543</t>
   </si>
   <si>
     <t xml:space="preserve">7.53263902664185</t>
@@ -356,43 +356,43 @@
     <t xml:space="preserve">7.46703052520752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50803565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49163341522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60234880447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962362289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38912057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45883083343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56134271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594560623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774543762207</t>
+    <t xml:space="preserve">7.5080361366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49163389205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6023473739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5285382270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40962409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38912153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45882987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623582839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56134366989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774353027344</t>
   </si>
   <si>
     <t xml:space="preserve">7.52443790435791</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">7.372718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27840805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21689987182617</t>
+    <t xml:space="preserve">7.27840709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21690034866333</t>
   </si>
   <si>
     <t xml:space="preserve">7.20459842681885</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">7.41782522201538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43832683563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171319961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401559829712</t>
+    <t xml:space="preserve">7.43832731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171224594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401512145996</t>
   </si>
   <si>
     <t xml:space="preserve">7.29891014099121</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">7.33991479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36041736602783</t>
+    <t xml:space="preserve">7.36041784286499</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761335372925</t>
@@ -452,43 +452,43 @@
     <t xml:space="preserve">7.31941318511963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30711126327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589426040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150323867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192602157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74176454544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599647521973</t>
+    <t xml:space="preserve">7.30711030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121253967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589521408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409538269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869970321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229745864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74176502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9959979057312</t>
   </si>
   <si>
     <t xml:space="preserve">8.09850978851318</t>
@@ -500,46 +500,46 @@
     <t xml:space="preserve">8.3650426864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52906227111816</t>
+    <t xml:space="preserve">8.52906322479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.48805809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40604877471924</t>
+    <t xml:space="preserve">8.40604782104492</t>
   </si>
   <si>
     <t xml:space="preserve">8.5208625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38144493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705295562744</t>
+    <t xml:space="preserve">8.38144588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705390930176</t>
   </si>
   <si>
     <t xml:space="preserve">8.49625968933105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65207862854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88990783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89811038970947</t>
+    <t xml:space="preserve">8.65207767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88990879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89810943603516</t>
   </si>
   <si>
     <t xml:space="preserve">8.75869274139404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72588920593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75049018859863</t>
+    <t xml:space="preserve">8.6848840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7258882522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75049114227295</t>
   </si>
   <si>
     <t xml:space="preserve">8.7750940322876</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">8.73408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58647060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50446128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62747478485107</t>
+    <t xml:space="preserve">8.58647155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50446033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62747669219971</t>
   </si>
   <si>
     <t xml:space="preserve">8.54546546936035</t>
@@ -569,34 +569,34 @@
     <t xml:space="preserve">8.67668151855469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63567543029785</t>
+    <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
     <t xml:space="preserve">8.69308376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66028022766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66847991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79149532318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96371746063232</t>
+    <t xml:space="preserve">8.66027927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66848087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79149627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96371650695801</t>
   </si>
   <si>
     <t xml:space="preserve">9.08673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435211181641</t>
+    <t xml:space="preserve">9.23435020446777</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736751556396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59519672393799</t>
+    <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
     <t xml:space="preserve">9.66900539398193</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">9.62800121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52138710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55419158935547</t>
+    <t xml:space="preserve">9.52138614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55419063568115</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159896850586</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">9.66080474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73461437225342</t>
+    <t xml:space="preserve">9.73461246490479</t>
   </si>
   <si>
     <t xml:space="preserve">9.92323780059814</t>
@@ -626,31 +626,31 @@
     <t xml:space="preserve">10.0544538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1282625198364</t>
+    <t xml:space="preserve">10.1282634735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.6203241348267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8909568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663549423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941328048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6613283157349</t>
+    <t xml:space="preserve">10.8909587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6613292694092</t>
   </si>
   <si>
     <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4809083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4070987701416</t>
+    <t xml:space="preserve">10.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.407096862793</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973087310791</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">10.4481029510498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5793199539185</t>
+    <t xml:space="preserve">10.5793180465698</t>
   </si>
   <si>
     <t xml:space="preserve">10.5137100219727</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">10.5875196456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4645051956177</t>
+    <t xml:space="preserve">10.4645042419434</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055103302002</t>
@@ -680,31 +680,31 @@
     <t xml:space="preserve">10.4152984619141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9073600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8253488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7187356948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1533908843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858154296875</t>
+    <t xml:space="preserve">10.90735912323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8253498077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1533918380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8581523895264</t>
   </si>
   <si>
     <t xml:space="preserve">10.9729681015015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0549793243408</t>
+    <t xml:space="preserve">11.0549764633179</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057735443115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4404258728027</t>
+    <t xml:space="preserve">11.4404268264771</t>
   </si>
   <si>
     <t xml:space="preserve">11.3092098236084</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">12.5311622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3835458755493</t>
+    <t xml:space="preserve">12.383544921875</t>
   </si>
   <si>
     <t xml:space="preserve">12.5229625701904</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">12.145715713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1375131607056</t>
+    <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443885803223</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">13.0314245223999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1708421707153</t>
+    <t xml:space="preserve">13.170841217041</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364501953125</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">12.9609966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1469993591309</t>
+    <t xml:space="preserve">13.1470003128052</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499116897583</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">13.3160924911499</t>
   </si>
   <si>
-    <t xml:space="preserve">13.42600440979</t>
+    <t xml:space="preserve">13.4260034561157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3752746582031</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3076391220093</t>
+    <t xml:space="preserve">13.307638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385450363159</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9718008041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3099889755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2423505783081</t>
+    <t xml:space="preserve">11.9718017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3099880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2423496246338</t>
   </si>
   <si>
     <t xml:space="preserve">12.3776264190674</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677164077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6059007644653</t>
+    <t xml:space="preserve">12.2677145004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059017181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.4706268310547</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">12.3438081741333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210739135742</t>
+    <t xml:space="preserve">12.1747121810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210748672485</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056200027466</t>
@@ -827,55 +827,55 @@
     <t xml:space="preserve">12.039439201355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2592601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607149124146</t>
+    <t xml:space="preserve">12.2592611312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607168197632</t>
   </si>
   <si>
     <t xml:space="preserve">12.5636281967163</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6397199630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5467176437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073574066162</t>
+    <t xml:space="preserve">12.6397190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5467185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073564529419</t>
   </si>
   <si>
     <t xml:space="preserve">12.6143560409546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6819944381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650829315186</t>
+    <t xml:space="preserve">12.6819934844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650838851929</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228113174438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7327213287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933591842651</t>
+    <t xml:space="preserve">12.732720375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933610916138</t>
   </si>
   <si>
     <t xml:space="preserve">12.9356327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513683319092</t>
+    <t xml:space="preserve">13.4513664245605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822751998901</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4006395339966</t>
+    <t xml:space="preserve">13.4006385803223</t>
   </si>
   <si>
     <t xml:space="preserve">13.519003868103</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">13.4598226547241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3583660125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2315454483032</t>
+    <t xml:space="preserve">13.3583669662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2315473556519</t>
   </si>
   <si>
     <t xml:space="preserve">13.2738199234009</t>
@@ -896,46 +896,46 @@
     <t xml:space="preserve">13.4936408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7810983657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2207412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.474383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420198440552</t>
+    <t xml:space="preserve">13.781099319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.220742225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4743824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420188903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3560152053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758371353149</t>
+    <t xml:space="preserve">14.3560161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758390426636</t>
   </si>
   <si>
     <t xml:space="preserve">14.7364749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111129760742</t>
+    <t xml:space="preserve">14.7111120223999</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.353666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201288223267</t>
+    <t xml:space="preserve">15.3536653518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.920129776001</t>
   </si>
   <si>
     <t xml:space="preserve">15.8947639465332</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145858764648</t>
+    <t xml:space="preserve">16.1145877838135</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4865913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1230411529541</t>
+    <t xml:space="preserve">16.4865894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1230392456055</t>
   </si>
   <si>
     <t xml:space="preserve">16.6303215026855</t>
@@ -968,28 +968,28 @@
     <t xml:space="preserve">16.9008693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4335174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0929756164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7125148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7862567901611</t>
+    <t xml:space="preserve">17.4335136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0929775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.712516784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7862606048584</t>
   </si>
   <si>
     <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608985900879</t>
+    <t xml:space="preserve">18.7270774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608966827393</t>
   </si>
   <si>
     <t xml:space="preserve">18.8369884490967</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">19.1329002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8792629241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8708057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9407939910889</t>
+    <t xml:space="preserve">18.8792610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8708038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.617166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9407920837402</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.797061920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.534969329834</t>
+    <t xml:space="preserve">17.6702442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5349674224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463359832764</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">17.5265159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4419689178467</t>
+    <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2475090026855</t>
+    <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
     <t xml:space="preserve">17.5772438049316</t>
@@ -1052,49 +1052,49 @@
     <t xml:space="preserve">17.6279697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434246063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5856952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8055152893066</t>
+    <t xml:space="preserve">17.5434265136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5856971740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8055171966553</t>
   </si>
   <si>
     <t xml:space="preserve">17.7378807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8393363952637</t>
+    <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9384441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8092746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4372673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4710903167725</t>
+    <t xml:space="preserve">18.9384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5979061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4372692108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611793518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4710865020752</t>
   </si>
   <si>
     <t xml:space="preserve">19.4457244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3189029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229873657227</t>
+    <t xml:space="preserve">19.318904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229892730713</t>
   </si>
   <si>
     <t xml:space="preserve">19.3442668914795</t>
@@ -1103,40 +1103,40 @@
     <t xml:space="preserve">18.929988861084</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9215354919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.183629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2282524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5687885284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1206893920898</t>
+    <t xml:space="preserve">18.9215335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.22825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.0361423492432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.002326965332</t>
+    <t xml:space="preserve">16.7402324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
     <t xml:space="preserve">16.9177799224854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.83323097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585987091064</t>
+    <t xml:space="preserve">17.0192337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585968017578</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093246459961</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">17.3320560455322</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515953063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233200073242</t>
+    <t xml:space="preserve">16.9515972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233219146729</t>
   </si>
   <si>
     <t xml:space="preserve">16.571138381958</t>
@@ -1160,127 +1160,127 @@
     <t xml:space="preserve">16.9938716888428</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6556835174561</t>
+    <t xml:space="preserve">16.6556873321533</t>
   </si>
   <si>
     <t xml:space="preserve">16.5373191833496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7764015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7787485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3898372650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720315933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.793309211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.996223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1484031677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5227603912354</t>
+    <t xml:space="preserve">15.7764005661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565786361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7787494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3898363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933082580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9962205886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1484050750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.522762298584</t>
   </si>
   <si>
     <t xml:space="preserve">15.1676654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9647541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618408203125</t>
+    <t xml:space="preserve">14.9647512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6096563339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574718475342</t>
+    <t xml:space="preserve">14.609658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574728012085</t>
   </si>
   <si>
     <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802051544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2183923721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198499679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874845504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382133483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705768585205</t>
+    <t xml:space="preserve">14.8802070617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2183933258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198480606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3029413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382123947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396680831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705749511719</t>
   </si>
   <si>
     <t xml:space="preserve">14.829478263855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903959274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0492973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5058498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.488938331604</t>
+    <t xml:space="preserve">15.5903949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5058517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889392852783</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073055267334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6411237716675</t>
+    <t xml:space="preserve">15.6411247253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4358615875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5542297363281</t>
+    <t xml:space="preserve">16.351318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.435863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5542278289795</t>
   </si>
   <si>
     <t xml:space="preserve">16.3005886077881</t>
@@ -1289,28 +1289,28 @@
     <t xml:space="preserve">16.3344078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.317497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2160415649414</t>
+    <t xml:space="preserve">16.3174953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.21604347229</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5825576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173810958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437185287476</t>
+    <t xml:space="preserve">15.582555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437175750732</t>
   </si>
   <si>
     <t xml:space="preserve">15.8263072967529</t>
@@ -1325,61 +1325,61 @@
     <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1048755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874691009521</t>
+    <t xml:space="preserve">16.191930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1048793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874671936035</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178260803223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7740774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044324874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9209508895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8513088226318</t>
+    <t xml:space="preserve">15.7740755081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696119308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9209518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8513097763062</t>
   </si>
   <si>
     <t xml:space="preserve">14.8164892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0254163742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298818588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9285440444946</t>
+    <t xml:space="preserve">15.0254173278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9731845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9285430908203</t>
   </si>
   <si>
     <t xml:space="preserve">14.0155973434448</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7544364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633665084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.74684715271</t>
+    <t xml:space="preserve">13.7544374465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7468461990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459533691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504179000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1026496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8414897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6673831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7022047042847</t>
+    <t xml:space="preserve">13.9459552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1026515960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8414888381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.667384147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7022037506104</t>
   </si>
   <si>
     <t xml:space="preserve">13.7370262145996</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539905548096</t>
+    <t xml:space="preserve">13.3539915084839</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.058009147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4062223434448</t>
+    <t xml:space="preserve">13.0580101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4062232971191</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">12.6227426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5531005859375</t>
+    <t xml:space="preserve">12.5530996322632</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486360549927</t>
+    <t xml:space="preserve">12.4486351013184</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133695602417</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">13.7718477249146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.266939163208</t>
+    <t xml:space="preserve">13.8066682815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2669372558594</t>
   </si>
   <si>
     <t xml:space="preserve">13.8763113021851</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">13.4932765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3017597198486</t>
+    <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
     <t xml:space="preserve">13.1276521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3714017868042</t>
+    <t xml:space="preserve">13.3714008331299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830116271973</t>
+    <t xml:space="preserve">12.0830125808716</t>
   </si>
   <si>
     <t xml:space="preserve">12.0656003952026</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">11.5084600448608</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4736394882202</t>
+    <t xml:space="preserve">11.4736375808716</t>
   </si>
   <si>
     <t xml:space="preserve">11.3865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1776561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3517637252808</t>
+    <t xml:space="preserve">11.1776571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3517627716064</t>
   </si>
   <si>
     <t xml:space="preserve">11.403995513916</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">12.1700639724731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8490810394287</t>
+    <t xml:space="preserve">12.849081993103</t>
   </si>
   <si>
     <t xml:space="preserve">11.9089050292969</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5606908798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.612922668457</t>
+    <t xml:space="preserve">11.5606918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218517303467</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">12.7097969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8839015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3964042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.257119178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3441715240479</t>
+    <t xml:space="preserve">12.8839025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3964033126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2571182250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3441724777222</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">12.7272062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4834566116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053314208984</t>
+    <t xml:space="preserve">12.4834575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053304672241</t>
   </si>
   <si>
     <t xml:space="preserve">12.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8664922714233</t>
+    <t xml:space="preserve">12.866491317749</t>
   </si>
   <si>
     <t xml:space="preserve">12.8142604827881</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147064208984</t>
+    <t xml:space="preserve">13.2147054672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.3888120651245</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">13.4584560394287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4758653640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7196159362793</t>
+    <t xml:space="preserve">13.475866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.719614982605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2321157455444</t>
@@ -1604,55 +1604,55 @@
     <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1450643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1972942352295</t>
+    <t xml:space="preserve">13.1450634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1972961425781</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.284348487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5106868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405969619751</t>
+    <t xml:space="preserve">13.2843475341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.510687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405988693237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4410438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4236345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9111318588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1548824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638095855713</t>
+    <t xml:space="preserve">13.4236326217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1548833847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638105392456</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9807758331299</t>
+    <t xml:space="preserve">13.9807748794556</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722946166992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2593450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8937225341797</t>
+    <t xml:space="preserve">14.2593460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.893723487854</t>
   </si>
   <si>
     <t xml:space="preserve">13.5629186630249</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">13.6151523590088</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9883670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470941543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661211013794</t>
+    <t xml:space="preserve">12.9883680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661220550537</t>
   </si>
   <si>
     <t xml:space="preserve">12.8489561080933</t>
@@ -1685,34 +1685,34 @@
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946653366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7765674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8127613067627</t>
+    <t xml:space="preserve">12.7946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7765693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.812762260437</t>
   </si>
   <si>
     <t xml:space="preserve">12.5955972671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0118293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9394426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6136932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">13.011830329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9756364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9394416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232076644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385107040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8851518630981</t>
+    <t xml:space="preserve">13.1385116577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8851499557495</t>
   </si>
   <si>
     <t xml:space="preserve">13.1204137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0299282073975</t>
+    <t xml:space="preserve">13.0299272537231</t>
   </si>
   <si>
     <t xml:space="preserve">13.3737726211548</t>
@@ -1748,25 +1748,25 @@
     <t xml:space="preserve">13.4461612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2832880020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1928014755249</t>
+    <t xml:space="preserve">13.2832889556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1928024291992</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918695449829</t>
+    <t xml:space="preserve">13.3918704986572</t>
   </si>
   <si>
     <t xml:space="preserve">12.6317911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5051116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793632507324</t>
+    <t xml:space="preserve">12.5051107406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793642044067</t>
   </si>
   <si>
     <t xml:space="preserve">12.7222776412964</t>
@@ -1775,25 +1775,25 @@
     <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1250715255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4689168930054</t>
+    <t xml:space="preserve">12.125072479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4689159393311</t>
   </si>
   <si>
     <t xml:space="preserve">12.5413055419922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5774993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2517518997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3060445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.414626121521</t>
+    <t xml:space="preserve">12.5774984359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3060426712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4146251678467</t>
   </si>
   <si>
     <t xml:space="preserve">12.2879457473755</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3422374725342</t>
+    <t xml:space="preserve">12.2336549758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3422384262085</t>
   </si>
   <si>
     <t xml:space="preserve">12.1069746017456</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.763129234314</t>
+    <t xml:space="preserve">11.7631301879883</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
@@ -1832,31 +1832,31 @@
     <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364488601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3649930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.473575592041</t>
+    <t xml:space="preserve">11.6364479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3649921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735746383667</t>
   </si>
   <si>
     <t xml:space="preserve">11.3107013702393</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2926034927368</t>
+    <t xml:space="preserve">11.2926044464111</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011878967285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2564096450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0392446517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211477279663</t>
+    <t xml:space="preserve">11.2564086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0392427444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0211486816406</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0754384994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021188735962</t>
+    <t xml:space="preserve">11.075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021179199219</t>
   </si>
   <si>
     <t xml:space="preserve">11.6002550125122</t>
@@ -1880,25 +1880,25 @@
     <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4916715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4192838668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.274507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4554777145386</t>
+    <t xml:space="preserve">11.4916725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.419282913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2745065689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4554786682129</t>
   </si>
   <si>
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.22021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383127212524</t>
+    <t xml:space="preserve">11.2202157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383136749268</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830900192261</t>
@@ -1910,22 +1910,22 @@
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965272903442</t>
+    <t xml:space="preserve">12.4508209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965291976929</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784313201904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698488235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7403736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5594024658203</t>
+    <t xml:space="preserve">12.2698497772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7403726577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5594034194946</t>
   </si>
   <si>
     <t xml:space="preserve">12.4327220916748</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0345859527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.92600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1431694030762</t>
+    <t xml:space="preserve">12.0345869064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9260034561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1431684494019</t>
   </si>
   <si>
     <t xml:space="preserve">12.6679859161377</t>
@@ -1958,55 +1958,55 @@
     <t xml:space="preserve">12.0526828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1297292709351</t>
+    <t xml:space="preserve">11.1297302246094</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86293029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33811473846436</t>
+    <t xml:space="preserve">9.8629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33811569213867</t>
   </si>
   <si>
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564765930176</t>
+    <t xml:space="preserve">8.50564670562744</t>
   </si>
   <si>
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86758899688721</t>
+    <t xml:space="preserve">8.78615188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86758995056152</t>
   </si>
   <si>
     <t xml:space="preserve">8.82234668731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64137649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65042495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48755073547363</t>
+    <t xml:space="preserve">8.64137554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48754978179932</t>
   </si>
   <si>
     <t xml:space="preserve">8.71376419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61423110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7409086227417</t>
+    <t xml:space="preserve">8.61423015594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74091053009033</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">9.13904762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32001686096191</t>
+    <t xml:space="preserve">9.32001781463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.09380340576172</t>
@@ -2033,34 +2033,34 @@
     <t xml:space="preserve">9.04856109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18428993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54623222351074</t>
+    <t xml:space="preserve">9.18428897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54623126983643</t>
   </si>
   <si>
     <t xml:space="preserve">9.41050338745117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5009880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59147548675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77244663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0439033508301</t>
+    <t xml:space="preserve">9.50098896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59147453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77244567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0439023971558</t>
   </si>
   <si>
     <t xml:space="preserve">9.95341682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68195915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22953128814697</t>
+    <t xml:space="preserve">9.681960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22953224182129</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
@@ -2069,34 +2069,34 @@
     <t xml:space="preserve">8.8494930267334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93997859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90378379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72720241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248735427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4058456420898</t>
+    <t xml:space="preserve">8.93997764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90378475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22487449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4058446884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.4963312149048</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3153591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2701177597046</t>
+    <t xml:space="preserve">10.3153581619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2701168060303</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606014251709</t>
+    <t xml:space="preserve">10.3606033325195</t>
   </si>
   <si>
     <t xml:space="preserve">10.0891456604004</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">10.1343879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99866008758545</t>
+    <t xml:space="preserve">9.99866104125977</t>
   </si>
   <si>
     <t xml:space="preserve">9.90817451477051</t>
@@ -2114,10 +2114,10 @@
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773023605347</t>
+    <t xml:space="preserve">10.5868158340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773014068604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9487590789795</t>
@@ -2126,25 +2126,25 @@
     <t xml:space="preserve">11.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4464302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1749725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9035167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8130311965942</t>
+    <t xml:space="preserve">11.4464292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.174973487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9035158157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8130302429199</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677869796753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.722544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274003982544</t>
+    <t xml:space="preserve">10.7225456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274013519287</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
@@ -2156,13 +2156,13 @@
     <t xml:space="preserve">12.4870147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5322580337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801044464111</t>
+    <t xml:space="preserve">12.5322570800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9904432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801054000854</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
@@ -2171,28 +2171,28 @@
     <t xml:space="preserve">12.1553440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9233713150024</t>
+    <t xml:space="preserve">11.9233722686768</t>
   </si>
   <si>
     <t xml:space="preserve">11.6450042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8769769668579</t>
+    <t xml:space="preserve">11.8769760131836</t>
   </si>
   <si>
     <t xml:space="preserve">12.062554359436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6913995742798</t>
+    <t xml:space="preserve">11.6914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.949089050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4594268798828</t>
+    <t xml:space="preserve">10.9490880966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4594278335571</t>
   </si>
   <si>
     <t xml:space="preserve">11.3202428817749</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">12.3873157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6656818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120761871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8048648834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3409214019775</t>
+    <t xml:space="preserve">12.6656808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120771408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8048658370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3409204483032</t>
   </si>
   <si>
     <t xml:space="preserve">12.619288444519</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647264480591</t>
+    <t xml:space="preserve">13.9647274017334</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
@@ -2258,52 +2258,52 @@
     <t xml:space="preserve">14.3358821868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">13.9183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503047943115</t>
+    <t xml:space="preserve">14.1503038406372</t>
   </si>
   <si>
     <t xml:space="preserve">14.4286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2173757553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3565578460693</t>
+    <t xml:space="preserve">15.2173767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3565607070923</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.681321144104</t>
+    <t xml:space="preserve">15.6813220977783</t>
   </si>
   <si>
     <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9854030609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741098403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4700260162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4236335754395</t>
+    <t xml:space="preserve">14.9854049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781927108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.470027923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4236316680908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7019996643066</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834922790527</t>
+    <t xml:space="preserve">17.5834941864014</t>
   </si>
   <si>
     <t xml:space="preserve">17.8618583679199</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649887084961</t>
+    <t xml:space="preserve">18.4649868011475</t>
   </si>
   <si>
     <t xml:space="preserve">18.5113830566406</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">18.7433547973633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8361415863037</t>
+    <t xml:space="preserve">18.8361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1145095825195</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">17.3515205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0217208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2794094085693</t>
+    <t xml:space="preserve">19.0217189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.279411315918</t>
   </si>
   <si>
     <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6505661010742</t>
+    <t xml:space="preserve">18.6505641937256</t>
   </si>
   <si>
     <t xml:space="preserve">19.7640323638916</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">21.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8053855895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6198101043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8981781005859</t>
+    <t xml:space="preserve">21.8053874969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6198081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8981761932373</t>
   </si>
   <si>
     <t xml:space="preserve">20.877498626709</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">20.7847099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5991325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0630779266357</t>
+    <t xml:space="preserve">20.5991306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0630760192871</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.413553237915</t>
+    <t xml:space="preserve">20.4135551452637</t>
   </si>
   <si>
     <t xml:space="preserve">19.6712417602539</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">21.5270195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2486515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1765422821045</t>
+    <t xml:space="preserve">21.2486534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693328857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1765403747559</t>
   </si>
   <si>
     <t xml:space="preserve">23.1972198486328</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188537597656</t>
+    <t xml:space="preserve">22.9188556671143</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404857635498</t>
@@ -60668,7 +60668,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6495138889</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>1553</v>
@@ -60689,6 +60689,32 @@
         <v>1175</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6494791667</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>2272</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>17.8500003814697</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90091037750244</t>
+    <t xml:space="preserve">8.90090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551681518555</t>
+    <t xml:space="preserve">8.95551586151123</t>
   </si>
   <si>
     <t xml:space="preserve">8.81509876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65907955169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69808387756348</t>
+    <t xml:space="preserve">8.65907859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69808483123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.64347743988037</t>
@@ -65,61 +65,61 @@
     <t xml:space="preserve">8.47965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19102096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437562942505</t>
+    <t xml:space="preserve">8.19102191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437467575073</t>
   </si>
   <si>
     <t xml:space="preserve">7.96479225158691</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9257869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04280185699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05840492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400608062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20662403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91798639297485</t>
+    <t xml:space="preserve">7.92578792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04280281066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05840396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91798734664917</t>
   </si>
   <si>
     <t xml:space="preserve">8.10521030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02720069885254</t>
+    <t xml:space="preserve">8.02719974517822</t>
   </si>
   <si>
     <t xml:space="preserve">7.95699167251587</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80097198486328</t>
+    <t xml:space="preserve">7.8009729385376</t>
   </si>
   <si>
     <t xml:space="preserve">7.62935066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83997821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861347198486</t>
+    <t xml:space="preserve">7.8399772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861442565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.40164756774902</t>
@@ -134,40 +134,40 @@
     <t xml:space="preserve">8.37824440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34703922271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17541790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11301231384277</t>
+    <t xml:space="preserve">8.34704113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17541885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11301136016846</t>
   </si>
   <si>
     <t xml:space="preserve">8.3002347946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3548412322998</t>
+    <t xml:space="preserve">8.35484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">8.30803489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24562835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882202148438</t>
+    <t xml:space="preserve">8.27683353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24562644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882106781006</t>
   </si>
   <si>
     <t xml:space="preserve">8.25342845916748</t>
@@ -176,82 +176,82 @@
     <t xml:space="preserve">8.13641548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12081241607666</t>
+    <t xml:space="preserve">8.12081050872803</t>
   </si>
   <si>
     <t xml:space="preserve">8.03500175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94919109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01939964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97259473800659</t>
+    <t xml:space="preserve">7.94919013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01940059661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97259378433228</t>
   </si>
   <si>
     <t xml:space="preserve">7.93358898162842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80877256393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94138956069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86337995529175</t>
+    <t xml:space="preserve">7.80877351760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9413914680481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86338090896606</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05060291290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76196718215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599695205688</t>
+    <t xml:space="preserve">8.05060386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7619686126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599885940552</t>
   </si>
   <si>
     <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76586818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707384109497</t>
+    <t xml:space="preserve">7.76586723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707288742065</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89458560943604</t>
+    <t xml:space="preserve">7.8945837020874</t>
   </si>
   <si>
     <t xml:space="preserve">7.71906232833862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67615842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6605544090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60594892501831</t>
+    <t xml:space="preserve">7.67615747451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055536270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60594797134399</t>
   </si>
   <si>
     <t xml:space="preserve">7.56694364547729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81557512283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081123352051</t>
+    <t xml:space="preserve">7.81557416915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11081027984619</t>
   </si>
   <si>
     <t xml:space="preserve">8.05340480804443</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">8.06160545349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11901187896729</t>
+    <t xml:space="preserve">8.1190128326416</t>
   </si>
   <si>
     <t xml:space="preserve">8.1682186126709</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">7.79097127914429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56954431533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35631704330444</t>
+    <t xml:space="preserve">7.56954383850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1963963508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3563175201416</t>
   </si>
   <si>
     <t xml:space="preserve">7.51213693618774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74996662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54494047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65975475311279</t>
+    <t xml:space="preserve">7.74996566772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54493999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65975570678711</t>
   </si>
   <si>
     <t xml:space="preserve">7.54904174804688</t>
@@ -311,100 +311,100 @@
     <t xml:space="preserve">7.63515281677246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76226711273193</t>
+    <t xml:space="preserve">7.76226758956909</t>
   </si>
   <si>
     <t xml:space="preserve">7.65565490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66795682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41372442245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47113084793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38092088699341</t>
+    <t xml:space="preserve">7.66795587539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41372489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47113037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38092041015625</t>
   </si>
   <si>
     <t xml:space="preserve">7.43012714385986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38502025604248</t>
+    <t xml:space="preserve">7.3850212097168</t>
   </si>
   <si>
     <t xml:space="preserve">7.4875340461731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46293020248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4752311706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53263902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47933292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703052520752</t>
+    <t xml:space="preserve">7.46292972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523164749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53264093399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.479332447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703004837036</t>
   </si>
   <si>
     <t xml:space="preserve">7.5080361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49163389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6023473739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5285382270813</t>
+    <t xml:space="preserve">7.49163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60234785079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853918075562</t>
   </si>
   <si>
     <t xml:space="preserve">7.40962409973145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38912153244019</t>
+    <t xml:space="preserve">7.38912200927734</t>
   </si>
   <si>
     <t xml:space="preserve">7.45882987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51623582839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56134366989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58594512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39732217788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.372718334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27840709686279</t>
+    <t xml:space="preserve">7.51623725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56134271621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58594560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774543762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443838119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39732265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37271928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27840757369995</t>
   </si>
   <si>
     <t xml:space="preserve">7.21690034866333</t>
@@ -413,31 +413,31 @@
     <t xml:space="preserve">7.20459842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37682056427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43422746658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782522201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832731246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171224594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29891014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32351303100586</t>
+    <t xml:space="preserve">7.3768196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43422698974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890966415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32351350784302</t>
   </si>
   <si>
     <t xml:space="preserve">7.33991479873657</t>
@@ -446,70 +446,70 @@
     <t xml:space="preserve">7.36041784286499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32761335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31941318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30711030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31121253967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589521408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18409538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20869970321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229745864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21279811859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24150228500366</t>
+    <t xml:space="preserve">7.32761430740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31941270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3071117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31121110916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45472955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589426040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18409633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20869874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21279907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24150276184082</t>
   </si>
   <si>
     <t xml:space="preserve">7.42192554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74176502227783</t>
+    <t xml:space="preserve">7.74176454544067</t>
   </si>
   <si>
     <t xml:space="preserve">7.9959979057312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09850978851318</t>
+    <t xml:space="preserve">8.0985107421875</t>
   </si>
   <si>
     <t xml:space="preserve">8.23382759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3650426864624</t>
+    <t xml:space="preserve">8.36504173278809</t>
   </si>
   <si>
     <t xml:space="preserve">8.52906322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48805809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5208625793457</t>
+    <t xml:space="preserve">8.48805904388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52086353302002</t>
   </si>
   <si>
     <t xml:space="preserve">8.38144588470459</t>
@@ -518,37 +518,37 @@
     <t xml:space="preserve">8.44705390930176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65207767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88990879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89810943603516</t>
+    <t xml:space="preserve">8.49625873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65207958221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88990783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89811038970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.75869274139404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6848840713501</t>
+    <t xml:space="preserve">8.68488311767578</t>
   </si>
   <si>
     <t xml:space="preserve">8.7258882522583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75049114227295</t>
+    <t xml:space="preserve">8.75049018859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.7750940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73408794403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58647155761719</t>
+    <t xml:space="preserve">8.73408889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58647060394287</t>
   </si>
   <si>
     <t xml:space="preserve">8.50446033477783</t>
@@ -557,40 +557,40 @@
     <t xml:space="preserve">8.62747669219971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54546546936035</t>
+    <t xml:space="preserve">8.54546451568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.61107349395752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57826995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67668151855469</t>
+    <t xml:space="preserve">8.57826900482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.676682472229</t>
   </si>
   <si>
     <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69308376312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66027927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66848087310791</t>
+    <t xml:space="preserve">8.69308471679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66028022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66847991943359</t>
   </si>
   <si>
     <t xml:space="preserve">8.79149627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371650695801</t>
+    <t xml:space="preserve">8.96371841430664</t>
   </si>
   <si>
     <t xml:space="preserve">9.08673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435020446777</t>
+    <t xml:space="preserve">9.23435211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.35736751556396</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66900539398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62800121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52138614654541</t>
+    <t xml:space="preserve">9.66900444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62800025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.55419063568115</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">9.61159896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66080474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73461246490479</t>
+    <t xml:space="preserve">9.66080284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73461437225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.92323780059814</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">10.1282634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6203241348267</t>
+    <t xml:space="preserve">10.620325088501</t>
   </si>
   <si>
     <t xml:space="preserve">10.8909587860107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8663539886475</t>
+    <t xml:space="preserve">10.8663549423218</t>
   </si>
   <si>
     <t xml:space="preserve">10.6941337585449</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">10.6613292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5465145111084</t>
+    <t xml:space="preserve">10.5465154647827</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407096862793</t>
+    <t xml:space="preserve">10.4070978164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629177093506</t>
+    <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.4481029510498</t>
@@ -671,28 +671,28 @@
     <t xml:space="preserve">10.5875196456909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4645042419434</t>
+    <t xml:space="preserve">10.4645051956177</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4152984619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.90735912323</t>
+    <t xml:space="preserve">10.4152994155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9073610305786</t>
   </si>
   <si>
     <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7187366485596</t>
+    <t xml:space="preserve">10.7187356948853</t>
   </si>
   <si>
     <t xml:space="preserve">11.1533918380737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581523895264</t>
+    <t xml:space="preserve">10.858154296875</t>
   </si>
   <si>
     <t xml:space="preserve">10.9729681015015</t>
@@ -701,52 +701,52 @@
     <t xml:space="preserve">11.0549764633179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0057735443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4404268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092098236084</t>
+    <t xml:space="preserve">11.0057725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4404249191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092107772827</t>
   </si>
   <si>
     <t xml:space="preserve">11.7848691940308</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.383544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5229625701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.145715713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375141143799</t>
+    <t xml:space="preserve">12.5311632156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3835439682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5229606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375131607056</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443885803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.121636390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314245223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170841217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9609966278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470003128052</t>
+    <t xml:space="preserve">13.1216354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1708421707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9609975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470012664795</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499116897583</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">13.3160924911499</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4260034561157</t>
+    <t xml:space="preserve">13.42600440979</t>
   </si>
   <si>
     <t xml:space="preserve">13.3752746582031</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">13.4429121017456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.307638168335</t>
+    <t xml:space="preserve">13.3076391220093</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9718017578125</t>
+    <t xml:space="preserve">13.3245487213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9718008041382</t>
   </si>
   <si>
     <t xml:space="preserve">12.3099880218506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423496246338</t>
+    <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3776264190674</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6059017181396</t>
+    <t xml:space="preserve">12.2677154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6059007644653</t>
   </si>
   <si>
     <t xml:space="preserve">12.4706268310547</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">12.4537181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512900352478</t>
+    <t xml:space="preserve">12.5128993988037</t>
   </si>
   <si>
     <t xml:space="preserve">12.5551748275757</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3438081741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1747121810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9210748672485</t>
+    <t xml:space="preserve">12.343807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">12.0056200027466</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">12.039439201355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2592611312866</t>
+    <t xml:space="preserve">12.2592601776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607168197632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5636281967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6397190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5467185974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073564529419</t>
+    <t xml:space="preserve">12.563627243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6397199630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5467195510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073583602905</t>
   </si>
   <si>
     <t xml:space="preserve">12.6143560409546</t>
@@ -851,97 +851,97 @@
     <t xml:space="preserve">12.6819934844971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650838851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228113174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.732720375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933610916138</t>
+    <t xml:space="preserve">12.6650829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228094100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327222824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510866165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
     <t xml:space="preserve">12.9356327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4513664245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822751998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4006385803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.519003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4598226547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583669662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2315473556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936408996582</t>
+    <t xml:space="preserve">13.4513683319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822732925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5190048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4598217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2315464019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936399459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.781099319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.220742225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4743824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420188903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883796691895</t>
+    <t xml:space="preserve">14.2207412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.474383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420207977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883806228638</t>
   </si>
   <si>
     <t xml:space="preserve">14.3560161590576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3729267120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758390426636</t>
+    <t xml:space="preserve">14.3729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5673837661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758380889893</t>
   </si>
   <si>
     <t xml:space="preserve">14.7364749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7111120223999</t>
+    <t xml:space="preserve">14.7111129760742</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872047424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3536653518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.920129776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947639465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0638580322266</t>
+    <t xml:space="preserve">15.353666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0638561248779</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443187713623</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">16.4104995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1145877838135</t>
+    <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696807861328</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">16.4865894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1230392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6303215026855</t>
+    <t xml:space="preserve">16.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6303195953369</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
@@ -971,25 +971,25 @@
     <t xml:space="preserve">17.4335136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0929775238037</t>
+    <t xml:space="preserve">17.619514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0929794311523</t>
   </si>
   <si>
     <t xml:space="preserve">17.712516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7862606048584</t>
+    <t xml:space="preserve">18.7862567901611</t>
   </si>
   <si>
     <t xml:space="preserve">18.3381614685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7270774841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7608966827393</t>
+    <t xml:space="preserve">18.7270755767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7608947753906</t>
   </si>
   <si>
     <t xml:space="preserve">18.8369884490967</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">19.014533996582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1329002380371</t>
+    <t xml:space="preserve">19.1329021453857</t>
   </si>
   <si>
     <t xml:space="preserve">18.8792610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8708038330078</t>
+    <t xml:space="preserve">18.8708076477051</t>
   </si>
   <si>
     <t xml:space="preserve">18.617166519165</t>
@@ -1019,22 +1019,22 @@
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702442169189</t>
+    <t xml:space="preserve">17.6702423095703</t>
   </si>
   <si>
     <t xml:space="preserve">17.7970657348633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5349674224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5265159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.441967010498</t>
+    <t xml:space="preserve">17.5349712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.746337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5265140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4419689178467</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
@@ -1046,43 +1046,43 @@
     <t xml:space="preserve">17.5772438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">17.492696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6279697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5434265136719</t>
+    <t xml:space="preserve">17.4926986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5434246063232</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378807067871</t>
+    <t xml:space="preserve">17.8055152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378787994385</t>
   </si>
   <si>
     <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550701141357</t>
+    <t xml:space="preserve">18.3550720214844</t>
   </si>
   <si>
     <t xml:space="preserve">18.9384422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5979061126709</t>
+    <t xml:space="preserve">19.5979080200195</t>
   </si>
   <si>
     <t xml:space="preserve">19.8092727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4372692108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3611793518066</t>
+    <t xml:space="preserve">19.4372673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3611736297607</t>
   </si>
   <si>
     <t xml:space="preserve">19.4710865020752</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">19.318904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0229892730713</t>
+    <t xml:space="preserve">19.0229930877686</t>
   </si>
   <si>
     <t xml:space="preserve">19.3442668914795</t>
@@ -1106,154 +1106,154 @@
     <t xml:space="preserve">18.9215335845947</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1836280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.22825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.568790435791</t>
+    <t xml:space="preserve">19.183629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2282485961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
     <t xml:space="preserve">17.1206912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0361423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7402324676514</t>
+    <t xml:space="preserve">17.0361442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7402305603027</t>
   </si>
   <si>
     <t xml:space="preserve">17.0023250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9177799224854</t>
+    <t xml:space="preserve">16.917781829834</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8332328796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585968017578</t>
+    <t xml:space="preserve">16.8332290649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585948944092</t>
   </si>
   <si>
     <t xml:space="preserve">16.9093246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3320560455322</t>
+    <t xml:space="preserve">17.3320579528809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7233219146729</t>
+    <t xml:space="preserve">16.7233200073242</t>
   </si>
   <si>
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8247776031494</t>
+    <t xml:space="preserve">16.824779510498</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938716888428</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6556873321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5373191833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7764005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5565786361694</t>
+    <t xml:space="preserve">16.6556854248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.537317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7763986587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5565767288208</t>
   </si>
   <si>
     <t xml:space="preserve">15.6918535232544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4551229476929</t>
+    <t xml:space="preserve">15.4551219940186</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3898363113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7933082580566</t>
+    <t xml:space="preserve">14.3898344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720315933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7933101654053</t>
   </si>
   <si>
     <t xml:space="preserve">15.9962205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1484050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.522762298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676654815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618398666382</t>
+    <t xml:space="preserve">16.1484069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.522759437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676635742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618408203125</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.609658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574728012085</t>
+    <t xml:space="preserve">14.6096544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574708938599</t>
   </si>
   <si>
     <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802070617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2183933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198480606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3029413223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8102207183838</t>
+    <t xml:space="preserve">14.8802061080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.218391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198499679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3029384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8102188110352</t>
   </si>
   <si>
     <t xml:space="preserve">15.3874855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4382123947144</t>
+    <t xml:space="preserve">15.438214302063</t>
   </si>
   <si>
     <t xml:space="preserve">15.5396680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3705749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.829478263855</t>
+    <t xml:space="preserve">15.3705759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8294773101807</t>
   </si>
   <si>
     <t xml:space="preserve">15.5903949737549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0492963790894</t>
+    <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
     <t xml:space="preserve">15.5058517456055</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">15.4889392852783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6073055267334</t>
+    <t xml:space="preserve">15.607307434082</t>
   </si>
   <si>
     <t xml:space="preserve">15.6411247253418</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">16.351318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.435863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5542278289795</t>
+    <t xml:space="preserve">16.4358615875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5542297363281</t>
   </si>
   <si>
     <t xml:space="preserve">16.3005886077881</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">16.3174953460693</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21604347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1745223999023</t>
+    <t xml:space="preserve">16.2836799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
     <t xml:space="preserve">15.582555770874</t>
@@ -1307,37 +1307,37 @@
     <t xml:space="preserve">15.6173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437175750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8263072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1396999359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3312168121338</t>
+    <t xml:space="preserve">15.6521997451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8263092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1397018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3312187194824</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.191930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1048793792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740755081177</t>
+    <t xml:space="preserve">16.1919326782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1048774719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740774154663</t>
   </si>
   <si>
     <t xml:space="preserve">15.6696119308472</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">15.7044343948364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9209518432617</t>
+    <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
     <t xml:space="preserve">14.8513097763062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8164892196655</t>
+    <t xml:space="preserve">14.8164882659912</t>
   </si>
   <si>
     <t xml:space="preserve">15.0254173278809</t>
@@ -1361,25 +1361,25 @@
     <t xml:space="preserve">14.9731845855713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1298809051514</t>
+    <t xml:space="preserve">15.1298799514771</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285430908203</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544374465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678281784058</t>
+    <t xml:space="preserve">14.0155982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544384002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678291320801</t>
   </si>
   <si>
     <t xml:space="preserve">13.9633655548096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7468461990356</t>
+    <t xml:space="preserve">14.7468452453613</t>
   </si>
   <si>
     <t xml:space="preserve">14.1200609207153</t>
@@ -1388,19 +1388,19 @@
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459552764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0504188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1026515960693</t>
+    <t xml:space="preserve">13.9459543228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0504179000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.102650642395</t>
   </si>
   <si>
     <t xml:space="preserve">13.8414888381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.667384147644</t>
+    <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.7022037506104</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062232971191</t>
+    <t xml:space="preserve">13.4062223434448</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1430,28 +1430,28 @@
     <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6227426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5530996322632</t>
+    <t xml:space="preserve">12.6227416992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
     <t xml:space="preserve">12.5356893539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4486351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0133695602417</t>
+    <t xml:space="preserve">12.4486360549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
     <t xml:space="preserve">11.6303339004517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6651554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9187250137329</t>
+    <t xml:space="preserve">11.665153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.6325616836548</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1276521682739</t>
+    <t xml:space="preserve">13.1276512145996</t>
   </si>
   <si>
     <t xml:space="preserve">13.3714008331299</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">12.2745294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0830125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0656003952026</t>
+    <t xml:space="preserve">12.0830116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">12.1874761581421</t>
@@ -1496,16 +1496,16 @@
     <t xml:space="preserve">12.431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3615827560425</t>
+    <t xml:space="preserve">12.3615818023682</t>
   </si>
   <si>
     <t xml:space="preserve">12.1178331375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5084600448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736375808716</t>
+    <t xml:space="preserve">11.5084590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736385345459</t>
   </si>
   <si>
     <t xml:space="preserve">11.3865842819214</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">11.403995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1700639724731</t>
+    <t xml:space="preserve">12.1700649261475</t>
   </si>
   <si>
     <t xml:space="preserve">12.849081993103</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">11.5955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5606918334961</t>
+    <t xml:space="preserve">11.5606908798218</t>
   </si>
   <si>
     <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8218517303467</t>
+    <t xml:space="preserve">11.8218507766724</t>
   </si>
   <si>
     <t xml:space="preserve">12.7097969055176</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3964033126831</t>
+    <t xml:space="preserve">12.3964042663574</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3441724777222</t>
+    <t xml:space="preserve">12.3441715240479</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">12.7272062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4834575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6575632095337</t>
+    <t xml:space="preserve">12.4834566116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6575651168823</t>
   </si>
   <si>
     <t xml:space="preserve">12.866491317749</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">12.8142604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9535455703735</t>
+    <t xml:space="preserve">12.9535465240479</t>
   </si>
   <si>
     <t xml:space="preserve">13.0928316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147054672241</t>
+    <t xml:space="preserve">13.2147073745728</t>
   </si>
   <si>
     <t xml:space="preserve">13.3888120651245</t>
@@ -1598,25 +1598,25 @@
     <t xml:space="preserve">13.719614982605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2321157455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3191699981689</t>
+    <t xml:space="preserve">13.2321166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3191709518433</t>
   </si>
   <si>
     <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0057764053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2843475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.510687828064</t>
+    <t xml:space="preserve">13.1972951889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0057773590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284348487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5106887817383</t>
   </si>
   <si>
     <t xml:space="preserve">13.5455093383789</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">13.0405988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4236326217651</t>
+    <t xml:space="preserve">13.4410429000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
     <t xml:space="preserve">13.9111328125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548833847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3638105392456</t>
+    <t xml:space="preserve">14.1548824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3638095855713</t>
   </si>
   <si>
     <t xml:space="preserve">14.0330085754395</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">13.9807748794556</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1722946166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2593460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.893723487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5629186630249</t>
+    <t xml:space="preserve">14.1722936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2593450546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8937225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5629196166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280981063843</t>
@@ -1667,52 +1667,52 @@
     <t xml:space="preserve">13.6151523590088</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9883680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661220550537</t>
+    <t xml:space="preserve">12.9883670806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2470941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661211013794</t>
   </si>
   <si>
     <t xml:space="preserve">12.8489561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7041797637939</t>
+    <t xml:space="preserve">12.7041788101196</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7946643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7765693664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.812762260437</t>
+    <t xml:space="preserve">12.7946653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7765684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8127613067627</t>
   </si>
   <si>
     <t xml:space="preserve">12.5955972671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.011830329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9756364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9394416809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.613694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5232076644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360333442688</t>
+    <t xml:space="preserve">13.0118293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9756355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9394426345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6136932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5232086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">13.1385116577148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8851499557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1204137802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0299272537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3737726211548</t>
+    <t xml:space="preserve">12.8851509094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1204128265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0299282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3737735748291</t>
   </si>
   <si>
     <t xml:space="preserve">13.4823551177979</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">13.4461612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2832889556885</t>
+    <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
     <t xml:space="preserve">13.1928024291992</t>
@@ -1757,70 +1757,70 @@
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6317911148071</t>
+    <t xml:space="preserve">13.3918695449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6317920684814</t>
   </si>
   <si>
     <t xml:space="preserve">12.5051107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793642044067</t>
+    <t xml:space="preserve">12.1793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">12.7222776412964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2155570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.125072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4689159393311</t>
+    <t xml:space="preserve">12.215558052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1250715255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4689168930054</t>
   </si>
   <si>
     <t xml:space="preserve">12.5413055419922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5774984359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3060426712036</t>
+    <t xml:space="preserve">12.5774993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2517518997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3060436248779</t>
   </si>
   <si>
     <t xml:space="preserve">12.4146251678467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2879457473755</t>
+    <t xml:space="preserve">12.2879447937012</t>
   </si>
   <si>
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336549758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3422384262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1069746017456</t>
+    <t xml:space="preserve">12.2336540222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3422374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1069736480713</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7631301879883</t>
+    <t xml:space="preserve">11.763129234314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6545467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8536148071289</t>
+    <t xml:space="preserve">11.8536157608032</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450313568115</t>
@@ -1832,64 +1832,64 @@
     <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3649921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3107013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2926044464111</t>
+    <t xml:space="preserve">11.6364488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3649930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.473575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3107023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2926034927368</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011878967285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2564086914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0392427444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211486816406</t>
+    <t xml:space="preserve">11.2564096450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0392436981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0211477279663</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306612014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8582735061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2021179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6002550125122</t>
+    <t xml:space="preserve">10.9306621551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8582725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754384994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2021188735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6002540588379</t>
   </si>
   <si>
     <t xml:space="preserve">11.5459632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4916725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.419282913208</t>
+    <t xml:space="preserve">11.4916715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
     <t xml:space="preserve">11.2745065689087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4554786682129</t>
+    <t xml:space="preserve">11.4554777145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.4373817443848</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">11.2202157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2383136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5278663635254</t>
+    <t xml:space="preserve">11.2383127212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5278673171997</t>
   </si>
   <si>
     <t xml:space="preserve">12.16126537323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4508209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3965291976929</t>
+    <t xml:space="preserve">12.4508199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3965272903442</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784313201904</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">12.2698497772217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7403726577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5594034194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4327220916748</t>
+    <t xml:space="preserve">12.7403736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5594024658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4327230453491</t>
   </si>
   <si>
     <t xml:space="preserve">11.9802951812744</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">12.0345869064331</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9260034561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1431684494019</t>
+    <t xml:space="preserve">11.92600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1431694030762</t>
   </si>
   <si>
     <t xml:space="preserve">12.6679859161377</t>
@@ -1952,31 +1952,31 @@
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9621982574463</t>
+    <t xml:space="preserve">11.962197303772</t>
   </si>
   <si>
     <t xml:space="preserve">12.0526828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1297302246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8629322052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39240550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33811569213867</t>
+    <t xml:space="preserve">11.1297292709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080096244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86293029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39240646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
     <t xml:space="preserve">8.75900650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50564670562744</t>
+    <t xml:space="preserve">8.50564765930176</t>
   </si>
   <si>
     <t xml:space="preserve">8.55088996887207</t>
@@ -1985,19 +1985,19 @@
     <t xml:space="preserve">8.78615188598633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86758995056152</t>
+    <t xml:space="preserve">8.86758899688721</t>
   </si>
   <si>
     <t xml:space="preserve">8.82234668731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64137554168701</t>
+    <t xml:space="preserve">8.64137649536133</t>
   </si>
   <si>
     <t xml:space="preserve">8.65042400360107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48754978179932</t>
+    <t xml:space="preserve">8.48755073547363</t>
   </si>
   <si>
     <t xml:space="preserve">8.71376419067383</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">8.61423015594482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74091053009033</t>
+    <t xml:space="preserve">8.74090957641602</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">9.18428897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54623126983643</t>
+    <t xml:space="preserve">9.54623222351074</t>
   </si>
   <si>
     <t xml:space="preserve">9.41050338745117</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">9.50098896026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59147453308105</t>
+    <t xml:space="preserve">9.59147548675537</t>
   </si>
   <si>
     <t xml:space="preserve">9.77244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0439023971558</t>
+    <t xml:space="preserve">10.0439033508301</t>
   </si>
   <si>
     <t xml:space="preserve">9.95341682434082</t>
@@ -2060,43 +2060,43 @@
     <t xml:space="preserve">9.681960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22953224182129</t>
+    <t xml:space="preserve">9.22953128814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8494930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93997764587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90378475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72720336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22487449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4058446884155</t>
+    <t xml:space="preserve">8.84949207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93997859954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90378379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720241546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248735427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4058456420898</t>
   </si>
   <si>
     <t xml:space="preserve">10.4963312149048</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3153581619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2701168060303</t>
+    <t xml:space="preserve">10.3153591156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2701177597046</t>
   </si>
   <si>
     <t xml:space="preserve">10.4510889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3606033325195</t>
+    <t xml:space="preserve">10.3606023788452</t>
   </si>
   <si>
     <t xml:space="preserve">10.0891456604004</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">10.1343879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99866104125977</t>
+    <t xml:space="preserve">9.99866008758545</t>
   </si>
   <si>
     <t xml:space="preserve">9.90817451477051</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868158340454</t>
+    <t xml:space="preserve">10.5868148803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773014068604</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">10.9487590789795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559436798096</t>
+    <t xml:space="preserve">11.3559446334839</t>
   </si>
   <si>
     <t xml:space="preserve">11.4464292526245</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">11.174973487854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9035158157349</t>
+    <t xml:space="preserve">10.9035167694092</t>
   </si>
   <si>
     <t xml:space="preserve">10.8130302429199</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">10.7677869796753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7225456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274013519287</t>
+    <t xml:space="preserve">10.722544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274003982544</t>
   </si>
   <si>
     <t xml:space="preserve">11.7178859710693</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">11.8988580703735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4870147705078</t>
+    <t xml:space="preserve">12.4870138168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5322570800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9904432296753</t>
+    <t xml:space="preserve">12.9904441833496</t>
   </si>
   <si>
     <t xml:space="preserve">12.4801054000854</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">12.1553440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9233722686768</t>
+    <t xml:space="preserve">11.9233713150024</t>
   </si>
   <si>
     <t xml:space="preserve">11.6450042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8769760131836</t>
+    <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
     <t xml:space="preserve">12.062554359436</t>
@@ -2198,25 +2198,25 @@
     <t xml:space="preserve">11.3202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5986099243164</t>
+    <t xml:space="preserve">11.5986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5058212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3873157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6656808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120771408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8048658370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3409204483032</t>
+    <t xml:space="preserve">12.3873167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6656818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120761871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8048648834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3409214019775</t>
   </si>
   <si>
     <t xml:space="preserve">12.619288444519</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">14.0111217498779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4750661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5678539276123</t>
+    <t xml:space="preserve">14.4750652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822755813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5678548812866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4079933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935707092285</t>
+    <t xml:space="preserve">13.5935697555542</t>
   </si>
   <si>
     <t xml:space="preserve">13.5471773147583</t>
@@ -2261,25 +2261,25 @@
     <t xml:space="preserve">13.9183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5214595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.779149055481</t>
+    <t xml:space="preserve">14.5214586257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7791500091553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4286708831787</t>
+    <t xml:space="preserve">14.1503047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.428671836853</t>
   </si>
   <si>
     <t xml:space="preserve">15.2173767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3565607070923</t>
+    <t xml:space="preserve">15.3565587997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.4957437515259</t>
@@ -2288,10 +2288,10 @@
     <t xml:space="preserve">15.6813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3101654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9854049682617</t>
+    <t xml:space="preserve">15.3101644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9854040145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781927108765</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">16.470027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236316680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7019996643066</t>
+    <t xml:space="preserve">16.4236335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.701997756958</t>
   </si>
   <si>
     <t xml:space="preserve">17.0267601013184</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">17.5834941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8618583679199</t>
+    <t xml:space="preserve">17.8618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3979148864746</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">18.4185924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4649868011475</t>
+    <t xml:space="preserve">18.4649887084961</t>
   </si>
   <si>
     <t xml:space="preserve">18.5113830566406</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">17.3515205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0217189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.279411315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9289321899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6505641937256</t>
+    <t xml:space="preserve">19.0217208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2794094085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9289302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
     <t xml:space="preserve">19.7640323638916</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">21.8053874969482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6198081970215</t>
+    <t xml:space="preserve">21.6198101043701</t>
   </si>
   <si>
     <t xml:space="preserve">21.8981761932373</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">20.7847099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5991306304932</t>
+    <t xml:space="preserve">20.5991325378418</t>
   </si>
   <si>
     <t xml:space="preserve">21.0630760192871</t>
@@ -2411,16 +2411,16 @@
     <t xml:space="preserve">21.5270195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2486534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2693328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1765403747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1972198486328</t>
+    <t xml:space="preserve">21.2486515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2693309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1765422821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1972217559814</t>
   </si>
   <si>
     <t xml:space="preserve">22.4549102783203</t>
@@ -60694,7 +60694,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6494791667</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>2272</v>
@@ -60715,6 +60715,32 @@
         <v>1175</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.649375</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>17.8500003814697</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SAB.MI.xlsx
+++ b/data/SAB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1176">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90090942382812</t>
+    <t xml:space="preserve">8.90090847015381</t>
   </si>
   <si>
     <t xml:space="preserve">SAB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95551586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81509876251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65907859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69808483123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64347743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58106899261475</t>
+    <t xml:space="preserve">8.95551681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65907955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69808292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64347648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58106994628906</t>
   </si>
   <si>
     <t xml:space="preserve">8.47965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19102191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82437467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96479225158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92578792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91018676757812</t>
+    <t xml:space="preserve">8.19102096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82437515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96479415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92578935623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91018724441528</t>
   </si>
   <si>
     <t xml:space="preserve">8.04280281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05840396881104</t>
+    <t xml:space="preserve">8.05840587615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.07400798797607</t>
@@ -92,55 +92,55 @@
     <t xml:space="preserve">8.20662307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91798734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10521030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02719974517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95699167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8009729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8399772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68005752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87898206710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12861442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43285179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2690315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37824440002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34704113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23002529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08180809020996</t>
+    <t xml:space="preserve">7.91798686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10521125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02720069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9569935798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80097246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62935018539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83997821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68005704879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87898302078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12861347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40164852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43285274505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26903057098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3782434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3470401763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23002624511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08180713653564</t>
   </si>
   <si>
     <t xml:space="preserve">8.17541885375977</t>
@@ -152,250 +152,250 @@
     <t xml:space="preserve">8.3002347946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35484313964844</t>
+    <t xml:space="preserve">8.35484218597412</t>
   </si>
   <si>
     <t xml:space="preserve">8.30803489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27683353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21442413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24562644958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19882106781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25342845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13641548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12081050872803</t>
+    <t xml:space="preserve">8.27683258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21442317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19882202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2534294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13641452789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12081336975098</t>
   </si>
   <si>
     <t xml:space="preserve">8.03500175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94919013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01940059661865</t>
+    <t xml:space="preserve">7.94919109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01939868927002</t>
   </si>
   <si>
     <t xml:space="preserve">7.97259378433228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93358898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80877351760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9413914680481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86338090896606</t>
+    <t xml:space="preserve">7.9335880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80877494812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94138956069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86337995529175</t>
   </si>
   <si>
     <t xml:space="preserve">8.00379848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05060386657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7619686126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99599885940552</t>
+    <t xml:space="preserve">8.05060291290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76196765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99599647521973</t>
   </si>
   <si>
     <t xml:space="preserve">7.78537034988403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76586723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67615747451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66055536270142</t>
+    <t xml:space="preserve">7.76586818695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72686243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707050323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89458322525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71906280517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67615699768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66055488586426</t>
   </si>
   <si>
     <t xml:space="preserve">7.60594797134399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56694364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81557416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05340480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06160545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1190128326416</t>
+    <t xml:space="preserve">7.56694316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81557369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11081123352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05340385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06160640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11901187896729</t>
   </si>
   <si>
     <t xml:space="preserve">8.1682186126709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00009822845459</t>
+    <t xml:space="preserve">8.00009727478027</t>
   </si>
   <si>
     <t xml:space="preserve">7.8811821937561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98779535293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87298154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83197593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79097127914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56954383850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1963963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3563175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51213693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74996566772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54493999481201</t>
+    <t xml:space="preserve">7.98779487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87298250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83197784423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79097080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56954336166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19639730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35631799697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51213598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74996519088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54494047164917</t>
   </si>
   <si>
     <t xml:space="preserve">7.65975570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54904174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63515281677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65565490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66795587539673</t>
+    <t xml:space="preserve">7.54904127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6351523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76226854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6556544303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66795635223389</t>
   </si>
   <si>
     <t xml:space="preserve">7.41372489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47113037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38092041015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43012714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3850212097168</t>
+    <t xml:space="preserve">7.47113132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38092184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43012666702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38502025604248</t>
   </si>
   <si>
     <t xml:space="preserve">7.4875340461731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46292972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50393581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47523164749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53264093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.479332447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5080361366272</t>
+    <t xml:space="preserve">7.46293020248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50393486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47523212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53263998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47933197021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46703052520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50803661346436</t>
   </si>
   <si>
     <t xml:space="preserve">7.49163436889648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60234785079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49573564529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44652795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52853918075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40962409973145</t>
+    <t xml:space="preserve">7.60234832763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49573516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44652891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52853965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40962266921997</t>
   </si>
   <si>
     <t xml:space="preserve">7.38912200927734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45882987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51623725891113</t>
+    <t xml:space="preserve">7.45882940292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51623678207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.56134271621704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58594560623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57774543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52443838119507</t>
+    <t xml:space="preserve">7.58594608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57774353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52443885803223</t>
   </si>
   <si>
     <t xml:space="preserve">7.39732265472412</t>
@@ -404,133 +404,133 @@
     <t xml:space="preserve">7.37271928787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27840757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21690034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20459842681885</t>
+    <t xml:space="preserve">7.27840805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21689939498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20459794998169</t>
   </si>
   <si>
     <t xml:space="preserve">7.3768196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43422698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41782379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43832588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33171463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34811639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34401607513428</t>
+    <t xml:space="preserve">7.43422651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41782569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43832683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33171367645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34811687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34401559829712</t>
   </si>
   <si>
     <t xml:space="preserve">7.29890966415405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32351350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33991479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36041784286499</t>
+    <t xml:space="preserve">7.32351303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33991527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36041831970215</t>
   </si>
   <si>
     <t xml:space="preserve">7.32761430740356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31941270828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33581304550171</t>
+    <t xml:space="preserve">7.31941318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30711030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33581447601318</t>
   </si>
   <si>
     <t xml:space="preserve">7.31121110916138</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45472955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17589426040649</t>
+    <t xml:space="preserve">7.45473098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17589569091797</t>
   </si>
   <si>
     <t xml:space="preserve">7.18409633636475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20869874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19229650497437</t>
+    <t xml:space="preserve">7.20869827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19229698181152</t>
   </si>
   <si>
     <t xml:space="preserve">7.21279907226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24150276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42192554473877</t>
+    <t xml:space="preserve">7.24150323867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42192602157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.74176454544067</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9959979057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0985107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36504173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52906322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48805904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40604877471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52086353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38144588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44705390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49625873565674</t>
+    <t xml:space="preserve">7.99599742889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09850978851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23382663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36504459381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52906227111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48805809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40604782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52086162567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38144493103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44705295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">8.65207958221436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88990783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89811038970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75869274139404</t>
+    <t xml:space="preserve">8.88990879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89810943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75869178771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.68488311767578</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">8.7258882522583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75049018859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7750940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73408889770508</t>
+    <t xml:space="preserve">8.75049209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77509498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73408699035645</t>
   </si>
   <si>
     <t xml:space="preserve">8.58647060394287</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">8.50446033477783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62747669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54546451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61107349395752</t>
+    <t xml:space="preserve">8.62747573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54546546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61107444763184</t>
   </si>
   <si>
     <t xml:space="preserve">8.57826900482178</t>
@@ -572,85 +572,85 @@
     <t xml:space="preserve">8.63567638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69308471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66028022766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66847991943359</t>
+    <t xml:space="preserve">8.69308376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66027927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66848182678223</t>
   </si>
   <si>
     <t xml:space="preserve">8.79149627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96371841430664</t>
+    <t xml:space="preserve">8.96371650695801</t>
   </si>
   <si>
     <t xml:space="preserve">9.08673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23435211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35736751556396</t>
+    <t xml:space="preserve">9.23435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35736656188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.59519577026367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66900444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62800025939941</t>
+    <t xml:space="preserve">9.66900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6279993057251</t>
   </si>
   <si>
     <t xml:space="preserve">9.52138710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55419063568115</t>
+    <t xml:space="preserve">9.55419158935547</t>
   </si>
   <si>
     <t xml:space="preserve">9.61159896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66080284118652</t>
+    <t xml:space="preserve">9.66080379486084</t>
   </si>
   <si>
     <t xml:space="preserve">9.73461437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92323780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0544538497925</t>
+    <t xml:space="preserve">9.92323875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0544528961182</t>
   </si>
   <si>
     <t xml:space="preserve">10.1282634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.620325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8909587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8663549423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6941337585449</t>
+    <t xml:space="preserve">10.6203241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8909568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8663539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6941328048706</t>
   </si>
   <si>
     <t xml:space="preserve">10.6613292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5465154647827</t>
+    <t xml:space="preserve">10.5465145111084</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4070978164673</t>
+    <t xml:space="preserve">10.407096862793</t>
   </si>
   <si>
     <t xml:space="preserve">10.4973087310791</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">10.4481029510498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5793180465698</t>
+    <t xml:space="preserve">10.5793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">10.5137100219727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5875196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645051956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4152994155884</t>
+    <t xml:space="preserve">10.5875186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055112838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4152984619141</t>
   </si>
   <si>
     <t xml:space="preserve">10.9073610305786</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">10.8253498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7187356948853</t>
+    <t xml:space="preserve">10.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1533918380737</t>
@@ -695,82 +695,82 @@
     <t xml:space="preserve">10.858154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9729681015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0549764633179</t>
+    <t xml:space="preserve">10.9729671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0549783706665</t>
   </si>
   <si>
     <t xml:space="preserve">11.0057725906372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4404249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3092107772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7848691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5311632156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3835439682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5229606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1375131607056</t>
+    <t xml:space="preserve">11.4404258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3092098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7848701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5311622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.383544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5229625701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.145715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7443885803223</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1708421707153</t>
+    <t xml:space="preserve">13.121636390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.170841217041</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364492416382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9609975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499116897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3160924911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.42600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3752746582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4429121017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3076391220093</t>
+    <t xml:space="preserve">12.9609966278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470003128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3160934448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4260025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3752756118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4429130554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.307638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1385450363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245487213135</t>
+    <t xml:space="preserve">13.3245477676392</t>
   </si>
   <si>
     <t xml:space="preserve">11.9718008041382</t>
@@ -782,16 +782,16 @@
     <t xml:space="preserve">12.2423505783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3776264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3945341110229</t>
+    <t xml:space="preserve">12.3776254653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283533096313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2677154541016</t>
+    <t xml:space="preserve">12.2677145004272</t>
   </si>
   <si>
     <t xml:space="preserve">12.6059007644653</t>
@@ -800,49 +800,49 @@
     <t xml:space="preserve">12.4706268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4537181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5128993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5551748275757</t>
+    <t xml:space="preserve">12.4537162780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512900352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5551738739014</t>
   </si>
   <si>
     <t xml:space="preserve">12.4452629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">12.343807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1747131347656</t>
+    <t xml:space="preserve">12.3438062667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1747140884399</t>
   </si>
   <si>
     <t xml:space="preserve">11.9210739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0056200027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039439201355</t>
+    <t xml:space="preserve">12.0056209564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394382476807</t>
   </si>
   <si>
     <t xml:space="preserve">12.2592601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607168197632</t>
+    <t xml:space="preserve">12.3607158660889</t>
   </si>
   <si>
     <t xml:space="preserve">12.563627243042</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6397199630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5467195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7073583602905</t>
+    <t xml:space="preserve">12.639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5467185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7073564529419</t>
   </si>
   <si>
     <t xml:space="preserve">12.6143560409546</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">12.6650829315186</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228094100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7327222824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8510866165161</t>
+    <t xml:space="preserve">12.6228113174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7327213287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8510856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9356327056885</t>
+    <t xml:space="preserve">12.9356336593628</t>
   </si>
   <si>
     <t xml:space="preserve">13.4513683319092</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">13.4006395339966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5190048217773</t>
+    <t xml:space="preserve">13.519003868103</t>
   </si>
   <si>
     <t xml:space="preserve">13.4598217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3583679199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2315464019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2738189697266</t>
+    <t xml:space="preserve">13.3583660125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2315454483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2738199234009</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936399459839</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">14.2207412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.474383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5420207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2883806228638</t>
+    <t xml:space="preserve">14.4743824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5420179367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2883796691895</t>
   </si>
   <si>
     <t xml:space="preserve">14.3560161590576</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">14.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5673837661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5758380889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7364749908447</t>
+    <t xml:space="preserve">14.5673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5758390426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7364768981934</t>
   </si>
   <si>
     <t xml:space="preserve">14.7111129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7872047424316</t>
+    <t xml:space="preserve">14.787202835083</t>
   </si>
   <si>
     <t xml:space="preserve">15.353666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8947658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0638561248779</t>
+    <t xml:space="preserve">15.9201288223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8947639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0638580322266</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443187713623</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">16.1145858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4865894317627</t>
+    <t xml:space="preserve">16.4696788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4865913391113</t>
   </si>
   <si>
     <t xml:space="preserve">16.1230411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6303195953369</t>
+    <t xml:space="preserve">16.6303215026855</t>
   </si>
   <si>
     <t xml:space="preserve">16.9008693695068</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">17.4335136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.619514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0929794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.712516784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7862567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3381614685059</t>
+    <t xml:space="preserve">17.6195163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0929775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7125186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3381633758545</t>
   </si>
   <si>
     <t xml:space="preserve">18.7270755767822</t>
@@ -995,46 +995,46 @@
     <t xml:space="preserve">18.8369884490967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.014533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1329021453857</t>
+    <t xml:space="preserve">19.0145359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1329002380371</t>
   </si>
   <si>
     <t xml:space="preserve">18.8792610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8708076477051</t>
+    <t xml:space="preserve">18.8708057403564</t>
   </si>
   <si>
     <t xml:space="preserve">18.617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9407920837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.754789352417</t>
+    <t xml:space="preserve">17.9407939910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7547912597656</t>
   </si>
   <si>
     <t xml:space="preserve">17.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.746337890625</t>
+    <t xml:space="preserve">17.6702442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7970638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5349674224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463359832764</t>
   </si>
   <si>
     <t xml:space="preserve">17.5265140533447</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4419689178467</t>
+    <t xml:space="preserve">17.441967010498</t>
   </si>
   <si>
     <t xml:space="preserve">17.6533336639404</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">17.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5772438049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4926986694336</t>
+    <t xml:space="preserve">17.577241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.492696762085</t>
   </si>
   <si>
     <t xml:space="preserve">17.6279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5434246063232</t>
+    <t xml:space="preserve">17.5434226989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.5856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8055152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7378787994385</t>
+    <t xml:space="preserve">17.8055191040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7378807067871</t>
   </si>
   <si>
     <t xml:space="preserve">17.8393383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550720214844</t>
+    <t xml:space="preserve">18.3550701141357</t>
   </si>
   <si>
     <t xml:space="preserve">18.9384422302246</t>
@@ -1082,79 +1082,79 @@
     <t xml:space="preserve">19.4372673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3611736297607</t>
+    <t xml:space="preserve">19.3611755371094</t>
   </si>
   <si>
     <t xml:space="preserve">19.4710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4457244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0229930877686</t>
+    <t xml:space="preserve">19.4457225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3189029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0229911804199</t>
   </si>
   <si>
     <t xml:space="preserve">19.3442668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.929988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9215335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.183629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2282485961914</t>
+    <t xml:space="preserve">18.9299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9215316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1836280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2282524108887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5687885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1206912994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0361442565918</t>
+    <t xml:space="preserve">17.1206932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0361423492432</t>
   </si>
   <si>
     <t xml:space="preserve">16.7402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0023250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.917781829834</t>
+    <t xml:space="preserve">17.002326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9177799224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8332290649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8585948944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9093246459961</t>
+    <t xml:space="preserve">16.8332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8585968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9093227386475</t>
   </si>
   <si>
     <t xml:space="preserve">17.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7233200073242</t>
+    <t xml:space="preserve">16.9515953063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7233219146729</t>
   </si>
   <si>
     <t xml:space="preserve">16.571138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.824779510498</t>
+    <t xml:space="preserve">16.8247776031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.9938716888428</t>
@@ -1163,28 +1163,28 @@
     <t xml:space="preserve">16.6556854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.537317276001</t>
+    <t xml:space="preserve">16.5373191833496</t>
   </si>
   <si>
     <t xml:space="preserve">15.7763986587524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5565767288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4551219940186</t>
+    <t xml:space="preserve">15.5565786361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4551210403442</t>
   </si>
   <si>
     <t xml:space="preserve">14.7787494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3898344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720315933228</t>
+    <t xml:space="preserve">14.389835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4720306396484</t>
   </si>
   <si>
     <t xml:space="preserve">15.7933101654053</t>
@@ -1193,103 +1193,103 @@
     <t xml:space="preserve">15.9962205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1484069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9647541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618408203125</t>
+    <t xml:space="preserve">16.1484050750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1676645278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9647521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618398666382</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603841781616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6096544265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4574708938599</t>
+    <t xml:space="preserve">14.6096563339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4574737548828</t>
   </si>
   <si>
     <t xml:space="preserve">14.5589275360107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802061080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.218391418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3198499679565</t>
+    <t xml:space="preserve">14.8802042007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3198480606079</t>
   </si>
   <si>
     <t xml:space="preserve">15.3029384613037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8102188110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3874855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.438214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5396680831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3705759048462</t>
+    <t xml:space="preserve">15.8102216720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3874845504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5396690368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3705768585205</t>
   </si>
   <si>
     <t xml:space="preserve">14.8294773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5903949737549</t>
+    <t xml:space="preserve">15.5903959274292</t>
   </si>
   <si>
     <t xml:space="preserve">15.049298286438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5058517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4889392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6411247253418</t>
+    <t xml:space="preserve">15.5058498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4889421463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073055267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6411237716675</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924140930176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.351318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4358615875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2329540252686</t>
+    <t xml:space="preserve">16.3513164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4358654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2329521179199</t>
   </si>
   <si>
     <t xml:space="preserve">16.5542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3344078063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3174953460693</t>
+    <t xml:space="preserve">16.3005905151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3344058990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.317497253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2836799621582</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.582555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6173801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521997451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437194824219</t>
+    <t xml:space="preserve">15.5825605392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437175750732</t>
   </si>
   <si>
     <t xml:space="preserve">15.8263092041016</t>
@@ -1322,61 +1322,61 @@
     <t xml:space="preserve">16.3312187194824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879131317139</t>
+    <t xml:space="preserve">16.4879150390625</t>
   </si>
   <si>
     <t xml:space="preserve">16.1919326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0874691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7740774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6696119308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044343948364</t>
+    <t xml:space="preserve">16.1048793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0874652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178260803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7740755081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6696128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044334411621</t>
   </si>
   <si>
     <t xml:space="preserve">14.920952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8513097763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8164882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1298799514771</t>
+    <t xml:space="preserve">14.8513088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8164873123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0254154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.973183631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1298789978027</t>
   </si>
   <si>
     <t xml:space="preserve">13.9285430908203</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7544384002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0678291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9633655548096</t>
+    <t xml:space="preserve">14.0155963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7544364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0678281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9633646011353</t>
   </si>
   <si>
     <t xml:space="preserve">14.7468452453613</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">14.2245254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9459543228149</t>
+    <t xml:space="preserve">13.9459552764893</t>
   </si>
   <si>
     <t xml:space="preserve">14.0504179000854</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">14.102650642395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8414888381958</t>
+    <t xml:space="preserve">13.8414897918701</t>
   </si>
   <si>
     <t xml:space="preserve">13.6673831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7370262145996</t>
+    <t xml:space="preserve">13.702205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3539915084839</t>
+    <t xml:space="preserve">13.3539905548096</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798849105835</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">13.0580101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4062223434448</t>
+    <t xml:space="preserve">13.4062232971191</t>
   </si>
   <si>
     <t xml:space="preserve">13.3365802764893</t>
@@ -1430,31 +1430,31 @@
     <t xml:space="preserve">12.9709558486938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6227416992188</t>
+    <t xml:space="preserve">12.6227436065674</t>
   </si>
   <si>
     <t xml:space="preserve">12.5531005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5356893539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4486360549927</t>
+    <t xml:space="preserve">12.5356884002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4486351013184</t>
   </si>
   <si>
     <t xml:space="preserve">12.0133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303339004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.665153503418</t>
+    <t xml:space="preserve">11.630331993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6651554107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.9187240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6325616836548</t>
+    <t xml:space="preserve">13.6325607299805</t>
   </si>
   <si>
     <t xml:space="preserve">13.7718477249146</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">13.2669372558594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8763113021851</t>
+    <t xml:space="preserve">13.8763122558594</t>
   </si>
   <si>
     <t xml:space="preserve">13.4932765960693</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">13.3017587661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1276512145996</t>
+    <t xml:space="preserve">13.1276521682739</t>
   </si>
   <si>
     <t xml:space="preserve">13.3714008331299</t>
@@ -1487,25 +1487,25 @@
     <t xml:space="preserve">12.0830116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0655994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1874761581421</t>
+    <t xml:space="preserve">12.065601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1874752044678</t>
   </si>
   <si>
     <t xml:space="preserve">12.431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1178331375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5084590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736385345459</t>
+    <t xml:space="preserve">12.3615827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1178321838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5084600448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736375808716</t>
   </si>
   <si>
     <t xml:space="preserve">11.3865842819214</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">11.3517627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.403995513916</t>
+    <t xml:space="preserve">11.4039945602417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1700649261475</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">11.6129236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8218507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7097969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8839025497437</t>
+    <t xml:space="preserve">11.8218517303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7097959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.883903503418</t>
   </si>
   <si>
     <t xml:space="preserve">12.3964042663574</t>
@@ -1553,61 +1553,61 @@
     <t xml:space="preserve">12.2571182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3441715240479</t>
+    <t xml:space="preserve">12.3441724777222</t>
   </si>
   <si>
     <t xml:space="preserve">12.6749753952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7272062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4834566116333</t>
+    <t xml:space="preserve">12.7272081375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4834575653076</t>
   </si>
   <si>
     <t xml:space="preserve">12.6053314208984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6575651168823</t>
+    <t xml:space="preserve">12.657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">12.866491317749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8142604827881</t>
+    <t xml:space="preserve">12.8142595291138</t>
   </si>
   <si>
     <t xml:space="preserve">12.9535465240479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0928316116333</t>
+    <t xml:space="preserve">13.092830657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147073745728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3888120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.475866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.719614982605</t>
+    <t xml:space="preserve">13.3888130187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4584550857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4758653640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7196159362793</t>
   </si>
   <si>
     <t xml:space="preserve">13.2321166992188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3191709518433</t>
+    <t xml:space="preserve">13.3191699981689</t>
   </si>
   <si>
     <t xml:space="preserve">13.1450634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1972951889038</t>
+    <t xml:space="preserve">13.1972942352295</t>
   </si>
   <si>
     <t xml:space="preserve">13.0057773590088</t>
@@ -1616,31 +1616,31 @@
     <t xml:space="preserve">13.284348487854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5106887817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0405988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4410429000854</t>
+    <t xml:space="preserve">13.510687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455102920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0405979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4410448074341</t>
   </si>
   <si>
     <t xml:space="preserve">13.4236335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9111328125</t>
+    <t xml:space="preserve">13.9111318588257</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3638095855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0330085754395</t>
+    <t xml:space="preserve">14.3638105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0330095291138</t>
   </si>
   <si>
     <t xml:space="preserve">13.9807748794556</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">14.1722936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2593450546265</t>
+    <t xml:space="preserve">14.2593460083008</t>
   </si>
   <si>
     <t xml:space="preserve">13.8937225341797</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">13.5280981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6847944259644</t>
+    <t xml:space="preserve">13.68479347229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151523590088</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">12.9883670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2470941543579</t>
+    <t xml:space="preserve">13.2470932006836</t>
   </si>
   <si>
     <t xml:space="preserve">13.0661211013794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8489561080933</t>
+    <t xml:space="preserve">12.8489570617676</t>
   </si>
   <si>
     <t xml:space="preserve">12.7041788101196</t>
@@ -1691,88 +1691,88 @@
     <t xml:space="preserve">12.7765684127808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8127613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5955972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0118293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9394426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6136932373047</t>
+    <t xml:space="preserve">12.812762260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5955963134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.011830329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9756364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9394416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613694190979</t>
   </si>
   <si>
     <t xml:space="preserve">12.5232086181641</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3603343963623</t>
+    <t xml:space="preserve">12.360333442688</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3194818496704</t>
+    <t xml:space="preserve">13.3194808959961</t>
   </si>
   <si>
     <t xml:space="preserve">13.2651901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1385116577148</t>
+    <t xml:space="preserve">13.1385107040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8851509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1204128265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0299282073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3737735748291</t>
+    <t xml:space="preserve">13.1204147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0299272537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3737726211548</t>
   </si>
   <si>
     <t xml:space="preserve">13.4823551177979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.464259147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4461612701416</t>
+    <t xml:space="preserve">13.4642601013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4461603164673</t>
   </si>
   <si>
     <t xml:space="preserve">13.2832880020142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1928024291992</t>
+    <t xml:space="preserve">13.1928014755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.301383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3918695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6317920684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5051107406616</t>
+    <t xml:space="preserve">13.3918704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6317911148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5051116943359</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7222776412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.215558052063</t>
+    <t xml:space="preserve">12.7222766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2155570983887</t>
   </si>
   <si>
     <t xml:space="preserve">12.1250715255737</t>
@@ -1793,37 +1793,37 @@
     <t xml:space="preserve">12.3060436248779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4146251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2879447937012</t>
+    <t xml:space="preserve">12.414626121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2879457473755</t>
   </si>
   <si>
     <t xml:space="preserve">12.3241395950317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336540222168</t>
+    <t xml:space="preserve">12.2336549758911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3422374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1069736480713</t>
+    <t xml:space="preserve">12.1069746017456</t>
   </si>
   <si>
     <t xml:space="preserve">11.9983921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.763129234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6545467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536157608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7450313568115</t>
+    <t xml:space="preserve">11.7631301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6545476913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536138534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7450304031372</t>
   </si>
   <si>
     <t xml:space="preserve">11.7993230819702</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">11.8355178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364488601685</t>
+    <t xml:space="preserve">11.6364479064941</t>
   </si>
   <si>
     <t xml:space="preserve">11.3649930953979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.473575592041</t>
+    <t xml:space="preserve">11.4735746383667</t>
   </si>
   <si>
     <t xml:space="preserve">11.3107023239136</t>
@@ -1847,25 +1847,25 @@
     <t xml:space="preserve">11.2926034927368</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4011878967285</t>
+    <t xml:space="preserve">11.4011859893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564096450806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0211477279663</t>
+    <t xml:space="preserve">11.0392456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.021146774292</t>
   </si>
   <si>
     <t xml:space="preserve">11.0030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9306621551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8582725524902</t>
+    <t xml:space="preserve">10.9306612014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8582735061646</t>
   </si>
   <si>
     <t xml:space="preserve">11.0754384994507</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">11.2021188735962</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6002540588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4916715621948</t>
+    <t xml:space="preserve">11.6002550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">11.4192838668823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745065689087</t>
+    <t xml:space="preserve">11.274507522583</t>
   </si>
   <si>
     <t xml:space="preserve">11.4554777145386</t>
@@ -1895,25 +1895,25 @@
     <t xml:space="preserve">11.4373817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2202157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2383127212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5278673171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.16126537323</t>
+    <t xml:space="preserve">11.22021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2383117675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5278663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1612663269043</t>
   </si>
   <si>
     <t xml:space="preserve">12.4508199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3965272903442</t>
+    <t xml:space="preserve">12.3965282440186</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784313201904</t>
@@ -1928,31 +1928,31 @@
     <t xml:space="preserve">12.5594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4327230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9802951812744</t>
+    <t xml:space="preserve">12.4327211380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9802932739258</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441003799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0345869064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.92600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1431694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6679859161377</t>
+    <t xml:space="preserve">12.0345859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9260034561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1431684494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6679849624634</t>
   </si>
   <si>
     <t xml:space="preserve">12.8308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.962197303772</t>
+    <t xml:space="preserve">11.9621982574463</t>
   </si>
   <si>
     <t xml:space="preserve">12.0526828765869</t>
@@ -1961,10 +1961,10 @@
     <t xml:space="preserve">11.1297292709351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080096244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86293029785156</t>
+    <t xml:space="preserve">10.0800971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86293125152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.39240646362305</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">9.33811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75900650024414</t>
+    <t xml:space="preserve">8.75900745391846</t>
   </si>
   <si>
     <t xml:space="preserve">8.50564765930176</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">8.55088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78615188598633</t>
+    <t xml:space="preserve">8.78615283966064</t>
   </si>
   <si>
     <t xml:space="preserve">8.86758899688721</t>
@@ -1991,28 +1991,28 @@
     <t xml:space="preserve">8.82234668731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64137649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65042400360107</t>
+    <t xml:space="preserve">8.64137554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65042495727539</t>
   </si>
   <si>
     <t xml:space="preserve">8.48755073547363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71376419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61423015594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74090957641602</t>
+    <t xml:space="preserve">8.71376514434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61423110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7409086227417</t>
   </si>
   <si>
     <t xml:space="preserve">8.83139610290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97617244720459</t>
+    <t xml:space="preserve">8.97617149353027</t>
   </si>
   <si>
     <t xml:space="preserve">9.03046321868896</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">9.13904762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32001781463623</t>
+    <t xml:space="preserve">9.32001686096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.09380340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04856109619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18428897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54623222351074</t>
+    <t xml:space="preserve">9.04856014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18428993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54623126983643</t>
   </si>
   <si>
     <t xml:space="preserve">9.41050338745117</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">9.50098896026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59147548675537</t>
+    <t xml:space="preserve">9.59147453308105</t>
   </si>
   <si>
     <t xml:space="preserve">9.77244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0439033508301</t>
+    <t xml:space="preserve">10.0439023971558</t>
   </si>
   <si>
     <t xml:space="preserve">9.95341682434082</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">9.681960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22953128814697</t>
+    <t xml:space="preserve">9.22953319549561</t>
   </si>
   <si>
     <t xml:space="preserve">8.99426937103271</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">8.93997859954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90378379821777</t>
+    <t xml:space="preserve">8.90378475189209</t>
   </si>
   <si>
     <t xml:space="preserve">9.72720241546631</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248735427856</t>
+    <t xml:space="preserve">10.22487449646</t>
   </si>
   <si>
     <t xml:space="preserve">10.4058456420898</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">10.2701177597046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4510889053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3606023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0891456604004</t>
+    <t xml:space="preserve">10.4510879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3606014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0891447067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.1343879699707</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">10.1796312332153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5868148803711</t>
+    <t xml:space="preserve">10.5868158340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773014068604</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">10.9487590789795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559446334839</t>
+    <t xml:space="preserve">11.3559436798096</t>
   </si>
   <si>
     <t xml:space="preserve">11.4464292526245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174973487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9035167694092</t>
+    <t xml:space="preserve">11.1749725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9035158157349</t>
   </si>
   <si>
     <t xml:space="preserve">10.8130302429199</t>
@@ -2147,10 +2147,10 @@
     <t xml:space="preserve">11.6274003982544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7178859710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8988580703735</t>
+    <t xml:space="preserve">11.7178869247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8988571166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.4870138168335</t>
@@ -2159,16 +2159,16 @@
     <t xml:space="preserve">12.5322570800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4801054000854</t>
+    <t xml:space="preserve">12.9904432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4801034927368</t>
   </si>
   <si>
     <t xml:space="preserve">12.294527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1553440093994</t>
+    <t xml:space="preserve">12.1553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.9233713150024</t>
@@ -2180,10 +2180,10 @@
     <t xml:space="preserve">11.8769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6914005279541</t>
+    <t xml:space="preserve">12.0625553131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954824447632</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">10.9490880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4594278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3202428817749</t>
+    <t xml:space="preserve">11.4594268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3202438354492</t>
   </si>
   <si>
     <t xml:space="preserve">11.5986108779907</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">12.3873167037964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6656818389893</t>
+    <t xml:space="preserve">12.6656827926636</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120761871338</t>
@@ -2228,43 +2228,43 @@
     <t xml:space="preserve">12.5728931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9647274017334</t>
+    <t xml:space="preserve">13.9647264480591</t>
   </si>
   <si>
     <t xml:space="preserve">14.0111217498779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4750652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822755813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5678548812866</t>
+    <t xml:space="preserve">14.4750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5678539276123</t>
   </si>
   <si>
     <t xml:space="preserve">13.4079933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5471773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2894868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3358821868896</t>
+    <t xml:space="preserve">13.5935707092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3358812332153</t>
   </si>
   <si>
     <t xml:space="preserve">13.9183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5214586257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7791500091553</t>
+    <t xml:space="preserve">14.5214595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.779149055481</t>
   </si>
   <si>
     <t xml:space="preserve">14.1966991424561</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">14.1503047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">14.428671836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2173767089844</t>
+    <t xml:space="preserve">14.4286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2173757553101</t>
   </si>
   <si>
     <t xml:space="preserve">15.3565587997437</t>
@@ -2285,34 +2285,34 @@
     <t xml:space="preserve">15.4957437515259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3101644515991</t>
+    <t xml:space="preserve">15.681321144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3101654052734</t>
   </si>
   <si>
     <t xml:space="preserve">14.9854040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0781927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470027923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4236335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.701997756958</t>
+    <t xml:space="preserve">15.0781936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4700260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4236316680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7019996643066</t>
   </si>
   <si>
     <t xml:space="preserve">17.0267601013184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5834941864014</t>
+    <t xml:space="preserve">17.5834922790527</t>
   </si>
   <si>
     <t xml:space="preserve">17.8618602752686</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">17.3979148864746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4185924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5113830566406</t>
+    <t xml:space="preserve">18.4185943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4649868011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.511381149292</t>
   </si>
   <si>
     <t xml:space="preserve">18.5577754974365</t>
@@ -2345,28 +2345,28 @@
     <t xml:space="preserve">19.3000869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0217208862305</t>
+    <t xml:space="preserve">17.3515224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0217189788818</t>
   </si>
   <si>
     <t xml:space="preserve">18.2794094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9289302825928</t>
+    <t xml:space="preserve">18.9289321899414</t>
   </si>
   <si>
     <t xml:space="preserve">18.6505661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3414440155029</t>
+    <t xml:space="preserve">19.764030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9702892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3414421081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.434232711792</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">20.877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5991325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0630760192871</t>
+    <t xml:space="preserve">20.7847080230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5991306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0630779266357</t>
   </si>
   <si>
     <t xml:space="preserve">19.9496097564697</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">20.320764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4135551452637</t>
+    <t xml:space="preserve">20.413553237915</t>
   </si>
   <si>
     <t xml:space="preserve">19.6712417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5270195007324</t>
+    <t xml:space="preserve">21.5270214080811</t>
   </si>
   <si>
     <t xml:space="preserve">21.2486515045166</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">22.2693309783936</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1765422821045</t>
+    <t xml:space="preserve">22.1765403747559</t>
   </si>
   <si>
     <t xml:space="preserve">23.1972217559814</t>
@@ -2426,31 +2426,31 @@
     <t xml:space="preserve">22.4549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9188556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404857635498</t>
+    <t xml:space="preserve">22.9188537597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8897705078125</t>
+    <t xml:space="preserve">25.8897724151611</t>
   </si>
   <si>
     <t xml:space="preserve">25.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9414291381836</t>
+    <t xml:space="preserve">24.941427230835</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5104351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.458776473999</t>
+    <t xml:space="preserve">25.5104331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4587783813477</t>
   </si>
   <si>
     <t xml:space="preserve">25.7949390411377</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">25.7001037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8465957641602</t>
+    <t xml:space="preserve">25.3207683563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8465938568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.1827545166016</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">25.2259330749512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.656925201416</t>
+    <t xml:space="preserve">24.6569271087646</t>
   </si>
   <si>
     <t xml:space="preserve">25.1310977935791</t>
@@ -2489,22 +2489,22 @@
     <t xml:space="preserve">25.9846057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.139575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6137466430664</t>
+    <t xml:space="preserve">23.2344093322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7085838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.613748550415</t>
   </si>
   <si>
     <t xml:space="preserve">24.3724231719971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9930858612061</t>
+    <t xml:space="preserve">23.9930839538574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0879192352295</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">23.8034172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0447406768799</t>
+    <t xml:space="preserve">23.0447425842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.4240798950195</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">22.9499092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3809032440186</t>
+    <t xml:space="preserve">22.3809013366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.5705699920654</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">22.1912326812744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6654052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2860660552979</t>
+    <t xml:space="preserve">22.6654033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2860679626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.7170600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8203735351562</t>
+    <t xml:space="preserve">19.8203754425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.6738834381104</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">20.3893814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4842166900635</t>
+    <t xml:space="preserve">20.4842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">21.9067306518555</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">26.6484470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9329490661621</t>
+    <t xml:space="preserve">26.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">26.8381156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5536136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2691116333008</t>
+    <t xml:space="preserve">26.5536117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2691097259521</t>
   </si>
   <si>
     <t xml:space="preserve">24.2775897979736</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">22.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.811897277832</t>
+    <t xml:space="preserve">21.8118953704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.096399307251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0015640258789</t>
+    <t xml:space="preserve">22.0015659332275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3377246856689</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">21.6222267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428913116455</t>
+    <t xml:space="preserve">21.2428894042969</t>
   </si>
   <si>
     <t xml:space="preserve">22.7602386474609</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">20.1048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9152088165283</t>
+    <t xml:space="preserve">19.915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.824613571167</t>
+    <t xml:space="preserve">19.3462047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8246154785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1133575439453</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">17.2598476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3546829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3504447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236888885498</t>
+    <t xml:space="preserve">17.3546810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3504428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.0617008209229</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">19.7255401611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2513675689697</t>
+    <t xml:space="preserve">19.2513694763184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1565361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1997127532959</t>
+    <t xml:space="preserve">20.1997108459473</t>
   </si>
   <si>
     <t xml:space="preserve">22.6179885864258</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">23.2818260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5663299560547</t>
+    <t xml:space="preserve">23.5663318634033</t>
   </si>
   <si>
     <t xml:space="preserve">24.5146751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4198417663574</t>
+    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6625804901123</t>
@@ -2736,9 +2736,6 @@
   </si>
   <si>
     <t xml:space="preserve">24.9053230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">23.8372573852539</t>
@@ -46464,7 +46461,7 @@
         <v>25.149999